--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,30 @@
     <t>name_res</t>
   </si>
   <si>
+    <t>speed_move</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>att_mode</t>
+  </si>
+  <si>
+    <t>att_range</t>
+  </si>
+  <si>
+    <t>att_cd</t>
+  </si>
+  <si>
+    <t>att_damage</t>
+  </si>
+  <si>
+    <t>name_cn</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -53,6 +77,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -65,13 +92,46 @@
     <t>内容</t>
   </si>
   <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>名字-中文</t>
+  </si>
+  <si>
+    <t>名字-英文</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>防御测试</t>
+  </si>
+  <si>
+    <t>Att Test Creature</t>
+  </si>
+  <si>
     <t>测试数据</t>
+  </si>
+  <si>
+    <t>进攻测试</t>
+  </si>
+  <si>
+    <t>Def Test Creature</t>
   </si>
 </sst>
 </file>
@@ -1039,21 +1099,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="12" width="47.5" customWidth="1"/>
+    <col min="13" max="13" width="42.875" customWidth="1"/>
+    <col min="14" max="14" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,42 +1134,111 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1115,10 +1249,69 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>200001</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100001</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1142,7 +1335,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:F88">
+  <sortState ref="A4:N88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Def Test Creature</t>
+  </si>
+  <si>
+    <t>防御核心</t>
+  </si>
+  <si>
+    <t>Def Core Creature</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1290,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1312,6 +1318,20 @@
       </c>
       <c r="L5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,9 @@
     <t>att_damage</t>
   </si>
   <si>
+    <t>model_id</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>攻击力</t>
+  </si>
+  <si>
+    <t>模组ID</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -1105,26 +1111,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="12" width="47.5" customWidth="1"/>
-    <col min="13" max="13" width="42.875" customWidth="1"/>
-    <col min="14" max="14" width="25.125" customWidth="1"/>
+    <col min="6" max="13" width="47.5" customWidth="1"/>
+    <col min="14" max="14" width="42.875" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,87 +1170,96 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1275,17 +1290,20 @@
       <c r="J4">
         <v>100</v>
       </c>
-      <c r="K4" t="s">
-        <v>30</v>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -1313,25 +1331,31 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>99</v>
       </c>
       <c r="B6">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1355,7 +1379,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:N88">
+  <sortState ref="A4:O88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>att_cd</t>
   </si>
   <si>
+    <t>att_anim_cast_time</t>
+  </si>
+  <si>
     <t>att_damage</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>攻击动画出手时间</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -1111,12 +1117,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1125,12 +1131,12 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="13" width="47.5" customWidth="1"/>
-    <col min="14" max="14" width="42.875" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="6" max="14" width="47.5" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,93 +1179,102 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1270,7 +1285,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1288,22 +1303,25 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -1329,33 +1347,36 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
+      <c r="L5">
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>99</v>
       </c>
       <c r="B6">
         <v>99</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1379,7 +1400,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:O88">
+  <sortState ref="A4:P88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,7 +1306,7 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>1</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,7 +1306,7 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>1</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,9 @@
     <t>model_id</t>
   </si>
   <si>
+    <t>card_scene</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>模组ID</t>
   </si>
   <si>
+    <t>卡片背景</t>
+  </si>
+  <si>
     <t>名字-中文</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>test</t>
   </si>
   <si>
+    <t>Card_Scene_1</t>
+  </si>
+  <si>
     <t>防御测试</t>
   </si>
   <si>
@@ -150,6 +159,12 @@
   </si>
   <si>
     <t>Def Core Creature</t>
+  </si>
+  <si>
+    <t>Card_Scene_3</t>
+  </si>
+  <si>
+    <t>Card_Scene_4</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,12 +1146,12 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="14" width="47.5" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="6" max="15" width="47.5" customWidth="1"/>
+    <col min="16" max="16" width="42.875" customWidth="1"/>
+    <col min="17" max="17" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,99 +1197,108 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1285,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1312,16 +1336,19 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1329,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -1356,13 +1383,16 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>99</v>
       </c>
@@ -1373,13 +1403,115 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:16">
+      <c r="A7">
+        <v>999998</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>200001</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>999998</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
         <v>39</v>
       </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="32" ht="15" customHeight="1"/>
+    <row r="8" customFormat="1" spans="1:16">
+      <c r="A8">
+        <v>999999</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>200001</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1390,7 +1522,7 @@
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
@@ -1399,8 +1531,9 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:P88">
+  <sortState ref="A4:S88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -161,10 +161,10 @@
     <t>Def Core Creature</t>
   </si>
   <si>
+    <t>Card_Scene_4</t>
+  </si>
+  <si>
     <t>Card_Scene_3</t>
-  </si>
-  <si>
-    <t>Card_Scene_4</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,12 +1135,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,8 +1416,8 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:16">
-      <c r="A7">
-        <v>999998</v>
+      <c r="A7" s="1">
+        <v>989996</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1446,8 +1449,8 @@
       <c r="K7">
         <v>35</v>
       </c>
-      <c r="L7">
-        <v>999998</v>
+      <c r="L7" s="1">
+        <v>989996</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
@@ -1463,8 +1466,8 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:16">
-      <c r="A8">
-        <v>999999</v>
+      <c r="A8" s="1">
+        <v>989997</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1496,11 +1499,11 @@
       <c r="K8">
         <v>35</v>
       </c>
-      <c r="L8">
-        <v>999999</v>
+      <c r="L8" s="1">
+        <v>989997</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
         <v>37</v>
@@ -1512,26 +1515,276 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
+    <row r="9" customFormat="1" spans="1:16">
+      <c r="A9" s="1">
+        <v>989998</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>200001</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>989998</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:16">
+      <c r="A10" s="1">
+        <v>989999</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>200001</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>989999</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:16">
+      <c r="A11">
+        <v>999996</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>200001</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>999996</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:16">
+      <c r="A12">
+        <v>999997</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>200001</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <v>999997</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:16">
+      <c r="A13">
+        <v>999998</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>200001</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>999998</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="39" ht="15" customHeight="1"/>
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
     <row r="43" ht="15" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -1135,12 +1135,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1239,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="M11" t="s">
         <v>45</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="M12" t="s">
         <v>45</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="M13" t="s">
         <v>45</v>
@@ -1765,8 +1765,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
+    <row r="14" customFormat="1" spans="1:16">
+      <c r="A14">
+        <v>999997</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>200001</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>999997</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:16">
+      <c r="A15">
+        <v>999998</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>200001</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>999998</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
     <row r="43" ht="15" customHeight="1"/>
@@ -1776,8 +1874,8 @@
     <row r="47" ht="15" customHeight="1"/>
     <row r="48" ht="15" customHeight="1"/>
     <row r="49" ht="15" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
     <row r="84" ht="12" customHeight="1"/>
     <row r="85" ht="12" customHeight="1"/>
@@ -1785,6 +1883,8 @@
     <row r="87" ht="12" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
     <row r="89" ht="12" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
+    <row r="91" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -1135,12 +1135,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M20" sqref="M20"/>
+      <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="M11" t="s">
         <v>45</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="M12" t="s">
         <v>45</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="M13" t="s">
         <v>45</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="M14" t="s">
         <v>45</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="L15">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="M15" t="s">
         <v>45</v>
@@ -1865,7 +1865,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1"/>
+    <row r="16" customFormat="1" spans="1:16">
+      <c r="A16">
+        <v>999998</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>200001</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>35</v>
+      </c>
+      <c r="L16">
+        <v>999998</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:16">
+      <c r="A17">
+        <v>999999</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>200001</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="42" ht="15" customHeight="1"/>
     <row r="43" ht="15" customHeight="1"/>
     <row r="44" ht="15" customHeight="1"/>
@@ -1876,7 +1975,7 @@
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>
     <row r="51" ht="15" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
     <row r="84" ht="12" customHeight="1"/>
     <row r="85" ht="12" customHeight="1"/>
     <row r="86" ht="12" customHeight="1"/>
@@ -1885,6 +1984,7 @@
     <row r="89" ht="12" customHeight="1"/>
     <row r="90" ht="12" customHeight="1"/>
     <row r="91" ht="12" customHeight="1"/>
+    <row r="92" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Card_Scene_4</t>
-  </si>
-  <si>
-    <t>Card_Scene_3</t>
   </si>
 </sst>
 </file>
@@ -1135,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1650,10 +1647,10 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
         <v>37</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1700,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
         <v>37</v>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1750,10 +1747,10 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
         <v>37</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1800,10 +1797,10 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>37</v>
@@ -1817,7 +1814,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1850,10 +1847,10 @@
         <v>35</v>
       </c>
       <c r="L15">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1900,10 +1897,10 @@
         <v>35</v>
       </c>
       <c r="L16">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1950,10 +1947,10 @@
         <v>35</v>
       </c>
       <c r="L17">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
         <v>37</v>
@@ -1965,8 +1962,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
+    <row r="18" customFormat="1" spans="1:16">
+      <c r="A18">
+        <v>999998</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>200001</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>999998</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:16">
+      <c r="A19">
+        <v>999999</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>200001</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="L19">
+        <v>999999</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="44" ht="15" customHeight="1"/>
     <row r="45" ht="15" customHeight="1"/>
     <row r="46" ht="15" customHeight="1"/>
@@ -1976,8 +2071,8 @@
     <row r="50" ht="15" customHeight="1"/>
     <row r="51" ht="15" customHeight="1"/>
     <row r="52" ht="15" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
     <row r="86" ht="12" customHeight="1"/>
     <row r="87" ht="12" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
@@ -1985,6 +2080,8 @@
     <row r="90" ht="12" customHeight="1"/>
     <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="L15">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="L16">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="L17">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="L18">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="L19">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -2062,8 +2062,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
+    <row r="20" customFormat="1" spans="1:16">
+      <c r="A20">
+        <v>999998</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>200001</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>999998</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:16">
+      <c r="A21">
+        <v>999999</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>200001</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>35</v>
+      </c>
+      <c r="L21">
+        <v>999999</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="46" ht="15" customHeight="1"/>
     <row r="47" ht="15" customHeight="1"/>
     <row r="48" ht="15" customHeight="1"/>
@@ -2073,8 +2171,8 @@
     <row r="52" ht="15" customHeight="1"/>
     <row r="53" ht="15" customHeight="1"/>
     <row r="54" ht="15" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
     <row r="89" ht="12" customHeight="1"/>
     <row r="90" ht="12" customHeight="1"/>
@@ -2082,6 +2180,8 @@
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
-        <v>999992</v>
+        <v>999989</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>999992</v>
+        <v>999989</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15">
-        <v>999993</v>
+        <v>999990</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="L15">
-        <v>999993</v>
+        <v>999990</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16">
-        <v>999994</v>
+        <v>999991</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="L16">
-        <v>999994</v>
+        <v>999991</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17">
-        <v>999995</v>
+        <v>999992</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="L17">
-        <v>999995</v>
+        <v>999992</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="L18">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="L19">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="L20">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="L21">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -2162,9 +2162,156 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="48" ht="15" customHeight="1"/>
+    <row r="22" customFormat="1" spans="1:16">
+      <c r="A22">
+        <v>999997</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>200001</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>35</v>
+      </c>
+      <c r="L22">
+        <v>999997</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:16">
+      <c r="A23">
+        <v>999998</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>200001</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>999998</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:16">
+      <c r="A24">
+        <v>999999</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>200001</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>999999</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>
     <row r="51" ht="15" customHeight="1"/>
@@ -2173,15 +2320,18 @@
     <row r="54" ht="15" customHeight="1"/>
     <row r="55" ht="15" customHeight="1"/>
     <row r="56" ht="15" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
     <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
     <row r="95" ht="12" customHeight="1"/>
     <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11">
-        <v>999986</v>
+        <v>999984</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>999986</v>
+        <v>999984</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12">
-        <v>999987</v>
+        <v>999985</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="L12">
-        <v>999987</v>
+        <v>999985</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
-        <v>999988</v>
+        <v>999986</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="L13">
-        <v>999988</v>
+        <v>999986</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
-        <v>999989</v>
+        <v>999987</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>999989</v>
+        <v>999987</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15">
-        <v>999990</v>
+        <v>999988</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="L15">
-        <v>999990</v>
+        <v>999988</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="L16">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="L17">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="L18">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="L19">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="L20">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="L21">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="L22">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="L23">
-        <v>999998</v>
+        <v>999996</v>
       </c>
       <c r="M23" t="s">
         <v>44</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>35</v>
       </c>
       <c r="L24">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -2312,8 +2312,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
+    <row r="25" customFormat="1" spans="1:16">
+      <c r="A25">
+        <v>999998</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>200001</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>35</v>
+      </c>
+      <c r="L25">
+        <v>999998</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:16">
+      <c r="A26">
+        <v>999999</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>200001</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>999999</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="51" ht="15" customHeight="1"/>
     <row r="52" ht="15" customHeight="1"/>
     <row r="53" ht="15" customHeight="1"/>
@@ -2323,8 +2421,8 @@
     <row r="57" ht="15" customHeight="1"/>
     <row r="58" ht="15" customHeight="1"/>
     <row r="59" ht="15" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
     <row r="95" ht="12" customHeight="1"/>
@@ -2332,6 +2430,8 @@
     <row r="97" ht="12" customHeight="1"/>
     <row r="98" ht="12" customHeight="1"/>
     <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M22" sqref="M22"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,8 +1613,8 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:16">
-      <c r="A11">
-        <v>999984</v>
+      <c r="A11" s="1">
+        <v>999973</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1646,8 +1646,8 @@
       <c r="K11">
         <v>35</v>
       </c>
-      <c r="L11">
-        <v>999984</v>
+      <c r="L11" s="1">
+        <v>999973</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:16">
-      <c r="A12">
-        <v>999985</v>
+      <c r="A12" s="1">
+        <v>999974</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1696,8 +1696,8 @@
       <c r="K12">
         <v>35</v>
       </c>
-      <c r="L12">
-        <v>999985</v>
+      <c r="L12" s="1">
+        <v>999974</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1713,8 +1713,8 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:16">
-      <c r="A13">
-        <v>999986</v>
+      <c r="A13" s="1">
+        <v>999975</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1746,8 +1746,8 @@
       <c r="K13">
         <v>35</v>
       </c>
-      <c r="L13">
-        <v>999986</v>
+      <c r="L13" s="1">
+        <v>999975</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1763,8 +1763,8 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
-      <c r="A14">
-        <v>999987</v>
+      <c r="A14" s="1">
+        <v>999976</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1796,8 +1796,8 @@
       <c r="K14">
         <v>35</v>
       </c>
-      <c r="L14">
-        <v>999987</v>
+      <c r="L14" s="1">
+        <v>999976</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:16">
-      <c r="A15">
-        <v>999988</v>
+      <c r="A15" s="1">
+        <v>999977</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1846,8 +1846,8 @@
       <c r="K15">
         <v>35</v>
       </c>
-      <c r="L15">
-        <v>999988</v>
+      <c r="L15" s="1">
+        <v>999977</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1863,8 +1863,8 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:16">
-      <c r="A16">
-        <v>999989</v>
+      <c r="A16" s="1">
+        <v>999978</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1896,8 +1896,8 @@
       <c r="K16">
         <v>35</v>
       </c>
-      <c r="L16">
-        <v>999989</v>
+      <c r="L16" s="1">
+        <v>999978</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:16">
-      <c r="A17">
-        <v>999990</v>
+      <c r="A17" s="1">
+        <v>999979</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1946,8 +1946,8 @@
       <c r="K17">
         <v>35</v>
       </c>
-      <c r="L17">
-        <v>999990</v>
+      <c r="L17" s="1">
+        <v>999979</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:16">
-      <c r="A18">
-        <v>999991</v>
+      <c r="A18" s="1">
+        <v>999980</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1996,8 +1996,8 @@
       <c r="K18">
         <v>35</v>
       </c>
-      <c r="L18">
-        <v>999991</v>
+      <c r="L18" s="1">
+        <v>999980</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -2013,8 +2013,8 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:16">
-      <c r="A19">
-        <v>999992</v>
+      <c r="A19" s="1">
+        <v>999981</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2046,8 +2046,8 @@
       <c r="K19">
         <v>35</v>
       </c>
-      <c r="L19">
-        <v>999992</v>
+      <c r="L19" s="1">
+        <v>999981</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20">
-        <v>999993</v>
+        <v>999982</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="L20">
-        <v>999993</v>
+        <v>999982</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21">
-        <v>999994</v>
+        <v>999983</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="L21">
-        <v>999994</v>
+        <v>999983</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22">
-        <v>999995</v>
+        <v>999984</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="L22">
-        <v>999995</v>
+        <v>999984</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23">
-        <v>999996</v>
+        <v>999985</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="L23">
-        <v>999996</v>
+        <v>999985</v>
       </c>
       <c r="M23" t="s">
         <v>44</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24">
-        <v>999997</v>
+        <v>999986</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>35</v>
       </c>
       <c r="L24">
-        <v>999997</v>
+        <v>999986</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:16">
       <c r="A25">
-        <v>999998</v>
+        <v>999987</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="L25">
-        <v>999998</v>
+        <v>999987</v>
       </c>
       <c r="M25" t="s">
         <v>44</v>
@@ -2364,74 +2364,624 @@
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26">
+        <v>999988</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>200001</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>999988</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:16">
+      <c r="A27">
+        <v>999989</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>200001</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="L27">
+        <v>999989</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:16">
+      <c r="A28">
+        <v>999990</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>200001</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>999990</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:16">
+      <c r="A29">
+        <v>999991</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>200001</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>999991</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:16">
+      <c r="A30">
+        <v>999992</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>200001</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>999992</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:16">
+      <c r="A31">
+        <v>999993</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>200001</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>999993</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:16">
+      <c r="A32">
+        <v>999994</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>200001</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>999994</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:16">
+      <c r="A33">
+        <v>999995</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>200001</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
+      </c>
+      <c r="L33">
+        <v>999995</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:16">
+      <c r="A34">
+        <v>999996</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>200001</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>999996</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:16">
+      <c r="A35">
+        <v>999997</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>200001</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>999997</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:16">
+      <c r="A36">
+        <v>999998</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>200001</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>999998</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:16">
+      <c r="A37">
         <v>999999</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <v>200001</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.5</v>
-      </c>
-      <c r="K26">
-        <v>35</v>
-      </c>
-      <c r="L26">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>200001</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37">
         <v>999999</v>
       </c>
-      <c r="M26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
-    <row r="98" ht="12" customHeight="1"/>
-    <row r="99" ht="12" customHeight="1"/>
-    <row r="100" ht="12" customHeight="1"/>
-    <row r="101" ht="12" customHeight="1"/>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,31 +1614,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>999973</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>200001</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>999964</v>
       </c>
       <c r="J11">
         <v>0.5</v>
@@ -1647,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="1">
-        <v>999973</v>
+        <v>999964</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1664,31 +1640,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>999974</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>200001</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>999965</v>
       </c>
       <c r="J12">
         <v>0.5</v>
@@ -1697,7 +1649,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>999974</v>
+        <v>999965</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1714,31 +1666,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>999975</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>200001</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>999966</v>
       </c>
       <c r="J13">
         <v>0.5</v>
@@ -1747,7 +1675,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>999975</v>
+        <v>999966</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1764,31 +1692,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>999976</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>200001</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+        <v>999967</v>
       </c>
       <c r="J14">
         <v>0.5</v>
@@ -1797,7 +1701,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>999976</v>
+        <v>999967</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1814,31 +1718,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>999977</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>200001</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+        <v>999968</v>
       </c>
       <c r="J15">
         <v>0.5</v>
@@ -1847,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>999977</v>
+        <v>999968</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1864,31 +1744,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>999978</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>200001</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+        <v>999969</v>
       </c>
       <c r="J16">
         <v>0.5</v>
@@ -1897,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="1">
-        <v>999978</v>
+        <v>999969</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1914,31 +1770,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>999979</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>200001</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
+        <v>999970</v>
       </c>
       <c r="J17">
         <v>0.5</v>
@@ -1947,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="1">
-        <v>999979</v>
+        <v>999970</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1964,31 +1796,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>999980</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>200001</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+        <v>999971</v>
       </c>
       <c r="J18">
         <v>0.5</v>
@@ -1997,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="1">
-        <v>999980</v>
+        <v>999971</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -2014,31 +1822,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>999981</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>200001</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+        <v>999972</v>
       </c>
       <c r="J19">
         <v>0.5</v>
@@ -2047,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="1">
-        <v>999981</v>
+        <v>999972</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -2063,8 +1847,8 @@
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:16">
-      <c r="A20">
-        <v>999982</v>
+      <c r="A20" s="1">
+        <v>999973</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2096,8 +1880,8 @@
       <c r="K20">
         <v>35</v>
       </c>
-      <c r="L20">
-        <v>999982</v>
+      <c r="L20" s="1">
+        <v>999973</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2113,8 +1897,8 @@
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:16">
-      <c r="A21">
-        <v>999983</v>
+      <c r="A21" s="1">
+        <v>999974</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2146,8 +1930,8 @@
       <c r="K21">
         <v>35</v>
       </c>
-      <c r="L21">
-        <v>999983</v>
+      <c r="L21" s="1">
+        <v>999974</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -2163,8 +1947,8 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:16">
-      <c r="A22">
-        <v>999984</v>
+      <c r="A22" s="1">
+        <v>999975</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2196,8 +1980,8 @@
       <c r="K22">
         <v>35</v>
       </c>
-      <c r="L22">
-        <v>999984</v>
+      <c r="L22" s="1">
+        <v>999975</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -2213,8 +1997,8 @@
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:16">
-      <c r="A23">
-        <v>999985</v>
+      <c r="A23" s="1">
+        <v>999976</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2246,8 +2030,8 @@
       <c r="K23">
         <v>35</v>
       </c>
-      <c r="L23">
-        <v>999985</v>
+      <c r="L23" s="1">
+        <v>999976</v>
       </c>
       <c r="M23" t="s">
         <v>44</v>
@@ -2263,8 +2047,8 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:16">
-      <c r="A24">
-        <v>999986</v>
+      <c r="A24" s="1">
+        <v>999977</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2296,8 +2080,8 @@
       <c r="K24">
         <v>35</v>
       </c>
-      <c r="L24">
-        <v>999986</v>
+      <c r="L24" s="1">
+        <v>999977</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -2313,8 +2097,8 @@
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:16">
-      <c r="A25">
-        <v>999987</v>
+      <c r="A25" s="1">
+        <v>999978</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2346,8 +2130,8 @@
       <c r="K25">
         <v>35</v>
       </c>
-      <c r="L25">
-        <v>999987</v>
+      <c r="L25" s="1">
+        <v>999978</v>
       </c>
       <c r="M25" t="s">
         <v>44</v>
@@ -2363,8 +2147,8 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:16">
-      <c r="A26">
-        <v>999988</v>
+      <c r="A26" s="1">
+        <v>999979</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2396,8 +2180,8 @@
       <c r="K26">
         <v>35</v>
       </c>
-      <c r="L26">
-        <v>999988</v>
+      <c r="L26" s="1">
+        <v>999979</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
@@ -2413,8 +2197,8 @@
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:16">
-      <c r="A27">
-        <v>999989</v>
+      <c r="A27" s="1">
+        <v>999980</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2446,8 +2230,8 @@
       <c r="K27">
         <v>35</v>
       </c>
-      <c r="L27">
-        <v>999989</v>
+      <c r="L27" s="1">
+        <v>999980</v>
       </c>
       <c r="M27" t="s">
         <v>44</v>
@@ -2463,8 +2247,8 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:16">
-      <c r="A28">
-        <v>999990</v>
+      <c r="A28" s="1">
+        <v>999981</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2496,8 +2280,8 @@
       <c r="K28">
         <v>35</v>
       </c>
-      <c r="L28">
-        <v>999990</v>
+      <c r="L28" s="1">
+        <v>999981</v>
       </c>
       <c r="M28" t="s">
         <v>44</v>
@@ -2514,7 +2298,7 @@
     </row>
     <row r="29" customFormat="1" spans="1:16">
       <c r="A29">
-        <v>999991</v>
+        <v>999982</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2547,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="L29">
-        <v>999991</v>
+        <v>999982</v>
       </c>
       <c r="M29" t="s">
         <v>44</v>
@@ -2564,7 +2348,7 @@
     </row>
     <row r="30" customFormat="1" spans="1:16">
       <c r="A30">
-        <v>999992</v>
+        <v>999983</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2597,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="L30">
-        <v>999992</v>
+        <v>999983</v>
       </c>
       <c r="M30" t="s">
         <v>44</v>
@@ -2614,7 +2398,7 @@
     </row>
     <row r="31" customFormat="1" spans="1:16">
       <c r="A31">
-        <v>999993</v>
+        <v>999984</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2647,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="L31">
-        <v>999993</v>
+        <v>999984</v>
       </c>
       <c r="M31" t="s">
         <v>44</v>
@@ -2664,7 +2448,7 @@
     </row>
     <row r="32" customFormat="1" spans="1:16">
       <c r="A32">
-        <v>999994</v>
+        <v>999985</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2697,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="L32">
-        <v>999994</v>
+        <v>999985</v>
       </c>
       <c r="M32" t="s">
         <v>44</v>
@@ -2714,7 +2498,7 @@
     </row>
     <row r="33" customFormat="1" spans="1:16">
       <c r="A33">
-        <v>999995</v>
+        <v>999986</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2747,7 +2531,7 @@
         <v>35</v>
       </c>
       <c r="L33">
-        <v>999995</v>
+        <v>999986</v>
       </c>
       <c r="M33" t="s">
         <v>44</v>
@@ -2764,7 +2548,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:16">
       <c r="A34">
-        <v>999996</v>
+        <v>999987</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2797,7 +2581,7 @@
         <v>35</v>
       </c>
       <c r="L34">
-        <v>999996</v>
+        <v>999987</v>
       </c>
       <c r="M34" t="s">
         <v>44</v>
@@ -2814,7 +2598,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:16">
       <c r="A35">
-        <v>999997</v>
+        <v>999988</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2847,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="L35">
-        <v>999997</v>
+        <v>999988</v>
       </c>
       <c r="M35" t="s">
         <v>44</v>
@@ -2864,7 +2648,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:16">
       <c r="A36">
-        <v>999998</v>
+        <v>999989</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2897,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>999998</v>
+        <v>999989</v>
       </c>
       <c r="M36" t="s">
         <v>44</v>
@@ -2914,7 +2698,7 @@
     </row>
     <row r="37" customFormat="1" spans="1:16">
       <c r="A37">
-        <v>999999</v>
+        <v>999990</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2947,41 +2731,491 @@
         <v>35</v>
       </c>
       <c r="L37">
+        <v>999990</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:16">
+      <c r="A38">
+        <v>999991</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>200001</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>35</v>
+      </c>
+      <c r="L38">
+        <v>999991</v>
+      </c>
+      <c r="M38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:16">
+      <c r="A39">
+        <v>999992</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>200001</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39">
+        <v>999992</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:16">
+      <c r="A40">
+        <v>999993</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>200001</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>35</v>
+      </c>
+      <c r="L40">
+        <v>999993</v>
+      </c>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:16">
+      <c r="A41">
+        <v>999994</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>200001</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>35</v>
+      </c>
+      <c r="L41">
+        <v>999994</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:16">
+      <c r="A42">
+        <v>999995</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>200001</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>35</v>
+      </c>
+      <c r="L42">
+        <v>999995</v>
+      </c>
+      <c r="M42" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:16">
+      <c r="A43">
+        <v>999996</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>200001</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>35</v>
+      </c>
+      <c r="L43">
+        <v>999996</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:16">
+      <c r="A44">
+        <v>999997</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>200001</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>35</v>
+      </c>
+      <c r="L44">
+        <v>999997</v>
+      </c>
+      <c r="M44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:16">
+      <c r="A45">
+        <v>999998</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>200001</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+      <c r="L45">
+        <v>999998</v>
+      </c>
+      <c r="M45" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:16">
+      <c r="A46">
         <v>999999</v>
       </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>200001</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>35</v>
+      </c>
+      <c r="L46">
+        <v>999999</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="71" ht="15" customHeight="1"/>
     <row r="72" ht="15" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
-    <row r="110" ht="12" customHeight="1"/>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1132,12 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J9" sqref="J9:J20"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,7 +1614,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>999964</v>
+        <v>999952</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>200001</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0.5</v>
@@ -1623,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="1">
-        <v>999964</v>
+        <v>999952</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -1640,7 +1664,31 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>999965</v>
+        <v>999953</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>200001</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0.5</v>
@@ -1649,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>999965</v>
+        <v>999953</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1666,7 +1714,31 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>999966</v>
+        <v>999954</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>200001</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0.5</v>
@@ -1675,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>999966</v>
+        <v>999954</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
@@ -1692,7 +1764,31 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>999967</v>
+        <v>999955</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>200001</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0.5</v>
@@ -1701,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>999967</v>
+        <v>999955</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
@@ -1718,7 +1814,31 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>999968</v>
+        <v>999956</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>200001</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0.5</v>
@@ -1727,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>999968</v>
+        <v>999956</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1744,7 +1864,31 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>999969</v>
+        <v>999957</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>200001</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0.5</v>
@@ -1753,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="1">
-        <v>999969</v>
+        <v>999957</v>
       </c>
       <c r="M16" t="s">
         <v>44</v>
@@ -1770,7 +1914,31 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>999970</v>
+        <v>999958</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>200001</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0.5</v>
@@ -1779,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="1">
-        <v>999970</v>
+        <v>999958</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
@@ -1796,7 +1964,31 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>999971</v>
+        <v>999959</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>200001</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0.5</v>
@@ -1805,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="1">
-        <v>999971</v>
+        <v>999959</v>
       </c>
       <c r="M18" t="s">
         <v>44</v>
@@ -1822,7 +2014,31 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>999972</v>
+        <v>999960</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>200001</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0.5</v>
@@ -1831,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="1">
-        <v>999972</v>
+        <v>999960</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
@@ -1848,7 +2064,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20" s="1">
-        <v>999973</v>
+        <v>999961</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1881,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="L20" s="1">
-        <v>999973</v>
+        <v>999961</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -1898,7 +2114,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21" s="1">
-        <v>999974</v>
+        <v>999962</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1931,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="1">
-        <v>999974</v>
+        <v>999962</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -1948,7 +2164,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22" s="1">
-        <v>999975</v>
+        <v>999963</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1981,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="1">
-        <v>999975</v>
+        <v>999963</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -1998,7 +2214,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23" s="1">
-        <v>999976</v>
+        <v>999964</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2031,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="L23" s="1">
-        <v>999976</v>
+        <v>999964</v>
       </c>
       <c r="M23" t="s">
         <v>44</v>
@@ -2048,7 +2264,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" s="1">
-        <v>999977</v>
+        <v>999965</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2081,7 +2297,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="1">
-        <v>999977</v>
+        <v>999965</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -2098,7 +2314,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:16">
       <c r="A25" s="1">
-        <v>999978</v>
+        <v>999966</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2131,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="1">
-        <v>999978</v>
+        <v>999966</v>
       </c>
       <c r="M25" t="s">
         <v>44</v>
@@ -2148,7 +2364,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26" s="1">
-        <v>999979</v>
+        <v>999967</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2181,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="1">
-        <v>999979</v>
+        <v>999967</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
@@ -2198,7 +2414,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:16">
       <c r="A27" s="1">
-        <v>999980</v>
+        <v>999968</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2231,7 +2447,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="1">
-        <v>999980</v>
+        <v>999968</v>
       </c>
       <c r="M27" t="s">
         <v>44</v>
@@ -2248,640 +2464,640 @@
     </row>
     <row r="28" customFormat="1" spans="1:16">
       <c r="A28" s="1">
+        <v>999969</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>200001</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>999969</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:16">
+      <c r="A29" s="1">
+        <v>999970</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>200001</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29" s="1">
+        <v>999970</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:16">
+      <c r="A30" s="1">
+        <v>999971</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>200001</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1">
+        <v>999971</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:16">
+      <c r="A31" s="1">
+        <v>999972</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>200001</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1">
+        <v>999972</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:16">
+      <c r="A32" s="1">
+        <v>999973</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>200001</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
+      <c r="L32" s="1">
+        <v>999973</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:16">
+      <c r="A33" s="1">
+        <v>999974</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>200001</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
+      </c>
+      <c r="L33" s="1">
+        <v>999974</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:16">
+      <c r="A34" s="1">
+        <v>999975</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>200001</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="L34" s="1">
+        <v>999975</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:16">
+      <c r="A35" s="1">
+        <v>999976</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>200001</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1">
+        <v>999976</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:16">
+      <c r="A36" s="1">
+        <v>999977</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>200001</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1">
+        <v>999977</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:16">
+      <c r="A37" s="1">
+        <v>999978</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>200001</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37" s="1">
+        <v>999978</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:16">
+      <c r="A38" s="1">
+        <v>999979</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>200001</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>35</v>
+      </c>
+      <c r="L38" s="1">
+        <v>999979</v>
+      </c>
+      <c r="M38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:16">
+      <c r="A39" s="1">
+        <v>999980</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>200001</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39" s="1">
+        <v>999980</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:16">
+      <c r="A40" s="1">
         <v>999981</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>200001</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0.5</v>
-      </c>
-      <c r="K28">
-        <v>35</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>200001</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>35</v>
+      </c>
+      <c r="L40" s="1">
         <v>999981</v>
-      </c>
-      <c r="M28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:16">
-      <c r="A29">
-        <v>999982</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>200001</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0.5</v>
-      </c>
-      <c r="K29">
-        <v>35</v>
-      </c>
-      <c r="L29">
-        <v>999982</v>
-      </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:16">
-      <c r="A30">
-        <v>999983</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>200001</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0.5</v>
-      </c>
-      <c r="K30">
-        <v>35</v>
-      </c>
-      <c r="L30">
-        <v>999983</v>
-      </c>
-      <c r="M30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:16">
-      <c r="A31">
-        <v>999984</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>200001</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0.5</v>
-      </c>
-      <c r="K31">
-        <v>35</v>
-      </c>
-      <c r="L31">
-        <v>999984</v>
-      </c>
-      <c r="M31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:16">
-      <c r="A32">
-        <v>999985</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>200001</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0.5</v>
-      </c>
-      <c r="K32">
-        <v>35</v>
-      </c>
-      <c r="L32">
-        <v>999985</v>
-      </c>
-      <c r="M32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:16">
-      <c r="A33">
-        <v>999986</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>200001</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0.5</v>
-      </c>
-      <c r="K33">
-        <v>35</v>
-      </c>
-      <c r="L33">
-        <v>999986</v>
-      </c>
-      <c r="M33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:16">
-      <c r="A34">
-        <v>999987</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>200001</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0.5</v>
-      </c>
-      <c r="K34">
-        <v>35</v>
-      </c>
-      <c r="L34">
-        <v>999987</v>
-      </c>
-      <c r="M34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:16">
-      <c r="A35">
-        <v>999988</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <v>200001</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0.5</v>
-      </c>
-      <c r="K35">
-        <v>35</v>
-      </c>
-      <c r="L35">
-        <v>999988</v>
-      </c>
-      <c r="M35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" t="s">
-        <v>38</v>
-      </c>
-      <c r="P35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:16">
-      <c r="A36">
-        <v>999989</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>200001</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0.5</v>
-      </c>
-      <c r="K36">
-        <v>35</v>
-      </c>
-      <c r="L36">
-        <v>999989</v>
-      </c>
-      <c r="M36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:16">
-      <c r="A37">
-        <v>999990</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <v>200001</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0.5</v>
-      </c>
-      <c r="K37">
-        <v>35</v>
-      </c>
-      <c r="L37">
-        <v>999990</v>
-      </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:16">
-      <c r="A38">
-        <v>999991</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <v>200001</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-      <c r="K38">
-        <v>35</v>
-      </c>
-      <c r="L38">
-        <v>999991</v>
-      </c>
-      <c r="M38" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:16">
-      <c r="A39">
-        <v>999992</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <v>200001</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0.5</v>
-      </c>
-      <c r="K39">
-        <v>35</v>
-      </c>
-      <c r="L39">
-        <v>999992</v>
-      </c>
-      <c r="M39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:16">
-      <c r="A40">
-        <v>999993</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <v>200001</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0.5</v>
-      </c>
-      <c r="K40">
-        <v>35</v>
-      </c>
-      <c r="L40">
-        <v>999993</v>
       </c>
       <c r="M40" t="s">
         <v>44</v>
@@ -2898,7 +3114,7 @@
     </row>
     <row r="41" customFormat="1" spans="1:16">
       <c r="A41">
-        <v>999994</v>
+        <v>999982</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2931,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="L41">
-        <v>999994</v>
+        <v>999982</v>
       </c>
       <c r="M41" t="s">
         <v>44</v>
@@ -2948,7 +3164,7 @@
     </row>
     <row r="42" customFormat="1" spans="1:16">
       <c r="A42">
-        <v>999995</v>
+        <v>999983</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2981,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="L42">
-        <v>999995</v>
+        <v>999983</v>
       </c>
       <c r="M42" t="s">
         <v>44</v>
@@ -2998,7 +3214,7 @@
     </row>
     <row r="43" customFormat="1" spans="1:16">
       <c r="A43">
-        <v>999996</v>
+        <v>999984</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3031,7 +3247,7 @@
         <v>35</v>
       </c>
       <c r="L43">
-        <v>999996</v>
+        <v>999984</v>
       </c>
       <c r="M43" t="s">
         <v>44</v>
@@ -3048,7 +3264,7 @@
     </row>
     <row r="44" customFormat="1" spans="1:16">
       <c r="A44">
-        <v>999997</v>
+        <v>999985</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3081,7 +3297,7 @@
         <v>35</v>
       </c>
       <c r="L44">
-        <v>999997</v>
+        <v>999985</v>
       </c>
       <c r="M44" t="s">
         <v>44</v>
@@ -3098,7 +3314,7 @@
     </row>
     <row r="45" customFormat="1" spans="1:16">
       <c r="A45">
-        <v>999998</v>
+        <v>999986</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3131,7 +3347,7 @@
         <v>35</v>
       </c>
       <c r="L45">
-        <v>999998</v>
+        <v>999986</v>
       </c>
       <c r="M45" t="s">
         <v>44</v>
@@ -3148,74 +3364,674 @@
     </row>
     <row r="46" customFormat="1" spans="1:16">
       <c r="A46">
+        <v>999987</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>200001</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>35</v>
+      </c>
+      <c r="L46">
+        <v>999987</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:16">
+      <c r="A47">
+        <v>999988</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>200001</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>35</v>
+      </c>
+      <c r="L47">
+        <v>999988</v>
+      </c>
+      <c r="M47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:16">
+      <c r="A48">
+        <v>999989</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>200001</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.5</v>
+      </c>
+      <c r="K48">
+        <v>35</v>
+      </c>
+      <c r="L48">
+        <v>999989</v>
+      </c>
+      <c r="M48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:16">
+      <c r="A49">
+        <v>999990</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>200001</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.5</v>
+      </c>
+      <c r="K49">
+        <v>35</v>
+      </c>
+      <c r="L49">
+        <v>999990</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:16">
+      <c r="A50">
+        <v>999991</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>200001</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>35</v>
+      </c>
+      <c r="L50">
+        <v>999991</v>
+      </c>
+      <c r="M50" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:16">
+      <c r="A51">
+        <v>999992</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>200001</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>35</v>
+      </c>
+      <c r="L51">
+        <v>999992</v>
+      </c>
+      <c r="M51" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:16">
+      <c r="A52">
+        <v>999993</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>200001</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.5</v>
+      </c>
+      <c r="K52">
+        <v>35</v>
+      </c>
+      <c r="L52">
+        <v>999993</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:16">
+      <c r="A53">
+        <v>999994</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>200001</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.5</v>
+      </c>
+      <c r="K53">
+        <v>35</v>
+      </c>
+      <c r="L53">
+        <v>999994</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:16">
+      <c r="A54">
+        <v>999995</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>200001</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.5</v>
+      </c>
+      <c r="K54">
+        <v>35</v>
+      </c>
+      <c r="L54">
+        <v>999995</v>
+      </c>
+      <c r="M54" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:16">
+      <c r="A55">
+        <v>999996</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>200001</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>35</v>
+      </c>
+      <c r="L55">
+        <v>999996</v>
+      </c>
+      <c r="M55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:16">
+      <c r="A56">
+        <v>999997</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>200001</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>35</v>
+      </c>
+      <c r="L56">
+        <v>999997</v>
+      </c>
+      <c r="M56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:16">
+      <c r="A57">
+        <v>999998</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <v>200001</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>35</v>
+      </c>
+      <c r="L57">
+        <v>999998</v>
+      </c>
+      <c r="M57" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:16">
+      <c r="A58">
         <v>999999</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>200001</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="K46">
-        <v>35</v>
-      </c>
-      <c r="L46">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>200001</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>35</v>
+      </c>
+      <c r="L58">
         <v>999999</v>
       </c>
-      <c r="M46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
-    <row r="118" ht="12" customHeight="1"/>
-    <row r="119" ht="12" customHeight="1"/>
-    <row r="120" ht="12" customHeight="1"/>
-    <row r="121" ht="12" customHeight="1"/>
+      <c r="M58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
+    <row r="129" ht="12" customHeight="1"/>
+    <row r="130" ht="12" customHeight="1"/>
+    <row r="131" ht="12" customHeight="1"/>
+    <row r="132" ht="12" customHeight="1"/>
+    <row r="133" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,27 @@
     <t>Card_Scene_1</t>
   </si>
   <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>防御核心</t>
+  </si>
+  <si>
+    <t>Def Core Creature</t>
+  </si>
+  <si>
+    <t>Card_Scene_4</t>
+  </si>
+  <si>
     <t>防御测试</t>
   </si>
   <si>
@@ -147,21 +168,6 @@
   </si>
   <si>
     <t>测试数据</t>
-  </si>
-  <si>
-    <t>进攻测试</t>
-  </si>
-  <si>
-    <t>Def Test Creature</t>
-  </si>
-  <si>
-    <t>防御核心</t>
-  </si>
-  <si>
-    <t>Def Core Creature</t>
-  </si>
-  <si>
-    <t>Card_Scene_4</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1141,9 @@
   <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,10 +1351,10 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1386,10 +1392,13 @@
         <v>36</v>
       </c>
       <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="O5" t="s">
-        <v>41</v>
+      <c r="P5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1406,10 +1415,10 @@
         <v>36</v>
       </c>
       <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
         <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:16">
@@ -1450,16 +1459,16 @@
         <v>989996</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:16">
@@ -1500,16 +1509,16 @@
         <v>989997</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:16">
@@ -1550,16 +1559,16 @@
         <v>989998</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:16">
@@ -1600,16 +1609,16 @@
         <v>989999</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:16">
@@ -1650,16 +1659,16 @@
         <v>999952</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:16">
@@ -1700,16 +1709,16 @@
         <v>999953</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:16">
@@ -1750,16 +1759,16 @@
         <v>999954</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
@@ -1800,16 +1809,16 @@
         <v>999955</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:16">
@@ -1850,16 +1859,16 @@
         <v>999956</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:16">
@@ -1900,16 +1909,16 @@
         <v>999957</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:16">
@@ -1950,16 +1959,16 @@
         <v>999958</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:16">
@@ -2000,16 +2009,16 @@
         <v>999959</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:16">
@@ -2050,16 +2059,16 @@
         <v>999960</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:16">
@@ -2100,16 +2109,16 @@
         <v>999961</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:16">
@@ -2150,16 +2159,16 @@
         <v>999962</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:16">
@@ -2200,16 +2209,16 @@
         <v>999963</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:16">
@@ -2250,16 +2259,16 @@
         <v>999964</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:16">
@@ -2300,16 +2309,16 @@
         <v>999965</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:16">
@@ -2350,16 +2359,16 @@
         <v>999966</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:16">
@@ -2400,16 +2409,16 @@
         <v>999967</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:16">
@@ -2450,16 +2459,16 @@
         <v>999968</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:16">
@@ -2500,16 +2509,16 @@
         <v>999969</v>
       </c>
       <c r="M28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:16">
@@ -2550,16 +2559,16 @@
         <v>999970</v>
       </c>
       <c r="M29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:16">
@@ -2600,16 +2609,16 @@
         <v>999971</v>
       </c>
       <c r="M30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:16">
@@ -2650,16 +2659,16 @@
         <v>999972</v>
       </c>
       <c r="M31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:16">
@@ -2700,16 +2709,16 @@
         <v>999973</v>
       </c>
       <c r="M32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:16">
@@ -2750,16 +2759,16 @@
         <v>999974</v>
       </c>
       <c r="M33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:16">
@@ -2800,16 +2809,16 @@
         <v>999975</v>
       </c>
       <c r="M34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:16">
@@ -2850,16 +2859,16 @@
         <v>999976</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:16">
@@ -2900,16 +2909,16 @@
         <v>999977</v>
       </c>
       <c r="M36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:16">
@@ -2950,16 +2959,16 @@
         <v>999978</v>
       </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:16">
@@ -3000,16 +3009,16 @@
         <v>999979</v>
       </c>
       <c r="M38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:16">
@@ -3050,16 +3059,16 @@
         <v>999980</v>
       </c>
       <c r="M39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:16">
@@ -3100,16 +3109,16 @@
         <v>999981</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:16">
@@ -3150,16 +3159,16 @@
         <v>999982</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N41" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:16">
@@ -3200,16 +3209,16 @@
         <v>999983</v>
       </c>
       <c r="M42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N42" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:16">
@@ -3250,16 +3259,16 @@
         <v>999984</v>
       </c>
       <c r="M43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:16">
@@ -3300,16 +3309,16 @@
         <v>999985</v>
       </c>
       <c r="M44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:16">
@@ -3350,16 +3359,16 @@
         <v>999986</v>
       </c>
       <c r="M45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:16">
@@ -3400,16 +3409,16 @@
         <v>999987</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N46" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:16">
@@ -3450,16 +3459,16 @@
         <v>999988</v>
       </c>
       <c r="M47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:16">
@@ -3500,16 +3509,16 @@
         <v>999989</v>
       </c>
       <c r="M48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:16">
@@ -3550,16 +3559,16 @@
         <v>999990</v>
       </c>
       <c r="M49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:16">
@@ -3600,16 +3609,16 @@
         <v>999991</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:16">
@@ -3650,16 +3659,16 @@
         <v>999992</v>
       </c>
       <c r="M51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O51" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P51" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:16">
@@ -3700,16 +3709,16 @@
         <v>999993</v>
       </c>
       <c r="M52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O52" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:16">
@@ -3750,16 +3759,16 @@
         <v>999994</v>
       </c>
       <c r="M53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:16">
@@ -3800,16 +3809,16 @@
         <v>999995</v>
       </c>
       <c r="M54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O54" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P54" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:16">
@@ -3850,16 +3859,16 @@
         <v>999996</v>
       </c>
       <c r="M55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:16">
@@ -3900,16 +3909,16 @@
         <v>999997</v>
       </c>
       <c r="M56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O56" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:16">
@@ -3950,16 +3959,16 @@
         <v>999998</v>
       </c>
       <c r="M57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:16">
@@ -4000,16 +4009,16 @@
         <v>999999</v>
       </c>
       <c r="M58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O58" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P58" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -1138,12 +1138,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>999952</v>
+        <v>999947</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="1">
-        <v>999952</v>
+        <v>999947</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>999953</v>
+        <v>999948</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>999953</v>
+        <v>999948</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>999954</v>
+        <v>999949</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>999954</v>
+        <v>999949</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>999955</v>
+        <v>999950</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>999955</v>
+        <v>999950</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>999956</v>
+        <v>999951</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>999956</v>
+        <v>999951</v>
       </c>
       <c r="M15" t="s">
         <v>43</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>999957</v>
+        <v>999952</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="1">
-        <v>999957</v>
+        <v>999952</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>999958</v>
+        <v>999953</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="1">
-        <v>999958</v>
+        <v>999953</v>
       </c>
       <c r="M17" t="s">
         <v>43</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>999959</v>
+        <v>999954</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="1">
-        <v>999959</v>
+        <v>999954</v>
       </c>
       <c r="M18" t="s">
         <v>43</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>999960</v>
+        <v>999955</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="1">
-        <v>999960</v>
+        <v>999955</v>
       </c>
       <c r="M19" t="s">
         <v>43</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20" s="1">
-        <v>999961</v>
+        <v>999956</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="L20" s="1">
-        <v>999961</v>
+        <v>999956</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21" s="1">
-        <v>999962</v>
+        <v>999957</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="1">
-        <v>999962</v>
+        <v>999957</v>
       </c>
       <c r="M21" t="s">
         <v>43</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22" s="1">
-        <v>999963</v>
+        <v>999958</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="1">
-        <v>999963</v>
+        <v>999958</v>
       </c>
       <c r="M22" t="s">
         <v>43</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23" s="1">
-        <v>999964</v>
+        <v>999959</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="L23" s="1">
-        <v>999964</v>
+        <v>999959</v>
       </c>
       <c r="M23" t="s">
         <v>43</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" s="1">
-        <v>999965</v>
+        <v>999960</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="1">
-        <v>999965</v>
+        <v>999960</v>
       </c>
       <c r="M24" t="s">
         <v>43</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:16">
       <c r="A25" s="1">
-        <v>999966</v>
+        <v>999961</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="1">
-        <v>999966</v>
+        <v>999961</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26" s="1">
-        <v>999967</v>
+        <v>999962</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="1">
-        <v>999967</v>
+        <v>999962</v>
       </c>
       <c r="M26" t="s">
         <v>43</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:16">
       <c r="A27" s="1">
-        <v>999968</v>
+        <v>999963</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="1">
-        <v>999968</v>
+        <v>999963</v>
       </c>
       <c r="M27" t="s">
         <v>43</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="28" customFormat="1" spans="1:16">
       <c r="A28" s="1">
-        <v>999969</v>
+        <v>999964</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>35</v>
       </c>
       <c r="L28" s="1">
-        <v>999969</v>
+        <v>999964</v>
       </c>
       <c r="M28" t="s">
         <v>43</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="29" customFormat="1" spans="1:16">
       <c r="A29" s="1">
-        <v>999970</v>
+        <v>999965</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="1">
-        <v>999970</v>
+        <v>999965</v>
       </c>
       <c r="M29" t="s">
         <v>43</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="30" customFormat="1" spans="1:16">
       <c r="A30" s="1">
-        <v>999971</v>
+        <v>999966</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>35</v>
       </c>
       <c r="L30" s="1">
-        <v>999971</v>
+        <v>999966</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="31" customFormat="1" spans="1:16">
       <c r="A31" s="1">
-        <v>999972</v>
+        <v>999967</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="1">
-        <v>999972</v>
+        <v>999967</v>
       </c>
       <c r="M31" t="s">
         <v>43</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="32" customFormat="1" spans="1:16">
       <c r="A32" s="1">
-        <v>999973</v>
+        <v>999968</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="1">
-        <v>999973</v>
+        <v>999968</v>
       </c>
       <c r="M32" t="s">
         <v>43</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="33" customFormat="1" spans="1:16">
       <c r="A33" s="1">
-        <v>999974</v>
+        <v>999969</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="L33" s="1">
-        <v>999974</v>
+        <v>999969</v>
       </c>
       <c r="M33" t="s">
         <v>43</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:16">
       <c r="A34" s="1">
-        <v>999975</v>
+        <v>999970</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="L34" s="1">
-        <v>999975</v>
+        <v>999970</v>
       </c>
       <c r="M34" t="s">
         <v>43</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:16">
       <c r="A35" s="1">
-        <v>999976</v>
+        <v>999971</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>35</v>
       </c>
       <c r="L35" s="1">
-        <v>999976</v>
+        <v>999971</v>
       </c>
       <c r="M35" t="s">
         <v>43</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:16">
       <c r="A36" s="1">
-        <v>999977</v>
+        <v>999972</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="1">
-        <v>999977</v>
+        <v>999972</v>
       </c>
       <c r="M36" t="s">
         <v>43</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="37" customFormat="1" spans="1:16">
       <c r="A37" s="1">
-        <v>999978</v>
+        <v>999973</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="L37" s="1">
-        <v>999978</v>
+        <v>999973</v>
       </c>
       <c r="M37" t="s">
         <v>43</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="38" customFormat="1" spans="1:16">
       <c r="A38" s="1">
-        <v>999979</v>
+        <v>999974</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3006,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="L38" s="1">
-        <v>999979</v>
+        <v>999974</v>
       </c>
       <c r="M38" t="s">
         <v>43</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="39" customFormat="1" spans="1:16">
       <c r="A39" s="1">
-        <v>999980</v>
+        <v>999975</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3056,7 +3056,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="1">
-        <v>999980</v>
+        <v>999975</v>
       </c>
       <c r="M39" t="s">
         <v>43</v>
@@ -3073,290 +3073,290 @@
     </row>
     <row r="40" customFormat="1" spans="1:16">
       <c r="A40" s="1">
+        <v>999976</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>200001</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>35</v>
+      </c>
+      <c r="L40" s="1">
+        <v>999976</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:16">
+      <c r="A41" s="1">
+        <v>999977</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>200001</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>35</v>
+      </c>
+      <c r="L41" s="1">
+        <v>999977</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:16">
+      <c r="A42" s="1">
+        <v>999978</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>200001</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>35</v>
+      </c>
+      <c r="L42" s="1">
+        <v>999978</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:16">
+      <c r="A43" s="1">
+        <v>999979</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>200001</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>35</v>
+      </c>
+      <c r="L43" s="1">
+        <v>999979</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:16">
+      <c r="A44" s="1">
+        <v>999980</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>200001</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>35</v>
+      </c>
+      <c r="L44" s="1">
+        <v>999980</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:16">
+      <c r="A45" s="1">
         <v>999981</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <v>200001</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0.5</v>
-      </c>
-      <c r="K40">
-        <v>35</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>200001</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+      <c r="L45" s="1">
         <v>999981</v>
-      </c>
-      <c r="M40" t="s">
-        <v>43</v>
-      </c>
-      <c r="N40" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:16">
-      <c r="A41">
-        <v>999982</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41">
-        <v>200001</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0.5</v>
-      </c>
-      <c r="K41">
-        <v>35</v>
-      </c>
-      <c r="L41">
-        <v>999982</v>
-      </c>
-      <c r="M41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N41" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:16">
-      <c r="A42">
-        <v>999983</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <v>200001</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0.5</v>
-      </c>
-      <c r="K42">
-        <v>35</v>
-      </c>
-      <c r="L42">
-        <v>999983</v>
-      </c>
-      <c r="M42" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:16">
-      <c r="A43">
-        <v>999984</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>200001</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0.5</v>
-      </c>
-      <c r="K43">
-        <v>35</v>
-      </c>
-      <c r="L43">
-        <v>999984</v>
-      </c>
-      <c r="M43" t="s">
-        <v>43</v>
-      </c>
-      <c r="N43" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:16">
-      <c r="A44">
-        <v>999985</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44">
-        <v>200001</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0.5</v>
-      </c>
-      <c r="K44">
-        <v>35</v>
-      </c>
-      <c r="L44">
-        <v>999985</v>
-      </c>
-      <c r="M44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:16">
-      <c r="A45">
-        <v>999986</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>200001</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0.5</v>
-      </c>
-      <c r="K45">
-        <v>35</v>
-      </c>
-      <c r="L45">
-        <v>999986</v>
       </c>
       <c r="M45" t="s">
         <v>43</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="46" customFormat="1" spans="1:16">
       <c r="A46">
-        <v>999987</v>
+        <v>999982</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3406,7 +3406,7 @@
         <v>35</v>
       </c>
       <c r="L46">
-        <v>999987</v>
+        <v>999982</v>
       </c>
       <c r="M46" t="s">
         <v>43</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="47" customFormat="1" spans="1:16">
       <c r="A47">
-        <v>999988</v>
+        <v>999983</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>35</v>
       </c>
       <c r="L47">
-        <v>999988</v>
+        <v>999983</v>
       </c>
       <c r="M47" t="s">
         <v>43</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="48" customFormat="1" spans="1:16">
       <c r="A48">
-        <v>999989</v>
+        <v>999984</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>35</v>
       </c>
       <c r="L48">
-        <v>999989</v>
+        <v>999984</v>
       </c>
       <c r="M48" t="s">
         <v>43</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="49" customFormat="1" spans="1:16">
       <c r="A49">
-        <v>999990</v>
+        <v>999985</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>35</v>
       </c>
       <c r="L49">
-        <v>999990</v>
+        <v>999985</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="50" customFormat="1" spans="1:16">
       <c r="A50">
-        <v>999991</v>
+        <v>999986</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>35</v>
       </c>
       <c r="L50">
-        <v>999991</v>
+        <v>999986</v>
       </c>
       <c r="M50" t="s">
         <v>43</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="51" customFormat="1" spans="1:16">
       <c r="A51">
-        <v>999992</v>
+        <v>999987</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3656,7 +3656,7 @@
         <v>35</v>
       </c>
       <c r="L51">
-        <v>999992</v>
+        <v>999987</v>
       </c>
       <c r="M51" t="s">
         <v>43</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="52" customFormat="1" spans="1:16">
       <c r="A52">
-        <v>999993</v>
+        <v>999988</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3706,7 +3706,7 @@
         <v>35</v>
       </c>
       <c r="L52">
-        <v>999993</v>
+        <v>999988</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="53" customFormat="1" spans="1:16">
       <c r="A53">
-        <v>999994</v>
+        <v>999989</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>35</v>
       </c>
       <c r="L53">
-        <v>999994</v>
+        <v>999989</v>
       </c>
       <c r="M53" t="s">
         <v>43</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="54" customFormat="1" spans="1:16">
       <c r="A54">
-        <v>999995</v>
+        <v>999990</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>35</v>
       </c>
       <c r="L54">
-        <v>999995</v>
+        <v>999990</v>
       </c>
       <c r="M54" t="s">
         <v>43</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="55" customFormat="1" spans="1:16">
       <c r="A55">
-        <v>999996</v>
+        <v>999991</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="L55">
-        <v>999996</v>
+        <v>999991</v>
       </c>
       <c r="M55" t="s">
         <v>43</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="56" customFormat="1" spans="1:16">
       <c r="A56">
-        <v>999997</v>
+        <v>999992</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>35</v>
       </c>
       <c r="L56">
-        <v>999997</v>
+        <v>999992</v>
       </c>
       <c r="M56" t="s">
         <v>43</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:16">
       <c r="A57">
-        <v>999998</v>
+        <v>999993</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>35</v>
       </c>
       <c r="L57">
-        <v>999998</v>
+        <v>999993</v>
       </c>
       <c r="M57" t="s">
         <v>43</v>
@@ -3973,74 +3973,324 @@
     </row>
     <row r="58" customFormat="1" spans="1:16">
       <c r="A58">
+        <v>999994</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>200001</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>35</v>
+      </c>
+      <c r="L58">
+        <v>999994</v>
+      </c>
+      <c r="M58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:16">
+      <c r="A59">
+        <v>999995</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>200001</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>35</v>
+      </c>
+      <c r="L59">
+        <v>999995</v>
+      </c>
+      <c r="M59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:16">
+      <c r="A60">
+        <v>999996</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>200001</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>35</v>
+      </c>
+      <c r="L60">
+        <v>999996</v>
+      </c>
+      <c r="M60" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:16">
+      <c r="A61">
+        <v>999997</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>200001</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.5</v>
+      </c>
+      <c r="K61">
+        <v>35</v>
+      </c>
+      <c r="L61">
+        <v>999997</v>
+      </c>
+      <c r="M61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" t="s">
+        <v>44</v>
+      </c>
+      <c r="O61" t="s">
+        <v>45</v>
+      </c>
+      <c r="P61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:16">
+      <c r="A62">
+        <v>999998</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>200001</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>35</v>
+      </c>
+      <c r="L62">
+        <v>999998</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:16">
+      <c r="A63">
         <v>999999</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>100</v>
-      </c>
-      <c r="G58">
-        <v>200001</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0.5</v>
-      </c>
-      <c r="K58">
-        <v>35</v>
-      </c>
-      <c r="L58">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>200001</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>35</v>
+      </c>
+      <c r="L63">
         <v>999999</v>
       </c>
-      <c r="M58" t="s">
-        <v>43</v>
-      </c>
-      <c r="N58" t="s">
-        <v>44</v>
-      </c>
-      <c r="O58" t="s">
-        <v>45</v>
-      </c>
-      <c r="P58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
+      <c r="M63" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>45</v>
+      </c>
+      <c r="P63" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="88" ht="15" customHeight="1"/>
     <row r="89" ht="15" customHeight="1"/>
     <row r="90" ht="15" customHeight="1"/>
     <row r="91" ht="15" customHeight="1"/>
     <row r="92" ht="15" customHeight="1"/>
     <row r="93" ht="15" customHeight="1"/>
-    <row r="125" ht="12" customHeight="1"/>
-    <row r="126" ht="12" customHeight="1"/>
-    <row r="127" ht="12" customHeight="1"/>
-    <row r="128" ht="12" customHeight="1"/>
-    <row r="129" ht="12" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
     <row r="130" ht="12" customHeight="1"/>
     <row r="131" ht="12" customHeight="1"/>
     <row r="132" ht="12" customHeight="1"/>
     <row r="133" ht="12" customHeight="1"/>
+    <row r="134" ht="12" customHeight="1"/>
+    <row r="135" ht="12" customHeight="1"/>
+    <row r="136" ht="12" customHeight="1"/>
+    <row r="137" ht="12" customHeight="1"/>
+    <row r="138" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>Slime</t>
   </si>
   <si>
     <t>防御核心</t>
@@ -1138,12 +1144,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P138"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1401,15 +1407,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>200001</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -1420,60 +1453,33 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:16">
-      <c r="A7" s="1">
-        <v>989996</v>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>200001</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-      <c r="K7">
-        <v>35</v>
-      </c>
-      <c r="L7" s="1">
-        <v>989996</v>
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:16">
       <c r="A8" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1506,24 +1512,24 @@
         <v>35</v>
       </c>
       <c r="L8" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:16">
       <c r="A9" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1556,24 +1562,24 @@
         <v>35</v>
       </c>
       <c r="L9" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:16">
       <c r="A10" s="1">
-        <v>989999</v>
+        <v>989998</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1605,25 +1611,25 @@
       <c r="K10">
         <v>35</v>
       </c>
-      <c r="L10">
-        <v>989999</v>
+      <c r="L10" s="1">
+        <v>989998</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>999947</v>
+        <v>989999</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1655,25 +1661,25 @@
       <c r="K11">
         <v>35</v>
       </c>
-      <c r="L11" s="1">
-        <v>999947</v>
+      <c r="L11">
+        <v>989999</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1706,24 +1712,24 @@
         <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1756,24 +1762,24 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1806,24 +1812,24 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1856,24 +1862,24 @@
         <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1906,24 +1912,24 @@
         <v>35</v>
       </c>
       <c r="L16" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1956,24 +1962,24 @@
         <v>35</v>
       </c>
       <c r="L17" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2006,24 +2012,24 @@
         <v>35</v>
       </c>
       <c r="L18" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2056,24 +2062,24 @@
         <v>35</v>
       </c>
       <c r="L19" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2106,24 +2112,24 @@
         <v>35</v>
       </c>
       <c r="L20" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2156,24 +2162,24 @@
         <v>35</v>
       </c>
       <c r="L21" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2206,24 +2212,24 @@
         <v>35</v>
       </c>
       <c r="L22" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2256,24 +2262,24 @@
         <v>35</v>
       </c>
       <c r="L23" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2306,24 +2312,24 @@
         <v>35</v>
       </c>
       <c r="L24" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:16">
       <c r="A25" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2356,24 +2362,24 @@
         <v>35</v>
       </c>
       <c r="L25" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2406,24 +2412,24 @@
         <v>35</v>
       </c>
       <c r="L26" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:16">
       <c r="A27" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2456,24 +2462,24 @@
         <v>35</v>
       </c>
       <c r="L27" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:16">
       <c r="A28" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2506,24 +2512,24 @@
         <v>35</v>
       </c>
       <c r="L28" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:16">
       <c r="A29" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2556,24 +2562,24 @@
         <v>35</v>
       </c>
       <c r="L29" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:16">
       <c r="A30" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2606,24 +2612,24 @@
         <v>35</v>
       </c>
       <c r="L30" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:16">
       <c r="A31" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2656,24 +2662,24 @@
         <v>35</v>
       </c>
       <c r="L31" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:16">
       <c r="A32" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2706,24 +2712,24 @@
         <v>35</v>
       </c>
       <c r="L32" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:16">
       <c r="A33" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2756,24 +2762,24 @@
         <v>35</v>
       </c>
       <c r="L33" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:16">
       <c r="A34" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2806,24 +2812,24 @@
         <v>35</v>
       </c>
       <c r="L34" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="M34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:16">
       <c r="A35" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2856,24 +2862,24 @@
         <v>35</v>
       </c>
       <c r="L35" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:16">
       <c r="A36" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2906,24 +2912,24 @@
         <v>35</v>
       </c>
       <c r="L36" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:16">
       <c r="A37" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2956,24 +2962,24 @@
         <v>35</v>
       </c>
       <c r="L37" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:16">
       <c r="A38" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3006,24 +3012,24 @@
         <v>35</v>
       </c>
       <c r="L38" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="M38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:16">
       <c r="A39" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3056,24 +3062,24 @@
         <v>35</v>
       </c>
       <c r="L39" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:16">
       <c r="A40" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3106,24 +3112,24 @@
         <v>35</v>
       </c>
       <c r="L40" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="M40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:16">
       <c r="A41" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3156,24 +3162,24 @@
         <v>35</v>
       </c>
       <c r="L41" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="M41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:16">
       <c r="A42" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3206,24 +3212,24 @@
         <v>35</v>
       </c>
       <c r="L42" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:16">
       <c r="A43" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3256,24 +3262,24 @@
         <v>35</v>
       </c>
       <c r="L43" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:16">
       <c r="A44" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3306,124 +3312,124 @@
         <v>35</v>
       </c>
       <c r="L44" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:16">
       <c r="A45" s="1">
+        <v>999980</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>200001</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+      <c r="L45" s="1">
+        <v>999980</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:16">
+      <c r="A46" s="1">
         <v>999981</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>200001</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0.5</v>
-      </c>
-      <c r="K45">
-        <v>35</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>200001</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>35</v>
+      </c>
+      <c r="L46" s="1">
         <v>999981</v>
       </c>
-      <c r="M45" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" t="s">
-        <v>45</v>
-      </c>
-      <c r="P45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:16">
-      <c r="A46">
-        <v>999982</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>200001</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="K46">
-        <v>35</v>
-      </c>
-      <c r="L46">
-        <v>999982</v>
-      </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:16">
       <c r="A47">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3456,24 +3462,24 @@
         <v>35</v>
       </c>
       <c r="L47">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:16">
       <c r="A48">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3506,24 +3512,24 @@
         <v>35</v>
       </c>
       <c r="L48">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:16">
       <c r="A49">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3556,24 +3562,24 @@
         <v>35</v>
       </c>
       <c r="L49">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="M49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:16">
       <c r="A50">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3606,24 +3612,24 @@
         <v>35</v>
       </c>
       <c r="L50">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:16">
       <c r="A51">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3656,24 +3662,24 @@
         <v>35</v>
       </c>
       <c r="L51">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:16">
       <c r="A52">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3706,24 +3712,24 @@
         <v>35</v>
       </c>
       <c r="L52">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:16">
       <c r="A53">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3756,24 +3762,24 @@
         <v>35</v>
       </c>
       <c r="L53">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:16">
       <c r="A54">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3806,24 +3812,24 @@
         <v>35</v>
       </c>
       <c r="L54">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:16">
       <c r="A55">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3856,24 +3862,24 @@
         <v>35</v>
       </c>
       <c r="L55">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:16">
       <c r="A56">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3906,24 +3912,24 @@
         <v>35</v>
       </c>
       <c r="L56">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:16">
       <c r="A57">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3956,24 +3962,24 @@
         <v>35</v>
       </c>
       <c r="L57">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:16">
       <c r="A58">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4006,24 +4012,24 @@
         <v>35</v>
       </c>
       <c r="L58">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="M58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:16">
       <c r="A59">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4056,24 +4062,24 @@
         <v>35</v>
       </c>
       <c r="L59">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:16">
       <c r="A60">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4106,24 +4112,24 @@
         <v>35</v>
       </c>
       <c r="L60">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="M60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:16">
       <c r="A61">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4156,24 +4162,24 @@
         <v>35</v>
       </c>
       <c r="L61">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:16">
       <c r="A62">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4206,72 +4212,121 @@
         <v>35</v>
       </c>
       <c r="L62">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="M62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:16">
       <c r="A63">
+        <v>999998</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>200001</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>35</v>
+      </c>
+      <c r="L63">
+        <v>999998</v>
+      </c>
+      <c r="M63" t="s">
+        <v>45</v>
+      </c>
+      <c r="N63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63" t="s">
+        <v>47</v>
+      </c>
+      <c r="P63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:16">
+      <c r="A64">
         <v>999999</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>100</v>
-      </c>
-      <c r="G63">
-        <v>200001</v>
-      </c>
-      <c r="H63">
-        <v>6</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0.5</v>
-      </c>
-      <c r="K63">
-        <v>35</v>
-      </c>
-      <c r="L63">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>200001</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>35</v>
+      </c>
+      <c r="L64">
         <v>999999</v>
       </c>
-      <c r="M63" t="s">
-        <v>43</v>
-      </c>
-      <c r="N63" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" t="s">
-        <v>45</v>
-      </c>
-      <c r="P63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1"/>
+      <c r="M64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N64" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" t="s">
+        <v>47</v>
+      </c>
+      <c r="P64" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="89" ht="15" customHeight="1"/>
     <row r="90" ht="15" customHeight="1"/>
     <row r="91" ht="15" customHeight="1"/>
@@ -4282,7 +4337,7 @@
     <row r="96" ht="15" customHeight="1"/>
     <row r="97" ht="15" customHeight="1"/>
     <row r="98" ht="15" customHeight="1"/>
-    <row r="130" ht="12" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
     <row r="131" ht="12" customHeight="1"/>
     <row r="132" ht="12" customHeight="1"/>
     <row r="133" ht="12" customHeight="1"/>
@@ -4291,6 +4346,7 @@
     <row r="136" ht="12" customHeight="1"/>
     <row r="137" ht="12" customHeight="1"/>
     <row r="138" ht="12" customHeight="1"/>
+    <row r="139" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Slime</t>
+  </si>
+  <si>
+    <t>魅魔</t>
+  </si>
+  <si>
+    <t>Succubus</t>
   </si>
   <si>
     <t>防御核心</t>
@@ -1144,12 +1150,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P139"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1457,15 +1463,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" customFormat="1" spans="1:16">
       <c r="A7">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>200001</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
@@ -1476,60 +1509,33 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:16">
-      <c r="A8" s="1">
-        <v>989996</v>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>200001</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
-      </c>
-      <c r="K8">
-        <v>35</v>
-      </c>
-      <c r="L8" s="1">
-        <v>989996</v>
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:16">
       <c r="A9" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1562,24 +1568,24 @@
         <v>35</v>
       </c>
       <c r="L9" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:16">
       <c r="A10" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1612,24 +1618,24 @@
         <v>35</v>
       </c>
       <c r="L10" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>989999</v>
+        <v>989998</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1661,25 +1667,25 @@
       <c r="K11">
         <v>35</v>
       </c>
-      <c r="L11">
-        <v>989999</v>
+      <c r="L11" s="1">
+        <v>989998</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>999947</v>
+        <v>989999</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1711,25 +1717,25 @@
       <c r="K12">
         <v>35</v>
       </c>
-      <c r="L12" s="1">
-        <v>999947</v>
+      <c r="L12">
+        <v>989999</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1762,24 +1768,24 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1812,24 +1818,24 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1862,24 +1868,24 @@
         <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1912,24 +1918,24 @@
         <v>35</v>
       </c>
       <c r="L16" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1962,24 +1968,24 @@
         <v>35</v>
       </c>
       <c r="L17" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2012,24 +2018,24 @@
         <v>35</v>
       </c>
       <c r="L18" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2062,24 +2068,24 @@
         <v>35</v>
       </c>
       <c r="L19" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:16">
       <c r="A20" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2112,24 +2118,24 @@
         <v>35</v>
       </c>
       <c r="L20" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2162,24 +2168,24 @@
         <v>35</v>
       </c>
       <c r="L21" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="M21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2212,24 +2218,24 @@
         <v>35</v>
       </c>
       <c r="L22" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:16">
       <c r="A23" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2262,24 +2268,24 @@
         <v>35</v>
       </c>
       <c r="L23" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2312,24 +2318,24 @@
         <v>35</v>
       </c>
       <c r="L24" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:16">
       <c r="A25" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2362,24 +2368,24 @@
         <v>35</v>
       </c>
       <c r="L25" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="M25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2412,24 +2418,24 @@
         <v>35</v>
       </c>
       <c r="L26" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:16">
       <c r="A27" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2462,24 +2468,24 @@
         <v>35</v>
       </c>
       <c r="L27" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:16">
       <c r="A28" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2512,24 +2518,24 @@
         <v>35</v>
       </c>
       <c r="L28" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:16">
       <c r="A29" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2562,24 +2568,24 @@
         <v>35</v>
       </c>
       <c r="L29" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:16">
       <c r="A30" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2612,24 +2618,24 @@
         <v>35</v>
       </c>
       <c r="L30" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:16">
       <c r="A31" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2662,24 +2668,24 @@
         <v>35</v>
       </c>
       <c r="L31" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:16">
       <c r="A32" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2712,24 +2718,24 @@
         <v>35</v>
       </c>
       <c r="L32" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:16">
       <c r="A33" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2762,24 +2768,24 @@
         <v>35</v>
       </c>
       <c r="L33" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:16">
       <c r="A34" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2812,24 +2818,24 @@
         <v>35</v>
       </c>
       <c r="L34" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:16">
       <c r="A35" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2862,24 +2868,24 @@
         <v>35</v>
       </c>
       <c r="L35" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:16">
       <c r="A36" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2912,24 +2918,24 @@
         <v>35</v>
       </c>
       <c r="L36" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:16">
       <c r="A37" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2962,24 +2968,24 @@
         <v>35</v>
       </c>
       <c r="L37" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:16">
       <c r="A38" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3012,24 +3018,24 @@
         <v>35</v>
       </c>
       <c r="L38" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:16">
       <c r="A39" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3062,24 +3068,24 @@
         <v>35</v>
       </c>
       <c r="L39" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:16">
       <c r="A40" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3112,24 +3118,24 @@
         <v>35</v>
       </c>
       <c r="L40" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="M40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:16">
       <c r="A41" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3162,24 +3168,24 @@
         <v>35</v>
       </c>
       <c r="L41" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="M41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:16">
       <c r="A42" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3212,24 +3218,24 @@
         <v>35</v>
       </c>
       <c r="L42" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:16">
       <c r="A43" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3262,24 +3268,24 @@
         <v>35</v>
       </c>
       <c r="L43" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:16">
       <c r="A44" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3312,24 +3318,24 @@
         <v>35</v>
       </c>
       <c r="L44" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:16">
       <c r="A45" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3362,124 +3368,124 @@
         <v>35</v>
       </c>
       <c r="L45" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:16">
       <c r="A46" s="1">
+        <v>999980</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>200001</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>35</v>
+      </c>
+      <c r="L46" s="1">
+        <v>999980</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:16">
+      <c r="A47" s="1">
         <v>999981</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>200001</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="K46">
-        <v>35</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>200001</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>35</v>
+      </c>
+      <c r="L47" s="1">
         <v>999981</v>
       </c>
-      <c r="M46" t="s">
-        <v>45</v>
-      </c>
-      <c r="N46" t="s">
-        <v>46</v>
-      </c>
-      <c r="O46" t="s">
-        <v>47</v>
-      </c>
-      <c r="P46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:16">
-      <c r="A47">
-        <v>999982</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <v>200001</v>
-      </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0.5</v>
-      </c>
-      <c r="K47">
-        <v>35</v>
-      </c>
-      <c r="L47">
-        <v>999982</v>
-      </c>
       <c r="M47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:16">
       <c r="A48">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3512,24 +3518,24 @@
         <v>35</v>
       </c>
       <c r="L48">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:16">
       <c r="A49">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3562,24 +3568,24 @@
         <v>35</v>
       </c>
       <c r="L49">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:16">
       <c r="A50">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3612,24 +3618,24 @@
         <v>35</v>
       </c>
       <c r="L50">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="M50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:16">
       <c r="A51">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3662,24 +3668,24 @@
         <v>35</v>
       </c>
       <c r="L51">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:16">
       <c r="A52">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3712,24 +3718,24 @@
         <v>35</v>
       </c>
       <c r="L52">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="M52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:16">
       <c r="A53">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3762,24 +3768,24 @@
         <v>35</v>
       </c>
       <c r="L53">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:16">
       <c r="A54">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3812,24 +3818,24 @@
         <v>35</v>
       </c>
       <c r="L54">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:16">
       <c r="A55">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3862,24 +3868,24 @@
         <v>35</v>
       </c>
       <c r="L55">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:16">
       <c r="A56">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3912,24 +3918,24 @@
         <v>35</v>
       </c>
       <c r="L56">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:16">
       <c r="A57">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3962,24 +3968,24 @@
         <v>35</v>
       </c>
       <c r="L57">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:16">
       <c r="A58">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4012,24 +4018,24 @@
         <v>35</v>
       </c>
       <c r="L58">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:16">
       <c r="A59">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4062,24 +4068,24 @@
         <v>35</v>
       </c>
       <c r="L59">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:16">
       <c r="A60">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4112,24 +4118,24 @@
         <v>35</v>
       </c>
       <c r="L60">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:16">
       <c r="A61">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4162,24 +4168,24 @@
         <v>35</v>
       </c>
       <c r="L61">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:16">
       <c r="A62">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4212,24 +4218,24 @@
         <v>35</v>
       </c>
       <c r="L62">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="M62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:16">
       <c r="A63">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4262,72 +4268,121 @@
         <v>35</v>
       </c>
       <c r="L63">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="M63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:16">
       <c r="A64">
+        <v>999998</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>200001</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>35</v>
+      </c>
+      <c r="L64">
+        <v>999998</v>
+      </c>
+      <c r="M64" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:16">
+      <c r="A65">
         <v>999999</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="D64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
-      </c>
-      <c r="G64">
-        <v>200001</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0.5</v>
-      </c>
-      <c r="K64">
-        <v>35</v>
-      </c>
-      <c r="L64">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>200001</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
+      </c>
+      <c r="K65">
+        <v>35</v>
+      </c>
+      <c r="L65">
         <v>999999</v>
       </c>
-      <c r="M64" t="s">
-        <v>45</v>
-      </c>
-      <c r="N64" t="s">
-        <v>46</v>
-      </c>
-      <c r="O64" t="s">
-        <v>47</v>
-      </c>
-      <c r="P64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1"/>
+      <c r="M65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" t="s">
+        <v>48</v>
+      </c>
+      <c r="O65" t="s">
+        <v>49</v>
+      </c>
+      <c r="P65" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="90" ht="15" customHeight="1"/>
     <row r="91" ht="15" customHeight="1"/>
     <row r="92" ht="15" customHeight="1"/>
@@ -4338,7 +4393,7 @@
     <row r="97" ht="15" customHeight="1"/>
     <row r="98" ht="15" customHeight="1"/>
     <row r="99" ht="15" customHeight="1"/>
-    <row r="131" ht="12" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
     <row r="132" ht="12" customHeight="1"/>
     <row r="133" ht="12" customHeight="1"/>
     <row r="134" ht="12" customHeight="1"/>
@@ -4347,6 +4402,7 @@
     <row r="137" ht="12" customHeight="1"/>
     <row r="138" ht="12" customHeight="1"/>
     <row r="139" ht="12" customHeight="1"/>
+    <row r="140" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -134,10 +134,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Card_Scene_1</t>
+  </si>
+  <si>
+    <t>防御核心</t>
+  </si>
+  <si>
+    <t>Def Core Creature</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>Card_Scene_1</t>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>Human</t>
   </si>
   <si>
     <t>骷髅</t>
@@ -146,12 +158,6 @@
     <t>Skeleton</t>
   </si>
   <si>
-    <t>人类</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>史莱姆</t>
   </si>
   <si>
@@ -162,12 +168,6 @@
   </si>
   <si>
     <t>Succubus</t>
-  </si>
-  <si>
-    <t>防御核心</t>
-  </si>
-  <si>
-    <t>Def Core Creature</t>
   </si>
   <si>
     <t>Card_Scene_4</t>
@@ -1153,9 +1153,9 @@
   <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1316,65 +1316,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" customFormat="1" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>200001</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
       <c r="P4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:16">
       <c r="A5">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -1398,10 +1374,10 @@
         <v>10</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -1415,7 +1391,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>3</v>
+        <v>2001</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1424,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1448,10 +1424,10 @@
         <v>35</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
@@ -1463,9 +1439,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16">
       <c r="A7">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1474,7 +1450,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1498,10 +1474,10 @@
         <v>35</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
         <v>43</v>
@@ -1513,24 +1489,54 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" customFormat="1" spans="1:16">
       <c r="A8">
-        <v>99</v>
+        <v>4001</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>200001</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
         <v>45</v>
       </c>
       <c r="O8" t="s">
         <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:16">
@@ -1544,7 +1550,7 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1594,7 +1600,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1644,7 +1650,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1694,7 +1700,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1744,7 +1750,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1844,7 +1850,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1944,7 +1950,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1994,7 +2000,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2044,7 +2050,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2094,7 +2100,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2144,7 +2150,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2194,7 +2200,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2244,7 +2250,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2294,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2344,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2394,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2444,7 +2450,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2494,7 +2500,7 @@
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2544,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2594,7 +2600,7 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2644,7 +2650,7 @@
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2694,7 +2700,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2744,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2794,7 +2800,7 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2844,7 +2850,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2894,7 +2900,7 @@
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2944,7 +2950,7 @@
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2994,7 +3000,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3044,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3094,7 +3100,7 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3144,7 +3150,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3194,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3244,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3294,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3344,7 +3350,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3394,7 +3400,7 @@
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3444,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3494,7 +3500,7 @@
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3544,7 +3550,7 @@
         <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3594,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3644,7 +3650,7 @@
         <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3694,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3744,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3794,7 +3800,7 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3844,7 +3850,7 @@
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3894,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3944,7 +3950,7 @@
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3994,7 +4000,7 @@
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4044,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4094,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4144,7 +4150,7 @@
         <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4194,7 +4200,7 @@
         <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4244,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4294,7 +4300,7 @@
         <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4344,7 +4350,7 @@
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E65">
         <v>1</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20655" windowHeight="6675"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -1324,11 +1324,11 @@
   <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1562,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1998,6 +1998,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
       <c r="D14">
         <v>100</v>
       </c>
@@ -2048,6 +2051,9 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
       <c r="E15">
         <v>200001</v>
       </c>
@@ -2095,6 +2101,9 @@
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
       <c r="E16">
         <v>200001</v>
       </c>
@@ -2142,6 +2151,9 @@
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
       <c r="E17">
         <v>200001</v>
       </c>
@@ -2189,6 +2201,9 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
       <c r="E18">
         <v>200001</v>
       </c>
@@ -2239,6 +2254,9 @@
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
       <c r="E19">
         <v>200001</v>
       </c>
@@ -2286,6 +2304,9 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
       <c r="E20">
         <v>200001</v>
       </c>
@@ -2333,6 +2354,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
       <c r="E21">
         <v>200001</v>
       </c>
@@ -2380,6 +2404,9 @@
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
       <c r="E22">
         <v>200001</v>
       </c>
@@ -2427,6 +2454,9 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
       <c r="E23">
         <v>200001</v>
       </c>
@@ -2474,6 +2504,9 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
       <c r="E24">
         <v>200001</v>
       </c>
@@ -2521,6 +2554,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
       <c r="E25">
         <v>200001</v>
       </c>
@@ -2568,6 +2604,9 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
       <c r="E26">
         <v>200001</v>
       </c>
@@ -2615,6 +2654,9 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
       <c r="E27">
         <v>200001</v>
       </c>
@@ -2662,6 +2704,9 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
       <c r="E28">
         <v>200001</v>
       </c>
@@ -2709,6 +2754,9 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
       <c r="E29">
         <v>200001</v>
       </c>
@@ -2756,6 +2804,9 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
       <c r="E30">
         <v>200001</v>
       </c>
@@ -2802,6 +2853,9 @@
       </c>
       <c r="B31">
         <v>1</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
       </c>
       <c r="E31">
         <v>200001</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22380" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -41,16 +41,22 @@
     <t>create_magic</t>
   </si>
   <si>
-    <t>att_mode</t>
-  </si>
-  <si>
-    <t>att_range</t>
-  </si>
-  <si>
-    <t>att_cd</t>
-  </si>
-  <si>
-    <t>att_anim_cast_time</t>
+    <t>spine_base</t>
+  </si>
+  <si>
+    <t>spine_skin_change_type</t>
+  </si>
+  <si>
+    <t>attack_mode</t>
+  </si>
+  <si>
+    <t>attack_range</t>
+  </si>
+  <si>
+    <t>attack_cd</t>
+  </si>
+  <si>
+    <t>attack_anim_cast_time</t>
   </si>
   <si>
     <t>HP</t>
@@ -107,6 +113,15 @@
     <t>创建魔力</t>
   </si>
   <si>
+    <t>身体的基础模块</t>
+  </si>
+  <si>
+    <t>身体的可替换模块类型</t>
+  </si>
+  <si>
+    <t>攻击模式</t>
+  </si>
+  <si>
     <t>攻击范围</t>
   </si>
   <si>
@@ -153,6 +168,9 @@
   </si>
   <si>
     <t>Def Core Creature</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
   <si>
     <t>人类</t>
@@ -1321,14 +1339,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:T163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,20 +1354,22 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="17" width="47.5" customWidth="1"/>
-    <col min="18" max="18" width="42.875" customWidth="1"/>
-    <col min="19" max="19" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="16" width="14.75" customWidth="1"/>
+    <col min="17" max="19" width="47.5" customWidth="1"/>
+    <col min="20" max="20" width="42.875" customWidth="1"/>
+    <col min="21" max="21" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,140 +1424,161 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:18">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:20">
       <c r="A4">
         <v>99</v>
       </c>
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
+      <c r="P4">
+        <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:20">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1547,46 +1588,52 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5">
+        <v>1000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
         <v>100001</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>0.5</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
         <v>0.2</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
+      <c r="P5">
+        <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1598,46 +1645,52 @@
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>200001</v>
+        <v>2000001</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
       <c r="M6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
       <c r="R6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1648,46 +1701,52 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>200001</v>
+        <v>2000001</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1698,46 +1757,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>200001</v>
+        <v>2000001</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>56</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1748,46 +1813,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>200001</v>
+        <v>2000001</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
       </c>
       <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>52</v>
-      </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -1798,50 +1869,50 @@
         <v>120</v>
       </c>
       <c r="D10"/>
-      <c r="E10">
-        <v>200001</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
       <c r="G10">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
         <v>500</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:20">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -1851,47 +1922,47 @@
       <c r="C11">
         <v>120</v>
       </c>
-      <c r="E11">
-        <v>200001</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
       </c>
       <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="M11">
         <v>500</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>57</v>
-      </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:18">
+        <v>63</v>
+      </c>
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:20">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -1901,47 +1972,47 @@
       <c r="C12">
         <v>120</v>
       </c>
-      <c r="E12">
-        <v>200001</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
       <c r="G12">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s">
-        <v>59</v>
-      </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:18">
+        <v>65</v>
+      </c>
+      <c r="S12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:20">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -1951,47 +2022,47 @@
       <c r="C13">
         <v>120</v>
       </c>
-      <c r="E13">
-        <v>200001</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
       <c r="G13">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
       </c>
       <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>61</v>
-      </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:18">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:20">
       <c r="A14">
         <v>4001</v>
       </c>
@@ -2001,50 +2072,48 @@
       <c r="C14">
         <v>50</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>200001</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
+      <c r="D14"/>
       <c r="G14">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
         <v>10</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" t="s">
-        <v>63</v>
-      </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:18">
+        <v>69</v>
+      </c>
+      <c r="S14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:20">
       <c r="A15">
         <v>4002</v>
       </c>
@@ -2054,47 +2123,47 @@
       <c r="C15">
         <v>50</v>
       </c>
-      <c r="E15">
-        <v>200001</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
       <c r="G15">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
       </c>
       <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
       <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>4</v>
       </c>
-      <c r="O15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" t="s">
-        <v>66</v>
-      </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:18">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:20">
       <c r="A16">
         <v>4003</v>
       </c>
@@ -2104,47 +2173,47 @@
       <c r="C16">
         <v>50</v>
       </c>
-      <c r="E16">
-        <v>200001</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
       <c r="G16">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
       </c>
       <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>4</v>
       </c>
-      <c r="O16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" t="s">
-        <v>68</v>
-      </c>
       <c r="Q16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:18">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:20">
       <c r="A17">
         <v>4004</v>
       </c>
@@ -2154,47 +2223,47 @@
       <c r="C17">
         <v>50</v>
       </c>
-      <c r="E17">
-        <v>200001</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
       <c r="G17">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
       </c>
       <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>4</v>
       </c>
-      <c r="O17" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" t="s">
-        <v>70</v>
-      </c>
       <c r="Q17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:18">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:20">
       <c r="A18">
         <v>4005</v>
       </c>
@@ -2204,50 +2273,50 @@
       <c r="C18">
         <v>50</v>
       </c>
-      <c r="E18">
-        <v>200001</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
       <c r="G18">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
         <v>100</v>
       </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" t="s">
-        <v>72</v>
-      </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:18">
+        <v>78</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:20">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2257,47 +2326,47 @@
       <c r="C19">
         <v>60</v>
       </c>
-      <c r="E19">
-        <v>200001</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
       <c r="G19">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
       </c>
       <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="M19">
         <v>3</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
-      <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" t="s">
-        <v>74</v>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:18">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:20">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2307,47 +2376,47 @@
       <c r="C20">
         <v>60</v>
       </c>
-      <c r="E20">
-        <v>200001</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
       <c r="G20">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
       </c>
       <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>5</v>
       </c>
-      <c r="O20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" t="s">
-        <v>77</v>
-      </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:18">
+        <v>83</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:20">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2357,47 +2426,47 @@
       <c r="C21">
         <v>45</v>
       </c>
-      <c r="E21">
-        <v>200001</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
       <c r="G21">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>5</v>
       </c>
-      <c r="O21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" t="s">
-        <v>79</v>
-      </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:18">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:20">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -2407,47 +2476,47 @@
       <c r="C22">
         <v>45</v>
       </c>
-      <c r="E22">
-        <v>200001</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
       <c r="G22">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
       </c>
       <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="O22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" t="s">
-        <v>81</v>
-      </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:18">
+        <v>87</v>
+      </c>
+      <c r="S22" t="s">
+        <v>88</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:20">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -2457,47 +2526,47 @@
       <c r="C23">
         <v>30</v>
       </c>
-      <c r="E23">
-        <v>200001</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
       <c r="G23">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
       </c>
       <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>5</v>
       </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="N23">
-        <v>6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:18">
+        <v>89</v>
+      </c>
+      <c r="S23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:20">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -2507,47 +2576,47 @@
       <c r="C24">
         <v>30</v>
       </c>
-      <c r="E24">
-        <v>200001</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
       <c r="G24">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
       </c>
       <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N24">
-        <v>6</v>
-      </c>
-      <c r="O24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
       </c>
       <c r="Q24" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:18">
+        <v>92</v>
+      </c>
+      <c r="S24" t="s">
+        <v>93</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:20">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -2557,47 +2626,47 @@
       <c r="C25">
         <v>300</v>
       </c>
-      <c r="E25">
-        <v>200001</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
       <c r="G25">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
       </c>
       <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="M25">
         <v>500</v>
       </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
-        <v>6</v>
-      </c>
-      <c r="O25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
       </c>
       <c r="Q25" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:18">
+        <v>94</v>
+      </c>
+      <c r="S25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:20">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -2607,47 +2676,47 @@
       <c r="C26">
         <v>20</v>
       </c>
-      <c r="E26">
-        <v>200001</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
       <c r="G26">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
         <v>3</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
-      <c r="O26" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" t="s">
-        <v>90</v>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
       </c>
       <c r="Q26" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:18">
+        <v>96</v>
+      </c>
+      <c r="S26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:20">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -2657,47 +2726,47 @@
       <c r="C27">
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>200001</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
       <c r="G27">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
       </c>
       <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" t="s">
-        <v>92</v>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
       </c>
       <c r="Q27" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:18">
+        <v>98</v>
+      </c>
+      <c r="S27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:20">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -2707,47 +2776,47 @@
       <c r="C28">
         <v>45</v>
       </c>
-      <c r="E28">
-        <v>200001</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
       <c r="G28">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
       </c>
       <c r="K28">
         <v>12</v>
       </c>
-      <c r="L28">
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
         <v>8</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>7</v>
       </c>
-      <c r="O28" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" t="s">
-        <v>94</v>
-      </c>
       <c r="Q28" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:18">
+        <v>100</v>
+      </c>
+      <c r="S28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:20">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -2757,47 +2826,47 @@
       <c r="C29">
         <v>45</v>
       </c>
-      <c r="E29">
-        <v>200001</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
       <c r="G29">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
       </c>
       <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
       <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="O29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" t="s">
-        <v>97</v>
-      </c>
       <c r="Q29" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:18">
+        <v>103</v>
+      </c>
+      <c r="S29" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:20">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -2807,47 +2876,47 @@
       <c r="C30">
         <v>45</v>
       </c>
-      <c r="E30">
-        <v>200001</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
       <c r="G30">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
       </c>
       <c r="K30">
         <v>6</v>
       </c>
-      <c r="L30">
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>7</v>
       </c>
-      <c r="O30" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" t="s">
-        <v>99</v>
-      </c>
       <c r="Q30" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:18">
+        <v>105</v>
+      </c>
+      <c r="S30" t="s">
+        <v>106</v>
+      </c>
+      <c r="T30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:20">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -2857,2761 +2926,2590 @@
       <c r="C31">
         <v>45</v>
       </c>
-      <c r="E31">
-        <v>200001</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
       <c r="G31">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
       </c>
       <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>7</v>
       </c>
-      <c r="O31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>101</v>
-      </c>
       <c r="Q31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:18">
+        <v>107</v>
+      </c>
+      <c r="S31" t="s">
+        <v>108</v>
+      </c>
+      <c r="T31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:20">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <v>200001</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
       <c r="G32">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
       </c>
       <c r="K32">
-        <v>35</v>
-      </c>
-      <c r="L32" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
+        <v>35</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
         <v>989996</v>
       </c>
-      <c r="O32" t="s">
-        <v>103</v>
-      </c>
-      <c r="P32" t="s">
-        <v>104</v>
-      </c>
       <c r="Q32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S32" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:20">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>200001</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
       <c r="G33">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
       </c>
       <c r="K33">
-        <v>35</v>
-      </c>
-      <c r="L33" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1">
+        <v>35</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
         <v>989997</v>
       </c>
-      <c r="O33" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" t="s">
-        <v>104</v>
-      </c>
       <c r="Q33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:20">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>200001</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
       <c r="G34">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
       </c>
       <c r="K34">
-        <v>35</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1">
+        <v>35</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
         <v>989998</v>
       </c>
-      <c r="O34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P34" t="s">
-        <v>104</v>
-      </c>
       <c r="Q34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S34" t="s">
+        <v>111</v>
+      </c>
+      <c r="T34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:20">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <v>200001</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
       <c r="G35">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>989999</v>
       </c>
-      <c r="O35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" t="s">
-        <v>104</v>
-      </c>
       <c r="Q35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S35" t="s">
+        <v>111</v>
+      </c>
+      <c r="T35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:20">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36">
-        <v>200001</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
       <c r="G36">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
       </c>
       <c r="K36">
-        <v>35</v>
-      </c>
-      <c r="L36" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
+        <v>35</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
         <v>999947</v>
       </c>
-      <c r="O36" t="s">
-        <v>103</v>
-      </c>
-      <c r="P36" t="s">
-        <v>104</v>
-      </c>
       <c r="Q36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S36" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:20">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>200001</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
       <c r="G37">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
       </c>
       <c r="K37">
-        <v>35</v>
-      </c>
-      <c r="L37" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
+        <v>35</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
         <v>999948</v>
       </c>
-      <c r="O37" t="s">
-        <v>103</v>
-      </c>
-      <c r="P37" t="s">
-        <v>104</v>
-      </c>
       <c r="Q37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S37" t="s">
+        <v>111</v>
+      </c>
+      <c r="T37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:20">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>200001</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
       <c r="G38">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>35</v>
-      </c>
-      <c r="L38" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
+        <v>35</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
         <v>999949</v>
       </c>
-      <c r="O38" t="s">
-        <v>103</v>
-      </c>
-      <c r="P38" t="s">
-        <v>104</v>
-      </c>
       <c r="Q38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:20">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>200001</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
       <c r="G39">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
       </c>
       <c r="K39">
-        <v>35</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
+        <v>35</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
         <v>999950</v>
       </c>
-      <c r="O39" t="s">
-        <v>103</v>
-      </c>
-      <c r="P39" t="s">
-        <v>104</v>
-      </c>
       <c r="Q39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S39" t="s">
+        <v>111</v>
+      </c>
+      <c r="T39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:20">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>200001</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
       <c r="G40">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
       </c>
       <c r="K40">
-        <v>35</v>
-      </c>
-      <c r="L40" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1">
+        <v>35</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
         <v>999951</v>
       </c>
-      <c r="O40" t="s">
-        <v>103</v>
-      </c>
-      <c r="P40" t="s">
-        <v>104</v>
-      </c>
       <c r="Q40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S40" t="s">
+        <v>111</v>
+      </c>
+      <c r="T40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:20">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>200001</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
       <c r="G41">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
       </c>
       <c r="K41">
-        <v>35</v>
-      </c>
-      <c r="L41" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1">
+        <v>35</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
         <v>999952</v>
       </c>
-      <c r="O41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P41" t="s">
-        <v>104</v>
-      </c>
       <c r="Q41" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S41" t="s">
+        <v>111</v>
+      </c>
+      <c r="T41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:20">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-      <c r="E42">
-        <v>200001</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
       <c r="G42">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
       </c>
       <c r="K42">
-        <v>35</v>
-      </c>
-      <c r="L42" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
+        <v>35</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
         <v>999953</v>
       </c>
-      <c r="O42" t="s">
-        <v>103</v>
-      </c>
-      <c r="P42" t="s">
-        <v>104</v>
-      </c>
       <c r="Q42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S42" t="s">
+        <v>111</v>
+      </c>
+      <c r="T42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:20">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43">
-        <v>200001</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
       <c r="G43">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
       </c>
       <c r="K43">
-        <v>35</v>
-      </c>
-      <c r="L43" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1">
+        <v>35</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
         <v>999954</v>
       </c>
-      <c r="O43" t="s">
-        <v>103</v>
-      </c>
-      <c r="P43" t="s">
-        <v>104</v>
-      </c>
       <c r="Q43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S43" t="s">
+        <v>111</v>
+      </c>
+      <c r="T43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:20">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44">
-        <v>200001</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
       <c r="G44">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H44">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
       </c>
       <c r="K44">
-        <v>35</v>
-      </c>
-      <c r="L44" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
+        <v>35</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
         <v>999955</v>
       </c>
-      <c r="O44" t="s">
-        <v>103</v>
-      </c>
-      <c r="P44" t="s">
-        <v>104</v>
-      </c>
       <c r="Q44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S44" t="s">
+        <v>111</v>
+      </c>
+      <c r="T44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:20">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45">
-        <v>200001</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
       <c r="G45">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H45">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
       </c>
       <c r="K45">
-        <v>35</v>
-      </c>
-      <c r="L45" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1">
+        <v>35</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
         <v>999956</v>
       </c>
-      <c r="O45" t="s">
-        <v>103</v>
-      </c>
-      <c r="P45" t="s">
-        <v>104</v>
-      </c>
       <c r="Q45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S45" t="s">
+        <v>111</v>
+      </c>
+      <c r="T45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:20">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46">
-        <v>200001</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
       <c r="G46">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
       </c>
       <c r="K46">
-        <v>35</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="1">
+        <v>35</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
         <v>999957</v>
       </c>
-      <c r="O46" t="s">
-        <v>103</v>
-      </c>
-      <c r="P46" t="s">
-        <v>104</v>
-      </c>
       <c r="Q46" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S46" t="s">
+        <v>111</v>
+      </c>
+      <c r="T46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:20">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47">
-        <v>200001</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
       <c r="G47">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
       </c>
       <c r="K47">
-        <v>35</v>
-      </c>
-      <c r="L47" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1">
+        <v>35</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
         <v>999958</v>
       </c>
-      <c r="O47" t="s">
-        <v>103</v>
-      </c>
-      <c r="P47" t="s">
-        <v>104</v>
-      </c>
       <c r="Q47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S47" t="s">
+        <v>111</v>
+      </c>
+      <c r="T47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:20">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48">
-        <v>200001</v>
-      </c>
-      <c r="F48">
-        <v>6</v>
-      </c>
       <c r="G48">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.5</v>
       </c>
       <c r="K48">
-        <v>35</v>
-      </c>
-      <c r="L48" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
+        <v>35</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1">
         <v>999959</v>
       </c>
-      <c r="O48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P48" t="s">
-        <v>104</v>
-      </c>
       <c r="Q48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S48" t="s">
+        <v>111</v>
+      </c>
+      <c r="T48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:20">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49">
-        <v>200001</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
       <c r="G49">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H49">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.5</v>
       </c>
       <c r="K49">
-        <v>35</v>
-      </c>
-      <c r="L49" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
+        <v>35</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
         <v>999960</v>
       </c>
-      <c r="O49" t="s">
-        <v>103</v>
-      </c>
-      <c r="P49" t="s">
-        <v>104</v>
-      </c>
       <c r="Q49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S49" t="s">
+        <v>111</v>
+      </c>
+      <c r="T49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:20">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50">
-        <v>200001</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
       <c r="G50">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H50">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
       </c>
       <c r="K50">
-        <v>35</v>
-      </c>
-      <c r="L50" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
+        <v>35</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
         <v>999961</v>
       </c>
-      <c r="O50" t="s">
-        <v>103</v>
-      </c>
-      <c r="P50" t="s">
-        <v>104</v>
-      </c>
       <c r="Q50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S50" t="s">
+        <v>111</v>
+      </c>
+      <c r="T50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:20">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <v>200001</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
       <c r="G51">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H51">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
       </c>
       <c r="K51">
-        <v>35</v>
-      </c>
-      <c r="L51" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
+        <v>35</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
         <v>999962</v>
       </c>
-      <c r="O51" t="s">
-        <v>103</v>
-      </c>
-      <c r="P51" t="s">
-        <v>104</v>
-      </c>
       <c r="Q51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S51" t="s">
+        <v>111</v>
+      </c>
+      <c r="T51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:20">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <v>200001</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
       <c r="G52">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H52">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I52">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.5</v>
       </c>
       <c r="K52">
-        <v>35</v>
-      </c>
-      <c r="L52" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
+        <v>35</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
         <v>999963</v>
       </c>
-      <c r="O52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P52" t="s">
-        <v>104</v>
-      </c>
       <c r="Q52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S52" t="s">
+        <v>111</v>
+      </c>
+      <c r="T52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:20">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53">
-        <v>200001</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
       <c r="G53">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.5</v>
       </c>
       <c r="K53">
-        <v>35</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1">
+        <v>35</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
         <v>999964</v>
       </c>
-      <c r="O53" t="s">
-        <v>103</v>
-      </c>
-      <c r="P53" t="s">
-        <v>104</v>
-      </c>
       <c r="Q53" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S53" t="s">
+        <v>111</v>
+      </c>
+      <c r="T53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:20">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="E54">
-        <v>200001</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
       <c r="G54">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H54">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>35</v>
-      </c>
-      <c r="L54" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
+        <v>35</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
         <v>999965</v>
       </c>
-      <c r="O54" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" t="s">
-        <v>104</v>
-      </c>
       <c r="Q54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S54" t="s">
+        <v>111</v>
+      </c>
+      <c r="T54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:20">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>100</v>
-      </c>
-      <c r="E55">
-        <v>200001</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
       <c r="G55">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
       </c>
       <c r="K55">
-        <v>35</v>
-      </c>
-      <c r="L55" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1">
+        <v>35</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
         <v>999966</v>
       </c>
-      <c r="O55" t="s">
-        <v>103</v>
-      </c>
-      <c r="P55" t="s">
-        <v>104</v>
-      </c>
       <c r="Q55" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S55" t="s">
+        <v>111</v>
+      </c>
+      <c r="T55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:20">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="D56">
-        <v>100</v>
-      </c>
-      <c r="E56">
-        <v>200001</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
       <c r="G56">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H56">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
       </c>
       <c r="K56">
-        <v>35</v>
-      </c>
-      <c r="L56" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56" s="1">
+        <v>35</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1">
         <v>999967</v>
       </c>
-      <c r="O56" t="s">
-        <v>103</v>
-      </c>
-      <c r="P56" t="s">
-        <v>104</v>
-      </c>
       <c r="Q56" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S56" t="s">
+        <v>111</v>
+      </c>
+      <c r="T56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:20">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
-      <c r="E57">
-        <v>200001</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
       <c r="G57">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
       </c>
       <c r="K57">
-        <v>35</v>
-      </c>
-      <c r="L57" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1">
+        <v>35</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1">
         <v>999968</v>
       </c>
-      <c r="O57" t="s">
-        <v>103</v>
-      </c>
-      <c r="P57" t="s">
-        <v>104</v>
-      </c>
       <c r="Q57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S57" t="s">
+        <v>111</v>
+      </c>
+      <c r="T57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:20">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58">
-        <v>200001</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
       <c r="G58">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
       </c>
       <c r="K58">
-        <v>35</v>
-      </c>
-      <c r="L58" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
+        <v>35</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1">
         <v>999969</v>
       </c>
-      <c r="O58" t="s">
-        <v>103</v>
-      </c>
-      <c r="P58" t="s">
-        <v>104</v>
-      </c>
       <c r="Q58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S58" t="s">
+        <v>111</v>
+      </c>
+      <c r="T58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:20">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>100</v>
-      </c>
-      <c r="E59">
-        <v>200001</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
-      </c>
       <c r="G59">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
       </c>
       <c r="K59">
-        <v>35</v>
-      </c>
-      <c r="L59" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1">
+        <v>35</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
         <v>999970</v>
       </c>
-      <c r="O59" t="s">
-        <v>103</v>
-      </c>
-      <c r="P59" t="s">
-        <v>104</v>
-      </c>
       <c r="Q59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S59" t="s">
+        <v>111</v>
+      </c>
+      <c r="T59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:20">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
-      <c r="E60">
-        <v>200001</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
       <c r="G60">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H60">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
       </c>
       <c r="K60">
-        <v>35</v>
-      </c>
-      <c r="L60" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1">
+        <v>35</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1">
         <v>999971</v>
       </c>
-      <c r="O60" t="s">
-        <v>103</v>
-      </c>
-      <c r="P60" t="s">
-        <v>104</v>
-      </c>
       <c r="Q60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S60" t="s">
+        <v>111</v>
+      </c>
+      <c r="T60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:20">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
-      <c r="E61">
-        <v>200001</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
       <c r="G61">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H61">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.5</v>
       </c>
       <c r="K61">
-        <v>35</v>
-      </c>
-      <c r="L61" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
+        <v>35</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
         <v>999972</v>
       </c>
-      <c r="O61" t="s">
-        <v>103</v>
-      </c>
-      <c r="P61" t="s">
-        <v>104</v>
-      </c>
       <c r="Q61" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S61" t="s">
+        <v>111</v>
+      </c>
+      <c r="T61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:20">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62">
-        <v>200001</v>
-      </c>
-      <c r="F62">
-        <v>6</v>
-      </c>
       <c r="G62">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H62">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
       </c>
       <c r="K62">
-        <v>35</v>
-      </c>
-      <c r="L62" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1">
+        <v>35</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
         <v>999973</v>
       </c>
-      <c r="O62" t="s">
-        <v>103</v>
-      </c>
-      <c r="P62" t="s">
-        <v>104</v>
-      </c>
       <c r="Q62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S62" t="s">
+        <v>111</v>
+      </c>
+      <c r="T62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:20">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="D63">
-        <v>100</v>
-      </c>
-      <c r="E63">
-        <v>200001</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
       <c r="G63">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H63">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
       </c>
       <c r="K63">
-        <v>35</v>
-      </c>
-      <c r="L63" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63" s="1">
+        <v>35</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1">
         <v>999974</v>
       </c>
-      <c r="O63" t="s">
-        <v>103</v>
-      </c>
-      <c r="P63" t="s">
-        <v>104</v>
-      </c>
       <c r="Q63" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S63" t="s">
+        <v>111</v>
+      </c>
+      <c r="T63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:20">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
-      <c r="E64">
-        <v>200001</v>
-      </c>
-      <c r="F64">
-        <v>6</v>
-      </c>
       <c r="G64">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
       </c>
       <c r="K64">
-        <v>35</v>
-      </c>
-      <c r="L64" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" s="1">
+        <v>35</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1">
         <v>999975</v>
       </c>
-      <c r="O64" t="s">
-        <v>103</v>
-      </c>
-      <c r="P64" t="s">
-        <v>104</v>
-      </c>
       <c r="Q64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S64" t="s">
+        <v>111</v>
+      </c>
+      <c r="T64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:20">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
-      <c r="E65">
-        <v>200001</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
       <c r="G65">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H65">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
       </c>
       <c r="K65">
-        <v>35</v>
-      </c>
-      <c r="L65" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
+        <v>35</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1">
         <v>999976</v>
       </c>
-      <c r="O65" t="s">
-        <v>103</v>
-      </c>
-      <c r="P65" t="s">
-        <v>104</v>
-      </c>
       <c r="Q65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S65" t="s">
+        <v>111</v>
+      </c>
+      <c r="T65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:20">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66">
-        <v>200001</v>
-      </c>
-      <c r="F66">
-        <v>6</v>
-      </c>
       <c r="G66">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0.5</v>
       </c>
       <c r="K66">
-        <v>35</v>
-      </c>
-      <c r="L66" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66" s="1">
+        <v>35</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
         <v>999977</v>
       </c>
-      <c r="O66" t="s">
-        <v>103</v>
-      </c>
-      <c r="P66" t="s">
-        <v>104</v>
-      </c>
       <c r="Q66" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S66" t="s">
+        <v>111</v>
+      </c>
+      <c r="T66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:20">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
-      <c r="E67">
-        <v>200001</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
       <c r="G67">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H67">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0.5</v>
       </c>
       <c r="K67">
-        <v>35</v>
-      </c>
-      <c r="L67" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
+        <v>35</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1">
         <v>999978</v>
       </c>
-      <c r="O67" t="s">
-        <v>103</v>
-      </c>
-      <c r="P67" t="s">
-        <v>104</v>
-      </c>
       <c r="Q67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S67" t="s">
+        <v>111</v>
+      </c>
+      <c r="T67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:20">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
-      <c r="E68">
-        <v>200001</v>
-      </c>
-      <c r="F68">
-        <v>6</v>
-      </c>
       <c r="G68">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H68">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0.5</v>
       </c>
       <c r="K68">
-        <v>35</v>
-      </c>
-      <c r="L68" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1">
+        <v>35</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1">
         <v>999979</v>
       </c>
-      <c r="O68" t="s">
-        <v>103</v>
-      </c>
-      <c r="P68" t="s">
-        <v>104</v>
-      </c>
       <c r="Q68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S68" t="s">
+        <v>111</v>
+      </c>
+      <c r="T68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:20">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <v>200001</v>
-      </c>
-      <c r="F69">
-        <v>6</v>
-      </c>
       <c r="G69">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H69">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I69">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.5</v>
       </c>
       <c r="K69">
-        <v>35</v>
-      </c>
-      <c r="L69" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1">
+        <v>35</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1">
         <v>999980</v>
       </c>
-      <c r="O69" t="s">
-        <v>103</v>
-      </c>
-      <c r="P69" t="s">
-        <v>104</v>
-      </c>
       <c r="Q69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S69" t="s">
+        <v>111</v>
+      </c>
+      <c r="T69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:20">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="D70">
-        <v>100</v>
-      </c>
-      <c r="E70">
-        <v>200001</v>
-      </c>
-      <c r="F70">
-        <v>6</v>
-      </c>
       <c r="G70">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H70">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0.5</v>
       </c>
       <c r="K70">
-        <v>35</v>
-      </c>
-      <c r="L70" s="2"/>
+        <v>10</v>
+      </c>
       <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70" s="1">
+        <v>35</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1">
         <v>999981</v>
       </c>
-      <c r="O70" t="s">
-        <v>103</v>
-      </c>
-      <c r="P70" t="s">
-        <v>104</v>
-      </c>
       <c r="Q70" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S70" t="s">
+        <v>111</v>
+      </c>
+      <c r="T70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:20">
       <c r="A71">
         <v>999982</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
-      <c r="E71">
-        <v>200001</v>
-      </c>
-      <c r="F71">
-        <v>6</v>
-      </c>
       <c r="G71">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H71">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0.5</v>
       </c>
       <c r="K71">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
+        <v>35</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
         <v>999982</v>
       </c>
-      <c r="O71" t="s">
-        <v>103</v>
-      </c>
-      <c r="P71" t="s">
-        <v>104</v>
-      </c>
       <c r="Q71" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S71" t="s">
+        <v>111</v>
+      </c>
+      <c r="T71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:20">
       <c r="A72">
         <v>999983</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
-      <c r="E72">
-        <v>200001</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
-      </c>
       <c r="G72">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0.5</v>
       </c>
       <c r="K72">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
+        <v>35</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
         <v>999983</v>
       </c>
-      <c r="O72" t="s">
-        <v>103</v>
-      </c>
-      <c r="P72" t="s">
-        <v>104</v>
-      </c>
       <c r="Q72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S72" t="s">
+        <v>111</v>
+      </c>
+      <c r="T72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:20">
       <c r="A73">
         <v>999984</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
-      <c r="E73">
-        <v>200001</v>
-      </c>
-      <c r="F73">
-        <v>6</v>
-      </c>
       <c r="G73">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H73">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0.5</v>
       </c>
       <c r="K73">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
+        <v>35</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
         <v>999984</v>
       </c>
-      <c r="O73" t="s">
-        <v>103</v>
-      </c>
-      <c r="P73" t="s">
-        <v>104</v>
-      </c>
       <c r="Q73" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S73" t="s">
+        <v>111</v>
+      </c>
+      <c r="T73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:20">
       <c r="A74">
         <v>999985</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
-      <c r="E74">
-        <v>200001</v>
-      </c>
-      <c r="F74">
-        <v>6</v>
-      </c>
       <c r="G74">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H74">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0.5</v>
       </c>
       <c r="K74">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
+        <v>35</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>999985</v>
       </c>
-      <c r="O74" t="s">
-        <v>103</v>
-      </c>
-      <c r="P74" t="s">
-        <v>104</v>
-      </c>
       <c r="Q74" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S74" t="s">
+        <v>111</v>
+      </c>
+      <c r="T74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:20">
       <c r="A75">
         <v>999986</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>100</v>
-      </c>
-      <c r="E75">
-        <v>200001</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
       <c r="G75">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H75">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I75">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0.5</v>
       </c>
       <c r="K75">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
+        <v>35</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>999986</v>
       </c>
-      <c r="O75" t="s">
-        <v>103</v>
-      </c>
-      <c r="P75" t="s">
-        <v>104</v>
-      </c>
       <c r="Q75" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S75" t="s">
+        <v>111</v>
+      </c>
+      <c r="T75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:20">
       <c r="A76">
         <v>999987</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="D76">
-        <v>100</v>
-      </c>
-      <c r="E76">
-        <v>200001</v>
-      </c>
-      <c r="F76">
-        <v>6</v>
-      </c>
       <c r="G76">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H76">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I76">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0.5</v>
       </c>
       <c r="K76">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
+        <v>35</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
         <v>999987</v>
       </c>
-      <c r="O76" t="s">
-        <v>103</v>
-      </c>
-      <c r="P76" t="s">
-        <v>104</v>
-      </c>
       <c r="Q76" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S76" t="s">
+        <v>111</v>
+      </c>
+      <c r="T76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:20">
       <c r="A77">
         <v>999988</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
-      <c r="E77">
-        <v>200001</v>
-      </c>
-      <c r="F77">
-        <v>6</v>
-      </c>
       <c r="G77">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H77">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0.5</v>
       </c>
       <c r="K77">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
+        <v>35</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
         <v>999988</v>
       </c>
-      <c r="O77" t="s">
-        <v>103</v>
-      </c>
-      <c r="P77" t="s">
-        <v>104</v>
-      </c>
       <c r="Q77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S77" t="s">
+        <v>111</v>
+      </c>
+      <c r="T77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:20">
       <c r="A78">
         <v>999989</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="D78">
-        <v>100</v>
-      </c>
-      <c r="E78">
-        <v>200001</v>
-      </c>
-      <c r="F78">
-        <v>6</v>
-      </c>
       <c r="G78">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H78">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0.5</v>
       </c>
       <c r="K78">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
+        <v>35</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>999989</v>
       </c>
-      <c r="O78" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" t="s">
-        <v>104</v>
-      </c>
       <c r="Q78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S78" t="s">
+        <v>111</v>
+      </c>
+      <c r="T78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:20">
       <c r="A79">
         <v>999990</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>100</v>
-      </c>
-      <c r="E79">
-        <v>200001</v>
-      </c>
-      <c r="F79">
-        <v>6</v>
-      </c>
       <c r="G79">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H79">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I79">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
       </c>
       <c r="K79">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
+        <v>35</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
         <v>999990</v>
       </c>
-      <c r="O79" t="s">
-        <v>103</v>
-      </c>
-      <c r="P79" t="s">
-        <v>104</v>
-      </c>
       <c r="Q79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S79" t="s">
+        <v>111</v>
+      </c>
+      <c r="T79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:20">
       <c r="A80">
         <v>999991</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
-      <c r="E80">
-        <v>200001</v>
-      </c>
-      <c r="F80">
-        <v>6</v>
-      </c>
       <c r="G80">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H80">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I80">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0.5</v>
       </c>
       <c r="K80">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
+        <v>35</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>999991</v>
       </c>
-      <c r="O80" t="s">
-        <v>103</v>
-      </c>
-      <c r="P80" t="s">
-        <v>104</v>
-      </c>
       <c r="Q80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S80" t="s">
+        <v>111</v>
+      </c>
+      <c r="T80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:20">
       <c r="A81">
         <v>999992</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>100</v>
-      </c>
-      <c r="E81">
-        <v>200001</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
       <c r="G81">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H81">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I81">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0.5</v>
       </c>
       <c r="K81">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
+        <v>35</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
         <v>999992</v>
       </c>
-      <c r="O81" t="s">
-        <v>103</v>
-      </c>
-      <c r="P81" t="s">
-        <v>104</v>
-      </c>
       <c r="Q81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S81" t="s">
+        <v>111</v>
+      </c>
+      <c r="T81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:20">
       <c r="A82">
         <v>999993</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="D82">
-        <v>100</v>
-      </c>
-      <c r="E82">
-        <v>200001</v>
-      </c>
-      <c r="F82">
-        <v>6</v>
-      </c>
       <c r="G82">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H82">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0.5</v>
       </c>
       <c r="K82">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
+        <v>35</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
         <v>999993</v>
       </c>
-      <c r="O82" t="s">
-        <v>103</v>
-      </c>
-      <c r="P82" t="s">
-        <v>104</v>
-      </c>
       <c r="Q82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S82" t="s">
+        <v>111</v>
+      </c>
+      <c r="T82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:20">
       <c r="A83">
         <v>999994</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83">
-        <v>200001</v>
-      </c>
-      <c r="F83">
-        <v>6</v>
-      </c>
       <c r="G83">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H83">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I83">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0.5</v>
       </c>
       <c r="K83">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
+        <v>35</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
         <v>999994</v>
       </c>
-      <c r="O83" t="s">
-        <v>103</v>
-      </c>
-      <c r="P83" t="s">
-        <v>104</v>
-      </c>
       <c r="Q83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S83" t="s">
+        <v>111</v>
+      </c>
+      <c r="T83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:20">
       <c r="A84">
         <v>999995</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="D84">
-        <v>100</v>
-      </c>
-      <c r="E84">
-        <v>200001</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
       <c r="G84">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H84">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0.5</v>
       </c>
       <c r="K84">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
+        <v>35</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
         <v>999995</v>
       </c>
-      <c r="O84" t="s">
-        <v>103</v>
-      </c>
-      <c r="P84" t="s">
-        <v>104</v>
-      </c>
       <c r="Q84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S84" t="s">
+        <v>111</v>
+      </c>
+      <c r="T84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:20">
       <c r="A85">
         <v>999996</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="D85">
-        <v>100</v>
-      </c>
-      <c r="E85">
-        <v>200001</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
       <c r="G85">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H85">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I85">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0.5</v>
       </c>
       <c r="K85">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
+        <v>35</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>999996</v>
       </c>
-      <c r="O85" t="s">
-        <v>103</v>
-      </c>
-      <c r="P85" t="s">
-        <v>104</v>
-      </c>
       <c r="Q85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S85" t="s">
+        <v>111</v>
+      </c>
+      <c r="T85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:20">
       <c r="A86">
         <v>999997</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
-      <c r="E86">
-        <v>200001</v>
-      </c>
-      <c r="F86">
-        <v>6</v>
-      </c>
       <c r="G86">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H86">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
       </c>
       <c r="K86">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
+        <v>35</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
         <v>999997</v>
       </c>
-      <c r="O86" t="s">
-        <v>103</v>
-      </c>
-      <c r="P86" t="s">
-        <v>104</v>
-      </c>
       <c r="Q86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S86" t="s">
+        <v>111</v>
+      </c>
+      <c r="T86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:20">
       <c r="A87">
         <v>999998</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>100</v>
-      </c>
-      <c r="E87">
-        <v>200001</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
       <c r="G87">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H87">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I87">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
       </c>
       <c r="K87">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
+        <v>35</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>999998</v>
       </c>
-      <c r="O87" t="s">
-        <v>103</v>
-      </c>
-      <c r="P87" t="s">
-        <v>104</v>
-      </c>
       <c r="Q87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:18">
+        <v>110</v>
+      </c>
+      <c r="S87" t="s">
+        <v>111</v>
+      </c>
+      <c r="T87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:20">
       <c r="A88">
         <v>999999</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88">
-        <v>200001</v>
-      </c>
-      <c r="F88">
-        <v>6</v>
-      </c>
       <c r="G88">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
       </c>
       <c r="K88">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
+        <v>35</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
         <v>999999</v>
       </c>
-      <c r="O88" t="s">
-        <v>103</v>
-      </c>
-      <c r="P88" t="s">
-        <v>104</v>
-      </c>
       <c r="Q88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R88" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="S88" t="s">
+        <v>111</v>
+      </c>
+      <c r="T88" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>
@@ -5635,7 +5533,7 @@
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:V88">
+  <sortState ref="A4:X88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>spine_base_weapon</t>
   </si>
   <si>
-    <t>spine_skin_change_type</t>
+    <t>equip_items_type</t>
   </si>
   <si>
     <t>anim_idle</t>
@@ -134,7 +134,7 @@
     <t>身体的基础武器模块</t>
   </si>
   <si>
-    <t>身体的可替换模块类型</t>
+    <t>可装备类型</t>
   </si>
   <si>
     <t>等待动画名字</t>
@@ -200,16 +200,10 @@
     <t>Def Core Creature</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>人类</t>
   </si>
   <si>
     <t>Human</t>
-  </si>
-  <si>
-    <t>50,51,52</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -1379,7 +1373,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1673,9 +1667,6 @@
       <c r="E5">
         <v>1000001</v>
       </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
       <c r="L5">
         <v>100001</v>
       </c>
@@ -1707,13 +1698,13 @@
         <v>54</v>
       </c>
       <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
         <v>58</v>
       </c>
-      <c r="X5" t="s">
-        <v>59</v>
-      </c>
       <c r="Y5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1730,9 +1721,10 @@
       <c r="E6">
         <v>2000001</v>
       </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
+      <c r="F6">
+        <v>2910001</v>
+      </c>
+      <c r="G6"/>
       <c r="L6">
         <v>200001</v>
       </c>
@@ -1764,13 +1756,13 @@
         <v>54</v>
       </c>
       <c r="W6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
         <v>61</v>
-      </c>
-      <c r="X6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1786,9 +1778,10 @@
       <c r="E7">
         <v>2000001</v>
       </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F7">
+        <v>2900001</v>
+      </c>
+      <c r="G7"/>
       <c r="L7">
         <v>200001</v>
       </c>
@@ -1820,13 +1813,13 @@
         <v>54</v>
       </c>
       <c r="W7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
         <v>64</v>
-      </c>
-      <c r="X7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1842,9 +1835,10 @@
       <c r="E8">
         <v>2000001</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
+      <c r="F8">
+        <v>2910002</v>
+      </c>
+      <c r="G8"/>
       <c r="L8">
         <v>200001</v>
       </c>
@@ -1876,13 +1870,13 @@
         <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1898,9 +1892,10 @@
       <c r="E9">
         <v>2000001</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
+      <c r="F9">
+        <v>2910003</v>
+      </c>
+      <c r="G9"/>
       <c r="L9">
         <v>200001</v>
       </c>
@@ -1932,13 +1927,13 @@
         <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1986,13 +1981,13 @@
         <v>54</v>
       </c>
       <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="s">
         <v>71</v>
-      </c>
-      <c r="X10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:25">
@@ -2036,13 +2031,13 @@
         <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:25">
@@ -2086,13 +2081,13 @@
         <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:25">
@@ -2136,13 +2131,13 @@
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:25">
@@ -2187,13 +2182,13 @@
         <v>54</v>
       </c>
       <c r="W14" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s">
         <v>80</v>
-      </c>
-      <c r="X14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:25">
@@ -2237,13 +2232,13 @@
         <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:25">
@@ -2287,13 +2282,13 @@
         <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:25">
@@ -2337,13 +2332,13 @@
         <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:25">
@@ -2390,13 +2385,13 @@
         <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:25">
@@ -2440,13 +2435,13 @@
         <v>54</v>
       </c>
       <c r="W19" t="s">
+        <v>89</v>
+      </c>
+      <c r="X19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y19" t="s">
         <v>91</v>
-      </c>
-      <c r="X19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:25">
@@ -2490,13 +2485,13 @@
         <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:25">
@@ -2540,13 +2535,13 @@
         <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:25">
@@ -2590,13 +2585,13 @@
         <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:25">
@@ -2640,13 +2635,13 @@
         <v>54</v>
       </c>
       <c r="W23" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y23" t="s">
         <v>100</v>
-      </c>
-      <c r="X23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:25">
@@ -2690,13 +2685,13 @@
         <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:25">
@@ -2740,13 +2735,13 @@
         <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:25">
@@ -2790,13 +2785,13 @@
         <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:25">
@@ -2840,13 +2835,13 @@
         <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:25">
@@ -2890,13 +2885,13 @@
         <v>54</v>
       </c>
       <c r="W28" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28" t="s">
         <v>111</v>
-      </c>
-      <c r="X28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:25">
@@ -2940,13 +2935,13 @@
         <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:25">
@@ -2990,13 +2985,13 @@
         <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:25">
@@ -3040,13 +3035,13 @@
         <v>54</v>
       </c>
       <c r="W31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:25">
@@ -3082,16 +3077,16 @@
         <v>989996</v>
       </c>
       <c r="V32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W32" t="s">
+        <v>119</v>
+      </c>
+      <c r="X32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y32" t="s">
         <v>121</v>
-      </c>
-      <c r="X32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:25">
@@ -3127,16 +3122,16 @@
         <v>989997</v>
       </c>
       <c r="V33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W33" t="s">
+        <v>119</v>
+      </c>
+      <c r="X33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y33" t="s">
         <v>121</v>
-      </c>
-      <c r="X33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:25">
@@ -3172,16 +3167,16 @@
         <v>989998</v>
       </c>
       <c r="V34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W34" t="s">
+        <v>119</v>
+      </c>
+      <c r="X34" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y34" t="s">
         <v>121</v>
-      </c>
-      <c r="X34" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:25">
@@ -3216,16 +3211,16 @@
         <v>989999</v>
       </c>
       <c r="V35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W35" t="s">
+        <v>119</v>
+      </c>
+      <c r="X35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y35" t="s">
         <v>121</v>
-      </c>
-      <c r="X35" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:25">
@@ -3261,16 +3256,16 @@
         <v>999947</v>
       </c>
       <c r="V36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y36" t="s">
         <v>121</v>
-      </c>
-      <c r="X36" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:25">
@@ -3306,16 +3301,16 @@
         <v>999948</v>
       </c>
       <c r="V37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W37" t="s">
+        <v>119</v>
+      </c>
+      <c r="X37" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y37" t="s">
         <v>121</v>
-      </c>
-      <c r="X37" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:25">
@@ -3351,16 +3346,16 @@
         <v>999949</v>
       </c>
       <c r="V38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W38" t="s">
+        <v>119</v>
+      </c>
+      <c r="X38" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y38" t="s">
         <v>121</v>
-      </c>
-      <c r="X38" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:25">
@@ -3396,16 +3391,16 @@
         <v>999950</v>
       </c>
       <c r="V39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W39" t="s">
+        <v>119</v>
+      </c>
+      <c r="X39" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y39" t="s">
         <v>121</v>
-      </c>
-      <c r="X39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:25">
@@ -3441,16 +3436,16 @@
         <v>999951</v>
       </c>
       <c r="V40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W40" t="s">
+        <v>119</v>
+      </c>
+      <c r="X40" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y40" t="s">
         <v>121</v>
-      </c>
-      <c r="X40" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:25">
@@ -3486,16 +3481,16 @@
         <v>999952</v>
       </c>
       <c r="V41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W41" t="s">
+        <v>119</v>
+      </c>
+      <c r="X41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y41" t="s">
         <v>121</v>
-      </c>
-      <c r="X41" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:25">
@@ -3531,16 +3526,16 @@
         <v>999953</v>
       </c>
       <c r="V42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W42" t="s">
+        <v>119</v>
+      </c>
+      <c r="X42" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y42" t="s">
         <v>121</v>
-      </c>
-      <c r="X42" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:25">
@@ -3576,16 +3571,16 @@
         <v>999954</v>
       </c>
       <c r="V43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y43" t="s">
         <v>121</v>
-      </c>
-      <c r="X43" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:25">
@@ -3621,16 +3616,16 @@
         <v>999955</v>
       </c>
       <c r="V44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W44" t="s">
+        <v>119</v>
+      </c>
+      <c r="X44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y44" t="s">
         <v>121</v>
-      </c>
-      <c r="X44" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:25">
@@ -3666,16 +3661,16 @@
         <v>999956</v>
       </c>
       <c r="V45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W45" t="s">
+        <v>119</v>
+      </c>
+      <c r="X45" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y45" t="s">
         <v>121</v>
-      </c>
-      <c r="X45" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:25">
@@ -3711,16 +3706,16 @@
         <v>999957</v>
       </c>
       <c r="V46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W46" t="s">
+        <v>119</v>
+      </c>
+      <c r="X46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y46" t="s">
         <v>121</v>
-      </c>
-      <c r="X46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:25">
@@ -3756,16 +3751,16 @@
         <v>999958</v>
       </c>
       <c r="V47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W47" t="s">
+        <v>119</v>
+      </c>
+      <c r="X47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y47" t="s">
         <v>121</v>
-      </c>
-      <c r="X47" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:25">
@@ -3801,16 +3796,16 @@
         <v>999959</v>
       </c>
       <c r="V48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W48" t="s">
+        <v>119</v>
+      </c>
+      <c r="X48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y48" t="s">
         <v>121</v>
-      </c>
-      <c r="X48" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:25">
@@ -3846,16 +3841,16 @@
         <v>999960</v>
       </c>
       <c r="V49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W49" t="s">
+        <v>119</v>
+      </c>
+      <c r="X49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y49" t="s">
         <v>121</v>
-      </c>
-      <c r="X49" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:25">
@@ -3891,16 +3886,16 @@
         <v>999961</v>
       </c>
       <c r="V50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W50" t="s">
+        <v>119</v>
+      </c>
+      <c r="X50" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y50" t="s">
         <v>121</v>
-      </c>
-      <c r="X50" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:25">
@@ -3936,16 +3931,16 @@
         <v>999962</v>
       </c>
       <c r="V51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W51" t="s">
+        <v>119</v>
+      </c>
+      <c r="X51" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y51" t="s">
         <v>121</v>
-      </c>
-      <c r="X51" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:25">
@@ -3981,16 +3976,16 @@
         <v>999963</v>
       </c>
       <c r="V52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W52" t="s">
+        <v>119</v>
+      </c>
+      <c r="X52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y52" t="s">
         <v>121</v>
-      </c>
-      <c r="X52" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:25">
@@ -4026,16 +4021,16 @@
         <v>999964</v>
       </c>
       <c r="V53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W53" t="s">
+        <v>119</v>
+      </c>
+      <c r="X53" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y53" t="s">
         <v>121</v>
-      </c>
-      <c r="X53" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:25">
@@ -4071,16 +4066,16 @@
         <v>999965</v>
       </c>
       <c r="V54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W54" t="s">
+        <v>119</v>
+      </c>
+      <c r="X54" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y54" t="s">
         <v>121</v>
-      </c>
-      <c r="X54" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:25">
@@ -4116,16 +4111,16 @@
         <v>999966</v>
       </c>
       <c r="V55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W55" t="s">
+        <v>119</v>
+      </c>
+      <c r="X55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y55" t="s">
         <v>121</v>
-      </c>
-      <c r="X55" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:25">
@@ -4161,16 +4156,16 @@
         <v>999967</v>
       </c>
       <c r="V56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W56" t="s">
+        <v>119</v>
+      </c>
+      <c r="X56" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y56" t="s">
         <v>121</v>
-      </c>
-      <c r="X56" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:25">
@@ -4206,16 +4201,16 @@
         <v>999968</v>
       </c>
       <c r="V57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W57" t="s">
+        <v>119</v>
+      </c>
+      <c r="X57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y57" t="s">
         <v>121</v>
-      </c>
-      <c r="X57" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:25">
@@ -4251,16 +4246,16 @@
         <v>999969</v>
       </c>
       <c r="V58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W58" t="s">
+        <v>119</v>
+      </c>
+      <c r="X58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y58" t="s">
         <v>121</v>
-      </c>
-      <c r="X58" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:25">
@@ -4296,16 +4291,16 @@
         <v>999970</v>
       </c>
       <c r="V59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W59" t="s">
+        <v>119</v>
+      </c>
+      <c r="X59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y59" t="s">
         <v>121</v>
-      </c>
-      <c r="X59" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:25">
@@ -4341,16 +4336,16 @@
         <v>999971</v>
       </c>
       <c r="V60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W60" t="s">
+        <v>119</v>
+      </c>
+      <c r="X60" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y60" t="s">
         <v>121</v>
-      </c>
-      <c r="X60" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:25">
@@ -4386,16 +4381,16 @@
         <v>999972</v>
       </c>
       <c r="V61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W61" t="s">
+        <v>119</v>
+      </c>
+      <c r="X61" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y61" t="s">
         <v>121</v>
-      </c>
-      <c r="X61" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:25">
@@ -4431,16 +4426,16 @@
         <v>999973</v>
       </c>
       <c r="V62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W62" t="s">
+        <v>119</v>
+      </c>
+      <c r="X62" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y62" t="s">
         <v>121</v>
-      </c>
-      <c r="X62" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:25">
@@ -4476,16 +4471,16 @@
         <v>999974</v>
       </c>
       <c r="V63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W63" t="s">
+        <v>119</v>
+      </c>
+      <c r="X63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y63" t="s">
         <v>121</v>
-      </c>
-      <c r="X63" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:25">
@@ -4521,16 +4516,16 @@
         <v>999975</v>
       </c>
       <c r="V64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W64" t="s">
+        <v>119</v>
+      </c>
+      <c r="X64" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y64" t="s">
         <v>121</v>
-      </c>
-      <c r="X64" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:25">
@@ -4566,16 +4561,16 @@
         <v>999976</v>
       </c>
       <c r="V65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W65" t="s">
+        <v>119</v>
+      </c>
+      <c r="X65" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y65" t="s">
         <v>121</v>
-      </c>
-      <c r="X65" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:25">
@@ -4611,16 +4606,16 @@
         <v>999977</v>
       </c>
       <c r="V66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W66" t="s">
+        <v>119</v>
+      </c>
+      <c r="X66" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y66" t="s">
         <v>121</v>
-      </c>
-      <c r="X66" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:25">
@@ -4656,16 +4651,16 @@
         <v>999978</v>
       </c>
       <c r="V67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W67" t="s">
+        <v>119</v>
+      </c>
+      <c r="X67" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y67" t="s">
         <v>121</v>
-      </c>
-      <c r="X67" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:25">
@@ -4701,16 +4696,16 @@
         <v>999979</v>
       </c>
       <c r="V68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W68" t="s">
+        <v>119</v>
+      </c>
+      <c r="X68" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y68" t="s">
         <v>121</v>
-      </c>
-      <c r="X68" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:25">
@@ -4746,16 +4741,16 @@
         <v>999980</v>
       </c>
       <c r="V69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W69" t="s">
+        <v>119</v>
+      </c>
+      <c r="X69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y69" t="s">
         <v>121</v>
-      </c>
-      <c r="X69" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:25">
@@ -4791,16 +4786,16 @@
         <v>999981</v>
       </c>
       <c r="V70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W70" t="s">
+        <v>119</v>
+      </c>
+      <c r="X70" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y70" t="s">
         <v>121</v>
-      </c>
-      <c r="X70" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:25">
@@ -4835,16 +4830,16 @@
         <v>999982</v>
       </c>
       <c r="V71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W71" t="s">
+        <v>119</v>
+      </c>
+      <c r="X71" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y71" t="s">
         <v>121</v>
-      </c>
-      <c r="X71" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:25">
@@ -4879,16 +4874,16 @@
         <v>999983</v>
       </c>
       <c r="V72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W72" t="s">
+        <v>119</v>
+      </c>
+      <c r="X72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y72" t="s">
         <v>121</v>
-      </c>
-      <c r="X72" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:25">
@@ -4923,16 +4918,16 @@
         <v>999984</v>
       </c>
       <c r="V73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W73" t="s">
+        <v>119</v>
+      </c>
+      <c r="X73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y73" t="s">
         <v>121</v>
-      </c>
-      <c r="X73" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:25">
@@ -4967,16 +4962,16 @@
         <v>999985</v>
       </c>
       <c r="V74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W74" t="s">
+        <v>119</v>
+      </c>
+      <c r="X74" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y74" t="s">
         <v>121</v>
-      </c>
-      <c r="X74" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:25">
@@ -5011,16 +5006,16 @@
         <v>999986</v>
       </c>
       <c r="V75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W75" t="s">
+        <v>119</v>
+      </c>
+      <c r="X75" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y75" t="s">
         <v>121</v>
-      </c>
-      <c r="X75" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:25">
@@ -5055,16 +5050,16 @@
         <v>999987</v>
       </c>
       <c r="V76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W76" t="s">
+        <v>119</v>
+      </c>
+      <c r="X76" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y76" t="s">
         <v>121</v>
-      </c>
-      <c r="X76" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:25">
@@ -5099,16 +5094,16 @@
         <v>999988</v>
       </c>
       <c r="V77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W77" t="s">
+        <v>119</v>
+      </c>
+      <c r="X77" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y77" t="s">
         <v>121</v>
-      </c>
-      <c r="X77" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:25">
@@ -5143,16 +5138,16 @@
         <v>999989</v>
       </c>
       <c r="V78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W78" t="s">
+        <v>119</v>
+      </c>
+      <c r="X78" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y78" t="s">
         <v>121</v>
-      </c>
-      <c r="X78" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:25">
@@ -5187,16 +5182,16 @@
         <v>999990</v>
       </c>
       <c r="V79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W79" t="s">
+        <v>119</v>
+      </c>
+      <c r="X79" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y79" t="s">
         <v>121</v>
-      </c>
-      <c r="X79" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:25">
@@ -5231,16 +5226,16 @@
         <v>999991</v>
       </c>
       <c r="V80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W80" t="s">
+        <v>119</v>
+      </c>
+      <c r="X80" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y80" t="s">
         <v>121</v>
-      </c>
-      <c r="X80" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:25">
@@ -5275,16 +5270,16 @@
         <v>999992</v>
       </c>
       <c r="V81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W81" t="s">
+        <v>119</v>
+      </c>
+      <c r="X81" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y81" t="s">
         <v>121</v>
-      </c>
-      <c r="X81" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:25">
@@ -5319,16 +5314,16 @@
         <v>999993</v>
       </c>
       <c r="V82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W82" t="s">
+        <v>119</v>
+      </c>
+      <c r="X82" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y82" t="s">
         <v>121</v>
-      </c>
-      <c r="X82" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:25">
@@ -5363,16 +5358,16 @@
         <v>999994</v>
       </c>
       <c r="V83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W83" t="s">
+        <v>119</v>
+      </c>
+      <c r="X83" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y83" t="s">
         <v>121</v>
-      </c>
-      <c r="X83" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:25">
@@ -5407,16 +5402,16 @@
         <v>999995</v>
       </c>
       <c r="V84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W84" t="s">
+        <v>119</v>
+      </c>
+      <c r="X84" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y84" t="s">
         <v>121</v>
-      </c>
-      <c r="X84" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:25">
@@ -5451,16 +5446,16 @@
         <v>999996</v>
       </c>
       <c r="V85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W85" t="s">
+        <v>119</v>
+      </c>
+      <c r="X85" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y85" t="s">
         <v>121</v>
-      </c>
-      <c r="X85" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:25">
@@ -5495,16 +5490,16 @@
         <v>999997</v>
       </c>
       <c r="V86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W86" t="s">
+        <v>119</v>
+      </c>
+      <c r="X86" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y86" t="s">
         <v>121</v>
-      </c>
-      <c r="X86" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:25">
@@ -5539,16 +5534,16 @@
         <v>999998</v>
       </c>
       <c r="V87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W87" t="s">
+        <v>119</v>
+      </c>
+      <c r="X87" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y87" t="s">
         <v>121</v>
-      </c>
-      <c r="X87" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:25">
@@ -5583,16 +5578,16 @@
         <v>999999</v>
       </c>
       <c r="V88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W88" t="s">
+        <v>119</v>
+      </c>
+      <c r="X88" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y88" t="s">
         <v>121</v>
-      </c>
-      <c r="X88" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14265" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>1,2,3,10</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -1369,11 +1372,11 @@
   <dimension ref="A1:Y163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G6:G9 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1724,7 +1727,9 @@
       <c r="F6">
         <v>2910001</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
       <c r="L6">
         <v>200001</v>
       </c>
@@ -1756,13 +1761,13 @@
         <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1781,7 +1786,9 @@
       <c r="F7">
         <v>2900001</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
       <c r="L7">
         <v>200001</v>
       </c>
@@ -1813,13 +1820,13 @@
         <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1838,7 +1845,9 @@
       <c r="F8">
         <v>2910002</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
       <c r="L8">
         <v>200001</v>
       </c>
@@ -1870,13 +1879,13 @@
         <v>54</v>
       </c>
       <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
         <v>65</v>
-      </c>
-      <c r="X8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1895,7 +1904,9 @@
       <c r="F9">
         <v>2910003</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
       <c r="L9">
         <v>200001</v>
       </c>
@@ -1927,13 +1938,13 @@
         <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1981,13 +1992,13 @@
         <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:25">
@@ -2031,13 +2042,13 @@
         <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:25">
@@ -2081,13 +2092,13 @@
         <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:25">
@@ -2131,13 +2142,13 @@
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:25">
@@ -2182,13 +2193,13 @@
         <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:25">
@@ -2232,13 +2243,13 @@
         <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:25">
@@ -2282,13 +2293,13 @@
         <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:25">
@@ -2332,13 +2343,13 @@
         <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:25">
@@ -2385,13 +2396,13 @@
         <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:25">
@@ -2435,13 +2446,13 @@
         <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:25">
@@ -2485,13 +2496,13 @@
         <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:25">
@@ -2535,13 +2546,13 @@
         <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:25">
@@ -2585,13 +2596,13 @@
         <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:25">
@@ -2635,13 +2646,13 @@
         <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:25">
@@ -2685,13 +2696,13 @@
         <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:25">
@@ -2735,13 +2746,13 @@
         <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:25">
@@ -2785,13 +2796,13 @@
         <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:25">
@@ -2835,13 +2846,13 @@
         <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:25">
@@ -2885,13 +2896,13 @@
         <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:25">
@@ -2935,13 +2946,13 @@
         <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:25">
@@ -2985,13 +2996,13 @@
         <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:25">
@@ -3035,13 +3046,13 @@
         <v>54</v>
       </c>
       <c r="W31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:25">
@@ -3077,16 +3088,16 @@
         <v>989996</v>
       </c>
       <c r="V32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:25">
@@ -3122,16 +3133,16 @@
         <v>989997</v>
       </c>
       <c r="V33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:25">
@@ -3167,16 +3178,16 @@
         <v>989998</v>
       </c>
       <c r="V34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:25">
@@ -3211,16 +3222,16 @@
         <v>989999</v>
       </c>
       <c r="V35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:25">
@@ -3256,16 +3267,16 @@
         <v>999947</v>
       </c>
       <c r="V36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:25">
@@ -3301,16 +3312,16 @@
         <v>999948</v>
       </c>
       <c r="V37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:25">
@@ -3346,16 +3357,16 @@
         <v>999949</v>
       </c>
       <c r="V38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:25">
@@ -3391,16 +3402,16 @@
         <v>999950</v>
       </c>
       <c r="V39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:25">
@@ -3436,16 +3447,16 @@
         <v>999951</v>
       </c>
       <c r="V40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:25">
@@ -3481,16 +3492,16 @@
         <v>999952</v>
       </c>
       <c r="V41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:25">
@@ -3526,16 +3537,16 @@
         <v>999953</v>
       </c>
       <c r="V42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:25">
@@ -3571,16 +3582,16 @@
         <v>999954</v>
       </c>
       <c r="V43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:25">
@@ -3616,16 +3627,16 @@
         <v>999955</v>
       </c>
       <c r="V44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:25">
@@ -3661,16 +3672,16 @@
         <v>999956</v>
       </c>
       <c r="V45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:25">
@@ -3706,16 +3717,16 @@
         <v>999957</v>
       </c>
       <c r="V46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:25">
@@ -3751,16 +3762,16 @@
         <v>999958</v>
       </c>
       <c r="V47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:25">
@@ -3796,16 +3807,16 @@
         <v>999959</v>
       </c>
       <c r="V48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:25">
@@ -3841,16 +3852,16 @@
         <v>999960</v>
       </c>
       <c r="V49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:25">
@@ -3886,16 +3897,16 @@
         <v>999961</v>
       </c>
       <c r="V50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:25">
@@ -3931,16 +3942,16 @@
         <v>999962</v>
       </c>
       <c r="V51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:25">
@@ -3976,16 +3987,16 @@
         <v>999963</v>
       </c>
       <c r="V52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:25">
@@ -4021,16 +4032,16 @@
         <v>999964</v>
       </c>
       <c r="V53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:25">
@@ -4066,16 +4077,16 @@
         <v>999965</v>
       </c>
       <c r="V54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:25">
@@ -4111,16 +4122,16 @@
         <v>999966</v>
       </c>
       <c r="V55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:25">
@@ -4156,16 +4167,16 @@
         <v>999967</v>
       </c>
       <c r="V56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:25">
@@ -4201,16 +4212,16 @@
         <v>999968</v>
       </c>
       <c r="V57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:25">
@@ -4246,16 +4257,16 @@
         <v>999969</v>
       </c>
       <c r="V58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:25">
@@ -4291,16 +4302,16 @@
         <v>999970</v>
       </c>
       <c r="V59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:25">
@@ -4336,16 +4347,16 @@
         <v>999971</v>
       </c>
       <c r="V60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:25">
@@ -4381,16 +4392,16 @@
         <v>999972</v>
       </c>
       <c r="V61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:25">
@@ -4426,16 +4437,16 @@
         <v>999973</v>
       </c>
       <c r="V62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:25">
@@ -4471,16 +4482,16 @@
         <v>999974</v>
       </c>
       <c r="V63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:25">
@@ -4516,16 +4527,16 @@
         <v>999975</v>
       </c>
       <c r="V64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:25">
@@ -4561,16 +4572,16 @@
         <v>999976</v>
       </c>
       <c r="V65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:25">
@@ -4606,16 +4617,16 @@
         <v>999977</v>
       </c>
       <c r="V66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:25">
@@ -4651,16 +4662,16 @@
         <v>999978</v>
       </c>
       <c r="V67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:25">
@@ -4696,16 +4707,16 @@
         <v>999979</v>
       </c>
       <c r="V68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:25">
@@ -4741,16 +4752,16 @@
         <v>999980</v>
       </c>
       <c r="V69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:25">
@@ -4786,16 +4797,16 @@
         <v>999981</v>
       </c>
       <c r="V70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:25">
@@ -4830,16 +4841,16 @@
         <v>999982</v>
       </c>
       <c r="V71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:25">
@@ -4874,16 +4885,16 @@
         <v>999983</v>
       </c>
       <c r="V72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:25">
@@ -4918,16 +4929,16 @@
         <v>999984</v>
       </c>
       <c r="V73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:25">
@@ -4962,16 +4973,16 @@
         <v>999985</v>
       </c>
       <c r="V74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:25">
@@ -5006,16 +5017,16 @@
         <v>999986</v>
       </c>
       <c r="V75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:25">
@@ -5050,16 +5061,16 @@
         <v>999987</v>
       </c>
       <c r="V76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:25">
@@ -5094,16 +5105,16 @@
         <v>999988</v>
       </c>
       <c r="V77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:25">
@@ -5138,16 +5149,16 @@
         <v>999989</v>
       </c>
       <c r="V78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:25">
@@ -5182,16 +5193,16 @@
         <v>999990</v>
       </c>
       <c r="V79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:25">
@@ -5226,16 +5237,16 @@
         <v>999991</v>
       </c>
       <c r="V80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:25">
@@ -5270,16 +5281,16 @@
         <v>999992</v>
       </c>
       <c r="V81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:25">
@@ -5314,16 +5325,16 @@
         <v>999993</v>
       </c>
       <c r="V82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:25">
@@ -5358,16 +5369,16 @@
         <v>999994</v>
       </c>
       <c r="V83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:25">
@@ -5402,16 +5413,16 @@
         <v>999995</v>
       </c>
       <c r="V84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:25">
@@ -5446,16 +5457,16 @@
         <v>999996</v>
       </c>
       <c r="V85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:25">
@@ -5490,16 +5501,16 @@
         <v>999997</v>
       </c>
       <c r="V86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:25">
@@ -5534,16 +5545,16 @@
         <v>999998</v>
       </c>
       <c r="V87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:25">
@@ -5578,16 +5589,16 @@
         <v>999999</v>
       </c>
       <c r="V88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14265" windowHeight="14010"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -44,7 +44,7 @@
     <t>spine_base</t>
   </si>
   <si>
-    <t>spine_base_weapon</t>
+    <t>equip_item_base_weapon</t>
   </si>
   <si>
     <t>equip_items_type</t>
@@ -191,6 +191,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Card_Scene_1</t>
   </si>
   <si>
@@ -206,7 +209,7 @@
     <t>Human</t>
   </si>
   <si>
-    <t>1,2,3,10</t>
+    <t>1,2,3,10,</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -1372,11 +1375,11 @@
   <dimension ref="A1:Y163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G6:G9 G12"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1384,8 +1387,8 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
@@ -1498,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -1642,20 +1645,23 @@
       <c r="B4">
         <v>99</v>
       </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" t="s">
         <v>56</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:25">
@@ -1698,16 +1704,16 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
         <v>58</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1725,10 +1731,10 @@
         <v>2000001</v>
       </c>
       <c r="F6">
-        <v>2910001</v>
+        <v>21010001</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <v>200001</v>
@@ -1758,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1784,10 +1790,10 @@
         <v>2000001</v>
       </c>
       <c r="F7">
-        <v>2900001</v>
+        <v>21000001</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7">
         <v>200001</v>
@@ -1817,16 +1823,16 @@
         <v>2</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1843,10 +1849,10 @@
         <v>2000001</v>
       </c>
       <c r="F8">
-        <v>2910002</v>
+        <v>21010002</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8">
         <v>200001</v>
@@ -1876,16 +1882,16 @@
         <v>2</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
         <v>66</v>
-      </c>
-      <c r="X8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1902,10 +1908,10 @@
         <v>2000001</v>
       </c>
       <c r="F9">
-        <v>2910003</v>
+        <v>21010003</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9">
         <v>200001</v>
@@ -1935,16 +1941,16 @@
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1989,16 +1995,16 @@
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:25">
@@ -2039,16 +2045,16 @@
         <v>3</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:25">
@@ -2089,16 +2095,16 @@
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:25">
@@ -2139,16 +2145,16 @@
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:25">
@@ -2190,16 +2196,16 @@
         <v>4</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:25">
@@ -2240,16 +2246,16 @@
         <v>4</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:25">
@@ -2290,16 +2296,16 @@
         <v>4</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:25">
@@ -2340,16 +2346,16 @@
         <v>4</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:25">
@@ -2393,16 +2399,16 @@
         <v>4</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:25">
@@ -2443,16 +2449,16 @@
         <v>5</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:25">
@@ -2493,16 +2499,16 @@
         <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:25">
@@ -2543,16 +2549,16 @@
         <v>5</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:25">
@@ -2593,16 +2599,16 @@
         <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:25">
@@ -2643,16 +2649,16 @@
         <v>6</v>
       </c>
       <c r="V23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:25">
@@ -2693,16 +2699,16 @@
         <v>6</v>
       </c>
       <c r="V24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:25">
@@ -2743,16 +2749,16 @@
         <v>6</v>
       </c>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:25">
@@ -2793,16 +2799,16 @@
         <v>6</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:25">
@@ -2843,16 +2849,16 @@
         <v>6</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:25">
@@ -2893,16 +2899,16 @@
         <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:25">
@@ -2943,16 +2949,16 @@
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:25">
@@ -2993,16 +2999,16 @@
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:25">
@@ -3043,16 +3049,16 @@
         <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:25">
@@ -3088,16 +3094,16 @@
         <v>989996</v>
       </c>
       <c r="V32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:25">
@@ -3133,16 +3139,16 @@
         <v>989997</v>
       </c>
       <c r="V33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:25">
@@ -3178,16 +3184,16 @@
         <v>989998</v>
       </c>
       <c r="V34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:25">
@@ -3222,16 +3228,16 @@
         <v>989999</v>
       </c>
       <c r="V35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:25">
@@ -3267,16 +3273,16 @@
         <v>999947</v>
       </c>
       <c r="V36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:25">
@@ -3312,16 +3318,16 @@
         <v>999948</v>
       </c>
       <c r="V37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:25">
@@ -3357,16 +3363,16 @@
         <v>999949</v>
       </c>
       <c r="V38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:25">
@@ -3402,16 +3408,16 @@
         <v>999950</v>
       </c>
       <c r="V39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:25">
@@ -3447,16 +3453,16 @@
         <v>999951</v>
       </c>
       <c r="V40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:25">
@@ -3492,16 +3498,16 @@
         <v>999952</v>
       </c>
       <c r="V41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:25">
@@ -3537,16 +3543,16 @@
         <v>999953</v>
       </c>
       <c r="V42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:25">
@@ -3582,16 +3588,16 @@
         <v>999954</v>
       </c>
       <c r="V43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:25">
@@ -3627,16 +3633,16 @@
         <v>999955</v>
       </c>
       <c r="V44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:25">
@@ -3672,16 +3678,16 @@
         <v>999956</v>
       </c>
       <c r="V45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:25">
@@ -3717,16 +3723,16 @@
         <v>999957</v>
       </c>
       <c r="V46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:25">
@@ -3762,16 +3768,16 @@
         <v>999958</v>
       </c>
       <c r="V47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:25">
@@ -3807,16 +3813,16 @@
         <v>999959</v>
       </c>
       <c r="V48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:25">
@@ -3852,16 +3858,16 @@
         <v>999960</v>
       </c>
       <c r="V49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:25">
@@ -3897,16 +3903,16 @@
         <v>999961</v>
       </c>
       <c r="V50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:25">
@@ -3942,16 +3948,16 @@
         <v>999962</v>
       </c>
       <c r="V51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:25">
@@ -3987,16 +3993,16 @@
         <v>999963</v>
       </c>
       <c r="V52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:25">
@@ -4032,16 +4038,16 @@
         <v>999964</v>
       </c>
       <c r="V53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:25">
@@ -4077,16 +4083,16 @@
         <v>999965</v>
       </c>
       <c r="V54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:25">
@@ -4122,16 +4128,16 @@
         <v>999966</v>
       </c>
       <c r="V55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:25">
@@ -4167,16 +4173,16 @@
         <v>999967</v>
       </c>
       <c r="V56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:25">
@@ -4212,16 +4218,16 @@
         <v>999968</v>
       </c>
       <c r="V57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:25">
@@ -4257,16 +4263,16 @@
         <v>999969</v>
       </c>
       <c r="V58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:25">
@@ -4302,16 +4308,16 @@
         <v>999970</v>
       </c>
       <c r="V59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:25">
@@ -4347,16 +4353,16 @@
         <v>999971</v>
       </c>
       <c r="V60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:25">
@@ -4392,16 +4398,16 @@
         <v>999972</v>
       </c>
       <c r="V61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:25">
@@ -4437,16 +4443,16 @@
         <v>999973</v>
       </c>
       <c r="V62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:25">
@@ -4482,16 +4488,16 @@
         <v>999974</v>
       </c>
       <c r="V63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:25">
@@ -4527,16 +4533,16 @@
         <v>999975</v>
       </c>
       <c r="V64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:25">
@@ -4572,16 +4578,16 @@
         <v>999976</v>
       </c>
       <c r="V65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:25">
@@ -4617,16 +4623,16 @@
         <v>999977</v>
       </c>
       <c r="V66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:25">
@@ -4662,16 +4668,16 @@
         <v>999978</v>
       </c>
       <c r="V67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:25">
@@ -4707,16 +4713,16 @@
         <v>999979</v>
       </c>
       <c r="V68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:25">
@@ -4752,16 +4758,16 @@
         <v>999980</v>
       </c>
       <c r="V69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:25">
@@ -4797,16 +4803,16 @@
         <v>999981</v>
       </c>
       <c r="V70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:25">
@@ -4841,16 +4847,16 @@
         <v>999982</v>
       </c>
       <c r="V71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:25">
@@ -4885,16 +4891,16 @@
         <v>999983</v>
       </c>
       <c r="V72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:25">
@@ -4929,16 +4935,16 @@
         <v>999984</v>
       </c>
       <c r="V73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:25">
@@ -4973,16 +4979,16 @@
         <v>999985</v>
       </c>
       <c r="V74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:25">
@@ -5017,16 +5023,16 @@
         <v>999986</v>
       </c>
       <c r="V75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:25">
@@ -5061,16 +5067,16 @@
         <v>999987</v>
       </c>
       <c r="V76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:25">
@@ -5105,16 +5111,16 @@
         <v>999988</v>
       </c>
       <c r="V77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:25">
@@ -5149,16 +5155,16 @@
         <v>999989</v>
       </c>
       <c r="V78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:25">
@@ -5193,16 +5199,16 @@
         <v>999990</v>
       </c>
       <c r="V79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:25">
@@ -5237,16 +5243,16 @@
         <v>999991</v>
       </c>
       <c r="V80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:25">
@@ -5281,16 +5287,16 @@
         <v>999992</v>
       </c>
       <c r="V81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:25">
@@ -5325,16 +5331,16 @@
         <v>999993</v>
       </c>
       <c r="V82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:25">
@@ -5369,16 +5375,16 @@
         <v>999994</v>
       </c>
       <c r="V83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:25">
@@ -5413,16 +5419,16 @@
         <v>999995</v>
       </c>
       <c r="V84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:25">
@@ -5457,16 +5463,16 @@
         <v>999996</v>
       </c>
       <c r="V85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:25">
@@ -5501,16 +5507,16 @@
         <v>999997</v>
       </c>
       <c r="V86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:25">
@@ -5545,16 +5551,16 @@
         <v>999998</v>
       </c>
       <c r="V87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:25">
@@ -5589,16 +5595,16 @@
         <v>999999</v>
       </c>
       <c r="V88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -212,6 +212,9 @@
     <t>1,2,3,10,</t>
   </si>
   <si>
+    <t>Attack2</t>
+  </si>
+  <si>
     <t>骷髅战士</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t>骷髅</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
     <t>骷髅投手</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>Attack3</t>
   </si>
   <si>
     <t>骷髅魔法师（火）</t>
@@ -1379,7 +1388,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1736,6 +1745,9 @@
       <c r="G6" t="s">
         <v>60</v>
       </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
       <c r="L6">
         <v>200001</v>
       </c>
@@ -1767,13 +1779,13 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1795,6 +1807,9 @@
       <c r="G7" t="s">
         <v>60</v>
       </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
       <c r="L7">
         <v>200001</v>
       </c>
@@ -1826,13 +1841,13 @@
         <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1854,8 +1869,11 @@
       <c r="G8" t="s">
         <v>60</v>
       </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
       <c r="L8">
-        <v>200001</v>
+        <v>201001</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1885,13 +1903,13 @@
         <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
         <v>68</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1913,8 +1931,11 @@
       <c r="G9" t="s">
         <v>60</v>
       </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
       <c r="L9">
-        <v>200001</v>
+        <v>201002</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1944,13 +1965,13 @@
         <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1998,13 +2019,13 @@
         <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:25">
@@ -2048,13 +2069,13 @@
         <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:25">
@@ -2098,13 +2119,13 @@
         <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:25">
@@ -2148,13 +2169,13 @@
         <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:25">
@@ -2199,13 +2220,13 @@
         <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:25">
@@ -2249,13 +2270,13 @@
         <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:25">
@@ -2299,13 +2320,13 @@
         <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:25">
@@ -2349,13 +2370,13 @@
         <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:25">
@@ -2402,13 +2423,13 @@
         <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:25">
@@ -2452,13 +2473,13 @@
         <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:25">
@@ -2502,13 +2523,13 @@
         <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="X20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Y20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:25">
@@ -2552,13 +2573,13 @@
         <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="X21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:25">
@@ -2602,13 +2623,13 @@
         <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:25">
@@ -2652,13 +2673,13 @@
         <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Y23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:25">
@@ -2702,13 +2723,13 @@
         <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:25">
@@ -2752,13 +2773,13 @@
         <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:25">
@@ -2802,13 +2823,13 @@
         <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Y26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:25">
@@ -2852,13 +2873,13 @@
         <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="X27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:25">
@@ -2902,13 +2923,13 @@
         <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:25">
@@ -2952,13 +2973,13 @@
         <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="X29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:25">
@@ -3002,13 +3023,13 @@
         <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:25">
@@ -3052,13 +3073,13 @@
         <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:25">
@@ -3094,16 +3115,16 @@
         <v>989996</v>
       </c>
       <c r="V32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:25">
@@ -3139,16 +3160,16 @@
         <v>989997</v>
       </c>
       <c r="V33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:25">
@@ -3184,16 +3205,16 @@
         <v>989998</v>
       </c>
       <c r="V34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:25">
@@ -3228,16 +3249,16 @@
         <v>989999</v>
       </c>
       <c r="V35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:25">
@@ -3273,16 +3294,16 @@
         <v>999947</v>
       </c>
       <c r="V36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:25">
@@ -3318,16 +3339,16 @@
         <v>999948</v>
       </c>
       <c r="V37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:25">
@@ -3363,16 +3384,16 @@
         <v>999949</v>
       </c>
       <c r="V38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:25">
@@ -3408,16 +3429,16 @@
         <v>999950</v>
       </c>
       <c r="V39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:25">
@@ -3453,16 +3474,16 @@
         <v>999951</v>
       </c>
       <c r="V40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:25">
@@ -3498,16 +3519,16 @@
         <v>999952</v>
       </c>
       <c r="V41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:25">
@@ -3543,16 +3564,16 @@
         <v>999953</v>
       </c>
       <c r="V42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:25">
@@ -3588,16 +3609,16 @@
         <v>999954</v>
       </c>
       <c r="V43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:25">
@@ -3633,16 +3654,16 @@
         <v>999955</v>
       </c>
       <c r="V44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W44" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:25">
@@ -3678,16 +3699,16 @@
         <v>999956</v>
       </c>
       <c r="V45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y45" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:25">
@@ -3723,16 +3744,16 @@
         <v>999957</v>
       </c>
       <c r="V46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:25">
@@ -3768,16 +3789,16 @@
         <v>999958</v>
       </c>
       <c r="V47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:25">
@@ -3813,16 +3834,16 @@
         <v>999959</v>
       </c>
       <c r="V48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X48" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:25">
@@ -3858,16 +3879,16 @@
         <v>999960</v>
       </c>
       <c r="V49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:25">
@@ -3903,16 +3924,16 @@
         <v>999961</v>
       </c>
       <c r="V50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y50" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:25">
@@ -3948,16 +3969,16 @@
         <v>999962</v>
       </c>
       <c r="V51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:25">
@@ -3993,16 +4014,16 @@
         <v>999963</v>
       </c>
       <c r="V52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:25">
@@ -4038,16 +4059,16 @@
         <v>999964</v>
       </c>
       <c r="V53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y53" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:25">
@@ -4083,16 +4104,16 @@
         <v>999965</v>
       </c>
       <c r="V54" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X54" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:25">
@@ -4128,16 +4149,16 @@
         <v>999966</v>
       </c>
       <c r="V55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W55" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y55" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:25">
@@ -4173,16 +4194,16 @@
         <v>999967</v>
       </c>
       <c r="V56" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X56" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y56" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:25">
@@ -4218,16 +4239,16 @@
         <v>999968</v>
       </c>
       <c r="V57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:25">
@@ -4263,16 +4284,16 @@
         <v>999969</v>
       </c>
       <c r="V58" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X58" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y58" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:25">
@@ -4308,16 +4329,16 @@
         <v>999970</v>
       </c>
       <c r="V59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y59" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:25">
@@ -4353,16 +4374,16 @@
         <v>999971</v>
       </c>
       <c r="V60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:25">
@@ -4398,16 +4419,16 @@
         <v>999972</v>
       </c>
       <c r="V61" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:25">
@@ -4443,16 +4464,16 @@
         <v>999973</v>
       </c>
       <c r="V62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W62" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:25">
@@ -4488,16 +4509,16 @@
         <v>999974</v>
       </c>
       <c r="V63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:25">
@@ -4533,16 +4554,16 @@
         <v>999975</v>
       </c>
       <c r="V64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W64" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X64" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:25">
@@ -4578,16 +4599,16 @@
         <v>999976</v>
       </c>
       <c r="V65" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W65" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X65" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:25">
@@ -4623,16 +4644,16 @@
         <v>999977</v>
       </c>
       <c r="V66" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:25">
@@ -4668,16 +4689,16 @@
         <v>999978</v>
       </c>
       <c r="V67" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y67" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:25">
@@ -4713,16 +4734,16 @@
         <v>999979</v>
       </c>
       <c r="V68" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W68" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X68" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y68" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:25">
@@ -4758,16 +4779,16 @@
         <v>999980</v>
       </c>
       <c r="V69" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W69" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y69" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:25">
@@ -4803,16 +4824,16 @@
         <v>999981</v>
       </c>
       <c r="V70" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W70" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X70" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y70" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:25">
@@ -4847,16 +4868,16 @@
         <v>999982</v>
       </c>
       <c r="V71" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W71" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X71" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y71" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:25">
@@ -4891,16 +4912,16 @@
         <v>999983</v>
       </c>
       <c r="V72" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W72" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X72" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y72" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:25">
@@ -4935,16 +4956,16 @@
         <v>999984</v>
       </c>
       <c r="V73" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W73" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X73" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y73" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:25">
@@ -4979,16 +5000,16 @@
         <v>999985</v>
       </c>
       <c r="V74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W74" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X74" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:25">
@@ -5023,16 +5044,16 @@
         <v>999986</v>
       </c>
       <c r="V75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W75" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X75" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y75" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:25">
@@ -5067,16 +5088,16 @@
         <v>999987</v>
       </c>
       <c r="V76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X76" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y76" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:25">
@@ -5111,16 +5132,16 @@
         <v>999988</v>
       </c>
       <c r="V77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W77" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y77" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:25">
@@ -5155,16 +5176,16 @@
         <v>999989</v>
       </c>
       <c r="V78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X78" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:25">
@@ -5199,16 +5220,16 @@
         <v>999990</v>
       </c>
       <c r="V79" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X79" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:25">
@@ -5243,16 +5264,16 @@
         <v>999991</v>
       </c>
       <c r="V80" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y80" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:25">
@@ -5287,16 +5308,16 @@
         <v>999992</v>
       </c>
       <c r="V81" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X81" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:25">
@@ -5331,16 +5352,16 @@
         <v>999993</v>
       </c>
       <c r="V82" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W82" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:25">
@@ -5375,16 +5396,16 @@
         <v>999994</v>
       </c>
       <c r="V83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X83" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:25">
@@ -5419,16 +5440,16 @@
         <v>999995</v>
       </c>
       <c r="V84" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X84" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y84" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:25">
@@ -5463,16 +5484,16 @@
         <v>999996</v>
       </c>
       <c r="V85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W85" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X85" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:25">
@@ -5507,16 +5528,16 @@
         <v>999997</v>
       </c>
       <c r="V86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X86" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:25">
@@ -5551,16 +5572,16 @@
         <v>999998</v>
       </c>
       <c r="V87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y87" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:25">
@@ -5595,16 +5616,16 @@
         <v>999999</v>
       </c>
       <c r="V88" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1388,7 +1388,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1985,6 +1985,9 @@
         <v>120</v>
       </c>
       <c r="D10"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <v>200001</v>
       </c>
@@ -2038,6 +2041,9 @@
       <c r="C11">
         <v>120</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>200001</v>
       </c>
@@ -2088,6 +2094,9 @@
       <c r="C12">
         <v>120</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>200001</v>
       </c>
@@ -2137,6 +2146,9 @@
       </c>
       <c r="C13">
         <v>120</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="L13">
         <v>200001</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -1384,11 +1384,11 @@
   <dimension ref="A1:Y163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,7 +1404,7 @@
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="26.875" customWidth="1"/>
     <col min="14" max="14" width="18.25" customWidth="1"/>
     <col min="15" max="15" width="20.25" customWidth="1"/>
     <col min="16" max="17" width="11.75" customWidth="1"/>
@@ -1752,7 +1752,7 @@
         <v>200001</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>200001</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>201001</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>201002</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1988,11 +1988,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>200001</v>
-      </c>
       <c r="M10">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2044,11 +2041,14 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
       <c r="L11">
         <v>200001</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>200001</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>200001</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="N13">
         <v>1</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -65,13 +65,19 @@
     <t>attack_mode</t>
   </si>
   <si>
-    <t>attack_range</t>
+    <t>attack_search_type</t>
+  </si>
+  <si>
+    <t>attack_search_range</t>
   </si>
   <si>
     <t>attack_cd</t>
   </si>
   <si>
-    <t>attack_anim_cast_time</t>
+    <t>anim_dead_time</t>
+  </si>
+  <si>
+    <t>anim_attack_time</t>
   </si>
   <si>
     <t>HP</t>
@@ -152,10 +158,16 @@
     <t>攻击模式</t>
   </si>
   <si>
-    <t>攻击范围</t>
+    <t>攻击搜索敌人类型0直线 1范围 2遍历路线</t>
+  </si>
+  <si>
+    <t>攻击搜索范围</t>
   </si>
   <si>
     <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>死亡动画时间</t>
   </si>
   <si>
     <t>攻击动画出手时间</t>
@@ -1381,14 +1393,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y163"/>
+  <dimension ref="A1:AA163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,19 +1416,20 @@
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="26.875" customWidth="1"/>
-    <col min="14" max="14" width="18.25" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
-    <col min="16" max="17" width="11.75" customWidth="1"/>
-    <col min="18" max="18" width="20.25" customWidth="1"/>
-    <col min="19" max="19" width="17.75" customWidth="1"/>
-    <col min="20" max="21" width="14.75" customWidth="1"/>
-    <col min="22" max="24" width="47.5" customWidth="1"/>
-    <col min="25" max="25" width="42.875" customWidth="1"/>
-    <col min="26" max="26" width="25.125" customWidth="1"/>
+    <col min="13" max="13" width="39.375" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="18.25" customWidth="1"/>
+    <col min="16" max="17" width="20.25" customWidth="1"/>
+    <col min="18" max="19" width="11.75" customWidth="1"/>
+    <col min="20" max="20" width="20.25" customWidth="1"/>
+    <col min="21" max="21" width="17.75" customWidth="1"/>
+    <col min="22" max="23" width="14.75" customWidth="1"/>
+    <col min="24" max="26" width="47.5" customWidth="1"/>
+    <col min="27" max="27" width="42.875" customWidth="1"/>
+    <col min="28" max="28" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1492,162 +1505,180 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:25">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:27">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1655,25 +1686,25 @@
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:25">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:27">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1688,44 +1719,47 @@
       <c r="L5">
         <v>100001</v>
       </c>
-      <c r="M5">
-        <v>0.5</v>
-      </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
       </c>
       <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
         <v>0.2</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" t="s">
-        <v>58</v>
+      <c r="W5">
+        <v>1</v>
       </c>
       <c r="X5" t="s">
         <v>59</v>
       </c>
       <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>62</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1743,52 +1777,55 @@
         <v>21010001</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L6">
         <v>200001</v>
       </c>
-      <c r="M6">
-        <v>0.5</v>
-      </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
       </c>
       <c r="R6">
         <v>10</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
       <c r="T6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>2</v>
       </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" t="s">
-        <v>62</v>
-      </c>
       <c r="X6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>66</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1805,52 +1842,55 @@
         <v>21000001</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L7">
         <v>200001</v>
       </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
       <c r="N7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
       </c>
       <c r="R7">
         <v>10</v>
       </c>
-      <c r="S7">
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" t="s">
-        <v>66</v>
-      </c>
       <c r="X7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Y7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1867,52 +1907,55 @@
         <v>21010002</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L8">
         <v>201001</v>
       </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
       <c r="N8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" t="s">
-        <v>70</v>
-      </c>
       <c r="X8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1929,52 +1972,55 @@
         <v>21010003</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L9">
         <v>201002</v>
       </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
       <c r="N9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
         <v>5</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>2</v>
       </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s">
         <v>72</v>
       </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -1988,47 +2034,50 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
         <v>500</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>3</v>
       </c>
-      <c r="V10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" t="s">
-        <v>74</v>
-      </c>
       <c r="X10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Y10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:25">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:27">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -2042,49 +2091,55 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L11">
-        <v>200001</v>
+        <v>300001</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>0.15</v>
       </c>
       <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="T11">
         <v>500</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>3</v>
       </c>
-      <c r="V11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" t="s">
-        <v>77</v>
-      </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:25">
+        <v>81</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:27">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -2100,44 +2155,47 @@
       <c r="L12">
         <v>200001</v>
       </c>
-      <c r="M12">
-        <v>0.5</v>
-      </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
         <v>5</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Y12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:25">
+        <v>83</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:27">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -2153,44 +2211,47 @@
       <c r="L13">
         <v>200001</v>
       </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
         <v>5</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="V13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Y13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:25">
+        <v>85</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:27">
       <c r="A14">
         <v>4001</v>
       </c>
@@ -2204,44 +2265,47 @@
       <c r="L14">
         <v>200001</v>
       </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
       <c r="N14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14">
         <v>10</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="V14" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>83</v>
-      </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:25">
+        <v>87</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:27">
       <c r="A15">
         <v>4002</v>
       </c>
@@ -2254,44 +2318,47 @@
       <c r="L15">
         <v>200001</v>
       </c>
-      <c r="M15">
-        <v>6</v>
-      </c>
       <c r="N15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
       </c>
       <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
       <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <v>4</v>
       </c>
-      <c r="V15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" t="s">
-        <v>86</v>
-      </c>
       <c r="X15" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="Y15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:25">
+        <v>90</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:27">
       <c r="A16">
         <v>4003</v>
       </c>
@@ -2304,44 +2371,47 @@
       <c r="L16">
         <v>200001</v>
       </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
       <c r="N16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
       </c>
       <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
         <v>4</v>
       </c>
-      <c r="V16" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" t="s">
-        <v>88</v>
-      </c>
       <c r="X16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="Y16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:25">
+        <v>92</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:27">
       <c r="A17">
         <v>4004</v>
       </c>
@@ -2354,44 +2424,47 @@
       <c r="L17">
         <v>200001</v>
       </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
       <c r="N17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>4</v>
       </c>
-      <c r="V17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
       <c r="X17" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="Y17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:25">
+        <v>94</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:27">
       <c r="A18">
         <v>4005</v>
       </c>
@@ -2404,47 +2477,50 @@
       <c r="L18">
         <v>200001</v>
       </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
       <c r="N18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
         <v>100</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
       <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>4</v>
       </c>
-      <c r="V18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" t="s">
-        <v>92</v>
-      </c>
       <c r="X18" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="Y18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:25">
+        <v>96</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:27">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2457,44 +2533,47 @@
       <c r="L19">
         <v>200001</v>
       </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
       <c r="N19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
         <v>30</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>3</v>
-      </c>
-      <c r="S19">
-        <v>5</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
       </c>
       <c r="U19">
         <v>5</v>
       </c>
-      <c r="V19" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" t="s">
-        <v>94</v>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
       </c>
       <c r="X19" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Y19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:25">
+        <v>98</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:27">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2507,44 +2586,47 @@
       <c r="L20">
         <v>200001</v>
       </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
       <c r="N20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
         <v>30</v>
       </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
       <c r="T20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>5</v>
       </c>
-      <c r="V20" t="s">
-        <v>55</v>
-      </c>
-      <c r="W20" t="s">
-        <v>97</v>
-      </c>
       <c r="X20" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="Y20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:25">
+        <v>101</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:27">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2557,44 +2639,47 @@
       <c r="L21">
         <v>200001</v>
       </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
       <c r="N21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
         <v>15</v>
       </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
         <v>5</v>
       </c>
-      <c r="V21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" t="s">
-        <v>99</v>
-      </c>
       <c r="X21" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:25">
+        <v>103</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:27">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -2607,44 +2692,47 @@
       <c r="L22">
         <v>200001</v>
       </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
       <c r="N22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
         <v>15</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>5</v>
       </c>
-      <c r="V22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" t="s">
-        <v>101</v>
-      </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:25">
+        <v>105</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:27">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -2657,44 +2745,47 @@
       <c r="L23">
         <v>200001</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
       <c r="N23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
         <v>8</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>5</v>
       </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
       <c r="U23">
-        <v>6</v>
-      </c>
-      <c r="V23" t="s">
-        <v>55</v>
-      </c>
-      <c r="W23" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
       </c>
       <c r="X23" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="Y23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:25">
+        <v>107</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:27">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -2707,44 +2798,47 @@
       <c r="L24">
         <v>200001</v>
       </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
       <c r="N24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
         <v>8</v>
       </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
       <c r="T24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U24">
-        <v>6</v>
-      </c>
-      <c r="V24" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
       </c>
       <c r="X24" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="Y24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:25">
+        <v>110</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:27">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -2757,44 +2851,47 @@
       <c r="L25">
         <v>200001</v>
       </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
       <c r="N25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
       </c>
       <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="T25">
         <v>500</v>
       </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
       <c r="U25">
-        <v>6</v>
-      </c>
-      <c r="V25" t="s">
-        <v>55</v>
-      </c>
-      <c r="W25" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
       </c>
       <c r="X25" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="Y25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:25">
+        <v>112</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:27">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -2807,44 +2904,47 @@
       <c r="L26">
         <v>200001</v>
       </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
       <c r="N26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26">
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
         <v>3</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>6</v>
-      </c>
-      <c r="V26" t="s">
-        <v>55</v>
-      </c>
-      <c r="W26" t="s">
-        <v>110</v>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="Y26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:25">
+        <v>114</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:27">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -2857,44 +2957,47 @@
       <c r="L27">
         <v>200001</v>
       </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
       <c r="N27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
         <v>4</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>6</v>
-      </c>
-      <c r="V27" t="s">
-        <v>55</v>
-      </c>
-      <c r="W27" t="s">
-        <v>112</v>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
       </c>
       <c r="X27" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="Y27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:25">
+        <v>116</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:27">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -2907,44 +3010,47 @@
       <c r="L28">
         <v>200001</v>
       </c>
-      <c r="M28">
-        <v>6</v>
-      </c>
       <c r="N28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>12</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
       </c>
       <c r="R28">
         <v>12</v>
       </c>
-      <c r="S28">
+      <c r="T28">
+        <v>12</v>
+      </c>
+      <c r="U28">
         <v>8</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
         <v>7</v>
       </c>
-      <c r="V28" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" t="s">
-        <v>114</v>
-      </c>
       <c r="X28" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="Y28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:25">
+        <v>118</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:27">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -2957,44 +3063,47 @@
       <c r="L29">
         <v>200001</v>
       </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
       <c r="N29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
         <v>12</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="S29">
-        <v>10</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
       <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
         <v>7</v>
       </c>
-      <c r="V29" t="s">
-        <v>55</v>
-      </c>
-      <c r="W29" t="s">
-        <v>117</v>
-      </c>
       <c r="X29" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="Y29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:25">
+        <v>121</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:27">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -3007,44 +3116,47 @@
       <c r="L30">
         <v>200001</v>
       </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
       <c r="N30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
         <v>7</v>
       </c>
-      <c r="V30" t="s">
-        <v>55</v>
-      </c>
-      <c r="W30" t="s">
-        <v>119</v>
-      </c>
       <c r="X30" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="Y30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:25">
+        <v>123</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:27">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -3057,44 +3169,47 @@
       <c r="L31">
         <v>200001</v>
       </c>
-      <c r="M31">
-        <v>6</v>
-      </c>
       <c r="N31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
         <v>7</v>
       </c>
-      <c r="V31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" t="s">
-        <v>121</v>
-      </c>
       <c r="X31" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="Y31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:25">
+        <v>125</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:27">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
@@ -3104,42 +3219,45 @@
       <c r="L32">
         <v>200001</v>
       </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
       <c r="N32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="T32">
         <v>35</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="U32" s="2"/>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
         <v>989996</v>
       </c>
-      <c r="V32" t="s">
-        <v>123</v>
-      </c>
-      <c r="W32" t="s">
-        <v>124</v>
-      </c>
       <c r="X32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:27">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
@@ -3149,42 +3267,45 @@
       <c r="L33">
         <v>200001</v>
       </c>
-      <c r="M33">
-        <v>6</v>
-      </c>
       <c r="N33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
       </c>
       <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="T33">
         <v>35</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1">
+      <c r="U33" s="2"/>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
         <v>989997</v>
       </c>
-      <c r="V33" t="s">
-        <v>123</v>
-      </c>
-      <c r="W33" t="s">
-        <v>124</v>
-      </c>
       <c r="X33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:27">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
@@ -3194,42 +3315,45 @@
       <c r="L34">
         <v>200001</v>
       </c>
-      <c r="M34">
-        <v>6</v>
-      </c>
       <c r="N34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
       </c>
       <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="T34">
         <v>35</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1">
+      <c r="U34" s="2"/>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
         <v>989998</v>
       </c>
-      <c r="V34" t="s">
-        <v>123</v>
-      </c>
-      <c r="W34" t="s">
-        <v>124</v>
-      </c>
       <c r="X34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:27">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
@@ -3239,41 +3363,44 @@
       <c r="L35">
         <v>200001</v>
       </c>
-      <c r="M35">
-        <v>6</v>
-      </c>
       <c r="N35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
       </c>
       <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="T35">
         <v>35</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
         <v>989999</v>
       </c>
-      <c r="V35" t="s">
-        <v>123</v>
-      </c>
-      <c r="W35" t="s">
-        <v>124</v>
-      </c>
       <c r="X35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:27">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
@@ -3283,42 +3410,45 @@
       <c r="L36">
         <v>200001</v>
       </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
       <c r="N36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
       </c>
       <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="T36">
         <v>35</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1">
+      <c r="U36" s="2"/>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
         <v>999947</v>
       </c>
-      <c r="V36" t="s">
-        <v>123</v>
-      </c>
-      <c r="W36" t="s">
-        <v>124</v>
-      </c>
       <c r="X36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:27">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
@@ -3328,42 +3458,45 @@
       <c r="L37">
         <v>200001</v>
       </c>
-      <c r="M37">
-        <v>6</v>
-      </c>
       <c r="N37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="T37">
         <v>35</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1">
+      <c r="U37" s="2"/>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
         <v>999948</v>
       </c>
-      <c r="V37" t="s">
-        <v>123</v>
-      </c>
-      <c r="W37" t="s">
-        <v>124</v>
-      </c>
       <c r="X37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:27">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
@@ -3373,42 +3506,45 @@
       <c r="L38">
         <v>200001</v>
       </c>
-      <c r="M38">
-        <v>6</v>
-      </c>
       <c r="N38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="T38">
         <v>35</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1">
+      <c r="U38" s="2"/>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
         <v>999949</v>
       </c>
-      <c r="V38" t="s">
-        <v>123</v>
-      </c>
-      <c r="W38" t="s">
-        <v>124</v>
-      </c>
       <c r="X38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:27">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
@@ -3418,42 +3554,45 @@
       <c r="L39">
         <v>200001</v>
       </c>
-      <c r="M39">
-        <v>6</v>
-      </c>
       <c r="N39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
       </c>
       <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="T39">
         <v>35</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1">
+      <c r="U39" s="2"/>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
         <v>999950</v>
       </c>
-      <c r="V39" t="s">
-        <v>123</v>
-      </c>
-      <c r="W39" t="s">
-        <v>124</v>
-      </c>
       <c r="X39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:27">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
@@ -3463,42 +3602,45 @@
       <c r="L40">
         <v>200001</v>
       </c>
-      <c r="M40">
-        <v>6</v>
-      </c>
       <c r="N40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q40">
+        <v>0.5</v>
       </c>
       <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="T40">
         <v>35</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1">
+      <c r="U40" s="2"/>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
         <v>999951</v>
       </c>
-      <c r="V40" t="s">
-        <v>123</v>
-      </c>
-      <c r="W40" t="s">
-        <v>124</v>
-      </c>
       <c r="X40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:27">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
@@ -3508,42 +3650,45 @@
       <c r="L41">
         <v>200001</v>
       </c>
-      <c r="M41">
-        <v>6</v>
-      </c>
       <c r="N41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
       </c>
       <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="T41">
         <v>35</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1">
+      <c r="U41" s="2"/>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
         <v>999952</v>
       </c>
-      <c r="V41" t="s">
-        <v>123</v>
-      </c>
-      <c r="W41" t="s">
-        <v>124</v>
-      </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:27">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
@@ -3553,42 +3698,45 @@
       <c r="L42">
         <v>200001</v>
       </c>
-      <c r="M42">
-        <v>6</v>
-      </c>
       <c r="N42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q42">
+        <v>0.5</v>
       </c>
       <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="T42">
         <v>35</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1">
+      <c r="U42" s="2"/>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
         <v>999953</v>
       </c>
-      <c r="V42" t="s">
-        <v>123</v>
-      </c>
-      <c r="W42" t="s">
-        <v>124</v>
-      </c>
       <c r="X42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:27">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
@@ -3598,42 +3746,45 @@
       <c r="L43">
         <v>200001</v>
       </c>
-      <c r="M43">
-        <v>6</v>
-      </c>
       <c r="N43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
       </c>
       <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="T43">
         <v>35</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1">
+      <c r="U43" s="2"/>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
         <v>999954</v>
       </c>
-      <c r="V43" t="s">
-        <v>123</v>
-      </c>
-      <c r="W43" t="s">
-        <v>124</v>
-      </c>
       <c r="X43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:27">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
@@ -3643,42 +3794,45 @@
       <c r="L44">
         <v>200001</v>
       </c>
-      <c r="M44">
-        <v>6</v>
-      </c>
       <c r="N44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q44">
+        <v>0.5</v>
       </c>
       <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="T44">
         <v>35</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1">
+      <c r="U44" s="2"/>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
         <v>999955</v>
       </c>
-      <c r="V44" t="s">
-        <v>123</v>
-      </c>
-      <c r="W44" t="s">
-        <v>124</v>
-      </c>
       <c r="X44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:27">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
@@ -3688,42 +3842,45 @@
       <c r="L45">
         <v>200001</v>
       </c>
-      <c r="M45">
-        <v>6</v>
-      </c>
       <c r="N45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0.5</v>
       </c>
       <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="T45">
         <v>35</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1">
+      <c r="U45" s="2"/>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
         <v>999956</v>
       </c>
-      <c r="V45" t="s">
-        <v>123</v>
-      </c>
-      <c r="W45" t="s">
-        <v>124</v>
-      </c>
       <c r="X45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:27">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
@@ -3733,42 +3890,45 @@
       <c r="L46">
         <v>200001</v>
       </c>
-      <c r="M46">
-        <v>6</v>
-      </c>
       <c r="N46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
       </c>
       <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="T46">
         <v>35</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46" s="1">
+      <c r="U46" s="2"/>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
         <v>999957</v>
       </c>
-      <c r="V46" t="s">
-        <v>123</v>
-      </c>
-      <c r="W46" t="s">
-        <v>124</v>
-      </c>
       <c r="X46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:27">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
@@ -3778,42 +3938,45 @@
       <c r="L47">
         <v>200001</v>
       </c>
-      <c r="M47">
-        <v>6</v>
-      </c>
       <c r="N47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>0.5</v>
       </c>
       <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="T47">
         <v>35</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47" s="1">
+      <c r="U47" s="2"/>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
         <v>999958</v>
       </c>
-      <c r="V47" t="s">
-        <v>123</v>
-      </c>
-      <c r="W47" t="s">
-        <v>124</v>
-      </c>
       <c r="X47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:27">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
@@ -3823,42 +3986,45 @@
       <c r="L48">
         <v>200001</v>
       </c>
-      <c r="M48">
-        <v>6</v>
-      </c>
       <c r="N48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q48">
+        <v>0.5</v>
       </c>
       <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="T48">
         <v>35</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48" s="1">
+      <c r="U48" s="2"/>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
         <v>999959</v>
       </c>
-      <c r="V48" t="s">
-        <v>123</v>
-      </c>
-      <c r="W48" t="s">
-        <v>124</v>
-      </c>
       <c r="X48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:27">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
@@ -3868,42 +4034,45 @@
       <c r="L49">
         <v>200001</v>
       </c>
-      <c r="M49">
-        <v>6</v>
-      </c>
       <c r="N49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q49">
+        <v>0.5</v>
       </c>
       <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="T49">
         <v>35</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49" s="1">
+      <c r="U49" s="2"/>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
         <v>999960</v>
       </c>
-      <c r="V49" t="s">
-        <v>123</v>
-      </c>
-      <c r="W49" t="s">
-        <v>124</v>
-      </c>
       <c r="X49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:27">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
@@ -3913,42 +4082,45 @@
       <c r="L50">
         <v>200001</v>
       </c>
-      <c r="M50">
-        <v>6</v>
-      </c>
       <c r="N50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q50">
+        <v>0.5</v>
       </c>
       <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="T50">
         <v>35</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50" s="1">
+      <c r="U50" s="2"/>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1">
         <v>999961</v>
       </c>
-      <c r="V50" t="s">
-        <v>123</v>
-      </c>
-      <c r="W50" t="s">
-        <v>124</v>
-      </c>
       <c r="X50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:27">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
@@ -3958,42 +4130,45 @@
       <c r="L51">
         <v>200001</v>
       </c>
-      <c r="M51">
-        <v>6</v>
-      </c>
       <c r="N51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
       </c>
       <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="T51">
         <v>35</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1">
+      <c r="U51" s="2"/>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
         <v>999962</v>
       </c>
-      <c r="V51" t="s">
-        <v>123</v>
-      </c>
-      <c r="W51" t="s">
-        <v>124</v>
-      </c>
       <c r="X51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:27">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
@@ -4003,42 +4178,45 @@
       <c r="L52">
         <v>200001</v>
       </c>
-      <c r="M52">
-        <v>6</v>
-      </c>
       <c r="N52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
       </c>
       <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="T52">
         <v>35</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52" s="1">
+      <c r="U52" s="2"/>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
         <v>999963</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
-      </c>
-      <c r="W52" t="s">
-        <v>124</v>
-      </c>
       <c r="X52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:27">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
@@ -4048,42 +4226,45 @@
       <c r="L53">
         <v>200001</v>
       </c>
-      <c r="M53">
-        <v>6</v>
-      </c>
       <c r="N53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q53">
+        <v>0.5</v>
       </c>
       <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="T53">
         <v>35</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53" s="1">
+      <c r="U53" s="2"/>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
         <v>999964</v>
       </c>
-      <c r="V53" t="s">
-        <v>123</v>
-      </c>
-      <c r="W53" t="s">
-        <v>124</v>
-      </c>
       <c r="X53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:27">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
@@ -4093,42 +4274,45 @@
       <c r="L54">
         <v>200001</v>
       </c>
-      <c r="M54">
-        <v>6</v>
-      </c>
       <c r="N54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
       </c>
       <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="T54">
         <v>35</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54" s="1">
+      <c r="U54" s="2"/>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1">
         <v>999965</v>
       </c>
-      <c r="V54" t="s">
-        <v>123</v>
-      </c>
-      <c r="W54" t="s">
-        <v>124</v>
-      </c>
       <c r="X54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:27">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
@@ -4138,42 +4322,45 @@
       <c r="L55">
         <v>200001</v>
       </c>
-      <c r="M55">
-        <v>6</v>
-      </c>
       <c r="N55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q55">
+        <v>0.5</v>
       </c>
       <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="T55">
         <v>35</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55" s="1">
+      <c r="U55" s="2"/>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
         <v>999966</v>
       </c>
-      <c r="V55" t="s">
-        <v>123</v>
-      </c>
-      <c r="W55" t="s">
-        <v>124</v>
-      </c>
       <c r="X55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:27">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
@@ -4183,42 +4370,45 @@
       <c r="L56">
         <v>200001</v>
       </c>
-      <c r="M56">
-        <v>6</v>
-      </c>
       <c r="N56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>0.5</v>
       </c>
       <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="T56">
         <v>35</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1">
+      <c r="U56" s="2"/>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1">
         <v>999967</v>
       </c>
-      <c r="V56" t="s">
-        <v>123</v>
-      </c>
-      <c r="W56" t="s">
-        <v>124</v>
-      </c>
       <c r="X56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:27">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
@@ -4228,42 +4418,45 @@
       <c r="L57">
         <v>200001</v>
       </c>
-      <c r="M57">
-        <v>6</v>
-      </c>
       <c r="N57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q57">
+        <v>0.5</v>
       </c>
       <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="T57">
         <v>35</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1">
+      <c r="U57" s="2"/>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1">
         <v>999968</v>
       </c>
-      <c r="V57" t="s">
-        <v>123</v>
-      </c>
-      <c r="W57" t="s">
-        <v>124</v>
-      </c>
       <c r="X57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:27">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
@@ -4273,42 +4466,45 @@
       <c r="L58">
         <v>200001</v>
       </c>
-      <c r="M58">
-        <v>6</v>
-      </c>
       <c r="N58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q58">
+        <v>0.5</v>
       </c>
       <c r="R58">
+        <v>10</v>
+      </c>
+      <c r="T58">
         <v>35</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58" s="1">
+      <c r="U58" s="2"/>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
         <v>999969</v>
       </c>
-      <c r="V58" t="s">
-        <v>123</v>
-      </c>
-      <c r="W58" t="s">
-        <v>124</v>
-      </c>
       <c r="X58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:27">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
@@ -4318,42 +4514,45 @@
       <c r="L59">
         <v>200001</v>
       </c>
-      <c r="M59">
-        <v>6</v>
-      </c>
       <c r="N59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
       </c>
       <c r="R59">
+        <v>10</v>
+      </c>
+      <c r="T59">
         <v>35</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
+      <c r="U59" s="2"/>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
         <v>999970</v>
       </c>
-      <c r="V59" t="s">
-        <v>123</v>
-      </c>
-      <c r="W59" t="s">
-        <v>124</v>
-      </c>
       <c r="X59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:27">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
@@ -4363,42 +4562,45 @@
       <c r="L60">
         <v>200001</v>
       </c>
-      <c r="M60">
-        <v>6</v>
-      </c>
       <c r="N60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q60">
+        <v>0.5</v>
       </c>
       <c r="R60">
+        <v>10</v>
+      </c>
+      <c r="T60">
         <v>35</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60" s="1">
+      <c r="U60" s="2"/>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1">
         <v>999971</v>
       </c>
-      <c r="V60" t="s">
-        <v>123</v>
-      </c>
-      <c r="W60" t="s">
-        <v>124</v>
-      </c>
       <c r="X60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:27">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
@@ -4408,42 +4610,45 @@
       <c r="L61">
         <v>200001</v>
       </c>
-      <c r="M61">
-        <v>6</v>
-      </c>
       <c r="N61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
       </c>
       <c r="R61">
+        <v>10</v>
+      </c>
+      <c r="T61">
         <v>35</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="U61" s="1">
+      <c r="U61" s="2"/>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
         <v>999972</v>
       </c>
-      <c r="V61" t="s">
-        <v>123</v>
-      </c>
-      <c r="W61" t="s">
-        <v>124</v>
-      </c>
       <c r="X61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:27">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
@@ -4453,42 +4658,45 @@
       <c r="L62">
         <v>200001</v>
       </c>
-      <c r="M62">
-        <v>6</v>
-      </c>
       <c r="N62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q62">
+        <v>0.5</v>
       </c>
       <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="T62">
         <v>35</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1">
+      <c r="U62" s="2"/>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1">
         <v>999973</v>
       </c>
-      <c r="V62" t="s">
-        <v>123</v>
-      </c>
-      <c r="W62" t="s">
-        <v>124</v>
-      </c>
       <c r="X62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:27">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
@@ -4498,42 +4706,45 @@
       <c r="L63">
         <v>200001</v>
       </c>
-      <c r="M63">
-        <v>6</v>
-      </c>
       <c r="N63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q63">
+        <v>0.5</v>
       </c>
       <c r="R63">
+        <v>10</v>
+      </c>
+      <c r="T63">
         <v>35</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63">
-        <v>1</v>
-      </c>
-      <c r="U63" s="1">
+      <c r="U63" s="2"/>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63" s="1">
         <v>999974</v>
       </c>
-      <c r="V63" t="s">
-        <v>123</v>
-      </c>
-      <c r="W63" t="s">
-        <v>124</v>
-      </c>
       <c r="X63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:27">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
@@ -4543,42 +4754,45 @@
       <c r="L64">
         <v>200001</v>
       </c>
-      <c r="M64">
-        <v>6</v>
-      </c>
       <c r="N64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
       </c>
       <c r="R64">
+        <v>10</v>
+      </c>
+      <c r="T64">
         <v>35</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="U64" s="1">
+      <c r="U64" s="2"/>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
         <v>999975</v>
       </c>
-      <c r="V64" t="s">
-        <v>123</v>
-      </c>
-      <c r="W64" t="s">
-        <v>124</v>
-      </c>
       <c r="X64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:27">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
@@ -4588,42 +4802,45 @@
       <c r="L65">
         <v>200001</v>
       </c>
-      <c r="M65">
-        <v>6</v>
-      </c>
       <c r="N65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>0.5</v>
       </c>
       <c r="R65">
+        <v>10</v>
+      </c>
+      <c r="T65">
         <v>35</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="U65" s="1">
+      <c r="U65" s="2"/>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
         <v>999976</v>
       </c>
-      <c r="V65" t="s">
-        <v>123</v>
-      </c>
-      <c r="W65" t="s">
-        <v>124</v>
-      </c>
       <c r="X65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:27">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
@@ -4633,42 +4850,45 @@
       <c r="L66">
         <v>200001</v>
       </c>
-      <c r="M66">
-        <v>6</v>
-      </c>
       <c r="N66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q66">
+        <v>0.5</v>
       </c>
       <c r="R66">
+        <v>10</v>
+      </c>
+      <c r="T66">
         <v>35</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1">
+      <c r="U66" s="2"/>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1">
         <v>999977</v>
       </c>
-      <c r="V66" t="s">
-        <v>123</v>
-      </c>
-      <c r="W66" t="s">
-        <v>124</v>
-      </c>
       <c r="X66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:27">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
@@ -4678,42 +4898,45 @@
       <c r="L67">
         <v>200001</v>
       </c>
-      <c r="M67">
-        <v>6</v>
-      </c>
       <c r="N67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>0.5</v>
       </c>
       <c r="R67">
+        <v>10</v>
+      </c>
+      <c r="T67">
         <v>35</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1">
+      <c r="U67" s="2"/>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1">
         <v>999978</v>
       </c>
-      <c r="V67" t="s">
-        <v>123</v>
-      </c>
-      <c r="W67" t="s">
-        <v>124</v>
-      </c>
       <c r="X67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:27">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
@@ -4723,42 +4946,45 @@
       <c r="L68">
         <v>200001</v>
       </c>
-      <c r="M68">
-        <v>6</v>
-      </c>
       <c r="N68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q68">
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>10</v>
+      </c>
+      <c r="T68">
         <v>35</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1">
+      <c r="U68" s="2"/>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68" s="1">
         <v>999979</v>
       </c>
-      <c r="V68" t="s">
-        <v>123</v>
-      </c>
-      <c r="W68" t="s">
-        <v>124</v>
-      </c>
       <c r="X68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y68" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:27">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
@@ -4768,42 +4994,45 @@
       <c r="L69">
         <v>200001</v>
       </c>
-      <c r="M69">
-        <v>6</v>
-      </c>
       <c r="N69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P69">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
       </c>
       <c r="R69">
+        <v>10</v>
+      </c>
+      <c r="T69">
         <v>35</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1">
+      <c r="U69" s="2"/>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69" s="1">
         <v>999980</v>
       </c>
-      <c r="V69" t="s">
-        <v>123</v>
-      </c>
-      <c r="W69" t="s">
-        <v>124</v>
-      </c>
       <c r="X69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:27">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
@@ -4813,42 +5042,45 @@
       <c r="L70">
         <v>200001</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
       <c r="N70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q70">
+        <v>0.5</v>
       </c>
       <c r="R70">
+        <v>10</v>
+      </c>
+      <c r="T70">
         <v>35</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70">
-        <v>1</v>
-      </c>
-      <c r="U70" s="1">
+      <c r="U70" s="2"/>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70" s="1">
         <v>999981</v>
       </c>
-      <c r="V70" t="s">
-        <v>123</v>
-      </c>
-      <c r="W70" t="s">
-        <v>124</v>
-      </c>
       <c r="X70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:27">
       <c r="A71">
         <v>999982</v>
       </c>
@@ -4858,41 +5090,44 @@
       <c r="L71">
         <v>200001</v>
       </c>
-      <c r="M71">
-        <v>6</v>
-      </c>
       <c r="N71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
       </c>
       <c r="R71">
+        <v>10</v>
+      </c>
+      <c r="T71">
         <v>35</v>
       </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
-      <c r="U71">
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>999982</v>
       </c>
-      <c r="V71" t="s">
-        <v>123</v>
-      </c>
-      <c r="W71" t="s">
-        <v>124</v>
-      </c>
       <c r="X71" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:27">
       <c r="A72">
         <v>999983</v>
       </c>
@@ -4902,41 +5137,44 @@
       <c r="L72">
         <v>200001</v>
       </c>
-      <c r="M72">
-        <v>6</v>
-      </c>
       <c r="N72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q72">
+        <v>0.5</v>
       </c>
       <c r="R72">
+        <v>10</v>
+      </c>
+      <c r="T72">
         <v>35</v>
       </c>
-      <c r="T72">
-        <v>1</v>
-      </c>
-      <c r="U72">
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
         <v>999983</v>
       </c>
-      <c r="V72" t="s">
-        <v>123</v>
-      </c>
-      <c r="W72" t="s">
-        <v>124</v>
-      </c>
       <c r="X72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:27">
       <c r="A73">
         <v>999984</v>
       </c>
@@ -4946,41 +5184,44 @@
       <c r="L73">
         <v>200001</v>
       </c>
-      <c r="M73">
-        <v>6</v>
-      </c>
       <c r="N73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q73">
+        <v>0.5</v>
       </c>
       <c r="R73">
+        <v>10</v>
+      </c>
+      <c r="T73">
         <v>35</v>
       </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="U73">
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
         <v>999984</v>
       </c>
-      <c r="V73" t="s">
-        <v>123</v>
-      </c>
-      <c r="W73" t="s">
-        <v>124</v>
-      </c>
       <c r="X73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:27">
       <c r="A74">
         <v>999985</v>
       </c>
@@ -4990,41 +5231,44 @@
       <c r="L74">
         <v>200001</v>
       </c>
-      <c r="M74">
-        <v>6</v>
-      </c>
       <c r="N74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q74">
+        <v>0.5</v>
       </c>
       <c r="R74">
+        <v>10</v>
+      </c>
+      <c r="T74">
         <v>35</v>
       </c>
-      <c r="T74">
-        <v>1</v>
-      </c>
-      <c r="U74">
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
         <v>999985</v>
       </c>
-      <c r="V74" t="s">
-        <v>123</v>
-      </c>
-      <c r="W74" t="s">
-        <v>124</v>
-      </c>
       <c r="X74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:27">
       <c r="A75">
         <v>999986</v>
       </c>
@@ -5034,41 +5278,44 @@
       <c r="L75">
         <v>200001</v>
       </c>
-      <c r="M75">
-        <v>6</v>
-      </c>
       <c r="N75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P75">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q75">
+        <v>0.5</v>
       </c>
       <c r="R75">
+        <v>10</v>
+      </c>
+      <c r="T75">
         <v>35</v>
       </c>
-      <c r="T75">
-        <v>1</v>
-      </c>
-      <c r="U75">
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
         <v>999986</v>
       </c>
-      <c r="V75" t="s">
-        <v>123</v>
-      </c>
-      <c r="W75" t="s">
-        <v>124</v>
-      </c>
       <c r="X75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:27">
       <c r="A76">
         <v>999987</v>
       </c>
@@ -5078,41 +5325,44 @@
       <c r="L76">
         <v>200001</v>
       </c>
-      <c r="M76">
-        <v>6</v>
-      </c>
       <c r="N76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q76">
+        <v>0.5</v>
       </c>
       <c r="R76">
+        <v>10</v>
+      </c>
+      <c r="T76">
         <v>35</v>
       </c>
-      <c r="T76">
-        <v>1</v>
-      </c>
-      <c r="U76">
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
         <v>999987</v>
       </c>
-      <c r="V76" t="s">
-        <v>123</v>
-      </c>
-      <c r="W76" t="s">
-        <v>124</v>
-      </c>
       <c r="X76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:27">
       <c r="A77">
         <v>999988</v>
       </c>
@@ -5122,41 +5372,44 @@
       <c r="L77">
         <v>200001</v>
       </c>
-      <c r="M77">
-        <v>6</v>
-      </c>
       <c r="N77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P77">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q77">
+        <v>0.5</v>
       </c>
       <c r="R77">
+        <v>10</v>
+      </c>
+      <c r="T77">
         <v>35</v>
       </c>
-      <c r="T77">
-        <v>1</v>
-      </c>
-      <c r="U77">
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
         <v>999988</v>
       </c>
-      <c r="V77" t="s">
-        <v>123</v>
-      </c>
-      <c r="W77" t="s">
-        <v>124</v>
-      </c>
       <c r="X77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y77" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:27">
       <c r="A78">
         <v>999989</v>
       </c>
@@ -5166,41 +5419,44 @@
       <c r="L78">
         <v>200001</v>
       </c>
-      <c r="M78">
-        <v>6</v>
-      </c>
       <c r="N78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P78">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q78">
+        <v>0.5</v>
       </c>
       <c r="R78">
+        <v>10</v>
+      </c>
+      <c r="T78">
         <v>35</v>
       </c>
-      <c r="T78">
-        <v>1</v>
-      </c>
-      <c r="U78">
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
         <v>999989</v>
       </c>
-      <c r="V78" t="s">
-        <v>123</v>
-      </c>
-      <c r="W78" t="s">
-        <v>124</v>
-      </c>
       <c r="X78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:27">
       <c r="A79">
         <v>999990</v>
       </c>
@@ -5210,41 +5466,44 @@
       <c r="L79">
         <v>200001</v>
       </c>
-      <c r="M79">
-        <v>6</v>
-      </c>
       <c r="N79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P79">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q79">
+        <v>0.5</v>
       </c>
       <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="T79">
         <v>35</v>
       </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
-      <c r="U79">
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
         <v>999990</v>
       </c>
-      <c r="V79" t="s">
-        <v>123</v>
-      </c>
-      <c r="W79" t="s">
-        <v>124</v>
-      </c>
       <c r="X79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:27">
       <c r="A80">
         <v>999991</v>
       </c>
@@ -5254,41 +5513,44 @@
       <c r="L80">
         <v>200001</v>
       </c>
-      <c r="M80">
-        <v>6</v>
-      </c>
       <c r="N80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q80">
+        <v>0.5</v>
       </c>
       <c r="R80">
+        <v>10</v>
+      </c>
+      <c r="T80">
         <v>35</v>
       </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
-      <c r="U80">
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
         <v>999991</v>
       </c>
-      <c r="V80" t="s">
-        <v>123</v>
-      </c>
-      <c r="W80" t="s">
-        <v>124</v>
-      </c>
       <c r="X80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:27">
       <c r="A81">
         <v>999992</v>
       </c>
@@ -5298,41 +5560,44 @@
       <c r="L81">
         <v>200001</v>
       </c>
-      <c r="M81">
-        <v>6</v>
-      </c>
       <c r="N81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q81">
+        <v>0.5</v>
       </c>
       <c r="R81">
+        <v>10</v>
+      </c>
+      <c r="T81">
         <v>35</v>
       </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
-      <c r="U81">
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
         <v>999992</v>
       </c>
-      <c r="V81" t="s">
-        <v>123</v>
-      </c>
-      <c r="W81" t="s">
-        <v>124</v>
-      </c>
       <c r="X81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:27">
       <c r="A82">
         <v>999993</v>
       </c>
@@ -5342,41 +5607,44 @@
       <c r="L82">
         <v>200001</v>
       </c>
-      <c r="M82">
-        <v>6</v>
-      </c>
       <c r="N82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P82">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>10</v>
+      </c>
+      <c r="T82">
         <v>35</v>
       </c>
-      <c r="T82">
-        <v>1</v>
-      </c>
-      <c r="U82">
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
         <v>999993</v>
       </c>
-      <c r="V82" t="s">
-        <v>123</v>
-      </c>
-      <c r="W82" t="s">
-        <v>124</v>
-      </c>
       <c r="X82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:27">
       <c r="A83">
         <v>999994</v>
       </c>
@@ -5386,41 +5654,44 @@
       <c r="L83">
         <v>200001</v>
       </c>
-      <c r="M83">
-        <v>6</v>
-      </c>
       <c r="N83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q83">
+        <v>0.5</v>
       </c>
       <c r="R83">
+        <v>10</v>
+      </c>
+      <c r="T83">
         <v>35</v>
       </c>
-      <c r="T83">
-        <v>1</v>
-      </c>
-      <c r="U83">
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
         <v>999994</v>
       </c>
-      <c r="V83" t="s">
-        <v>123</v>
-      </c>
-      <c r="W83" t="s">
-        <v>124</v>
-      </c>
       <c r="X83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:27">
       <c r="A84">
         <v>999995</v>
       </c>
@@ -5430,41 +5701,44 @@
       <c r="L84">
         <v>200001</v>
       </c>
-      <c r="M84">
-        <v>6</v>
-      </c>
       <c r="N84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P84">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q84">
+        <v>0.5</v>
       </c>
       <c r="R84">
+        <v>10</v>
+      </c>
+      <c r="T84">
         <v>35</v>
       </c>
-      <c r="T84">
-        <v>1</v>
-      </c>
-      <c r="U84">
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
         <v>999995</v>
       </c>
-      <c r="V84" t="s">
-        <v>123</v>
-      </c>
-      <c r="W84" t="s">
-        <v>124</v>
-      </c>
       <c r="X84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:27">
       <c r="A85">
         <v>999996</v>
       </c>
@@ -5474,41 +5748,44 @@
       <c r="L85">
         <v>200001</v>
       </c>
-      <c r="M85">
-        <v>6</v>
-      </c>
       <c r="N85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q85">
+        <v>0.5</v>
       </c>
       <c r="R85">
+        <v>10</v>
+      </c>
+      <c r="T85">
         <v>35</v>
       </c>
-      <c r="T85">
-        <v>1</v>
-      </c>
-      <c r="U85">
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
         <v>999996</v>
       </c>
-      <c r="V85" t="s">
-        <v>123</v>
-      </c>
-      <c r="W85" t="s">
-        <v>124</v>
-      </c>
       <c r="X85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:27">
       <c r="A86">
         <v>999997</v>
       </c>
@@ -5518,41 +5795,44 @@
       <c r="L86">
         <v>200001</v>
       </c>
-      <c r="M86">
-        <v>6</v>
-      </c>
       <c r="N86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q86">
+        <v>0.5</v>
       </c>
       <c r="R86">
+        <v>10</v>
+      </c>
+      <c r="T86">
         <v>35</v>
       </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
-      <c r="U86">
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
         <v>999997</v>
       </c>
-      <c r="V86" t="s">
-        <v>123</v>
-      </c>
-      <c r="W86" t="s">
-        <v>124</v>
-      </c>
       <c r="X86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:27">
       <c r="A87">
         <v>999998</v>
       </c>
@@ -5562,41 +5842,44 @@
       <c r="L87">
         <v>200001</v>
       </c>
-      <c r="M87">
-        <v>6</v>
-      </c>
       <c r="N87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
       </c>
       <c r="R87">
+        <v>10</v>
+      </c>
+      <c r="T87">
         <v>35</v>
       </c>
-      <c r="T87">
-        <v>1</v>
-      </c>
-      <c r="U87">
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
         <v>999998</v>
       </c>
-      <c r="V87" t="s">
-        <v>123</v>
-      </c>
-      <c r="W87" t="s">
-        <v>124</v>
-      </c>
       <c r="X87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:25">
+        <v>128</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:27">
       <c r="A88">
         <v>999999</v>
       </c>
@@ -5606,38 +5889,41 @@
       <c r="L88">
         <v>200001</v>
       </c>
-      <c r="M88">
-        <v>6</v>
-      </c>
       <c r="N88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
       </c>
       <c r="R88">
+        <v>10</v>
+      </c>
+      <c r="T88">
         <v>35</v>
       </c>
-      <c r="T88">
-        <v>1</v>
-      </c>
-      <c r="U88">
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
         <v>999999</v>
       </c>
-      <c r="V88" t="s">
-        <v>123</v>
-      </c>
-      <c r="W88" t="s">
-        <v>124</v>
-      </c>
       <c r="X88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y88" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>
@@ -5661,7 +5947,7 @@
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:AC88">
+  <sortState ref="A4:AE88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,12 @@
     <t>creature_type</t>
   </si>
   <si>
+    <t>creature_layer</t>
+  </si>
+  <si>
+    <t>creature_layer_find</t>
+  </si>
+  <si>
     <t>create_cd</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>anim_attack</t>
   </si>
   <si>
+    <t>anim_attack_loop</t>
+  </si>
+  <si>
     <t>attack_mode</t>
   </si>
   <si>
@@ -116,18 +125,24 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
     <t>生物类型1：防御 2进攻</t>
   </si>
   <si>
+    <t>生物位置优先级</t>
+  </si>
+  <si>
+    <t>生物优先级搜寻</t>
+  </si>
+  <si>
     <t>创建cd(秒)</t>
   </si>
   <si>
@@ -155,6 +170,9 @@
     <t>攻击动画名字</t>
   </si>
   <si>
+    <t>攻击动画循环状态</t>
+  </si>
+  <si>
     <t>攻击模式</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
   </si>
   <si>
     <t>Detonator Slime</t>
+  </si>
+  <si>
+    <t>CreatureDef_Front</t>
   </si>
   <si>
     <t>烂泥史莱姆</t>
@@ -1393,43 +1414,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA163"/>
+  <dimension ref="A1:AD163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="39.375" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="18.25" customWidth="1"/>
-    <col min="16" max="17" width="20.25" customWidth="1"/>
-    <col min="18" max="19" width="11.75" customWidth="1"/>
-    <col min="20" max="20" width="20.25" customWidth="1"/>
-    <col min="21" max="21" width="17.75" customWidth="1"/>
-    <col min="22" max="23" width="14.75" customWidth="1"/>
-    <col min="24" max="26" width="47.5" customWidth="1"/>
-    <col min="27" max="27" width="42.875" customWidth="1"/>
-    <col min="28" max="28" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="39.375" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="18.25" customWidth="1"/>
+    <col min="19" max="20" width="20.25" customWidth="1"/>
+    <col min="21" max="22" width="11.75" customWidth="1"/>
+    <col min="23" max="23" width="20.25" customWidth="1"/>
+    <col min="24" max="24" width="17.75" customWidth="1"/>
+    <col min="25" max="26" width="14.75" customWidth="1"/>
+    <col min="27" max="29" width="47.5" customWidth="1"/>
+    <col min="30" max="30" width="42.875" customWidth="1"/>
+    <col min="31" max="31" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,4419 +1536,4468 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s">
         <v>30</v>
       </c>
       <c r="AA2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:27">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:30">
       <c r="A4">
         <v>99</v>
       </c>
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>61</v>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:30">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5">
+      <c r="G5">
         <v>1000001</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>100001</v>
       </c>
-      <c r="N5">
-        <v>0.5</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
       <c r="Q5">
         <v>0.5</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
       </c>
       <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="W5">
         <v>100</v>
       </c>
-      <c r="U5">
-        <v>10</v>
-      </c>
-      <c r="V5">
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>0.2</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>63</v>
+      <c r="Z5">
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:30">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6"/>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
         <v>2000001</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>21010001</v>
       </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6">
+        <v>100001</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
         <v>65</v>
       </c>
-      <c r="L6">
-        <v>200001</v>
-      </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>2000001</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>21000001</v>
       </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7">
-        <v>200001</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
         <v>3</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>2</v>
       </c>
-      <c r="X7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>71</v>
-      </c>
       <c r="AA7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2000001</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>21010002</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8">
         <v>201001</v>
       </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0.5</v>
-      </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
         <v>2</v>
       </c>
-      <c r="X8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>75</v>
-      </c>
       <c r="AA8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>2000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>21010003</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9">
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9">
         <v>201002</v>
       </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0.5</v>
-      </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>3</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
-      <c r="X9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>77</v>
-      </c>
       <c r="AA9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>3001</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>120</v>
       </c>
-      <c r="D10"/>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0.5</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0.5</v>
+      <c r="F10"/>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
         <v>500</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
         <v>3</v>
       </c>
-      <c r="X10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>79</v>
-      </c>
       <c r="AA10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:30">
       <c r="A11">
         <v>3002</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>120</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11">
+        <v>300001</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.15</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>500</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="s">
         <v>65</v>
       </c>
-      <c r="L11">
-        <v>300001</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1.5</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>0.15</v>
-      </c>
-      <c r="R11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>500</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:27">
+      <c r="AB11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:30">
       <c r="A12">
         <v>3003</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12">
         <v>120</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>200001</v>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>400001</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0.5</v>
       </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
         <v>3</v>
       </c>
-      <c r="X12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>84</v>
-      </c>
       <c r="AA12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:30">
       <c r="A13">
         <v>3004</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13">
         <v>120</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>200001</v>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>400002</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0.5</v>
       </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
         <v>5</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="X13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>86</v>
-      </c>
       <c r="AA13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:30">
       <c r="A14">
         <v>4001</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>50</v>
       </c>
-      <c r="D14"/>
-      <c r="L14">
-        <v>200001</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
+      <c r="F14"/>
       <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
       <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
         <v>4</v>
       </c>
-      <c r="X14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>88</v>
-      </c>
       <c r="AA14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:30">
       <c r="A15">
         <v>4002</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>50</v>
       </c>
-      <c r="L15">
-        <v>200001</v>
-      </c>
-      <c r="N15">
-        <v>6</v>
-      </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
       </c>
       <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="W15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>10</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
         <v>4</v>
       </c>
-      <c r="X15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>91</v>
-      </c>
       <c r="AA15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:30">
       <c r="A16">
         <v>4003</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>50</v>
       </c>
-      <c r="L16">
-        <v>200001</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
       </c>
       <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="W16">
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>4</v>
       </c>
-      <c r="X16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>93</v>
-      </c>
       <c r="AA16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:30">
       <c r="A17">
         <v>4004</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>50</v>
       </c>
-      <c r="L17">
-        <v>200001</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
       </c>
       <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="W17">
         <v>3</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>5</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
         <v>4</v>
       </c>
-      <c r="X17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>95</v>
-      </c>
       <c r="AA17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:30">
       <c r="A18">
         <v>4005</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>50</v>
       </c>
-      <c r="L18">
-        <v>200001</v>
-      </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
         <v>100</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>10</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
         <v>4</v>
       </c>
-      <c r="X18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>97</v>
-      </c>
       <c r="AA18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:30">
       <c r="A19">
         <v>5001</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>60</v>
       </c>
-      <c r="L19">
-        <v>200001</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
         <v>30</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>3</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>5</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
         <v>5</v>
       </c>
-      <c r="X19" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>99</v>
-      </c>
       <c r="AA19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:30">
       <c r="A20">
         <v>5002</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>60</v>
       </c>
-      <c r="L20">
-        <v>200001</v>
-      </c>
-      <c r="N20">
-        <v>6</v>
-      </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
         <v>30</v>
       </c>
-      <c r="T20">
-        <v>10</v>
-      </c>
-      <c r="U20">
-        <v>10</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
       <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
         <v>5</v>
       </c>
-      <c r="X20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>102</v>
-      </c>
       <c r="AA20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:30">
       <c r="A21">
         <v>5003</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>45</v>
       </c>
-      <c r="L21">
-        <v>200001</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
         <v>15</v>
       </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
         <v>5</v>
       </c>
-      <c r="X21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>104</v>
-      </c>
       <c r="AA21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:30">
       <c r="A22">
         <v>5004</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>45</v>
       </c>
-      <c r="L22">
-        <v>200001</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
-      </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
         <v>15</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>3</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
         <v>5</v>
       </c>
-      <c r="X22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>106</v>
-      </c>
       <c r="AA22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:30">
       <c r="A23">
         <v>6001</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>30</v>
       </c>
-      <c r="L23">
-        <v>200001</v>
-      </c>
-      <c r="N23">
-        <v>6</v>
-      </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
         <v>8</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>5</v>
       </c>
-      <c r="U23">
-        <v>10</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>6</v>
-      </c>
-      <c r="X23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>108</v>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
       </c>
       <c r="AA23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:30">
       <c r="A24">
         <v>6002</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>30</v>
       </c>
-      <c r="L24">
-        <v>200001</v>
-      </c>
-      <c r="N24">
-        <v>6</v>
-      </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
         <v>8</v>
       </c>
-      <c r="T24">
-        <v>10</v>
-      </c>
-      <c r="U24">
-        <v>10</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
       <c r="W24">
-        <v>6</v>
-      </c>
-      <c r="X24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
       </c>
       <c r="AA24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:30">
       <c r="A25">
         <v>6003</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>300</v>
       </c>
-      <c r="L25">
-        <v>200001</v>
-      </c>
-      <c r="N25">
-        <v>6</v>
-      </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
       </c>
       <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="W25">
         <v>500</v>
       </c>
-      <c r="U25">
-        <v>10</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>6</v>
-      </c>
-      <c r="X25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>113</v>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
       </c>
       <c r="AA25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:30">
       <c r="A26">
         <v>6004</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="L26">
-        <v>200001</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
       <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
         <v>4</v>
       </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-      <c r="U26">
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>6</v>
-      </c>
-      <c r="X26" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>115</v>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
       </c>
       <c r="AA26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:30">
       <c r="A27">
         <v>6005</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>20</v>
       </c>
-      <c r="L27">
-        <v>200001</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
       <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
         <v>4</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>3</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>6</v>
-      </c>
-      <c r="X27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>117</v>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
       </c>
       <c r="AA27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:30">
       <c r="A28">
         <v>7001</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>45</v>
       </c>
-      <c r="L28">
-        <v>200001</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
         <v>12</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>12</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>8</v>
       </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
         <v>7</v>
       </c>
-      <c r="X28" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>119</v>
-      </c>
       <c r="AA28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:30">
       <c r="A29">
         <v>7002</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>45</v>
       </c>
-      <c r="L29">
-        <v>200001</v>
-      </c>
-      <c r="N29">
-        <v>6</v>
-      </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
         <v>12</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>3</v>
       </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
         <v>7</v>
       </c>
-      <c r="X29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>122</v>
-      </c>
       <c r="AA29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:30">
       <c r="A30">
         <v>7003</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>45</v>
       </c>
-      <c r="L30">
-        <v>200001</v>
-      </c>
-      <c r="N30">
-        <v>6</v>
-      </c>
       <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
         <v>3</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
         <v>7</v>
       </c>
-      <c r="X30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>124</v>
-      </c>
       <c r="AA30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:30">
       <c r="A31">
         <v>7004</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>45</v>
       </c>
-      <c r="L31">
-        <v>200001</v>
-      </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
       </c>
       <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="W31">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <v>3</v>
       </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
         <v>7</v>
       </c>
-      <c r="X31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>126</v>
-      </c>
       <c r="AA31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:30">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="L32">
-        <v>200001</v>
-      </c>
-      <c r="N32">
-        <v>6</v>
-      </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0.5</v>
       </c>
       <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="W32">
         <v>35</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1">
+      <c r="X32" s="2"/>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
         <v>989996</v>
       </c>
-      <c r="X32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>129</v>
-      </c>
       <c r="AA32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:30">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>200001</v>
-      </c>
-      <c r="N33">
-        <v>6</v>
-      </c>
       <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R33">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
       </c>
       <c r="T33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+      <c r="W33">
         <v>35</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1">
+      <c r="X33" s="2"/>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1">
         <v>989997</v>
       </c>
-      <c r="X33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>129</v>
-      </c>
       <c r="AA33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:30">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>200001</v>
-      </c>
-      <c r="N34">
-        <v>6</v>
-      </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
       </c>
       <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="W34">
         <v>35</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1">
+      <c r="X34" s="2"/>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
         <v>989998</v>
       </c>
-      <c r="X34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>129</v>
-      </c>
       <c r="AA34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:30">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="L35">
-        <v>200001</v>
-      </c>
-      <c r="N35">
-        <v>6</v>
-      </c>
       <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
       </c>
       <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="W35">
         <v>35</v>
       </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
         <v>989999</v>
       </c>
-      <c r="X35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>129</v>
-      </c>
       <c r="AA35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:30">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="L36">
-        <v>200001</v>
-      </c>
-      <c r="N36">
-        <v>6</v>
-      </c>
       <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
       </c>
       <c r="T36">
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="W36">
         <v>35</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36" s="1">
+      <c r="X36" s="2"/>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
         <v>999947</v>
       </c>
-      <c r="X36" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>129</v>
-      </c>
       <c r="AA36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:30">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="L37">
-        <v>200001</v>
-      </c>
-      <c r="N37">
-        <v>6</v>
-      </c>
       <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0.5</v>
       </c>
       <c r="T37">
+        <v>0.5</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="W37">
         <v>35</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37" s="1">
+      <c r="X37" s="2"/>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1">
         <v>999948</v>
       </c>
-      <c r="X37" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>129</v>
-      </c>
       <c r="AA37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:30">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>200001</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
       <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0.5</v>
       </c>
       <c r="T38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="W38">
         <v>35</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38" s="1">
+      <c r="X38" s="2"/>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1">
         <v>999949</v>
       </c>
-      <c r="X38" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>129</v>
-      </c>
       <c r="AA38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:30">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>200001</v>
-      </c>
-      <c r="N39">
-        <v>6</v>
-      </c>
       <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0.5</v>
       </c>
       <c r="T39">
+        <v>0.5</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="W39">
         <v>35</v>
       </c>
-      <c r="U39" s="2"/>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39" s="1">
+      <c r="X39" s="2"/>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
         <v>999950</v>
       </c>
-      <c r="X39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>129</v>
-      </c>
       <c r="AA39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:30">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="L40">
-        <v>200001</v>
-      </c>
-      <c r="N40">
-        <v>6</v>
-      </c>
       <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R40">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0.5</v>
       </c>
       <c r="T40">
+        <v>0.5</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="W40">
         <v>35</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40" s="1">
+      <c r="X40" s="2"/>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
         <v>999951</v>
       </c>
-      <c r="X40" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>129</v>
-      </c>
       <c r="AA40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:30">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="L41">
-        <v>200001</v>
-      </c>
-      <c r="N41">
-        <v>6</v>
-      </c>
       <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0.5</v>
       </c>
       <c r="T41">
+        <v>0.5</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="W41">
         <v>35</v>
       </c>
-      <c r="U41" s="2"/>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1">
+      <c r="X41" s="2"/>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
         <v>999952</v>
       </c>
-      <c r="X41" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>129</v>
-      </c>
       <c r="AA41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:30">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="L42">
-        <v>200001</v>
-      </c>
-      <c r="N42">
-        <v>6</v>
-      </c>
       <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0.5</v>
       </c>
       <c r="T42">
+        <v>0.5</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+      <c r="W42">
         <v>35</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1">
+      <c r="X42" s="2"/>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
         <v>999953</v>
       </c>
-      <c r="X42" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>129</v>
-      </c>
       <c r="AA42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:30">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="L43">
-        <v>200001</v>
-      </c>
-      <c r="N43">
-        <v>6</v>
-      </c>
       <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R43">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0.5</v>
       </c>
       <c r="T43">
+        <v>0.5</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="W43">
         <v>35</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
+      <c r="X43" s="2"/>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
         <v>999954</v>
       </c>
-      <c r="X43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>129</v>
-      </c>
       <c r="AA43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:30">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>200001</v>
-      </c>
-      <c r="N44">
-        <v>6</v>
-      </c>
       <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R44">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0.5</v>
       </c>
       <c r="T44">
+        <v>0.5</v>
+      </c>
+      <c r="U44">
+        <v>10</v>
+      </c>
+      <c r="W44">
         <v>35</v>
       </c>
-      <c r="U44" s="2"/>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1">
+      <c r="X44" s="2"/>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
         <v>999955</v>
       </c>
-      <c r="X44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>129</v>
-      </c>
       <c r="AA44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:30">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="L45">
-        <v>200001</v>
-      </c>
-      <c r="N45">
-        <v>6</v>
-      </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R45">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0.5</v>
       </c>
       <c r="T45">
+        <v>0.5</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="W45">
         <v>35</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
+      <c r="X45" s="2"/>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1">
         <v>999956</v>
       </c>
-      <c r="X45" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>129</v>
-      </c>
       <c r="AA45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:30">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="L46">
-        <v>200001</v>
-      </c>
-      <c r="N46">
-        <v>6</v>
-      </c>
       <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R46">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0.5</v>
       </c>
       <c r="T46">
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <v>10</v>
+      </c>
+      <c r="W46">
         <v>35</v>
       </c>
-      <c r="U46" s="2"/>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46" s="1">
+      <c r="X46" s="2"/>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="1">
         <v>999957</v>
       </c>
-      <c r="X46" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>129</v>
-      </c>
       <c r="AA46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:30">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="L47">
-        <v>200001</v>
-      </c>
-      <c r="N47">
-        <v>6</v>
-      </c>
       <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R47">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0.5</v>
       </c>
       <c r="T47">
+        <v>0.5</v>
+      </c>
+      <c r="U47">
+        <v>10</v>
+      </c>
+      <c r="W47">
         <v>35</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47" s="1">
+      <c r="X47" s="2"/>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="1">
         <v>999958</v>
       </c>
-      <c r="X47" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>129</v>
-      </c>
       <c r="AA47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:30">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="L48">
-        <v>200001</v>
-      </c>
-      <c r="N48">
-        <v>6</v>
-      </c>
       <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R48">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0.5</v>
       </c>
       <c r="T48">
+        <v>0.5</v>
+      </c>
+      <c r="U48">
+        <v>10</v>
+      </c>
+      <c r="W48">
         <v>35</v>
       </c>
-      <c r="U48" s="2"/>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48" s="1">
+      <c r="X48" s="2"/>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
         <v>999959</v>
       </c>
-      <c r="X48" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>129</v>
-      </c>
       <c r="AA48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:30">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="L49">
-        <v>200001</v>
-      </c>
-      <c r="N49">
-        <v>6</v>
-      </c>
       <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0.5</v>
       </c>
       <c r="T49">
+        <v>0.5</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="W49">
         <v>35</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49" s="1">
+      <c r="X49" s="2"/>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="1">
         <v>999960</v>
       </c>
-      <c r="X49" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>129</v>
-      </c>
       <c r="AA49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:30">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="L50">
-        <v>200001</v>
-      </c>
-      <c r="N50">
-        <v>6</v>
-      </c>
       <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R50">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0.5</v>
       </c>
       <c r="T50">
+        <v>0.5</v>
+      </c>
+      <c r="U50">
+        <v>10</v>
+      </c>
+      <c r="W50">
         <v>35</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1">
+      <c r="X50" s="2"/>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="1">
         <v>999961</v>
       </c>
-      <c r="X50" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>129</v>
-      </c>
       <c r="AA50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:30">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="L51">
-        <v>200001</v>
-      </c>
-      <c r="N51">
-        <v>6</v>
-      </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R51">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0.5</v>
       </c>
       <c r="T51">
+        <v>0.5</v>
+      </c>
+      <c r="U51">
+        <v>10</v>
+      </c>
+      <c r="W51">
         <v>35</v>
       </c>
-      <c r="U51" s="2"/>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51" s="1">
+      <c r="X51" s="2"/>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="1">
         <v>999962</v>
       </c>
-      <c r="X51" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>129</v>
-      </c>
       <c r="AA51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:30">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="L52">
-        <v>200001</v>
-      </c>
-      <c r="N52">
-        <v>6</v>
-      </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
       </c>
       <c r="T52">
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="W52">
         <v>35</v>
       </c>
-      <c r="U52" s="2"/>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52" s="1">
+      <c r="X52" s="2"/>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="1">
         <v>999963</v>
       </c>
-      <c r="X52" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>129</v>
-      </c>
       <c r="AA52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:30">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="L53">
-        <v>200001</v>
-      </c>
-      <c r="N53">
-        <v>6</v>
-      </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R53">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>0.5</v>
       </c>
       <c r="T53">
+        <v>0.5</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="W53">
         <v>35</v>
       </c>
-      <c r="U53" s="2"/>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53" s="1">
+      <c r="X53" s="2"/>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="1">
         <v>999964</v>
       </c>
-      <c r="X53" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>129</v>
-      </c>
       <c r="AA53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:30">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="L54">
-        <v>200001</v>
-      </c>
-      <c r="N54">
-        <v>6</v>
-      </c>
       <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R54">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0.5</v>
       </c>
       <c r="T54">
+        <v>0.5</v>
+      </c>
+      <c r="U54">
+        <v>10</v>
+      </c>
+      <c r="W54">
         <v>35</v>
       </c>
-      <c r="U54" s="2"/>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54" s="1">
+      <c r="X54" s="2"/>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="1">
         <v>999965</v>
       </c>
-      <c r="X54" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>129</v>
-      </c>
       <c r="AA54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:30">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="L55">
-        <v>200001</v>
-      </c>
-      <c r="N55">
-        <v>6</v>
-      </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R55">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0.5</v>
       </c>
       <c r="T55">
+        <v>0.5</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+      <c r="W55">
         <v>35</v>
       </c>
-      <c r="U55" s="2"/>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55" s="1">
+      <c r="X55" s="2"/>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="1">
         <v>999966</v>
       </c>
-      <c r="X55" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>129</v>
-      </c>
       <c r="AA55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:30">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="L56">
-        <v>200001</v>
-      </c>
-      <c r="N56">
-        <v>6</v>
-      </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R56">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0.5</v>
       </c>
       <c r="T56">
+        <v>0.5</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="W56">
         <v>35</v>
       </c>
-      <c r="U56" s="2"/>
-      <c r="V56">
-        <v>1</v>
-      </c>
-      <c r="W56" s="1">
+      <c r="X56" s="2"/>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="1">
         <v>999967</v>
       </c>
-      <c r="X56" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>129</v>
-      </c>
       <c r="AA56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:30">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>200001</v>
-      </c>
-      <c r="N57">
-        <v>6</v>
-      </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>0.5</v>
       </c>
       <c r="T57">
+        <v>0.5</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+      <c r="W57">
         <v>35</v>
       </c>
-      <c r="U57" s="2"/>
-      <c r="V57">
-        <v>1</v>
-      </c>
-      <c r="W57" s="1">
+      <c r="X57" s="2"/>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="1">
         <v>999968</v>
       </c>
-      <c r="X57" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>129</v>
-      </c>
       <c r="AA57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:30">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="L58">
-        <v>200001</v>
-      </c>
-      <c r="N58">
-        <v>6</v>
-      </c>
       <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R58">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0.5</v>
       </c>
       <c r="T58">
+        <v>0.5</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+      <c r="W58">
         <v>35</v>
       </c>
-      <c r="U58" s="2"/>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58" s="1">
+      <c r="X58" s="2"/>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="1">
         <v>999969</v>
       </c>
-      <c r="X58" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>129</v>
-      </c>
       <c r="AA58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:30">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="L59">
-        <v>200001</v>
-      </c>
-      <c r="N59">
-        <v>6</v>
-      </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R59">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>0.5</v>
       </c>
       <c r="T59">
+        <v>0.5</v>
+      </c>
+      <c r="U59">
+        <v>10</v>
+      </c>
+      <c r="W59">
         <v>35</v>
       </c>
-      <c r="U59" s="2"/>
-      <c r="V59">
-        <v>1</v>
-      </c>
-      <c r="W59" s="1">
+      <c r="X59" s="2"/>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1">
         <v>999970</v>
       </c>
-      <c r="X59" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>129</v>
-      </c>
       <c r="AA59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:30">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="L60">
-        <v>200001</v>
-      </c>
-      <c r="N60">
-        <v>6</v>
-      </c>
       <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R60">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0.5</v>
       </c>
       <c r="T60">
+        <v>0.5</v>
+      </c>
+      <c r="U60">
+        <v>10</v>
+      </c>
+      <c r="W60">
         <v>35</v>
       </c>
-      <c r="U60" s="2"/>
-      <c r="V60">
-        <v>1</v>
-      </c>
-      <c r="W60" s="1">
+      <c r="X60" s="2"/>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1">
         <v>999971</v>
       </c>
-      <c r="X60" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>129</v>
-      </c>
       <c r="AA60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:30">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="L61">
-        <v>200001</v>
-      </c>
-      <c r="N61">
-        <v>6</v>
-      </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R61">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0.5</v>
       </c>
       <c r="T61">
+        <v>0.5</v>
+      </c>
+      <c r="U61">
+        <v>10</v>
+      </c>
+      <c r="W61">
         <v>35</v>
       </c>
-      <c r="U61" s="2"/>
-      <c r="V61">
-        <v>1</v>
-      </c>
-      <c r="W61" s="1">
+      <c r="X61" s="2"/>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="1">
         <v>999972</v>
       </c>
-      <c r="X61" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>129</v>
-      </c>
       <c r="AA61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:30">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="L62">
-        <v>200001</v>
-      </c>
-      <c r="N62">
-        <v>6</v>
-      </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R62">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0.5</v>
       </c>
       <c r="T62">
+        <v>0.5</v>
+      </c>
+      <c r="U62">
+        <v>10</v>
+      </c>
+      <c r="W62">
         <v>35</v>
       </c>
-      <c r="U62" s="2"/>
-      <c r="V62">
-        <v>1</v>
-      </c>
-      <c r="W62" s="1">
+      <c r="X62" s="2"/>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="1">
         <v>999973</v>
       </c>
-      <c r="X62" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>129</v>
-      </c>
       <c r="AA62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:30">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="L63">
-        <v>200001</v>
-      </c>
-      <c r="N63">
-        <v>6</v>
-      </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R63">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0.5</v>
       </c>
       <c r="T63">
+        <v>0.5</v>
+      </c>
+      <c r="U63">
+        <v>10</v>
+      </c>
+      <c r="W63">
         <v>35</v>
       </c>
-      <c r="U63" s="2"/>
-      <c r="V63">
-        <v>1</v>
-      </c>
-      <c r="W63" s="1">
+      <c r="X63" s="2"/>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="1">
         <v>999974</v>
       </c>
-      <c r="X63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>129</v>
-      </c>
       <c r="AA63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:30">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="L64">
-        <v>200001</v>
-      </c>
-      <c r="N64">
-        <v>6</v>
-      </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R64">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0.5</v>
       </c>
       <c r="T64">
+        <v>0.5</v>
+      </c>
+      <c r="U64">
+        <v>10</v>
+      </c>
+      <c r="W64">
         <v>35</v>
       </c>
-      <c r="U64" s="2"/>
-      <c r="V64">
-        <v>1</v>
-      </c>
-      <c r="W64" s="1">
+      <c r="X64" s="2"/>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1">
         <v>999975</v>
       </c>
-      <c r="X64" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>129</v>
-      </c>
       <c r="AA64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:30">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="L65">
-        <v>200001</v>
-      </c>
-      <c r="N65">
-        <v>6</v>
-      </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q65">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0.5</v>
       </c>
       <c r="T65">
+        <v>0.5</v>
+      </c>
+      <c r="U65">
+        <v>10</v>
+      </c>
+      <c r="W65">
         <v>35</v>
       </c>
-      <c r="U65" s="2"/>
-      <c r="V65">
-        <v>1</v>
-      </c>
-      <c r="W65" s="1">
+      <c r="X65" s="2"/>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1">
         <v>999976</v>
       </c>
-      <c r="X65" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>129</v>
-      </c>
       <c r="AA65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:30">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="L66">
-        <v>200001</v>
-      </c>
-      <c r="N66">
-        <v>6</v>
-      </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R66">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0.5</v>
       </c>
       <c r="T66">
+        <v>0.5</v>
+      </c>
+      <c r="U66">
+        <v>10</v>
+      </c>
+      <c r="W66">
         <v>35</v>
       </c>
-      <c r="U66" s="2"/>
-      <c r="V66">
-        <v>1</v>
-      </c>
-      <c r="W66" s="1">
+      <c r="X66" s="2"/>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="1">
         <v>999977</v>
       </c>
-      <c r="X66" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>129</v>
-      </c>
       <c r="AA66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:30">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="L67">
-        <v>200001</v>
-      </c>
-      <c r="N67">
-        <v>6</v>
-      </c>
       <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R67">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0.5</v>
       </c>
       <c r="T67">
+        <v>0.5</v>
+      </c>
+      <c r="U67">
+        <v>10</v>
+      </c>
+      <c r="W67">
         <v>35</v>
       </c>
-      <c r="U67" s="2"/>
-      <c r="V67">
-        <v>1</v>
-      </c>
-      <c r="W67" s="1">
+      <c r="X67" s="2"/>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="1">
         <v>999978</v>
       </c>
-      <c r="X67" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>129</v>
-      </c>
       <c r="AA67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:30">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="L68">
-        <v>200001</v>
-      </c>
-      <c r="N68">
-        <v>6</v>
-      </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R68">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0.5</v>
       </c>
       <c r="T68">
+        <v>0.5</v>
+      </c>
+      <c r="U68">
+        <v>10</v>
+      </c>
+      <c r="W68">
         <v>35</v>
       </c>
-      <c r="U68" s="2"/>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="W68" s="1">
+      <c r="X68" s="2"/>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="1">
         <v>999979</v>
       </c>
-      <c r="X68" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>129</v>
-      </c>
       <c r="AA68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:30">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="L69">
-        <v>200001</v>
-      </c>
-      <c r="N69">
-        <v>6</v>
-      </c>
       <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R69">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0.5</v>
       </c>
       <c r="T69">
+        <v>0.5</v>
+      </c>
+      <c r="U69">
+        <v>10</v>
+      </c>
+      <c r="W69">
         <v>35</v>
       </c>
-      <c r="U69" s="2"/>
-      <c r="V69">
-        <v>1</v>
-      </c>
-      <c r="W69" s="1">
+      <c r="X69" s="2"/>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="1">
         <v>999980</v>
       </c>
-      <c r="X69" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>129</v>
-      </c>
       <c r="AA69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:30">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="L70">
-        <v>200001</v>
-      </c>
-      <c r="N70">
-        <v>6</v>
-      </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R70">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0.5</v>
       </c>
       <c r="T70">
+        <v>0.5</v>
+      </c>
+      <c r="U70">
+        <v>10</v>
+      </c>
+      <c r="W70">
         <v>35</v>
       </c>
-      <c r="U70" s="2"/>
-      <c r="V70">
-        <v>1</v>
-      </c>
-      <c r="W70" s="1">
+      <c r="X70" s="2"/>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="1">
         <v>999981</v>
       </c>
-      <c r="X70" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>129</v>
-      </c>
       <c r="AA70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:30">
       <c r="A71">
         <v>999982</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="L71">
-        <v>200001</v>
-      </c>
-      <c r="N71">
-        <v>6</v>
-      </c>
       <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R71">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0.5</v>
       </c>
       <c r="T71">
+        <v>0.5</v>
+      </c>
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="W71">
         <v>35</v>
       </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
         <v>999982</v>
       </c>
-      <c r="X71" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>129</v>
-      </c>
       <c r="AA71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:30">
       <c r="A72">
         <v>999983</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="L72">
-        <v>200001</v>
-      </c>
-      <c r="N72">
-        <v>6</v>
-      </c>
       <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0.5</v>
       </c>
       <c r="T72">
+        <v>0.5</v>
+      </c>
+      <c r="U72">
+        <v>10</v>
+      </c>
+      <c r="W72">
         <v>35</v>
       </c>
-      <c r="V72">
-        <v>1</v>
-      </c>
-      <c r="W72">
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
         <v>999983</v>
       </c>
-      <c r="X72" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>129</v>
-      </c>
       <c r="AA72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:30">
       <c r="A73">
         <v>999984</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="L73">
-        <v>200001</v>
-      </c>
-      <c r="N73">
-        <v>6</v>
-      </c>
       <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R73">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0.5</v>
       </c>
       <c r="T73">
+        <v>0.5</v>
+      </c>
+      <c r="U73">
+        <v>10</v>
+      </c>
+      <c r="W73">
         <v>35</v>
       </c>
-      <c r="V73">
-        <v>1</v>
-      </c>
-      <c r="W73">
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
         <v>999984</v>
       </c>
-      <c r="X73" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>129</v>
-      </c>
       <c r="AA73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:30">
       <c r="A74">
         <v>999985</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="L74">
-        <v>200001</v>
-      </c>
-      <c r="N74">
-        <v>6</v>
-      </c>
       <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R74">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0.5</v>
       </c>
       <c r="T74">
+        <v>0.5</v>
+      </c>
+      <c r="U74">
+        <v>10</v>
+      </c>
+      <c r="W74">
         <v>35</v>
       </c>
-      <c r="V74">
-        <v>1</v>
-      </c>
-      <c r="W74">
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
         <v>999985</v>
       </c>
-      <c r="X74" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>129</v>
-      </c>
       <c r="AA74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:30">
       <c r="A75">
         <v>999986</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="L75">
-        <v>200001</v>
-      </c>
-      <c r="N75">
-        <v>6</v>
-      </c>
       <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R75">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0.5</v>
       </c>
       <c r="T75">
+        <v>0.5</v>
+      </c>
+      <c r="U75">
+        <v>10</v>
+      </c>
+      <c r="W75">
         <v>35</v>
       </c>
-      <c r="V75">
-        <v>1</v>
-      </c>
-      <c r="W75">
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
         <v>999986</v>
       </c>
-      <c r="X75" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>129</v>
-      </c>
       <c r="AA75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:30">
       <c r="A76">
         <v>999987</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="L76">
-        <v>200001</v>
-      </c>
-      <c r="N76">
-        <v>6</v>
-      </c>
       <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R76">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>0.5</v>
       </c>
       <c r="T76">
+        <v>0.5</v>
+      </c>
+      <c r="U76">
+        <v>10</v>
+      </c>
+      <c r="W76">
         <v>35</v>
       </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76">
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
         <v>999987</v>
       </c>
-      <c r="X76" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>129</v>
-      </c>
       <c r="AA76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:30">
       <c r="A77">
         <v>999988</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="L77">
-        <v>200001</v>
-      </c>
-      <c r="N77">
-        <v>6</v>
-      </c>
       <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R77">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0.5</v>
       </c>
       <c r="T77">
+        <v>0.5</v>
+      </c>
+      <c r="U77">
+        <v>10</v>
+      </c>
+      <c r="W77">
         <v>35</v>
       </c>
-      <c r="V77">
-        <v>1</v>
-      </c>
-      <c r="W77">
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
         <v>999988</v>
       </c>
-      <c r="X77" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>129</v>
-      </c>
       <c r="AA77" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:30">
       <c r="A78">
         <v>999989</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="L78">
-        <v>200001</v>
-      </c>
-      <c r="N78">
-        <v>6</v>
-      </c>
       <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q78">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R78">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>0.5</v>
       </c>
       <c r="T78">
+        <v>0.5</v>
+      </c>
+      <c r="U78">
+        <v>10</v>
+      </c>
+      <c r="W78">
         <v>35</v>
       </c>
-      <c r="V78">
-        <v>1</v>
-      </c>
-      <c r="W78">
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
         <v>999989</v>
       </c>
-      <c r="X78" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>129</v>
-      </c>
       <c r="AA78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:30">
       <c r="A79">
         <v>999990</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="L79">
-        <v>200001</v>
-      </c>
-      <c r="N79">
-        <v>6</v>
-      </c>
       <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R79">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0.5</v>
       </c>
       <c r="T79">
+        <v>0.5</v>
+      </c>
+      <c r="U79">
+        <v>10</v>
+      </c>
+      <c r="W79">
         <v>35</v>
       </c>
-      <c r="V79">
-        <v>1</v>
-      </c>
-      <c r="W79">
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
         <v>999990</v>
       </c>
-      <c r="X79" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>129</v>
-      </c>
       <c r="AA79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:30">
       <c r="A80">
         <v>999991</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="L80">
-        <v>200001</v>
-      </c>
-      <c r="N80">
-        <v>6</v>
-      </c>
       <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R80">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>0.5</v>
       </c>
       <c r="T80">
+        <v>0.5</v>
+      </c>
+      <c r="U80">
+        <v>10</v>
+      </c>
+      <c r="W80">
         <v>35</v>
       </c>
-      <c r="V80">
-        <v>1</v>
-      </c>
-      <c r="W80">
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
         <v>999991</v>
       </c>
-      <c r="X80" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>129</v>
-      </c>
       <c r="AA80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:30">
       <c r="A81">
         <v>999992</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="L81">
-        <v>200001</v>
-      </c>
-      <c r="N81">
-        <v>6</v>
-      </c>
       <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R81">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0.5</v>
       </c>
       <c r="T81">
+        <v>0.5</v>
+      </c>
+      <c r="U81">
+        <v>10</v>
+      </c>
+      <c r="W81">
         <v>35</v>
       </c>
-      <c r="V81">
-        <v>1</v>
-      </c>
-      <c r="W81">
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
         <v>999992</v>
       </c>
-      <c r="X81" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>129</v>
-      </c>
       <c r="AA81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:30">
       <c r="A82">
         <v>999993</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="L82">
-        <v>200001</v>
-      </c>
-      <c r="N82">
-        <v>6</v>
-      </c>
       <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R82">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0.5</v>
       </c>
       <c r="T82">
+        <v>0.5</v>
+      </c>
+      <c r="U82">
+        <v>10</v>
+      </c>
+      <c r="W82">
         <v>35</v>
       </c>
-      <c r="V82">
-        <v>1</v>
-      </c>
-      <c r="W82">
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
         <v>999993</v>
       </c>
-      <c r="X82" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>129</v>
-      </c>
       <c r="AA82" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:30">
       <c r="A83">
         <v>999994</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="L83">
-        <v>200001</v>
-      </c>
-      <c r="N83">
-        <v>6</v>
-      </c>
       <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R83">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0.5</v>
       </c>
       <c r="T83">
+        <v>0.5</v>
+      </c>
+      <c r="U83">
+        <v>10</v>
+      </c>
+      <c r="W83">
         <v>35</v>
       </c>
-      <c r="V83">
-        <v>1</v>
-      </c>
-      <c r="W83">
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
         <v>999994</v>
       </c>
-      <c r="X83" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>129</v>
-      </c>
       <c r="AA83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:30">
       <c r="A84">
         <v>999995</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="L84">
-        <v>200001</v>
-      </c>
-      <c r="N84">
-        <v>6</v>
-      </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>0.5</v>
       </c>
       <c r="T84">
+        <v>0.5</v>
+      </c>
+      <c r="U84">
+        <v>10</v>
+      </c>
+      <c r="W84">
         <v>35</v>
       </c>
-      <c r="V84">
-        <v>1</v>
-      </c>
-      <c r="W84">
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
         <v>999995</v>
       </c>
-      <c r="X84" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>129</v>
-      </c>
       <c r="AA84" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:30">
       <c r="A85">
         <v>999996</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="L85">
-        <v>200001</v>
-      </c>
-      <c r="N85">
-        <v>6</v>
-      </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q85">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R85">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0.5</v>
       </c>
       <c r="T85">
+        <v>0.5</v>
+      </c>
+      <c r="U85">
+        <v>10</v>
+      </c>
+      <c r="W85">
         <v>35</v>
       </c>
-      <c r="V85">
-        <v>1</v>
-      </c>
-      <c r="W85">
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
         <v>999996</v>
       </c>
-      <c r="X85" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>129</v>
-      </c>
       <c r="AA85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:30">
       <c r="A86">
         <v>999997</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="L86">
-        <v>200001</v>
-      </c>
-      <c r="N86">
-        <v>6</v>
-      </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R86">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0.5</v>
       </c>
       <c r="T86">
+        <v>0.5</v>
+      </c>
+      <c r="U86">
+        <v>10</v>
+      </c>
+      <c r="W86">
         <v>35</v>
       </c>
-      <c r="V86">
-        <v>1</v>
-      </c>
-      <c r="W86">
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
         <v>999997</v>
       </c>
-      <c r="X86" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>129</v>
-      </c>
       <c r="AA86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:30">
       <c r="A87">
         <v>999998</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="L87">
-        <v>200001</v>
-      </c>
-      <c r="N87">
-        <v>6</v>
-      </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R87">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0.5</v>
       </c>
       <c r="T87">
+        <v>0.5</v>
+      </c>
+      <c r="U87">
+        <v>10</v>
+      </c>
+      <c r="W87">
         <v>35</v>
       </c>
-      <c r="V87">
-        <v>1</v>
-      </c>
-      <c r="W87">
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
         <v>999998</v>
       </c>
-      <c r="X87" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>129</v>
-      </c>
       <c r="AA87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:30">
       <c r="A88">
         <v>999999</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="L88">
-        <v>200001</v>
-      </c>
-      <c r="N88">
-        <v>6</v>
-      </c>
       <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>0.5</v>
+        <v>200001</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R88">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0.5</v>
       </c>
       <c r="T88">
+        <v>0.5</v>
+      </c>
+      <c r="U88">
+        <v>10</v>
+      </c>
+      <c r="W88">
         <v>35</v>
       </c>
-      <c r="V88">
-        <v>1</v>
-      </c>
-      <c r="W88">
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
         <v>999999</v>
       </c>
-      <c r="X88" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>129</v>
-      </c>
       <c r="AA88" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>
@@ -5947,7 +6021,7 @@
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:AE88">
+  <sortState ref="A4:AH88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>魅魔</t>
+  </si>
+  <si>
+    <t>1,2,3,</t>
   </si>
   <si>
     <t>愈之魅魔</t>
@@ -1417,11 +1420,11 @@
   <dimension ref="A1:AD163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,7 +1436,7 @@
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.125" customWidth="1"/>
@@ -2336,11 +2339,23 @@
         <v>50</v>
       </c>
       <c r="F14"/>
+      <c r="G14">
+        <v>4000001</v>
+      </c>
+      <c r="H14">
+        <v>41000002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
       <c r="O14">
-        <v>200001</v>
+        <v>101001</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2389,6 +2404,12 @@
       <c r="E15">
         <v>50</v>
       </c>
+      <c r="G15">
+        <v>4000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
       <c r="O15">
         <v>200001</v>
       </c>
@@ -2423,10 +2444,10 @@
         <v>65</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s">
         <v>78</v>
@@ -2442,6 +2463,12 @@
       <c r="E16">
         <v>50</v>
       </c>
+      <c r="G16">
+        <v>4000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
       <c r="O16">
         <v>200001</v>
       </c>
@@ -2476,10 +2503,10 @@
         <v>65</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD16" t="s">
         <v>78</v>
@@ -2495,6 +2522,12 @@
       <c r="E17">
         <v>50</v>
       </c>
+      <c r="G17">
+        <v>4000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
       <c r="O17">
         <v>200001</v>
       </c>
@@ -2529,10 +2562,10 @@
         <v>65</v>
       </c>
       <c r="AB17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>78</v>
@@ -2548,6 +2581,12 @@
       <c r="E18">
         <v>50</v>
       </c>
+      <c r="G18">
+        <v>4000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
       <c r="O18">
         <v>200001</v>
       </c>
@@ -2585,10 +2624,10 @@
         <v>65</v>
       </c>
       <c r="AB18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AD18" t="s">
         <v>78</v>
@@ -2638,13 +2677,13 @@
         <v>65</v>
       </c>
       <c r="AB19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:30">
@@ -2691,10 +2730,10 @@
         <v>65</v>
       </c>
       <c r="AB20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD20" t="s">
         <v>78</v>
@@ -2744,10 +2783,10 @@
         <v>65</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD21" t="s">
         <v>78</v>
@@ -2797,10 +2836,10 @@
         <v>65</v>
       </c>
       <c r="AB22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s">
         <v>78</v>
@@ -2850,13 +2889,13 @@
         <v>65</v>
       </c>
       <c r="AB23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:30">
@@ -2903,10 +2942,10 @@
         <v>65</v>
       </c>
       <c r="AB24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD24" t="s">
         <v>78</v>
@@ -2956,10 +2995,10 @@
         <v>65</v>
       </c>
       <c r="AB25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
         <v>78</v>
@@ -3009,10 +3048,10 @@
         <v>65</v>
       </c>
       <c r="AB26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD26" t="s">
         <v>78</v>
@@ -3062,10 +3101,10 @@
         <v>65</v>
       </c>
       <c r="AB27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD27" t="s">
         <v>78</v>
@@ -3115,13 +3154,13 @@
         <v>65</v>
       </c>
       <c r="AB28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:30">
@@ -3168,10 +3207,10 @@
         <v>65</v>
       </c>
       <c r="AB29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD29" t="s">
         <v>78</v>
@@ -3221,10 +3260,10 @@
         <v>65</v>
       </c>
       <c r="AB30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD30" t="s">
         <v>78</v>
@@ -3274,10 +3313,10 @@
         <v>65</v>
       </c>
       <c r="AB31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD31" t="s">
         <v>78</v>
@@ -3319,16 +3358,16 @@
         <v>989996</v>
       </c>
       <c r="AA32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:30">
@@ -3367,16 +3406,16 @@
         <v>989997</v>
       </c>
       <c r="AA33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:30">
@@ -3415,16 +3454,16 @@
         <v>989998</v>
       </c>
       <c r="AA34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:30">
@@ -3462,16 +3501,16 @@
         <v>989999</v>
       </c>
       <c r="AA35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:30">
@@ -3510,16 +3549,16 @@
         <v>999947</v>
       </c>
       <c r="AA36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:30">
@@ -3558,16 +3597,16 @@
         <v>999948</v>
       </c>
       <c r="AA37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:30">
@@ -3606,16 +3645,16 @@
         <v>999949</v>
       </c>
       <c r="AA38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:30">
@@ -3654,16 +3693,16 @@
         <v>999950</v>
       </c>
       <c r="AA39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:30">
@@ -3702,16 +3741,16 @@
         <v>999951</v>
       </c>
       <c r="AA40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:30">
@@ -3750,16 +3789,16 @@
         <v>999952</v>
       </c>
       <c r="AA41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:30">
@@ -3798,16 +3837,16 @@
         <v>999953</v>
       </c>
       <c r="AA42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:30">
@@ -3846,16 +3885,16 @@
         <v>999954</v>
       </c>
       <c r="AA43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:30">
@@ -3894,16 +3933,16 @@
         <v>999955</v>
       </c>
       <c r="AA44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:30">
@@ -3942,16 +3981,16 @@
         <v>999956</v>
       </c>
       <c r="AA45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:30">
@@ -3990,16 +4029,16 @@
         <v>999957</v>
       </c>
       <c r="AA46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:30">
@@ -4038,16 +4077,16 @@
         <v>999958</v>
       </c>
       <c r="AA47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:30">
@@ -4086,16 +4125,16 @@
         <v>999959</v>
       </c>
       <c r="AA48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:30">
@@ -4134,16 +4173,16 @@
         <v>999960</v>
       </c>
       <c r="AA49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:30">
@@ -4182,16 +4221,16 @@
         <v>999961</v>
       </c>
       <c r="AA50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:30">
@@ -4230,16 +4269,16 @@
         <v>999962</v>
       </c>
       <c r="AA51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:30">
@@ -4278,16 +4317,16 @@
         <v>999963</v>
       </c>
       <c r="AA52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:30">
@@ -4326,16 +4365,16 @@
         <v>999964</v>
       </c>
       <c r="AA53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:30">
@@ -4374,16 +4413,16 @@
         <v>999965</v>
       </c>
       <c r="AA54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:30">
@@ -4422,16 +4461,16 @@
         <v>999966</v>
       </c>
       <c r="AA55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:30">
@@ -4470,16 +4509,16 @@
         <v>999967</v>
       </c>
       <c r="AA56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:30">
@@ -4518,16 +4557,16 @@
         <v>999968</v>
       </c>
       <c r="AA57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:30">
@@ -4566,16 +4605,16 @@
         <v>999969</v>
       </c>
       <c r="AA58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:30">
@@ -4614,16 +4653,16 @@
         <v>999970</v>
       </c>
       <c r="AA59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:30">
@@ -4662,16 +4701,16 @@
         <v>999971</v>
       </c>
       <c r="AA60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:30">
@@ -4710,16 +4749,16 @@
         <v>999972</v>
       </c>
       <c r="AA61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:30">
@@ -4758,16 +4797,16 @@
         <v>999973</v>
       </c>
       <c r="AA62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:30">
@@ -4806,16 +4845,16 @@
         <v>999974</v>
       </c>
       <c r="AA63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:30">
@@ -4854,16 +4893,16 @@
         <v>999975</v>
       </c>
       <c r="AA64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:30">
@@ -4902,16 +4941,16 @@
         <v>999976</v>
       </c>
       <c r="AA65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:30">
@@ -4950,16 +4989,16 @@
         <v>999977</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:30">
@@ -4998,16 +5037,16 @@
         <v>999978</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:30">
@@ -5046,16 +5085,16 @@
         <v>999979</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:30">
@@ -5094,16 +5133,16 @@
         <v>999980</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:30">
@@ -5142,16 +5181,16 @@
         <v>999981</v>
       </c>
       <c r="AA70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:30">
@@ -5189,16 +5228,16 @@
         <v>999982</v>
       </c>
       <c r="AA71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:30">
@@ -5236,16 +5275,16 @@
         <v>999983</v>
       </c>
       <c r="AA72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:30">
@@ -5283,16 +5322,16 @@
         <v>999984</v>
       </c>
       <c r="AA73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:30">
@@ -5330,16 +5369,16 @@
         <v>999985</v>
       </c>
       <c r="AA74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:30">
@@ -5377,16 +5416,16 @@
         <v>999986</v>
       </c>
       <c r="AA75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:30">
@@ -5424,16 +5463,16 @@
         <v>999987</v>
       </c>
       <c r="AA76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:30">
@@ -5471,16 +5510,16 @@
         <v>999988</v>
       </c>
       <c r="AA77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:30">
@@ -5518,16 +5557,16 @@
         <v>999989</v>
       </c>
       <c r="AA78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:30">
@@ -5565,16 +5604,16 @@
         <v>999990</v>
       </c>
       <c r="AA79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:30">
@@ -5612,16 +5651,16 @@
         <v>999991</v>
       </c>
       <c r="AA80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:30">
@@ -5659,16 +5698,16 @@
         <v>999992</v>
       </c>
       <c r="AA81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:30">
@@ -5706,16 +5745,16 @@
         <v>999993</v>
       </c>
       <c r="AA82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:30">
@@ -5753,16 +5792,16 @@
         <v>999994</v>
       </c>
       <c r="AA83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC83" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:30">
@@ -5800,16 +5839,16 @@
         <v>999995</v>
       </c>
       <c r="AA84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:30">
@@ -5847,16 +5886,16 @@
         <v>999996</v>
       </c>
       <c r="AA85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:30">
@@ -5894,16 +5933,16 @@
         <v>999997</v>
       </c>
       <c r="AA86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:30">
@@ -5941,16 +5980,16 @@
         <v>999998</v>
       </c>
       <c r="AA87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:30">
@@ -5988,16 +6027,16 @@
         <v>999999</v>
       </c>
       <c r="AA88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC88" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -77,10 +77,16 @@
     <t>attack_search_type</t>
   </si>
   <si>
+    <t>attack_search_creature_type</t>
+  </si>
+  <si>
     <t>attack_search_range</t>
   </si>
   <si>
-    <t>attack_cd</t>
+    <t>attack_search_time</t>
+  </si>
+  <si>
+    <t>attack_cd_time</t>
   </si>
   <si>
     <t>anim_dead_time</t>
@@ -176,13 +182,19 @@
     <t>攻击模式</t>
   </si>
   <si>
-    <t>攻击搜索敌人类型0直线 1范围 2遍历路线</t>
+    <t>攻击搜索敌人类型0直线 11范围 12范围内血量不满 13范围内护甲不满 21遍历路线</t>
+  </si>
+  <si>
+    <t>攻击搜索目标类型</t>
   </si>
   <si>
     <t>攻击搜索范围</t>
   </si>
   <si>
-    <t>攻击间隔</t>
+    <t>攻击搜索间隔（搜索敌人间隔）</t>
+  </si>
+  <si>
+    <t>攻击间隔（每次攻击间隔）</t>
   </si>
   <si>
     <t>死亡动画时间</t>
@@ -1417,20 +1429,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD163"/>
+  <dimension ref="A1:AF162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
@@ -1444,20 +1456,22 @@
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="18.25" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="39.375" customWidth="1"/>
-    <col min="17" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
-    <col min="19" max="20" width="20.25" customWidth="1"/>
-    <col min="21" max="22" width="11.75" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="17.75" customWidth="1"/>
-    <col min="25" max="26" width="14.75" customWidth="1"/>
-    <col min="27" max="29" width="47.5" customWidth="1"/>
-    <col min="30" max="30" width="42.875" customWidth="1"/>
-    <col min="31" max="31" width="25.125" customWidth="1"/>
+    <col min="16" max="16" width="22.75" customWidth="1"/>
+    <col min="17" max="17" width="28.25" customWidth="1"/>
+    <col min="18" max="18" width="21.5" customWidth="1"/>
+    <col min="19" max="19" width="29.625" customWidth="1"/>
+    <col min="20" max="20" width="25.375" customWidth="1"/>
+    <col min="21" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="24" width="11.75" customWidth="1"/>
+    <col min="25" max="25" width="20.25" customWidth="1"/>
+    <col min="26" max="26" width="17.75" customWidth="1"/>
+    <col min="27" max="28" width="14.75" customWidth="1"/>
+    <col min="29" max="31" width="47.5" customWidth="1"/>
+    <col min="32" max="32" width="42.875" customWidth="1"/>
+    <col min="33" max="33" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,192 +1562,210 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
       </c>
       <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>31</v>
       </c>
       <c r="Y2" t="s">
         <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB2" t="s">
         <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:30">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:32">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1741,25 +1773,28 @@
         <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:30">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:32">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1773,46 +1808,52 @@
         <v>100001</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
       </c>
       <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>100</v>
       </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
         <v>0.2</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>68</v>
+      <c r="AB5">
+        <v>1</v>
       </c>
       <c r="AC5" t="s">
         <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:30">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:32">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1830,55 +1871,61 @@
         <v>21010001</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>100001</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>0.5</v>
       </c>
       <c r="W6">
         <v>10</v>
       </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
       <c r="Y6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1895,55 +1942,61 @@
         <v>21000001</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7">
         <v>200001</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
       </c>
       <c r="W7">
         <v>10</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
         <v>3</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>76</v>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1960,55 +2013,61 @@
         <v>21010002</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8">
         <v>201001</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>80</v>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AD8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>84</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -2025,55 +2084,61 @@
         <v>21010003</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>201002</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF9" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -2088,49 +2153,55 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
         <v>500</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>3</v>
       </c>
-      <c r="AA10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>84</v>
-      </c>
       <c r="AC10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AD10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:30">
+        <v>88</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:32">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -2144,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>300001</v>
@@ -2153,46 +2224,52 @@
         <v>1</v>
       </c>
       <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>1.5</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
       <c r="S11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
         <v>0.15</v>
       </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
       <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
         <v>500</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>3</v>
       </c>
-      <c r="AA11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>87</v>
-      </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AD11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:30">
+        <v>91</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:32">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -2200,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -2209,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2221,46 +2298,52 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="W12">
         <v>5</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>3</v>
       </c>
-      <c r="AA12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>90</v>
-      </c>
       <c r="AC12" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AD12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:30">
+        <v>94</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:32">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -2268,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2277,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2289,46 +2372,52 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
         <v>5</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
         <v>3</v>
       </c>
-      <c r="AA13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>92</v>
-      </c>
       <c r="AC13" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AD13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:30">
+        <v>96</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:32">
       <c r="A14">
         <v>4001</v>
       </c>
@@ -2346,55 +2435,61 @@
         <v>41000002</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>101001</v>
       </c>
       <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
       </c>
       <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14">
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>4</v>
       </c>
-      <c r="AA14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>94</v>
-      </c>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="AD14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:30">
+        <v>98</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:32">
       <c r="A15">
         <v>4002</v>
       </c>
@@ -2408,52 +2503,58 @@
         <v>4000001</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15">
         <v>200001</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
       </c>
       <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
       <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>4</v>
       </c>
-      <c r="AA15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>98</v>
-      </c>
       <c r="AC15" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AD15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:30">
+        <v>102</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:32">
       <c r="A16">
         <v>4003</v>
       </c>
@@ -2467,52 +2568,58 @@
         <v>4000001</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O16">
         <v>200001</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
       </c>
       <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>3</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>4</v>
       </c>
-      <c r="AA16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>100</v>
-      </c>
       <c r="AC16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AD16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:30">
+        <v>104</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:32">
       <c r="A17">
         <v>4004</v>
       </c>
@@ -2526,52 +2633,58 @@
         <v>4000001</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O17">
         <v>200001</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0.5</v>
       </c>
       <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
         <v>3</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>5</v>
       </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <v>4</v>
       </c>
-      <c r="AA17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>102</v>
-      </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AD17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:30">
+        <v>106</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:32">
       <c r="A18">
         <v>4005</v>
       </c>
@@ -2585,55 +2698,61 @@
         <v>4000001</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O18">
         <v>200001</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
         <v>100</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0</v>
       </c>
-      <c r="X18">
-        <v>10</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
       <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
         <v>4</v>
       </c>
-      <c r="AA18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>104</v>
-      </c>
       <c r="AC18" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="AD18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:30">
+        <v>108</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:32">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2647,46 +2766,52 @@
         <v>200001</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
         <v>30</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>3</v>
-      </c>
-      <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
       </c>
       <c r="Z19">
         <v>5</v>
       </c>
-      <c r="AA19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>106</v>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
       </c>
       <c r="AC19" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="AD19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:30">
+        <v>110</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:32">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2700,46 +2825,52 @@
         <v>200001</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
         <v>30</v>
       </c>
-      <c r="W20">
-        <v>10</v>
-      </c>
-      <c r="X20">
-        <v>10</v>
-      </c>
       <c r="Y20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>5</v>
       </c>
-      <c r="AA20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>109</v>
-      </c>
       <c r="AC20" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="AD20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:30">
+        <v>113</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:32">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2753,46 +2884,52 @@
         <v>200001</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
         <v>15</v>
       </c>
-      <c r="W21">
-        <v>6</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
         <v>3</v>
       </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>5</v>
       </c>
-      <c r="AA21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>111</v>
-      </c>
       <c r="AC21" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="AD21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:30">
+        <v>115</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:32">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -2806,46 +2943,52 @@
         <v>200001</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
         <v>15</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>3</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>3</v>
       </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
         <v>5</v>
       </c>
-      <c r="AA22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>113</v>
-      </c>
       <c r="AC22" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="AD22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:30">
+        <v>117</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:32">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -2859,46 +3002,52 @@
         <v>200001</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
         <v>8</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>5</v>
       </c>
-      <c r="X23">
-        <v>10</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
       <c r="Z23">
-        <v>6</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>6</v>
       </c>
       <c r="AC23" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="AD23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:30">
+        <v>119</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:32">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -2912,46 +3061,52 @@
         <v>200001</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
         <v>8</v>
       </c>
-      <c r="W24">
-        <v>10</v>
-      </c>
-      <c r="X24">
-        <v>10</v>
-      </c>
       <c r="Y24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z24">
-        <v>6</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AD24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:30">
+        <v>122</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:32">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -2965,46 +3120,52 @@
         <v>200001</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
       </c>
       <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
         <v>500</v>
       </c>
-      <c r="X25">
-        <v>10</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
       <c r="Z25">
-        <v>6</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>6</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="AD25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:30">
+        <v>124</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:32">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -3018,46 +3179,52 @@
         <v>200001</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
         <v>4</v>
       </c>
-      <c r="W26">
-        <v>6</v>
-      </c>
-      <c r="X26">
+      <c r="Y26">
+        <v>6</v>
+      </c>
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>6</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>122</v>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
       </c>
       <c r="AC26" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="AD26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:30">
+        <v>126</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:32">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -3071,46 +3238,52 @@
         <v>200001</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
         <v>4</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>3</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>3</v>
       </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>6</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>124</v>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
       </c>
       <c r="AC27" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="AD27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:30">
+        <v>128</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:32">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -3124,46 +3297,52 @@
         <v>200001</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>12</v>
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
       </c>
       <c r="W28">
         <v>12</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>12</v>
+      </c>
+      <c r="Z28">
         <v>8</v>
       </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>7</v>
       </c>
-      <c r="AA28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>126</v>
-      </c>
       <c r="AC28" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="AD28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:30">
+        <v>130</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:32">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -3177,46 +3356,52 @@
         <v>200001</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
         <v>12</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>3</v>
       </c>
-      <c r="X29">
-        <v>10</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
       <c r="Z29">
+        <v>10</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
         <v>7</v>
       </c>
-      <c r="AA29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>129</v>
-      </c>
       <c r="AC29" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="AD29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:30">
+        <v>133</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:32">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -3230,46 +3415,52 @@
         <v>200001</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
       </c>
       <c r="W30">
         <v>6</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
+        <v>6</v>
+      </c>
+      <c r="Z30">
         <v>3</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
         <v>7</v>
       </c>
-      <c r="AA30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>131</v>
-      </c>
       <c r="AC30" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="AD30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:30">
+        <v>135</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:32">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -3283,46 +3474,52 @@
         <v>200001</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
       </c>
       <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
         <v>3</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>3</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
         <v>7</v>
       </c>
-      <c r="AA31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>133</v>
-      </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="AD31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:30">
+        <v>137</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:32">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
@@ -3333,44 +3530,50 @@
         <v>200001</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
       </c>
       <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
         <v>35</v>
       </c>
-      <c r="X32" s="2"/>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="1">
+      <c r="Z32" s="2"/>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="1">
         <v>989996</v>
       </c>
-      <c r="AA32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>136</v>
-      </c>
       <c r="AC32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:32">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
@@ -3381,44 +3584,50 @@
         <v>200001</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
       </c>
       <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
         <v>35</v>
       </c>
-      <c r="X33" s="2"/>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="1">
+      <c r="Z33" s="2"/>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1">
         <v>989997</v>
       </c>
-      <c r="AA33" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>136</v>
-      </c>
       <c r="AC33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:32">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
@@ -3429,44 +3638,50 @@
         <v>200001</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
       </c>
       <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
         <v>35</v>
       </c>
-      <c r="X34" s="2"/>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1">
+      <c r="Z34" s="2"/>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1">
         <v>989998</v>
       </c>
-      <c r="AA34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>136</v>
-      </c>
       <c r="AC34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:32">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
@@ -3477,43 +3692,49 @@
         <v>200001</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
       </c>
       <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
         <v>35</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
         <v>989999</v>
       </c>
-      <c r="AA35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>136</v>
-      </c>
       <c r="AC35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:32">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
@@ -3524,44 +3745,50 @@
         <v>200001</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
       </c>
       <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
         <v>35</v>
       </c>
-      <c r="X36" s="2"/>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="1">
+      <c r="Z36" s="2"/>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="1">
         <v>999947</v>
       </c>
-      <c r="AA36" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>136</v>
-      </c>
       <c r="AC36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:32">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
@@ -3572,44 +3799,50 @@
         <v>200001</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V37">
+        <v>0.5</v>
       </c>
       <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
         <v>35</v>
       </c>
-      <c r="X37" s="2"/>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="1">
+      <c r="Z37" s="2"/>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1">
         <v>999948</v>
       </c>
-      <c r="AA37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>136</v>
-      </c>
       <c r="AC37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:32">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
@@ -3620,44 +3853,50 @@
         <v>200001</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <v>0.5</v>
       </c>
       <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
         <v>35</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="1">
+      <c r="Z38" s="2"/>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="1">
         <v>999949</v>
       </c>
-      <c r="AA38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>136</v>
-      </c>
       <c r="AC38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:32">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
@@ -3668,44 +3907,50 @@
         <v>200001</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <v>0.5</v>
       </c>
       <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
         <v>35</v>
       </c>
-      <c r="X39" s="2"/>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="1">
+      <c r="Z39" s="2"/>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
         <v>999950</v>
       </c>
-      <c r="AA39" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>136</v>
-      </c>
       <c r="AC39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:32">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
@@ -3716,44 +3961,50 @@
         <v>200001</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V40">
+        <v>0.5</v>
       </c>
       <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
         <v>35</v>
       </c>
-      <c r="X40" s="2"/>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="1">
+      <c r="Z40" s="2"/>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
         <v>999951</v>
       </c>
-      <c r="AA40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>136</v>
-      </c>
       <c r="AC40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:32">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
@@ -3764,44 +4015,50 @@
         <v>200001</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V41">
+        <v>0.5</v>
       </c>
       <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
         <v>35</v>
       </c>
-      <c r="X41" s="2"/>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="1">
+      <c r="Z41" s="2"/>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
         <v>999952</v>
       </c>
-      <c r="AA41" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>136</v>
-      </c>
       <c r="AC41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:32">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
@@ -3812,44 +4069,50 @@
         <v>200001</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V42">
+        <v>0.5</v>
       </c>
       <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
         <v>35</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="1">
+      <c r="Z42" s="2"/>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
         <v>999953</v>
       </c>
-      <c r="AA42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>136</v>
-      </c>
       <c r="AC42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:32">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
@@ -3860,44 +4123,50 @@
         <v>200001</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V43">
+        <v>0.5</v>
       </c>
       <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="Y43">
         <v>35</v>
       </c>
-      <c r="X43" s="2"/>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="1">
+      <c r="Z43" s="2"/>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
         <v>999954</v>
       </c>
-      <c r="AA43" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>136</v>
-      </c>
       <c r="AC43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:32">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
@@ -3908,44 +4177,50 @@
         <v>200001</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V44">
+        <v>0.5</v>
       </c>
       <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
         <v>35</v>
       </c>
-      <c r="X44" s="2"/>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="1">
+      <c r="Z44" s="2"/>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="1">
         <v>999955</v>
       </c>
-      <c r="AA44" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>136</v>
-      </c>
       <c r="AC44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:32">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
@@ -3956,44 +4231,50 @@
         <v>200001</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V45">
+        <v>0.5</v>
       </c>
       <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
         <v>35</v>
       </c>
-      <c r="X45" s="2"/>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="1">
+      <c r="Z45" s="2"/>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="1">
         <v>999956</v>
       </c>
-      <c r="AA45" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>136</v>
-      </c>
       <c r="AC45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:32">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
@@ -4004,44 +4285,50 @@
         <v>200001</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
       </c>
       <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
         <v>35</v>
       </c>
-      <c r="X46" s="2"/>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="1">
+      <c r="Z46" s="2"/>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="1">
         <v>999957</v>
       </c>
-      <c r="AA46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>136</v>
-      </c>
       <c r="AC46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:32">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
@@ -4052,44 +4339,50 @@
         <v>200001</v>
       </c>
       <c r="Q47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V47">
+        <v>0.5</v>
       </c>
       <c r="W47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
         <v>35</v>
       </c>
-      <c r="X47" s="2"/>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="1">
+      <c r="Z47" s="2"/>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
         <v>999958</v>
       </c>
-      <c r="AA47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>136</v>
-      </c>
       <c r="AC47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:32">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
@@ -4100,44 +4393,50 @@
         <v>200001</v>
       </c>
       <c r="Q48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V48">
+        <v>0.5</v>
       </c>
       <c r="W48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
         <v>35</v>
       </c>
-      <c r="X48" s="2"/>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="1">
+      <c r="Z48" s="2"/>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
         <v>999959</v>
       </c>
-      <c r="AA48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>136</v>
-      </c>
       <c r="AC48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:32">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
@@ -4148,44 +4447,50 @@
         <v>200001</v>
       </c>
       <c r="Q49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V49">
+        <v>0.5</v>
       </c>
       <c r="W49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
         <v>35</v>
       </c>
-      <c r="X49" s="2"/>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="1">
+      <c r="Z49" s="2"/>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="1">
         <v>999960</v>
       </c>
-      <c r="AA49" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>136</v>
-      </c>
       <c r="AC49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:32">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
@@ -4196,44 +4501,50 @@
         <v>200001</v>
       </c>
       <c r="Q50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V50">
+        <v>0.5</v>
       </c>
       <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
         <v>35</v>
       </c>
-      <c r="X50" s="2"/>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="1">
+      <c r="Z50" s="2"/>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="1">
         <v>999961</v>
       </c>
-      <c r="AA50" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>136</v>
-      </c>
       <c r="AC50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:32">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
@@ -4244,44 +4555,50 @@
         <v>200001</v>
       </c>
       <c r="Q51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V51">
+        <v>0.5</v>
       </c>
       <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="Y51">
         <v>35</v>
       </c>
-      <c r="X51" s="2"/>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="1">
+      <c r="Z51" s="2"/>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="1">
         <v>999962</v>
       </c>
-      <c r="AA51" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>136</v>
-      </c>
       <c r="AC51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:32">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
@@ -4292,44 +4609,50 @@
         <v>200001</v>
       </c>
       <c r="Q52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V52">
+        <v>0.5</v>
       </c>
       <c r="W52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
         <v>35</v>
       </c>
-      <c r="X52" s="2"/>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="1">
+      <c r="Z52" s="2"/>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="1">
         <v>999963</v>
       </c>
-      <c r="AA52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>136</v>
-      </c>
       <c r="AC52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:32">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
@@ -4340,44 +4663,50 @@
         <v>200001</v>
       </c>
       <c r="Q53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V53">
+        <v>0.5</v>
       </c>
       <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
         <v>35</v>
       </c>
-      <c r="X53" s="2"/>
-      <c r="Y53">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="1">
+      <c r="Z53" s="2"/>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="1">
         <v>999964</v>
       </c>
-      <c r="AA53" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>136</v>
-      </c>
       <c r="AC53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:32">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
@@ -4388,44 +4717,50 @@
         <v>200001</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V54">
+        <v>0.5</v>
       </c>
       <c r="W54">
+        <v>10</v>
+      </c>
+      <c r="Y54">
         <v>35</v>
       </c>
-      <c r="X54" s="2"/>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="1">
+      <c r="Z54" s="2"/>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
         <v>999965</v>
       </c>
-      <c r="AA54" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>136</v>
-      </c>
       <c r="AC54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:32">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
@@ -4436,44 +4771,50 @@
         <v>200001</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V55">
+        <v>0.5</v>
       </c>
       <c r="W55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
         <v>35</v>
       </c>
-      <c r="X55" s="2"/>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="1">
+      <c r="Z55" s="2"/>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
         <v>999966</v>
       </c>
-      <c r="AA55" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>136</v>
-      </c>
       <c r="AC55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:32">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
@@ -4484,44 +4825,50 @@
         <v>200001</v>
       </c>
       <c r="Q56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V56">
+        <v>0.5</v>
       </c>
       <c r="W56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
         <v>35</v>
       </c>
-      <c r="X56" s="2"/>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="1">
+      <c r="Z56" s="2"/>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1">
         <v>999967</v>
       </c>
-      <c r="AA56" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>136</v>
-      </c>
       <c r="AC56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:32">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
@@ -4532,44 +4879,50 @@
         <v>200001</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V57">
+        <v>0.5</v>
       </c>
       <c r="W57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
         <v>35</v>
       </c>
-      <c r="X57" s="2"/>
-      <c r="Y57">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="1">
+      <c r="Z57" s="2"/>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="1">
         <v>999968</v>
       </c>
-      <c r="AA57" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>136</v>
-      </c>
       <c r="AC57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:32">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
@@ -4580,44 +4933,50 @@
         <v>200001</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V58">
+        <v>0.5</v>
       </c>
       <c r="W58">
+        <v>10</v>
+      </c>
+      <c r="Y58">
         <v>35</v>
       </c>
-      <c r="X58" s="2"/>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="1">
+      <c r="Z58" s="2"/>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="1">
         <v>999969</v>
       </c>
-      <c r="AA58" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>136</v>
-      </c>
       <c r="AC58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:32">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
@@ -4628,44 +4987,50 @@
         <v>200001</v>
       </c>
       <c r="Q59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U59">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V59">
+        <v>0.5</v>
       </c>
       <c r="W59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
         <v>35</v>
       </c>
-      <c r="X59" s="2"/>
-      <c r="Y59">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="1">
+      <c r="Z59" s="2"/>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="1">
         <v>999970</v>
       </c>
-      <c r="AA59" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>136</v>
-      </c>
       <c r="AC59" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:32">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
@@ -4676,44 +5041,50 @@
         <v>200001</v>
       </c>
       <c r="Q60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V60">
+        <v>0.5</v>
       </c>
       <c r="W60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
         <v>35</v>
       </c>
-      <c r="X60" s="2"/>
-      <c r="Y60">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="1">
+      <c r="Z60" s="2"/>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="1">
         <v>999971</v>
       </c>
-      <c r="AA60" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>136</v>
-      </c>
       <c r="AC60" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:32">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
@@ -4724,44 +5095,50 @@
         <v>200001</v>
       </c>
       <c r="Q61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V61">
+        <v>0.5</v>
       </c>
       <c r="W61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
         <v>35</v>
       </c>
-      <c r="X61" s="2"/>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="1">
+      <c r="Z61" s="2"/>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
         <v>999972</v>
       </c>
-      <c r="AA61" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>136</v>
-      </c>
       <c r="AC61" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:32">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
@@ -4772,44 +5149,50 @@
         <v>200001</v>
       </c>
       <c r="Q62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V62">
+        <v>0.5</v>
       </c>
       <c r="W62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
         <v>35</v>
       </c>
-      <c r="X62" s="2"/>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="1">
+      <c r="Z62" s="2"/>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1">
         <v>999973</v>
       </c>
-      <c r="AA62" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>136</v>
-      </c>
       <c r="AC62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:32">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
@@ -4820,44 +5203,50 @@
         <v>200001</v>
       </c>
       <c r="Q63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V63">
+        <v>0.5</v>
       </c>
       <c r="W63">
+        <v>10</v>
+      </c>
+      <c r="Y63">
         <v>35</v>
       </c>
-      <c r="X63" s="2"/>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="1">
+      <c r="Z63" s="2"/>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="1">
         <v>999974</v>
       </c>
-      <c r="AA63" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>136</v>
-      </c>
       <c r="AC63" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:32">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
@@ -4868,44 +5257,50 @@
         <v>200001</v>
       </c>
       <c r="Q64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V64">
+        <v>0.5</v>
       </c>
       <c r="W64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
         <v>35</v>
       </c>
-      <c r="X64" s="2"/>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="1">
+      <c r="Z64" s="2"/>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="1">
         <v>999975</v>
       </c>
-      <c r="AA64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>136</v>
-      </c>
       <c r="AC64" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:32">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
@@ -4916,44 +5311,50 @@
         <v>200001</v>
       </c>
       <c r="Q65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V65">
+        <v>0.5</v>
       </c>
       <c r="W65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
         <v>35</v>
       </c>
-      <c r="X65" s="2"/>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="1">
+      <c r="Z65" s="2"/>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="1">
         <v>999976</v>
       </c>
-      <c r="AA65" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>136</v>
-      </c>
       <c r="AC65" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:32">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
@@ -4964,44 +5365,50 @@
         <v>200001</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V66">
+        <v>0.5</v>
       </c>
       <c r="W66">
+        <v>10</v>
+      </c>
+      <c r="Y66">
         <v>35</v>
       </c>
-      <c r="X66" s="2"/>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="1">
+      <c r="Z66" s="2"/>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="1">
         <v>999977</v>
       </c>
-      <c r="AA66" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>136</v>
-      </c>
       <c r="AC66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:32">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
@@ -5012,44 +5419,50 @@
         <v>200001</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V67">
+        <v>0.5</v>
       </c>
       <c r="W67">
+        <v>10</v>
+      </c>
+      <c r="Y67">
         <v>35</v>
       </c>
-      <c r="X67" s="2"/>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="1">
+      <c r="Z67" s="2"/>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="1">
         <v>999978</v>
       </c>
-      <c r="AA67" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>136</v>
-      </c>
       <c r="AC67" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:32">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
@@ -5060,44 +5473,50 @@
         <v>200001</v>
       </c>
       <c r="Q68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V68">
+        <v>0.5</v>
       </c>
       <c r="W68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
         <v>35</v>
       </c>
-      <c r="X68" s="2"/>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="1">
+      <c r="Z68" s="2"/>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="1">
         <v>999979</v>
       </c>
-      <c r="AA68" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>136</v>
-      </c>
       <c r="AC68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:32">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
@@ -5108,44 +5527,50 @@
         <v>200001</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V69">
+        <v>0.5</v>
       </c>
       <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
         <v>35</v>
       </c>
-      <c r="X69" s="2"/>
-      <c r="Y69">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="1">
+      <c r="Z69" s="2"/>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="1">
         <v>999980</v>
       </c>
-      <c r="AA69" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>136</v>
-      </c>
       <c r="AC69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:32">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
@@ -5156,44 +5581,50 @@
         <v>200001</v>
       </c>
       <c r="Q70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U70">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V70">
+        <v>0.5</v>
       </c>
       <c r="W70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
         <v>35</v>
       </c>
-      <c r="X70" s="2"/>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="1">
+      <c r="Z70" s="2"/>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="1">
         <v>999981</v>
       </c>
-      <c r="AA70" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>136</v>
-      </c>
       <c r="AC70" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:32">
       <c r="A71">
         <v>999982</v>
       </c>
@@ -5204,43 +5635,49 @@
         <v>200001</v>
       </c>
       <c r="Q71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U71">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V71">
+        <v>0.5</v>
       </c>
       <c r="W71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
         <v>35</v>
       </c>
-      <c r="Y71">
-        <v>1</v>
-      </c>
-      <c r="Z71">
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
         <v>999982</v>
       </c>
-      <c r="AA71" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>136</v>
-      </c>
       <c r="AC71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:32">
       <c r="A72">
         <v>999983</v>
       </c>
@@ -5251,43 +5688,49 @@
         <v>200001</v>
       </c>
       <c r="Q72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V72">
+        <v>0.5</v>
       </c>
       <c r="W72">
+        <v>10</v>
+      </c>
+      <c r="Y72">
         <v>35</v>
       </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
         <v>999983</v>
       </c>
-      <c r="AA72" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>136</v>
-      </c>
       <c r="AC72" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:32">
       <c r="A73">
         <v>999984</v>
       </c>
@@ -5298,43 +5741,49 @@
         <v>200001</v>
       </c>
       <c r="Q73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V73">
+        <v>0.5</v>
       </c>
       <c r="W73">
+        <v>10</v>
+      </c>
+      <c r="Y73">
         <v>35</v>
       </c>
-      <c r="Y73">
-        <v>1</v>
-      </c>
-      <c r="Z73">
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
         <v>999984</v>
       </c>
-      <c r="AA73" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>136</v>
-      </c>
       <c r="AC73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:32">
       <c r="A74">
         <v>999985</v>
       </c>
@@ -5345,43 +5794,49 @@
         <v>200001</v>
       </c>
       <c r="Q74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V74">
+        <v>0.5</v>
       </c>
       <c r="W74">
+        <v>10</v>
+      </c>
+      <c r="Y74">
         <v>35</v>
       </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-      <c r="Z74">
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
         <v>999985</v>
       </c>
-      <c r="AA74" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>136</v>
-      </c>
       <c r="AC74" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:32">
       <c r="A75">
         <v>999986</v>
       </c>
@@ -5392,43 +5847,49 @@
         <v>200001</v>
       </c>
       <c r="Q75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U75">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V75">
+        <v>0.5</v>
       </c>
       <c r="W75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
         <v>35</v>
       </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-      <c r="Z75">
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
         <v>999986</v>
       </c>
-      <c r="AA75" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>136</v>
-      </c>
       <c r="AC75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:32">
       <c r="A76">
         <v>999987</v>
       </c>
@@ -5439,43 +5900,49 @@
         <v>200001</v>
       </c>
       <c r="Q76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V76">
+        <v>0.5</v>
       </c>
       <c r="W76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
         <v>35</v>
       </c>
-      <c r="Y76">
-        <v>1</v>
-      </c>
-      <c r="Z76">
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
         <v>999987</v>
       </c>
-      <c r="AA76" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>136</v>
-      </c>
       <c r="AC76" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:32">
       <c r="A77">
         <v>999988</v>
       </c>
@@ -5486,43 +5953,49 @@
         <v>200001</v>
       </c>
       <c r="Q77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U77">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V77">
+        <v>0.5</v>
       </c>
       <c r="W77">
+        <v>10</v>
+      </c>
+      <c r="Y77">
         <v>35</v>
       </c>
-      <c r="Y77">
-        <v>1</v>
-      </c>
-      <c r="Z77">
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
         <v>999988</v>
       </c>
-      <c r="AA77" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>136</v>
-      </c>
       <c r="AC77" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:32">
       <c r="A78">
         <v>999989</v>
       </c>
@@ -5533,43 +6006,49 @@
         <v>200001</v>
       </c>
       <c r="Q78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U78">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V78">
+        <v>0.5</v>
       </c>
       <c r="W78">
+        <v>10</v>
+      </c>
+      <c r="Y78">
         <v>35</v>
       </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-      <c r="Z78">
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
         <v>999989</v>
       </c>
-      <c r="AA78" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>136</v>
-      </c>
       <c r="AC78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:32">
       <c r="A79">
         <v>999990</v>
       </c>
@@ -5580,43 +6059,49 @@
         <v>200001</v>
       </c>
       <c r="Q79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U79">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V79">
+        <v>0.5</v>
       </c>
       <c r="W79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
         <v>35</v>
       </c>
-      <c r="Y79">
-        <v>1</v>
-      </c>
-      <c r="Z79">
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
         <v>999990</v>
       </c>
-      <c r="AA79" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>136</v>
-      </c>
       <c r="AC79" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:32">
       <c r="A80">
         <v>999991</v>
       </c>
@@ -5627,43 +6112,49 @@
         <v>200001</v>
       </c>
       <c r="Q80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V80">
+        <v>0.5</v>
       </c>
       <c r="W80">
+        <v>10</v>
+      </c>
+      <c r="Y80">
         <v>35</v>
       </c>
-      <c r="Y80">
-        <v>1</v>
-      </c>
-      <c r="Z80">
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
         <v>999991</v>
       </c>
-      <c r="AA80" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>136</v>
-      </c>
       <c r="AC80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:32">
       <c r="A81">
         <v>999992</v>
       </c>
@@ -5674,43 +6165,49 @@
         <v>200001</v>
       </c>
       <c r="Q81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U81">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V81">
+        <v>0.5</v>
       </c>
       <c r="W81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
         <v>35</v>
       </c>
-      <c r="Y81">
-        <v>1</v>
-      </c>
-      <c r="Z81">
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
         <v>999992</v>
       </c>
-      <c r="AA81" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>136</v>
-      </c>
       <c r="AC81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:32">
       <c r="A82">
         <v>999993</v>
       </c>
@@ -5721,43 +6218,49 @@
         <v>200001</v>
       </c>
       <c r="Q82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V82">
+        <v>0.5</v>
       </c>
       <c r="W82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
         <v>35</v>
       </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-      <c r="Z82">
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
         <v>999993</v>
       </c>
-      <c r="AA82" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>136</v>
-      </c>
       <c r="AC82" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:32">
       <c r="A83">
         <v>999994</v>
       </c>
@@ -5768,43 +6271,49 @@
         <v>200001</v>
       </c>
       <c r="Q83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U83">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V83">
+        <v>0.5</v>
       </c>
       <c r="W83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
         <v>35</v>
       </c>
-      <c r="Y83">
-        <v>1</v>
-      </c>
-      <c r="Z83">
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
         <v>999994</v>
       </c>
-      <c r="AA83" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>136</v>
-      </c>
       <c r="AC83" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD83" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:32">
       <c r="A84">
         <v>999995</v>
       </c>
@@ -5815,43 +6324,49 @@
         <v>200001</v>
       </c>
       <c r="Q84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U84">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V84">
+        <v>0.5</v>
       </c>
       <c r="W84">
+        <v>10</v>
+      </c>
+      <c r="Y84">
         <v>35</v>
       </c>
-      <c r="Y84">
-        <v>1</v>
-      </c>
-      <c r="Z84">
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
         <v>999995</v>
       </c>
-      <c r="AA84" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>136</v>
-      </c>
       <c r="AC84" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:32">
       <c r="A85">
         <v>999996</v>
       </c>
@@ -5862,43 +6377,49 @@
         <v>200001</v>
       </c>
       <c r="Q85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U85">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V85">
+        <v>0.5</v>
       </c>
       <c r="W85">
+        <v>10</v>
+      </c>
+      <c r="Y85">
         <v>35</v>
       </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-      <c r="Z85">
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
         <v>999996</v>
       </c>
-      <c r="AA85" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>136</v>
-      </c>
       <c r="AC85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:32">
       <c r="A86">
         <v>999997</v>
       </c>
@@ -5909,43 +6430,49 @@
         <v>200001</v>
       </c>
       <c r="Q86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V86">
+        <v>0.5</v>
       </c>
       <c r="W86">
+        <v>10</v>
+      </c>
+      <c r="Y86">
         <v>35</v>
       </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-      <c r="Z86">
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
         <v>999997</v>
       </c>
-      <c r="AA86" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>136</v>
-      </c>
       <c r="AC86" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:32">
       <c r="A87">
         <v>999998</v>
       </c>
@@ -5956,43 +6483,49 @@
         <v>200001</v>
       </c>
       <c r="Q87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U87">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V87">
+        <v>0.5</v>
       </c>
       <c r="W87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
         <v>35</v>
       </c>
-      <c r="Y87">
-        <v>1</v>
-      </c>
-      <c r="Z87">
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
         <v>999998</v>
       </c>
-      <c r="AA87" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>136</v>
-      </c>
       <c r="AC87" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD87" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:30">
+        <v>140</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:32">
       <c r="A88">
         <v>999999</v>
       </c>
@@ -6003,42 +6536,49 @@
         <v>200001</v>
       </c>
       <c r="Q88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U88">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="V88">
+        <v>0.5</v>
       </c>
       <c r="W88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
         <v>35</v>
       </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-      <c r="Z88">
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>999999</v>
       </c>
-      <c r="AA88" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>136</v>
-      </c>
       <c r="AC88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD88" t="s">
-        <v>138</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" ht="15" customHeight="1"/>
     <row r="113" ht="15" customHeight="1"/>
     <row r="114" ht="15" customHeight="1"/>
     <row r="115" ht="15" customHeight="1"/>
@@ -6049,7 +6589,7 @@
     <row r="120" ht="15" customHeight="1"/>
     <row r="121" ht="15" customHeight="1"/>
     <row r="122" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
+    <row r="154" ht="12" customHeight="1"/>
     <row r="155" ht="12" customHeight="1"/>
     <row r="156" ht="12" customHeight="1"/>
     <row r="157" ht="12" customHeight="1"/>
@@ -6058,9 +6598,8 @@
     <row r="160" ht="12" customHeight="1"/>
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
-    <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:AH88">
+  <sortState ref="A4:AJ88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1428,15 +1431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="Y95" sqref="Y95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,7 +1572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" hidden="1" spans="1:32">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" hidden="1" spans="1:32">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:32">
+    <row r="4" customFormat="1" hidden="1" spans="1:32">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:32">
+    <row r="5" customFormat="1" hidden="1" spans="1:32">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -1853,7 +1856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:32">
+    <row r="6" ht="12" hidden="1" customHeight="1" spans="1:32">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" hidden="1" spans="1:32">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" hidden="1" spans="1:32">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" hidden="1" spans="1:32">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" hidden="1" spans="1:32">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:32">
+    <row r="11" customFormat="1" hidden="1" spans="1:32">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:32">
+    <row r="12" customFormat="1" hidden="1" spans="1:32">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:32">
+    <row r="13" customFormat="1" hidden="1" spans="1:32">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -2506,13 +2509,16 @@
         <v>101</v>
       </c>
       <c r="O15">
-        <v>200001</v>
+        <v>500001</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -2530,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>10</v>
@@ -2701,13 +2707,16 @@
         <v>101</v>
       </c>
       <c r="O18">
-        <v>200001</v>
+        <v>500002</v>
+      </c>
+      <c r="P18">
+        <v>13</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2724,11 +2733,9 @@
       <c r="W18">
         <v>10</v>
       </c>
-      <c r="X18">
-        <v>100</v>
-      </c>
+      <c r="X18"/>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>10</v>
@@ -2752,7 +2759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:32">
+    <row r="19" customFormat="1" hidden="1" spans="1:32">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2811,7 +2818,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:32">
+    <row r="20" customFormat="1" hidden="1" spans="1:32">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2870,7 +2877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:32">
+    <row r="21" customFormat="1" hidden="1" spans="1:32">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:32">
+    <row r="22" customFormat="1" hidden="1" spans="1:32">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:32">
+    <row r="23" customFormat="1" hidden="1" spans="1:32">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:32">
+    <row r="24" customFormat="1" hidden="1" spans="1:32">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:32">
+    <row r="25" customFormat="1" hidden="1" spans="1:32">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:32">
+    <row r="26" customFormat="1" hidden="1" spans="1:32">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:32">
+    <row r="27" customFormat="1" hidden="1" spans="1:32">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:32">
+    <row r="28" customFormat="1" hidden="1" spans="1:32">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -3342,7 +3349,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:32">
+    <row r="29" customFormat="1" hidden="1" spans="1:32">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -3401,7 +3408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:32">
+    <row r="30" customFormat="1" hidden="1" spans="1:32">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:32">
+    <row r="31" customFormat="1" hidden="1" spans="1:32">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:32">
+    <row r="32" customFormat="1" hidden="1" spans="1:32">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
@@ -3573,7 +3580,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:32">
+    <row r="33" customFormat="1" hidden="1" spans="1:32">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
@@ -3627,7 +3634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:32">
+    <row r="34" customFormat="1" hidden="1" spans="1:32">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:32">
+    <row r="35" customFormat="1" hidden="1" spans="1:32">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:32">
+    <row r="36" customFormat="1" hidden="1" spans="1:32">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:32">
+    <row r="37" customFormat="1" hidden="1" spans="1:32">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
@@ -3842,7 +3849,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:32">
+    <row r="38" customFormat="1" hidden="1" spans="1:32">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:32">
+    <row r="39" customFormat="1" hidden="1" spans="1:32">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
@@ -3950,7 +3957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:32">
+    <row r="40" customFormat="1" hidden="1" spans="1:32">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
@@ -4004,7 +4011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:32">
+    <row r="41" customFormat="1" hidden="1" spans="1:32">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
@@ -4058,7 +4065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:32">
+    <row r="42" customFormat="1" hidden="1" spans="1:32">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:32">
+    <row r="43" customFormat="1" hidden="1" spans="1:32">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:32">
+    <row r="44" customFormat="1" hidden="1" spans="1:32">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:32">
+    <row r="45" customFormat="1" hidden="1" spans="1:32">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:32">
+    <row r="46" customFormat="1" hidden="1" spans="1:32">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:32">
+    <row r="47" customFormat="1" hidden="1" spans="1:32">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:32">
+    <row r="48" customFormat="1" hidden="1" spans="1:32">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
@@ -4436,7 +4443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:32">
+    <row r="49" customFormat="1" hidden="1" spans="1:32">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
@@ -4490,7 +4497,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:32">
+    <row r="50" customFormat="1" hidden="1" spans="1:32">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
@@ -4544,7 +4551,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:32">
+    <row r="51" customFormat="1" hidden="1" spans="1:32">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
@@ -4598,7 +4605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:32">
+    <row r="52" customFormat="1" hidden="1" spans="1:32">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:32">
+    <row r="53" customFormat="1" hidden="1" spans="1:32">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:32">
+    <row r="54" customFormat="1" hidden="1" spans="1:32">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
@@ -4760,7 +4767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:32">
+    <row r="55" customFormat="1" hidden="1" spans="1:32">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
@@ -4814,7 +4821,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:32">
+    <row r="56" customFormat="1" hidden="1" spans="1:32">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:32">
+    <row r="57" customFormat="1" hidden="1" spans="1:32">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="1:32">
+    <row r="58" customFormat="1" hidden="1" spans="1:32">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
@@ -4976,7 +4983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="1:32">
+    <row r="59" customFormat="1" hidden="1" spans="1:32">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
@@ -5030,7 +5037,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:32">
+    <row r="60" customFormat="1" hidden="1" spans="1:32">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
@@ -5084,7 +5091,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:32">
+    <row r="61" customFormat="1" hidden="1" spans="1:32">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:32">
+    <row r="62" customFormat="1" hidden="1" spans="1:32">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
@@ -5192,7 +5199,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:32">
+    <row r="63" customFormat="1" hidden="1" spans="1:32">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:32">
+    <row r="64" customFormat="1" hidden="1" spans="1:32">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="1:32">
+    <row r="65" customFormat="1" hidden="1" spans="1:32">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
@@ -5354,7 +5361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:32">
+    <row r="66" customFormat="1" hidden="1" spans="1:32">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:32">
+    <row r="67" customFormat="1" hidden="1" spans="1:32">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
@@ -5462,7 +5469,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:32">
+    <row r="68" customFormat="1" hidden="1" spans="1:32">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
@@ -5516,7 +5523,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:32">
+    <row r="69" customFormat="1" hidden="1" spans="1:32">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
@@ -5570,7 +5577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="1:32">
+    <row r="70" customFormat="1" hidden="1" spans="1:32">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="1:32">
+    <row r="71" customFormat="1" hidden="1" spans="1:32">
       <c r="A71">
         <v>999982</v>
       </c>
@@ -5677,7 +5684,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="1:32">
+    <row r="72" customFormat="1" hidden="1" spans="1:32">
       <c r="A72">
         <v>999983</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="1:32">
+    <row r="73" customFormat="1" hidden="1" spans="1:32">
       <c r="A73">
         <v>999984</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="1:32">
+    <row r="74" customFormat="1" hidden="1" spans="1:32">
       <c r="A74">
         <v>999985</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="1:32">
+    <row r="75" customFormat="1" hidden="1" spans="1:32">
       <c r="A75">
         <v>999986</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:32">
+    <row r="76" customFormat="1" hidden="1" spans="1:32">
       <c r="A76">
         <v>999987</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:32">
+    <row r="77" customFormat="1" hidden="1" spans="1:32">
       <c r="A77">
         <v>999988</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:32">
+    <row r="78" customFormat="1" hidden="1" spans="1:32">
       <c r="A78">
         <v>999989</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:32">
+    <row r="79" customFormat="1" hidden="1" spans="1:32">
       <c r="A79">
         <v>999990</v>
       </c>
@@ -6101,7 +6108,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:32">
+    <row r="80" customFormat="1" hidden="1" spans="1:32">
       <c r="A80">
         <v>999991</v>
       </c>
@@ -6154,7 +6161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:32">
+    <row r="81" customFormat="1" hidden="1" spans="1:32">
       <c r="A81">
         <v>999992</v>
       </c>
@@ -6207,7 +6214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:32">
+    <row r="82" customFormat="1" hidden="1" spans="1:32">
       <c r="A82">
         <v>999993</v>
       </c>
@@ -6260,7 +6267,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="1:32">
+    <row r="83" customFormat="1" hidden="1" spans="1:32">
       <c r="A83">
         <v>999994</v>
       </c>
@@ -6313,7 +6320,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="1:32">
+    <row r="84" customFormat="1" hidden="1" spans="1:32">
       <c r="A84">
         <v>999995</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:32">
+    <row r="85" customFormat="1" hidden="1" spans="1:32">
       <c r="A85">
         <v>999996</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:32">
+    <row r="86" customFormat="1" hidden="1" spans="1:32">
       <c r="A86">
         <v>999997</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:32">
+    <row r="87" customFormat="1" hidden="1" spans="1:32">
       <c r="A87">
         <v>999998</v>
       </c>
@@ -6525,7 +6532,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="1:32">
+    <row r="88" customFormat="1" hidden="1" spans="1:32">
       <c r="A88">
         <v>999999</v>
       </c>
@@ -6599,6 +6606,18 @@
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF88" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4001"/>
+        <filter val="4002"/>
+        <filter val="4003"/>
+        <filter val="4004"/>
+        <filter val="4005"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <sortState ref="A4:AJ88">
     <sortCondition ref="A4"/>
   </sortState>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
     <t>attack_mode</t>
   </si>
   <si>
+    <t>attack_start_position</t>
+  </si>
+  <si>
     <t>attack_search_type</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
     <t>攻击模式</t>
   </si>
   <si>
+    <t>攻击起始位置</t>
+  </si>
+  <si>
     <t>攻击搜索敌人类型0直线 11范围 12范围内血量不满 13范围内护甲不满 21遍历路线</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t>0,0.7,0</t>
   </si>
   <si>
     <t>骷髅投手</t>
@@ -1431,15 +1440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AF162"/>
+  <sheetPr/>
+  <dimension ref="A1:AG162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y95" sqref="Y95"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1459,22 +1468,23 @@
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="18.25" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="22.75" customWidth="1"/>
-    <col min="17" max="17" width="28.25" customWidth="1"/>
-    <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="29.625" customWidth="1"/>
-    <col min="20" max="20" width="25.375" customWidth="1"/>
-    <col min="21" max="22" width="20.25" customWidth="1"/>
-    <col min="23" max="24" width="11.75" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="26" width="17.75" customWidth="1"/>
-    <col min="27" max="28" width="14.75" customWidth="1"/>
-    <col min="29" max="31" width="47.5" customWidth="1"/>
-    <col min="32" max="32" width="42.875" customWidth="1"/>
-    <col min="33" max="33" width="25.125" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="77.375" customWidth="1"/>
+    <col min="18" max="18" width="28.25" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="29.625" customWidth="1"/>
+    <col min="21" max="21" width="25.375" customWidth="1"/>
+    <col min="22" max="23" width="20.25" customWidth="1"/>
+    <col min="24" max="25" width="11.75" customWidth="1"/>
+    <col min="26" max="26" width="20.25" customWidth="1"/>
+    <col min="27" max="27" width="17.75" customWidth="1"/>
+    <col min="28" max="29" width="14.75" customWidth="1"/>
+    <col min="30" max="32" width="47.5" customWidth="1"/>
+    <col min="33" max="33" width="42.875" customWidth="1"/>
+    <col min="34" max="34" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1571,204 +1581,213 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" hidden="1" spans="1:32">
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:32">
+        <v>35</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" hidden="1" spans="1:32">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:33">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1776,28 +1795,28 @@
         <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" hidden="1" spans="1:32">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:33">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1810,53 +1829,53 @@
       <c r="O5">
         <v>100001</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
       <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
       </c>
       <c r="Z5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
         <v>0.2</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>69</v>
+      <c r="AC5">
+        <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" ht="12" hidden="1" customHeight="1" spans="1:32">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:33">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1874,61 +1893,61 @@
         <v>21010001</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O6">
         <v>100001</v>
       </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0.5</v>
       </c>
       <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
         <v>10</v>
       </c>
       <c r="Z6">
         <v>10</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
       </c>
       <c r="AD6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="1:32">
+        <v>79</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1945,61 +1964,64 @@
         <v>21000001</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>200001</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
+      <c r="P7" t="s">
+        <v>82</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0.5</v>
       </c>
       <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
         <v>10</v>
       </c>
       <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
         <v>3</v>
       </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
       <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:32">
+        <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -2016,61 +2038,64 @@
         <v>21010002</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O8">
         <v>201001</v>
       </c>
-      <c r="Q8">
-        <v>2</v>
+      <c r="P8" t="s">
+        <v>82</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0.5</v>
       </c>
       <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="Y8">
-        <v>6</v>
-      </c>
       <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
         <v>3</v>
       </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
       <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
       </c>
       <c r="AD8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s">
         <v>85</v>
       </c>
-      <c r="AF8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:32">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -2087,61 +2112,64 @@
         <v>21010003</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O9">
         <v>201002</v>
       </c>
-      <c r="Q9">
-        <v>2</v>
+      <c r="P9" t="s">
+        <v>82</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0.5</v>
       </c>
       <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
         <v>5</v>
-      </c>
-      <c r="Y9">
-        <v>3</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
       </c>
       <c r="AD9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:32">
+        <v>90</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -2155,56 +2183,56 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0.5</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
         <v>500</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
         <v>3</v>
       </c>
-      <c r="AC10" t="s">
-        <v>69</v>
-      </c>
       <c r="AD10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" hidden="1" spans="1:32">
+        <v>92</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:33">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -2218,61 +2246,61 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <v>300001</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.5</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
         <v>0.15</v>
       </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
-      <c r="Y11">
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
         <v>500</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
       <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AC11" t="s">
-        <v>69</v>
-      </c>
       <c r="AD11" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" hidden="1" spans="1:32">
+        <v>95</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:33">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -2280,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -2289,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2297,56 +2325,56 @@
       <c r="O12">
         <v>400001</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
       <c r="W12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
         <v>5</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD12" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" hidden="1" spans="1:32">
+        <v>98</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:33">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -2354,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2363,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2371,56 +2399,56 @@
       <c r="O13">
         <v>400002</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
         <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
         <v>3</v>
       </c>
-      <c r="AC13" t="s">
-        <v>69</v>
-      </c>
       <c r="AD13" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:32">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:33">
       <c r="A14">
         <v>4001</v>
       </c>
@@ -2438,61 +2466,61 @@
         <v>41000002</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O14">
         <v>101001</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
       <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
         <v>3</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0.5</v>
       </c>
       <c r="W14">
-        <v>10</v>
-      </c>
-      <c r="Y14">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
         <v>4</v>
       </c>
-      <c r="AC14" t="s">
-        <v>69</v>
-      </c>
       <c r="AD14" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:32">
+        <v>102</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:33">
       <c r="A15">
         <v>4002</v>
       </c>
@@ -2506,17 +2534,14 @@
         <v>4000001</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15">
         <v>500001</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
         <v>1</v>
       </c>
@@ -2527,40 +2552,43 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
       <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
         <v>4</v>
       </c>
-      <c r="AC15" t="s">
-        <v>69</v>
-      </c>
       <c r="AD15" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:32">
+        <v>106</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:33">
       <c r="A16">
         <v>4003</v>
       </c>
@@ -2574,58 +2602,61 @@
         <v>4000001</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O16">
-        <v>200001</v>
+        <v>600001</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0.5</v>
       </c>
       <c r="W16">
-        <v>10</v>
-      </c>
-      <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3</v>
       </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
       <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
         <v>4</v>
       </c>
-      <c r="AC16" t="s">
-        <v>69</v>
-      </c>
       <c r="AD16" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:32">
+        <v>108</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:33">
       <c r="A17">
         <v>4004</v>
       </c>
@@ -2639,58 +2670,64 @@
         <v>4000001</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O17">
-        <v>200001</v>
+        <v>202001</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
       <c r="W17">
-        <v>10</v>
-      </c>
-      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
         <v>3</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>5</v>
       </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
       <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
         <v>4</v>
       </c>
-      <c r="AC17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD17" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:32">
+        <v>110</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:33">
       <c r="A18">
         <v>4005</v>
       </c>
@@ -2704,17 +2741,14 @@
         <v>4000001</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O18">
         <v>500002</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>13</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
       <c r="R18">
         <v>1</v>
       </c>
@@ -2725,41 +2759,44 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0.5</v>
       </c>
       <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="X18"/>
-      <c r="Y18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18"/>
       <c r="Z18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <v>4</v>
       </c>
-      <c r="AC18" t="s">
-        <v>69</v>
-      </c>
       <c r="AD18" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" hidden="1" spans="1:32">
+        <v>112</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:33">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2772,53 +2809,53 @@
       <c r="O19">
         <v>200001</v>
       </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
       <c r="R19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
       <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
         <v>30</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>5</v>
       </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
       <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
         <v>5</v>
       </c>
-      <c r="AC19" t="s">
-        <v>69</v>
-      </c>
       <c r="AD19" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" hidden="1" spans="1:32">
+        <v>114</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:33">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2831,53 +2868,53 @@
       <c r="O20">
         <v>200001</v>
       </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
       <c r="R20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0.5</v>
       </c>
       <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
         <v>30</v>
       </c>
-      <c r="Y20">
-        <v>10</v>
-      </c>
       <c r="Z20">
         <v>10</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
         <v>5</v>
       </c>
-      <c r="AC20" t="s">
-        <v>69</v>
-      </c>
       <c r="AD20" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" hidden="1" spans="1:32">
+        <v>117</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:33">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2890,53 +2927,53 @@
       <c r="O21">
         <v>200001</v>
       </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
       <c r="R21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0.5</v>
       </c>
       <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
         <v>15</v>
       </c>
-      <c r="Y21">
-        <v>6</v>
-      </c>
       <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
         <v>3</v>
       </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
       <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
         <v>5</v>
       </c>
-      <c r="AC21" t="s">
-        <v>69</v>
-      </c>
       <c r="AD21" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" hidden="1" spans="1:32">
+        <v>119</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:33">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -2949,53 +2986,53 @@
       <c r="O22">
         <v>200001</v>
       </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
       <c r="R22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0.5</v>
       </c>
       <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
         <v>15</v>
-      </c>
-      <c r="Y22">
-        <v>3</v>
       </c>
       <c r="Z22">
         <v>3</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
         <v>5</v>
       </c>
-      <c r="AC22" t="s">
-        <v>69</v>
-      </c>
       <c r="AD22" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" hidden="1" spans="1:32">
+        <v>121</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:33">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -3008,53 +3045,53 @@
       <c r="O23">
         <v>200001</v>
       </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
       <c r="R23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0.5</v>
       </c>
       <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
         <v>8</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>5</v>
       </c>
-      <c r="Z23">
-        <v>10</v>
-      </c>
       <c r="AA23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB23">
-        <v>6</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
       </c>
       <c r="AD23" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" hidden="1" spans="1:32">
+        <v>123</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:33">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -3067,53 +3104,53 @@
       <c r="O24">
         <v>200001</v>
       </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
       <c r="R24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>0.5</v>
       </c>
       <c r="W24">
+        <v>0.5</v>
+      </c>
+      <c r="X24">
         <v>8</v>
       </c>
-      <c r="Y24">
-        <v>10</v>
-      </c>
       <c r="Z24">
         <v>10</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>6</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
       </c>
       <c r="AD24" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" hidden="1" spans="1:32">
+        <v>126</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:33">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -3126,53 +3163,53 @@
       <c r="O25">
         <v>200001</v>
       </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
       <c r="R25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
       <c r="W25">
-        <v>10</v>
-      </c>
-      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Z25">
         <v>500</v>
       </c>
-      <c r="Z25">
-        <v>10</v>
-      </c>
       <c r="AA25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB25">
-        <v>6</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
       </c>
       <c r="AD25" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" hidden="1" spans="1:32">
+        <v>128</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:33">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -3185,53 +3222,53 @@
       <c r="O26">
         <v>200001</v>
       </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
       <c r="R26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0.5</v>
       </c>
       <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
         <v>4</v>
       </c>
-      <c r="Y26">
-        <v>6</v>
-      </c>
       <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
         <v>3</v>
       </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
       <c r="AB26">
-        <v>6</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
       </c>
       <c r="AD26" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AE26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" hidden="1" spans="1:32">
+        <v>130</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:33">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -3244,53 +3281,53 @@
       <c r="O27">
         <v>200001</v>
       </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
       <c r="R27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
       <c r="W27">
+        <v>0.5</v>
+      </c>
+      <c r="X27">
         <v>4</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
       </c>
       <c r="Z27">
         <v>3</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB27">
-        <v>6</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
       </c>
       <c r="AD27" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" hidden="1" spans="1:32">
+        <v>132</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:33">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -3303,53 +3340,53 @@
       <c r="O28">
         <v>200001</v>
       </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
       <c r="R28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>0.5</v>
       </c>
       <c r="W28">
+        <v>0.5</v>
+      </c>
+      <c r="X28">
         <v>12</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>12</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>8</v>
       </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
       <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>7</v>
       </c>
-      <c r="AC28" t="s">
-        <v>69</v>
-      </c>
       <c r="AD28" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" hidden="1" spans="1:32">
+        <v>134</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:33">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -3362,53 +3399,53 @@
       <c r="O29">
         <v>200001</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
       <c r="R29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0.5</v>
       </c>
       <c r="W29">
+        <v>0.5</v>
+      </c>
+      <c r="X29">
         <v>12</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3</v>
       </c>
-      <c r="Z29">
-        <v>10</v>
-      </c>
       <c r="AA29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>7</v>
       </c>
-      <c r="AC29" t="s">
-        <v>69</v>
-      </c>
       <c r="AD29" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" hidden="1" spans="1:32">
+        <v>137</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:33">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -3421,53 +3458,53 @@
       <c r="O30">
         <v>200001</v>
       </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
       <c r="R30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>0.5</v>
       </c>
       <c r="W30">
-        <v>6</v>
-      </c>
-      <c r="Y30">
+        <v>0.5</v>
+      </c>
+      <c r="X30">
         <v>6</v>
       </c>
       <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
         <v>3</v>
       </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
       <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
         <v>7</v>
       </c>
-      <c r="AC30" t="s">
-        <v>69</v>
-      </c>
       <c r="AD30" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" hidden="1" spans="1:32">
+        <v>139</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:33">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -3480,53 +3517,53 @@
       <c r="O31">
         <v>200001</v>
       </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
       <c r="R31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>0.5</v>
       </c>
       <c r="W31">
-        <v>6</v>
-      </c>
-      <c r="Y31">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
       </c>
       <c r="Z31">
         <v>3</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
         <v>7</v>
       </c>
-      <c r="AC31" t="s">
-        <v>69</v>
-      </c>
       <c r="AD31" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="AE31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" hidden="1" spans="1:32">
+        <v>141</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:33">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
@@ -3536,51 +3573,51 @@
       <c r="O32">
         <v>200001</v>
       </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
       <c r="R32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0.5</v>
       </c>
       <c r="W32">
-        <v>10</v>
-      </c>
-      <c r="Y32">
-        <v>35</v>
-      </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <v>35</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
         <v>989996</v>
       </c>
-      <c r="AC32" t="s">
-        <v>139</v>
-      </c>
       <c r="AD32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:33">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
@@ -3590,51 +3627,51 @@
       <c r="O33">
         <v>200001</v>
       </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
       <c r="R33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0.5</v>
       </c>
       <c r="W33">
-        <v>10</v>
-      </c>
-      <c r="Y33">
-        <v>35</v>
-      </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1">
         <v>989997</v>
       </c>
-      <c r="AC33" t="s">
-        <v>139</v>
-      </c>
       <c r="AD33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:33">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
@@ -3644,51 +3681,51 @@
       <c r="O34">
         <v>200001</v>
       </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
       <c r="R34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>0.5</v>
       </c>
       <c r="W34">
-        <v>10</v>
-      </c>
-      <c r="Y34">
-        <v>35</v>
-      </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>35</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1">
         <v>989998</v>
       </c>
-      <c r="AC34" t="s">
-        <v>139</v>
-      </c>
       <c r="AD34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:33">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
@@ -3698,50 +3735,50 @@
       <c r="O35">
         <v>200001</v>
       </c>
-      <c r="Q35">
-        <v>2</v>
-      </c>
       <c r="R35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>0.5</v>
       </c>
       <c r="W35">
-        <v>10</v>
-      </c>
-      <c r="Y35">
-        <v>35</v>
-      </c>
-      <c r="AA35">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>35</v>
       </c>
       <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
         <v>989999</v>
       </c>
-      <c r="AC35" t="s">
-        <v>139</v>
-      </c>
       <c r="AD35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:33">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
@@ -3751,51 +3788,51 @@
       <c r="O36">
         <v>200001</v>
       </c>
-      <c r="Q36">
-        <v>2</v>
-      </c>
       <c r="R36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>0.5</v>
       </c>
       <c r="W36">
-        <v>10</v>
-      </c>
-      <c r="Y36">
-        <v>35</v>
-      </c>
-      <c r="Z36" s="2"/>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>35</v>
+      </c>
+      <c r="AA36" s="2"/>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="1">
         <v>999947</v>
       </c>
-      <c r="AC36" t="s">
-        <v>139</v>
-      </c>
       <c r="AD36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:33">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
@@ -3805,51 +3842,51 @@
       <c r="O37">
         <v>200001</v>
       </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
       <c r="R37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="U37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>0.5</v>
       </c>
       <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
-        <v>35</v>
-      </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>35</v>
+      </c>
+      <c r="AA37" s="2"/>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
         <v>999948</v>
       </c>
-      <c r="AC37" t="s">
-        <v>139</v>
-      </c>
       <c r="AD37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:33">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
@@ -3859,51 +3896,51 @@
       <c r="O38">
         <v>200001</v>
       </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
       <c r="R38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
       <c r="U38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
       <c r="W38">
-        <v>10</v>
-      </c>
-      <c r="Y38">
-        <v>35</v>
-      </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>35</v>
+      </c>
+      <c r="AA38" s="2"/>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="1">
         <v>999949</v>
       </c>
-      <c r="AC38" t="s">
-        <v>139</v>
-      </c>
       <c r="AD38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:33">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
@@ -3913,51 +3950,51 @@
       <c r="O39">
         <v>200001</v>
       </c>
-      <c r="Q39">
-        <v>2</v>
-      </c>
       <c r="R39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
       <c r="U39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>0.5</v>
       </c>
       <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="Y39">
-        <v>35</v>
-      </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>35</v>
+      </c>
+      <c r="AA39" s="2"/>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
         <v>999950</v>
       </c>
-      <c r="AC39" t="s">
-        <v>139</v>
-      </c>
       <c r="AD39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:33">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
@@ -3967,51 +4004,51 @@
       <c r="O40">
         <v>200001</v>
       </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
       <c r="R40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
       <c r="U40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0.5</v>
       </c>
       <c r="W40">
-        <v>10</v>
-      </c>
-      <c r="Y40">
-        <v>35</v>
-      </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>35</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1">
         <v>999951</v>
       </c>
-      <c r="AC40" t="s">
-        <v>139</v>
-      </c>
       <c r="AD40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:33">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
@@ -4021,51 +4058,51 @@
       <c r="O41">
         <v>200001</v>
       </c>
-      <c r="Q41">
-        <v>2</v>
-      </c>
       <c r="R41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0.5</v>
       </c>
       <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="Y41">
-        <v>35</v>
-      </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="2"/>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
         <v>999952</v>
       </c>
-      <c r="AC41" t="s">
-        <v>139</v>
-      </c>
       <c r="AD41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:33">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
@@ -4075,51 +4112,51 @@
       <c r="O42">
         <v>200001</v>
       </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
       <c r="R42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>0.5</v>
       </c>
       <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="Y42">
-        <v>35</v>
-      </c>
-      <c r="Z42" s="2"/>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Z42">
+        <v>35</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
         <v>999953</v>
       </c>
-      <c r="AC42" t="s">
-        <v>139</v>
-      </c>
       <c r="AD42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:33">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
@@ -4129,51 +4166,51 @@
       <c r="O43">
         <v>200001</v>
       </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
       <c r="R43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="U43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>0.5</v>
       </c>
       <c r="W43">
-        <v>10</v>
-      </c>
-      <c r="Y43">
-        <v>35</v>
-      </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>35</v>
+      </c>
+      <c r="AA43" s="2"/>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1">
         <v>999954</v>
       </c>
-      <c r="AC43" t="s">
-        <v>139</v>
-      </c>
       <c r="AD43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:33">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
@@ -4183,51 +4220,51 @@
       <c r="O44">
         <v>200001</v>
       </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
       <c r="R44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T44">
         <v>1</v>
       </c>
       <c r="U44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0.5</v>
       </c>
       <c r="W44">
-        <v>10</v>
-      </c>
-      <c r="Y44">
-        <v>35</v>
-      </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
+        <v>35</v>
+      </c>
+      <c r="AA44" s="2"/>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
         <v>999955</v>
       </c>
-      <c r="AC44" t="s">
-        <v>139</v>
-      </c>
       <c r="AD44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:33">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
@@ -4237,51 +4274,51 @@
       <c r="O45">
         <v>200001</v>
       </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
       <c r="R45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T45">
         <v>1</v>
       </c>
       <c r="U45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0.5</v>
       </c>
       <c r="W45">
-        <v>10</v>
-      </c>
-      <c r="Y45">
-        <v>35</v>
-      </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Z45">
+        <v>35</v>
+      </c>
+      <c r="AA45" s="2"/>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
         <v>999956</v>
       </c>
-      <c r="AC45" t="s">
-        <v>139</v>
-      </c>
       <c r="AD45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:33">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
@@ -4291,51 +4328,51 @@
       <c r="O46">
         <v>200001</v>
       </c>
-      <c r="Q46">
-        <v>2</v>
-      </c>
       <c r="R46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T46">
         <v>1</v>
       </c>
       <c r="U46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>0.5</v>
       </c>
       <c r="W46">
-        <v>10</v>
-      </c>
-      <c r="Y46">
-        <v>35</v>
-      </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Z46">
+        <v>35</v>
+      </c>
+      <c r="AA46" s="2"/>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
         <v>999957</v>
       </c>
-      <c r="AC46" t="s">
-        <v>139</v>
-      </c>
       <c r="AD46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:33">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
@@ -4345,51 +4382,51 @@
       <c r="O47">
         <v>200001</v>
       </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
       <c r="R47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0.5</v>
       </c>
       <c r="W47">
-        <v>10</v>
-      </c>
-      <c r="Y47">
-        <v>35</v>
-      </c>
-      <c r="Z47" s="2"/>
-      <c r="AA47">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Z47">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="2"/>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1">
         <v>999958</v>
       </c>
-      <c r="AC47" t="s">
-        <v>139</v>
-      </c>
       <c r="AD47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:33">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
@@ -4399,51 +4436,51 @@
       <c r="O48">
         <v>200001</v>
       </c>
-      <c r="Q48">
-        <v>2</v>
-      </c>
       <c r="R48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>0.5</v>
       </c>
       <c r="W48">
-        <v>10</v>
-      </c>
-      <c r="Y48">
-        <v>35</v>
-      </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Z48">
+        <v>35</v>
+      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1">
         <v>999959</v>
       </c>
-      <c r="AC48" t="s">
-        <v>139</v>
-      </c>
       <c r="AD48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:33">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
@@ -4453,51 +4490,51 @@
       <c r="O49">
         <v>200001</v>
       </c>
-      <c r="Q49">
-        <v>2</v>
-      </c>
       <c r="R49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>0.5</v>
       </c>
       <c r="W49">
-        <v>10</v>
-      </c>
-      <c r="Y49">
-        <v>35</v>
-      </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="2"/>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1">
         <v>999960</v>
       </c>
-      <c r="AC49" t="s">
-        <v>139</v>
-      </c>
       <c r="AD49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:33">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
@@ -4507,51 +4544,51 @@
       <c r="O50">
         <v>200001</v>
       </c>
-      <c r="Q50">
-        <v>2</v>
-      </c>
       <c r="R50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
       <c r="U50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <v>0.5</v>
       </c>
       <c r="W50">
-        <v>10</v>
-      </c>
-      <c r="Y50">
-        <v>35</v>
-      </c>
-      <c r="Z50" s="2"/>
-      <c r="AA50">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
+        <v>35</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1">
         <v>999961</v>
       </c>
-      <c r="AC50" t="s">
-        <v>139</v>
-      </c>
       <c r="AD50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:33">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
@@ -4561,51 +4598,51 @@
       <c r="O51">
         <v>200001</v>
       </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
       <c r="R51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>0.5</v>
       </c>
       <c r="W51">
-        <v>10</v>
-      </c>
-      <c r="Y51">
-        <v>35</v>
-      </c>
-      <c r="Z51" s="2"/>
-      <c r="AA51">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>10</v>
+      </c>
+      <c r="Z51">
+        <v>35</v>
+      </c>
+      <c r="AA51" s="2"/>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1">
         <v>999962</v>
       </c>
-      <c r="AC51" t="s">
-        <v>139</v>
-      </c>
       <c r="AD51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:33">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
@@ -4615,51 +4652,51 @@
       <c r="O52">
         <v>200001</v>
       </c>
-      <c r="Q52">
-        <v>2</v>
-      </c>
       <c r="R52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>0.5</v>
       </c>
       <c r="W52">
-        <v>10</v>
-      </c>
-      <c r="Y52">
-        <v>35</v>
-      </c>
-      <c r="Z52" s="2"/>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Z52">
+        <v>35</v>
+      </c>
+      <c r="AA52" s="2"/>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1">
         <v>999963</v>
       </c>
-      <c r="AC52" t="s">
-        <v>139</v>
-      </c>
       <c r="AD52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:33">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
@@ -4669,51 +4706,51 @@
       <c r="O53">
         <v>200001</v>
       </c>
-      <c r="Q53">
-        <v>2</v>
-      </c>
       <c r="R53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>0.5</v>
       </c>
       <c r="W53">
-        <v>10</v>
-      </c>
-      <c r="Y53">
-        <v>35</v>
-      </c>
-      <c r="Z53" s="2"/>
-      <c r="AA53">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Z53">
+        <v>35</v>
+      </c>
+      <c r="AA53" s="2"/>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
         <v>999964</v>
       </c>
-      <c r="AC53" t="s">
-        <v>139</v>
-      </c>
       <c r="AD53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:33">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
@@ -4723,51 +4760,51 @@
       <c r="O54">
         <v>200001</v>
       </c>
-      <c r="Q54">
-        <v>2</v>
-      </c>
       <c r="R54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T54">
         <v>1</v>
       </c>
       <c r="U54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>0.5</v>
       </c>
       <c r="W54">
-        <v>10</v>
-      </c>
-      <c r="Y54">
-        <v>35</v>
-      </c>
-      <c r="Z54" s="2"/>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Z54">
+        <v>35</v>
+      </c>
+      <c r="AA54" s="2"/>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1">
         <v>999965</v>
       </c>
-      <c r="AC54" t="s">
-        <v>139</v>
-      </c>
       <c r="AD54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE54" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:33">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
@@ -4777,51 +4814,51 @@
       <c r="O55">
         <v>200001</v>
       </c>
-      <c r="Q55">
-        <v>2</v>
-      </c>
       <c r="R55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="U55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>0.5</v>
       </c>
       <c r="W55">
-        <v>10</v>
-      </c>
-      <c r="Y55">
-        <v>35</v>
-      </c>
-      <c r="Z55" s="2"/>
-      <c r="AA55">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Z55">
+        <v>35</v>
+      </c>
+      <c r="AA55" s="2"/>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1">
         <v>999966</v>
       </c>
-      <c r="AC55" t="s">
-        <v>139</v>
-      </c>
       <c r="AD55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:33">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
@@ -4831,51 +4868,51 @@
       <c r="O56">
         <v>200001</v>
       </c>
-      <c r="Q56">
-        <v>2</v>
-      </c>
       <c r="R56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>0.5</v>
       </c>
       <c r="W56">
-        <v>10</v>
-      </c>
-      <c r="Y56">
-        <v>35</v>
-      </c>
-      <c r="Z56" s="2"/>
-      <c r="AA56">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Z56">
+        <v>35</v>
+      </c>
+      <c r="AA56" s="2"/>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1">
         <v>999967</v>
       </c>
-      <c r="AC56" t="s">
-        <v>139</v>
-      </c>
       <c r="AD56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:33">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
@@ -4885,51 +4922,51 @@
       <c r="O57">
         <v>200001</v>
       </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
       <c r="R57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T57">
         <v>1</v>
       </c>
       <c r="U57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V57">
         <v>0.5</v>
       </c>
       <c r="W57">
-        <v>10</v>
-      </c>
-      <c r="Y57">
-        <v>35</v>
-      </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Z57">
+        <v>35</v>
+      </c>
+      <c r="AA57" s="2"/>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
         <v>999968</v>
       </c>
-      <c r="AC57" t="s">
-        <v>139</v>
-      </c>
       <c r="AD57" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:33">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
@@ -4939,51 +4976,51 @@
       <c r="O58">
         <v>200001</v>
       </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
       <c r="R58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T58">
         <v>1</v>
       </c>
       <c r="U58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V58">
         <v>0.5</v>
       </c>
       <c r="W58">
-        <v>10</v>
-      </c>
-      <c r="Y58">
-        <v>35</v>
-      </c>
-      <c r="Z58" s="2"/>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Z58">
+        <v>35</v>
+      </c>
+      <c r="AA58" s="2"/>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1">
         <v>999969</v>
       </c>
-      <c r="AC58" t="s">
-        <v>139</v>
-      </c>
       <c r="AD58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:33">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
@@ -4993,51 +5030,51 @@
       <c r="O59">
         <v>200001</v>
       </c>
-      <c r="Q59">
-        <v>2</v>
-      </c>
       <c r="R59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>0.5</v>
       </c>
       <c r="W59">
-        <v>10</v>
-      </c>
-      <c r="Y59">
-        <v>35</v>
-      </c>
-      <c r="Z59" s="2"/>
-      <c r="AA59">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
+        <v>35</v>
+      </c>
+      <c r="AA59" s="2"/>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1">
         <v>999970</v>
       </c>
-      <c r="AC59" t="s">
-        <v>139</v>
-      </c>
       <c r="AD59" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE59" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:33">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
@@ -5047,51 +5084,51 @@
       <c r="O60">
         <v>200001</v>
       </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
       <c r="R60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T60">
         <v>1</v>
       </c>
       <c r="U60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V60">
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>10</v>
-      </c>
-      <c r="Y60">
-        <v>35</v>
-      </c>
-      <c r="Z60" s="2"/>
-      <c r="AA60">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Z60">
+        <v>35</v>
+      </c>
+      <c r="AA60" s="2"/>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1">
         <v>999971</v>
       </c>
-      <c r="AC60" t="s">
-        <v>139</v>
-      </c>
       <c r="AD60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:33">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
@@ -5101,51 +5138,51 @@
       <c r="O61">
         <v>200001</v>
       </c>
-      <c r="Q61">
-        <v>2</v>
-      </c>
       <c r="R61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0.5</v>
       </c>
       <c r="W61">
-        <v>10</v>
-      </c>
-      <c r="Y61">
-        <v>35</v>
-      </c>
-      <c r="Z61" s="2"/>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Z61">
+        <v>35</v>
+      </c>
+      <c r="AA61" s="2"/>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1">
         <v>999972</v>
       </c>
-      <c r="AC61" t="s">
-        <v>139</v>
-      </c>
       <c r="AD61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:33">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
@@ -5155,51 +5192,51 @@
       <c r="O62">
         <v>200001</v>
       </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>0.5</v>
       </c>
       <c r="W62">
-        <v>10</v>
-      </c>
-      <c r="Y62">
-        <v>35</v>
-      </c>
-      <c r="Z62" s="2"/>
-      <c r="AA62">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Z62">
+        <v>35</v>
+      </c>
+      <c r="AA62" s="2"/>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="1">
         <v>999973</v>
       </c>
-      <c r="AC62" t="s">
-        <v>139</v>
-      </c>
       <c r="AD62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE62" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:33">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
@@ -5209,51 +5246,51 @@
       <c r="O63">
         <v>200001</v>
       </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
       <c r="R63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>0.5</v>
       </c>
       <c r="W63">
-        <v>10</v>
-      </c>
-      <c r="Y63">
-        <v>35</v>
-      </c>
-      <c r="Z63" s="2"/>
-      <c r="AA63">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Z63">
+        <v>35</v>
+      </c>
+      <c r="AA63" s="2"/>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1">
         <v>999974</v>
       </c>
-      <c r="AC63" t="s">
-        <v>139</v>
-      </c>
       <c r="AD63" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:33">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
@@ -5263,51 +5300,51 @@
       <c r="O64">
         <v>200001</v>
       </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
       <c r="R64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
       <c r="U64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <v>0.5</v>
       </c>
       <c r="W64">
-        <v>10</v>
-      </c>
-      <c r="Y64">
-        <v>35</v>
-      </c>
-      <c r="Z64" s="2"/>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Z64">
+        <v>35</v>
+      </c>
+      <c r="AA64" s="2"/>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1">
         <v>999975</v>
       </c>
-      <c r="AC64" t="s">
-        <v>139</v>
-      </c>
       <c r="AD64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE64" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:33">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
@@ -5317,51 +5354,51 @@
       <c r="O65">
         <v>200001</v>
       </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
       <c r="R65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V65">
         <v>0.5</v>
       </c>
       <c r="W65">
-        <v>10</v>
-      </c>
-      <c r="Y65">
-        <v>35</v>
-      </c>
-      <c r="Z65" s="2"/>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Z65">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="2"/>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1">
         <v>999976</v>
       </c>
-      <c r="AC65" t="s">
-        <v>139</v>
-      </c>
       <c r="AD65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:33">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
@@ -5371,51 +5408,51 @@
       <c r="O66">
         <v>200001</v>
       </c>
-      <c r="Q66">
-        <v>2</v>
-      </c>
       <c r="R66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>0.5</v>
       </c>
       <c r="W66">
-        <v>10</v>
-      </c>
-      <c r="Y66">
-        <v>35</v>
-      </c>
-      <c r="Z66" s="2"/>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X66">
+        <v>10</v>
+      </c>
+      <c r="Z66">
+        <v>35</v>
+      </c>
+      <c r="AA66" s="2"/>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="1">
         <v>999977</v>
       </c>
-      <c r="AC66" t="s">
-        <v>139</v>
-      </c>
       <c r="AD66" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:33">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
@@ -5425,51 +5462,51 @@
       <c r="O67">
         <v>200001</v>
       </c>
-      <c r="Q67">
-        <v>2</v>
-      </c>
       <c r="R67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="U67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>0.5</v>
       </c>
       <c r="W67">
-        <v>10</v>
-      </c>
-      <c r="Y67">
-        <v>35</v>
-      </c>
-      <c r="Z67" s="2"/>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X67">
+        <v>10</v>
+      </c>
+      <c r="Z67">
+        <v>35</v>
+      </c>
+      <c r="AA67" s="2"/>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="1">
         <v>999978</v>
       </c>
-      <c r="AC67" t="s">
-        <v>139</v>
-      </c>
       <c r="AD67" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE67" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:33">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
@@ -5479,51 +5516,51 @@
       <c r="O68">
         <v>200001</v>
       </c>
-      <c r="Q68">
-        <v>2</v>
-      </c>
       <c r="R68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T68">
         <v>1</v>
       </c>
       <c r="U68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>0.5</v>
       </c>
       <c r="W68">
-        <v>10</v>
-      </c>
-      <c r="Y68">
-        <v>35</v>
-      </c>
-      <c r="Z68" s="2"/>
-      <c r="AA68">
-        <v>1</v>
-      </c>
-      <c r="AB68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Z68">
+        <v>35</v>
+      </c>
+      <c r="AA68" s="2"/>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="1">
         <v>999979</v>
       </c>
-      <c r="AC68" t="s">
-        <v>139</v>
-      </c>
       <c r="AD68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:33">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
@@ -5533,51 +5570,51 @@
       <c r="O69">
         <v>200001</v>
       </c>
-      <c r="Q69">
-        <v>2</v>
-      </c>
       <c r="R69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T69">
         <v>1</v>
       </c>
       <c r="U69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V69">
         <v>0.5</v>
       </c>
       <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>35</v>
-      </c>
-      <c r="Z69" s="2"/>
-      <c r="AA69">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Z69">
+        <v>35</v>
+      </c>
+      <c r="AA69" s="2"/>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="1">
         <v>999980</v>
       </c>
-      <c r="AC69" t="s">
-        <v>139</v>
-      </c>
       <c r="AD69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:33">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
@@ -5587,51 +5624,51 @@
       <c r="O70">
         <v>200001</v>
       </c>
-      <c r="Q70">
-        <v>2</v>
-      </c>
       <c r="R70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T70">
         <v>1</v>
       </c>
       <c r="U70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V70">
         <v>0.5</v>
       </c>
       <c r="W70">
-        <v>10</v>
-      </c>
-      <c r="Y70">
-        <v>35</v>
-      </c>
-      <c r="Z70" s="2"/>
-      <c r="AA70">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Z70">
+        <v>35</v>
+      </c>
+      <c r="AA70" s="2"/>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="1">
         <v>999981</v>
       </c>
-      <c r="AC70" t="s">
-        <v>139</v>
-      </c>
       <c r="AD70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE70" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:33">
       <c r="A71">
         <v>999982</v>
       </c>
@@ -5641,50 +5678,50 @@
       <c r="O71">
         <v>200001</v>
       </c>
-      <c r="Q71">
-        <v>2</v>
-      </c>
       <c r="R71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T71">
         <v>1</v>
       </c>
       <c r="U71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V71">
         <v>0.5</v>
       </c>
       <c r="W71">
-        <v>10</v>
-      </c>
-      <c r="Y71">
-        <v>35</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Z71">
+        <v>35</v>
       </c>
       <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
         <v>999982</v>
       </c>
-      <c r="AC71" t="s">
-        <v>139</v>
-      </c>
       <c r="AD71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:33">
       <c r="A72">
         <v>999983</v>
       </c>
@@ -5694,50 +5731,50 @@
       <c r="O72">
         <v>200001</v>
       </c>
-      <c r="Q72">
-        <v>2</v>
-      </c>
       <c r="R72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>0.5</v>
       </c>
       <c r="W72">
-        <v>10</v>
-      </c>
-      <c r="Y72">
-        <v>35</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Z72">
+        <v>35</v>
       </c>
       <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
         <v>999983</v>
       </c>
-      <c r="AC72" t="s">
-        <v>139</v>
-      </c>
       <c r="AD72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:33">
       <c r="A73">
         <v>999984</v>
       </c>
@@ -5747,50 +5784,50 @@
       <c r="O73">
         <v>200001</v>
       </c>
-      <c r="Q73">
-        <v>2</v>
-      </c>
       <c r="R73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="U73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V73">
         <v>0.5</v>
       </c>
       <c r="W73">
-        <v>10</v>
-      </c>
-      <c r="Y73">
-        <v>35</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Z73">
+        <v>35</v>
       </c>
       <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
         <v>999984</v>
       </c>
-      <c r="AC73" t="s">
-        <v>139</v>
-      </c>
       <c r="AD73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:33">
       <c r="A74">
         <v>999985</v>
       </c>
@@ -5800,50 +5837,50 @@
       <c r="O74">
         <v>200001</v>
       </c>
-      <c r="Q74">
-        <v>2</v>
-      </c>
       <c r="R74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>0.5</v>
       </c>
       <c r="W74">
-        <v>10</v>
-      </c>
-      <c r="Y74">
-        <v>35</v>
-      </c>
-      <c r="AA74">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X74">
+        <v>10</v>
+      </c>
+      <c r="Z74">
+        <v>35</v>
       </c>
       <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
         <v>999985</v>
       </c>
-      <c r="AC74" t="s">
-        <v>139</v>
-      </c>
       <c r="AD74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:33">
       <c r="A75">
         <v>999986</v>
       </c>
@@ -5853,50 +5890,50 @@
       <c r="O75">
         <v>200001</v>
       </c>
-      <c r="Q75">
-        <v>2</v>
-      </c>
       <c r="R75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T75">
         <v>1</v>
       </c>
       <c r="U75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V75">
         <v>0.5</v>
       </c>
       <c r="W75">
-        <v>10</v>
-      </c>
-      <c r="Y75">
-        <v>35</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Z75">
+        <v>35</v>
       </c>
       <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
         <v>999986</v>
       </c>
-      <c r="AC75" t="s">
-        <v>139</v>
-      </c>
       <c r="AD75" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:33">
       <c r="A76">
         <v>999987</v>
       </c>
@@ -5906,50 +5943,50 @@
       <c r="O76">
         <v>200001</v>
       </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
       <c r="R76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T76">
         <v>1</v>
       </c>
       <c r="U76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>0.5</v>
       </c>
       <c r="W76">
-        <v>10</v>
-      </c>
-      <c r="Y76">
-        <v>35</v>
-      </c>
-      <c r="AA76">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Z76">
+        <v>35</v>
       </c>
       <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
         <v>999987</v>
       </c>
-      <c r="AC76" t="s">
-        <v>139</v>
-      </c>
       <c r="AD76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE76" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:33">
       <c r="A77">
         <v>999988</v>
       </c>
@@ -5959,50 +5996,50 @@
       <c r="O77">
         <v>200001</v>
       </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
       <c r="R77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T77">
         <v>1</v>
       </c>
       <c r="U77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <v>0.5</v>
       </c>
       <c r="W77">
-        <v>10</v>
-      </c>
-      <c r="Y77">
-        <v>35</v>
-      </c>
-      <c r="AA77">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Z77">
+        <v>35</v>
       </c>
       <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
         <v>999988</v>
       </c>
-      <c r="AC77" t="s">
-        <v>139</v>
-      </c>
       <c r="AD77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:33">
       <c r="A78">
         <v>999989</v>
       </c>
@@ -6012,50 +6049,50 @@
       <c r="O78">
         <v>200001</v>
       </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
       <c r="R78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T78">
         <v>1</v>
       </c>
       <c r="U78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0.5</v>
       </c>
       <c r="W78">
-        <v>10</v>
-      </c>
-      <c r="Y78">
-        <v>35</v>
-      </c>
-      <c r="AA78">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Z78">
+        <v>35</v>
       </c>
       <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
         <v>999989</v>
       </c>
-      <c r="AC78" t="s">
-        <v>139</v>
-      </c>
       <c r="AD78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF78" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:33">
       <c r="A79">
         <v>999990</v>
       </c>
@@ -6065,50 +6102,50 @@
       <c r="O79">
         <v>200001</v>
       </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
       <c r="R79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T79">
         <v>1</v>
       </c>
       <c r="U79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V79">
         <v>0.5</v>
       </c>
       <c r="W79">
-        <v>10</v>
-      </c>
-      <c r="Y79">
-        <v>35</v>
-      </c>
-      <c r="AA79">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Z79">
+        <v>35</v>
       </c>
       <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
         <v>999990</v>
       </c>
-      <c r="AC79" t="s">
-        <v>139</v>
-      </c>
       <c r="AD79" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF79" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:33">
       <c r="A80">
         <v>999991</v>
       </c>
@@ -6118,50 +6155,50 @@
       <c r="O80">
         <v>200001</v>
       </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
       <c r="R80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T80">
         <v>1</v>
       </c>
       <c r="U80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>0.5</v>
       </c>
       <c r="W80">
-        <v>10</v>
-      </c>
-      <c r="Y80">
-        <v>35</v>
-      </c>
-      <c r="AA80">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X80">
+        <v>10</v>
+      </c>
+      <c r="Z80">
+        <v>35</v>
       </c>
       <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
         <v>999991</v>
       </c>
-      <c r="AC80" t="s">
-        <v>139</v>
-      </c>
       <c r="AD80" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:33">
       <c r="A81">
         <v>999992</v>
       </c>
@@ -6171,50 +6208,50 @@
       <c r="O81">
         <v>200001</v>
       </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
       <c r="R81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T81">
         <v>1</v>
       </c>
       <c r="U81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V81">
         <v>0.5</v>
       </c>
       <c r="W81">
-        <v>10</v>
-      </c>
-      <c r="Y81">
-        <v>35</v>
-      </c>
-      <c r="AA81">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Z81">
+        <v>35</v>
       </c>
       <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
         <v>999992</v>
       </c>
-      <c r="AC81" t="s">
-        <v>139</v>
-      </c>
       <c r="AD81" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE81" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:33">
       <c r="A82">
         <v>999993</v>
       </c>
@@ -6224,50 +6261,50 @@
       <c r="O82">
         <v>200001</v>
       </c>
-      <c r="Q82">
-        <v>2</v>
-      </c>
       <c r="R82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T82">
         <v>1</v>
       </c>
       <c r="U82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V82">
         <v>0.5</v>
       </c>
       <c r="W82">
-        <v>10</v>
-      </c>
-      <c r="Y82">
-        <v>35</v>
-      </c>
-      <c r="AA82">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Z82">
+        <v>35</v>
       </c>
       <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
         <v>999993</v>
       </c>
-      <c r="AC82" t="s">
-        <v>139</v>
-      </c>
       <c r="AD82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:33">
       <c r="A83">
         <v>999994</v>
       </c>
@@ -6277,50 +6314,50 @@
       <c r="O83">
         <v>200001</v>
       </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
       <c r="R83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T83">
         <v>1</v>
       </c>
       <c r="U83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V83">
         <v>0.5</v>
       </c>
       <c r="W83">
-        <v>10</v>
-      </c>
-      <c r="Y83">
-        <v>35</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Z83">
+        <v>35</v>
       </c>
       <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
         <v>999994</v>
       </c>
-      <c r="AC83" t="s">
-        <v>139</v>
-      </c>
       <c r="AD83" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:33">
       <c r="A84">
         <v>999995</v>
       </c>
@@ -6330,50 +6367,50 @@
       <c r="O84">
         <v>200001</v>
       </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
       <c r="R84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T84">
         <v>1</v>
       </c>
       <c r="U84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V84">
         <v>0.5</v>
       </c>
       <c r="W84">
-        <v>10</v>
-      </c>
-      <c r="Y84">
-        <v>35</v>
-      </c>
-      <c r="AA84">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Z84">
+        <v>35</v>
       </c>
       <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
         <v>999995</v>
       </c>
-      <c r="AC84" t="s">
-        <v>139</v>
-      </c>
       <c r="AD84" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE84" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:33">
       <c r="A85">
         <v>999996</v>
       </c>
@@ -6383,50 +6420,50 @@
       <c r="O85">
         <v>200001</v>
       </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
       <c r="R85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="U85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V85">
         <v>0.5</v>
       </c>
       <c r="W85">
-        <v>10</v>
-      </c>
-      <c r="Y85">
-        <v>35</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Z85">
+        <v>35</v>
       </c>
       <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
         <v>999996</v>
       </c>
-      <c r="AC85" t="s">
-        <v>139</v>
-      </c>
       <c r="AD85" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE85" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:33">
       <c r="A86">
         <v>999997</v>
       </c>
@@ -6436,50 +6473,50 @@
       <c r="O86">
         <v>200001</v>
       </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
       <c r="R86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
       <c r="U86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>0.5</v>
       </c>
       <c r="W86">
-        <v>10</v>
-      </c>
-      <c r="Y86">
-        <v>35</v>
-      </c>
-      <c r="AA86">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X86">
+        <v>10</v>
+      </c>
+      <c r="Z86">
+        <v>35</v>
       </c>
       <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
         <v>999997</v>
       </c>
-      <c r="AC86" t="s">
-        <v>139</v>
-      </c>
       <c r="AD86" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE86" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:33">
       <c r="A87">
         <v>999998</v>
       </c>
@@ -6489,50 +6526,50 @@
       <c r="O87">
         <v>200001</v>
       </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
       <c r="R87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="U87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V87">
         <v>0.5</v>
       </c>
       <c r="W87">
-        <v>10</v>
-      </c>
-      <c r="Y87">
-        <v>35</v>
-      </c>
-      <c r="AA87">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Z87">
+        <v>35</v>
       </c>
       <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
         <v>999998</v>
       </c>
-      <c r="AC87" t="s">
-        <v>139</v>
-      </c>
       <c r="AD87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE87" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" hidden="1" spans="1:32">
+        <v>144</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:33">
       <c r="A88">
         <v>999999</v>
       </c>
@@ -6542,47 +6579,47 @@
       <c r="O88">
         <v>200001</v>
       </c>
-      <c r="Q88">
-        <v>2</v>
-      </c>
       <c r="R88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T88">
         <v>1</v>
       </c>
       <c r="U88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V88">
         <v>0.5</v>
       </c>
       <c r="W88">
-        <v>10</v>
-      </c>
-      <c r="Y88">
-        <v>35</v>
-      </c>
-      <c r="AA88">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Z88">
+        <v>35</v>
       </c>
       <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AC88">
         <v>999999</v>
       </c>
-      <c r="AC88" t="s">
-        <v>139</v>
-      </c>
       <c r="AD88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AE88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF88" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1"/>
@@ -6606,19 +6643,10 @@
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF88" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4001"/>
-        <filter val="4002"/>
-        <filter val="4003"/>
-        <filter val="4004"/>
-        <filter val="4005"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG88" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A4:AJ88">
+  <sortState ref="A4:AK88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -449,7 +449,7 @@
     <t>兽人魔法师（火）</t>
   </si>
   <si>
-    <t>Orc Mage (Fire)</t>
+    <t>Orc Mage (Fire)</t>
   </si>
   <si>
     <t>兽人魔法师（冰）</t>
@@ -1444,11 +1444,11 @@
   <dimension ref="A1:AG162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1885,7 +1885,6 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6"/>
       <c r="G6">
         <v>2000001</v>
       </c>
@@ -2179,7 +2178,6 @@
       <c r="E10">
         <v>120</v>
       </c>
-      <c r="F10"/>
       <c r="I10">
         <v>1</v>
       </c>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:AG162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -191,10 +191,10 @@
     <t>攻击起始位置</t>
   </si>
   <si>
-    <t>攻击搜索敌人类型0直线 11范围 12范围内血量不满 13范围内护甲不满 21遍历路线</t>
-  </si>
-  <si>
-    <t>攻击搜索目标类型</t>
+    <t>攻击搜索敌人类型</t>
+  </si>
+  <si>
+    <t>攻击搜索目标类型1：防御 2进攻</t>
   </si>
   <si>
     <t>攻击搜索范围</t>
@@ -371,6 +371,9 @@
     <t>Ironward Succubus</t>
   </si>
   <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
     <t>牛头人战士</t>
   </si>
   <si>
@@ -378,6 +381,12 @@
   </si>
   <si>
     <t>牛头人</t>
+  </si>
+  <si>
+    <t>1,2,3,5,10</t>
+  </si>
+  <si>
+    <t>0,0.8,0</t>
   </si>
   <si>
     <t>牛头人投手</t>
@@ -1444,11 +1453,11 @@
   <dimension ref="A1:AG162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1469,8 +1478,8 @@
     <col min="14" max="14" width="18.25" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="77.375" customWidth="1"/>
-    <col min="18" max="18" width="28.25" customWidth="1"/>
+    <col min="17" max="17" width="20.375" customWidth="1"/>
+    <col min="18" max="18" width="35.875" customWidth="1"/>
     <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="20" max="20" width="29.625" customWidth="1"/>
     <col min="21" max="21" width="25.375" customWidth="1"/>
@@ -2804,14 +2813,23 @@
       <c r="E19">
         <v>60</v>
       </c>
+      <c r="G19">
+        <v>5000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
       <c r="O19">
-        <v>200001</v>
+        <v>101002</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2844,13 +2862,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:33">
@@ -2863,14 +2881,29 @@
       <c r="E20">
         <v>60</v>
       </c>
+      <c r="G20">
+        <v>5000001</v>
+      </c>
+      <c r="H20">
+        <v>51010001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
       <c r="O20">
-        <v>200001</v>
+        <v>203001</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20">
+        <v>41</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2903,10 +2936,10 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s">
         <v>85</v>
@@ -2922,8 +2955,17 @@
       <c r="E21">
         <v>45</v>
       </c>
+      <c r="G21">
+        <v>5000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
       <c r="O21">
-        <v>200001</v>
+        <v>700001</v>
+      </c>
+      <c r="Q21">
+        <v>41</v>
       </c>
       <c r="R21">
         <v>2</v>
@@ -2962,10 +3004,10 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG21" t="s">
         <v>85</v>
@@ -2981,8 +3023,17 @@
       <c r="E22">
         <v>45</v>
       </c>
+      <c r="G22">
+        <v>5000001</v>
+      </c>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
       <c r="O22">
-        <v>200001</v>
+        <v>700002</v>
+      </c>
+      <c r="Q22">
+        <v>41</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -3021,10 +3072,10 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s">
         <v>85</v>
@@ -3040,6 +3091,9 @@
       <c r="E23">
         <v>30</v>
       </c>
+      <c r="G23">
+        <v>6000001</v>
+      </c>
       <c r="O23">
         <v>200001</v>
       </c>
@@ -3080,13 +3134,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:33">
@@ -3099,6 +3153,9 @@
       <c r="E24">
         <v>30</v>
       </c>
+      <c r="G24">
+        <v>6000001</v>
+      </c>
       <c r="O24">
         <v>200001</v>
       </c>
@@ -3139,10 +3196,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s">
         <v>85</v>
@@ -3158,6 +3215,9 @@
       <c r="E25">
         <v>300</v>
       </c>
+      <c r="G25">
+        <v>6000001</v>
+      </c>
       <c r="O25">
         <v>200001</v>
       </c>
@@ -3198,10 +3258,10 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
         <v>85</v>
@@ -3217,6 +3277,9 @@
       <c r="E26">
         <v>20</v>
       </c>
+      <c r="G26">
+        <v>6000001</v>
+      </c>
       <c r="O26">
         <v>200001</v>
       </c>
@@ -3257,10 +3320,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG26" t="s">
         <v>85</v>
@@ -3276,6 +3339,9 @@
       <c r="E27">
         <v>20</v>
       </c>
+      <c r="G27">
+        <v>6000001</v>
+      </c>
       <c r="O27">
         <v>200001</v>
       </c>
@@ -3316,10 +3382,10 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AG27" t="s">
         <v>85</v>
@@ -3335,6 +3401,9 @@
       <c r="E28">
         <v>45</v>
       </c>
+      <c r="G28">
+        <v>7000001</v>
+      </c>
       <c r="O28">
         <v>200001</v>
       </c>
@@ -3375,13 +3444,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:33">
@@ -3394,6 +3463,9 @@
       <c r="E29">
         <v>45</v>
       </c>
+      <c r="G29">
+        <v>7000001</v>
+      </c>
       <c r="O29">
         <v>200001</v>
       </c>
@@ -3434,10 +3506,10 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AG29" t="s">
         <v>85</v>
@@ -3453,6 +3525,9 @@
       <c r="E30">
         <v>45</v>
       </c>
+      <c r="G30">
+        <v>7000001</v>
+      </c>
       <c r="O30">
         <v>200001</v>
       </c>
@@ -3493,10 +3568,10 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG30" t="s">
         <v>85</v>
@@ -3512,6 +3587,9 @@
       <c r="E31">
         <v>45</v>
       </c>
+      <c r="G31">
+        <v>7000001</v>
+      </c>
       <c r="O31">
         <v>200001</v>
       </c>
@@ -3552,10 +3630,10 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG31" t="s">
         <v>85</v>
@@ -3603,16 +3681,16 @@
         <v>989996</v>
       </c>
       <c r="AD32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:33">
@@ -3657,16 +3735,16 @@
         <v>989997</v>
       </c>
       <c r="AD33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:33">
@@ -3711,16 +3789,16 @@
         <v>989998</v>
       </c>
       <c r="AD34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:33">
@@ -3764,16 +3842,16 @@
         <v>989999</v>
       </c>
       <c r="AD35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:33">
@@ -3818,16 +3896,16 @@
         <v>999947</v>
       </c>
       <c r="AD36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:33">
@@ -3872,16 +3950,16 @@
         <v>999948</v>
       </c>
       <c r="AD37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:33">
@@ -3926,16 +4004,16 @@
         <v>999949</v>
       </c>
       <c r="AD38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:33">
@@ -3980,16 +4058,16 @@
         <v>999950</v>
       </c>
       <c r="AD39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:33">
@@ -4034,16 +4112,16 @@
         <v>999951</v>
       </c>
       <c r="AD40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:33">
@@ -4088,16 +4166,16 @@
         <v>999952</v>
       </c>
       <c r="AD41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:33">
@@ -4142,16 +4220,16 @@
         <v>999953</v>
       </c>
       <c r="AD42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:33">
@@ -4196,16 +4274,16 @@
         <v>999954</v>
       </c>
       <c r="AD43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:33">
@@ -4250,16 +4328,16 @@
         <v>999955</v>
       </c>
       <c r="AD44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:33">
@@ -4304,16 +4382,16 @@
         <v>999956</v>
       </c>
       <c r="AD45" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:33">
@@ -4358,16 +4436,16 @@
         <v>999957</v>
       </c>
       <c r="AD46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:33">
@@ -4412,16 +4490,16 @@
         <v>999958</v>
       </c>
       <c r="AD47" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:33">
@@ -4466,16 +4544,16 @@
         <v>999959</v>
       </c>
       <c r="AD48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:33">
@@ -4520,16 +4598,16 @@
         <v>999960</v>
       </c>
       <c r="AD49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:33">
@@ -4574,16 +4652,16 @@
         <v>999961</v>
       </c>
       <c r="AD50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:33">
@@ -4628,16 +4706,16 @@
         <v>999962</v>
       </c>
       <c r="AD51" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE51" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:33">
@@ -4682,16 +4760,16 @@
         <v>999963</v>
       </c>
       <c r="AD52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG52" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:33">
@@ -4736,16 +4814,16 @@
         <v>999964</v>
       </c>
       <c r="AD53" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE53" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF53" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:33">
@@ -4790,16 +4868,16 @@
         <v>999965</v>
       </c>
       <c r="AD54" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE54" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF54" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG54" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:33">
@@ -4844,16 +4922,16 @@
         <v>999966</v>
       </c>
       <c r="AD55" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE55" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:33">
@@ -4898,16 +4976,16 @@
         <v>999967</v>
       </c>
       <c r="AD56" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:33">
@@ -4952,16 +5030,16 @@
         <v>999968</v>
       </c>
       <c r="AD57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF57" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:33">
@@ -5006,16 +5084,16 @@
         <v>999969</v>
       </c>
       <c r="AD58" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE58" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF58" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:33">
@@ -5060,16 +5138,16 @@
         <v>999970</v>
       </c>
       <c r="AD59" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE59" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF59" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG59" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:33">
@@ -5114,16 +5192,16 @@
         <v>999971</v>
       </c>
       <c r="AD60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE60" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF60" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:33">
@@ -5168,16 +5246,16 @@
         <v>999972</v>
       </c>
       <c r="AD61" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG61" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:33">
@@ -5222,16 +5300,16 @@
         <v>999973</v>
       </c>
       <c r="AD62" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE62" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:33">
@@ -5276,16 +5354,16 @@
         <v>999974</v>
       </c>
       <c r="AD63" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF63" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:33">
@@ -5330,16 +5408,16 @@
         <v>999975</v>
       </c>
       <c r="AD64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE64" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF64" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:33">
@@ -5384,16 +5462,16 @@
         <v>999976</v>
       </c>
       <c r="AD65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE65" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF65" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:33">
@@ -5438,16 +5516,16 @@
         <v>999977</v>
       </c>
       <c r="AD66" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE66" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG66" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:33">
@@ -5492,16 +5570,16 @@
         <v>999978</v>
       </c>
       <c r="AD67" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE67" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF67" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG67" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:33">
@@ -5546,16 +5624,16 @@
         <v>999979</v>
       </c>
       <c r="AD68" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG68" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:33">
@@ -5600,16 +5678,16 @@
         <v>999980</v>
       </c>
       <c r="AD69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE69" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG69" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:33">
@@ -5654,16 +5732,16 @@
         <v>999981</v>
       </c>
       <c r="AD70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF70" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:33">
@@ -5707,16 +5785,16 @@
         <v>999982</v>
       </c>
       <c r="AD71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:33">
@@ -5760,16 +5838,16 @@
         <v>999983</v>
       </c>
       <c r="AD72" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF72" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG72" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:33">
@@ -5813,16 +5891,16 @@
         <v>999984</v>
       </c>
       <c r="AD73" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE73" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:33">
@@ -5866,16 +5944,16 @@
         <v>999985</v>
       </c>
       <c r="AD74" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE74" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF74" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:33">
@@ -5919,16 +5997,16 @@
         <v>999986</v>
       </c>
       <c r="AD75" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF75" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG75" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:33">
@@ -5972,16 +6050,16 @@
         <v>999987</v>
       </c>
       <c r="AD76" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:33">
@@ -6025,16 +6103,16 @@
         <v>999988</v>
       </c>
       <c r="AD77" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE77" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF77" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG77" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:33">
@@ -6078,16 +6156,16 @@
         <v>999989</v>
       </c>
       <c r="AD78" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF78" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG78" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:33">
@@ -6131,16 +6209,16 @@
         <v>999990</v>
       </c>
       <c r="AD79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF79" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG79" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:33">
@@ -6184,16 +6262,16 @@
         <v>999991</v>
       </c>
       <c r="AD80" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF80" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG80" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:33">
@@ -6237,16 +6315,16 @@
         <v>999992</v>
       </c>
       <c r="AD81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG81" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:33">
@@ -6290,16 +6368,16 @@
         <v>999993</v>
       </c>
       <c r="AD82" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG82" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:33">
@@ -6343,16 +6421,16 @@
         <v>999994</v>
       </c>
       <c r="AD83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG83" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:33">
@@ -6396,16 +6474,16 @@
         <v>999995</v>
       </c>
       <c r="AD84" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE84" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF84" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG84" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:33">
@@ -6449,16 +6527,16 @@
         <v>999996</v>
       </c>
       <c r="AD85" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE85" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF85" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG85" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:33">
@@ -6502,16 +6580,16 @@
         <v>999997</v>
       </c>
       <c r="AD86" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE86" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:33">
@@ -6555,16 +6633,16 @@
         <v>999998</v>
       </c>
       <c r="AD87" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE87" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF87" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG87" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:33">
@@ -6608,16 +6686,16 @@
         <v>999999</v>
       </c>
       <c r="AD88" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AE88" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF88" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG88" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>哥布林</t>
+  </si>
+  <si>
+    <t>0,0.3,0</t>
   </si>
   <si>
     <t>哥布林弓箭手</t>
@@ -1453,11 +1456,11 @@
   <dimension ref="A1:AG162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2897,7 +2900,7 @@
         <v>118</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -3094,6 +3097,9 @@
       <c r="G23">
         <v>6000001</v>
       </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
       <c r="O23">
         <v>200001</v>
       </c>
@@ -3156,14 +3162,26 @@
       <c r="G24">
         <v>6000001</v>
       </c>
+      <c r="H24">
+        <v>61010002</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
       <c r="O24">
-        <v>200001</v>
+        <v>204001</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
       </c>
       <c r="R24">
         <v>2</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -3196,10 +3214,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG24" t="s">
         <v>85</v>
@@ -3218,6 +3236,9 @@
       <c r="G25">
         <v>6000001</v>
       </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
       <c r="O25">
         <v>200001</v>
       </c>
@@ -3258,10 +3279,10 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG25" t="s">
         <v>85</v>
@@ -3280,6 +3301,9 @@
       <c r="G26">
         <v>6000001</v>
       </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
       <c r="O26">
         <v>200001</v>
       </c>
@@ -3320,10 +3344,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG26" t="s">
         <v>85</v>
@@ -3342,6 +3366,9 @@
       <c r="G27">
         <v>6000001</v>
       </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
       <c r="O27">
         <v>200001</v>
       </c>
@@ -3382,10 +3409,10 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG27" t="s">
         <v>85</v>
@@ -3404,6 +3431,9 @@
       <c r="G28">
         <v>7000001</v>
       </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
       <c r="O28">
         <v>200001</v>
       </c>
@@ -3444,13 +3474,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:33">
@@ -3466,14 +3496,26 @@
       <c r="G29">
         <v>7000001</v>
       </c>
+      <c r="H29">
+        <v>71000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" t="s">
+        <v>86</v>
+      </c>
       <c r="O29">
-        <v>200001</v>
+        <v>205001</v>
+      </c>
+      <c r="P29" t="s">
+        <v>82</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3506,10 +3548,10 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG29" t="s">
         <v>85</v>
@@ -3528,6 +3570,9 @@
       <c r="G30">
         <v>7000001</v>
       </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
       <c r="O30">
         <v>200001</v>
       </c>
@@ -3568,10 +3613,10 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG30" t="s">
         <v>85</v>
@@ -3590,6 +3635,9 @@
       <c r="G31">
         <v>7000001</v>
       </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
       <c r="O31">
         <v>200001</v>
       </c>
@@ -3630,10 +3678,10 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG31" t="s">
         <v>85</v>
@@ -3681,16 +3729,16 @@
         <v>989996</v>
       </c>
       <c r="AD32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:33">
@@ -3735,16 +3783,16 @@
         <v>989997</v>
       </c>
       <c r="AD33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:33">
@@ -3789,16 +3837,16 @@
         <v>989998</v>
       </c>
       <c r="AD34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:33">
@@ -3842,16 +3890,16 @@
         <v>989999</v>
       </c>
       <c r="AD35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:33">
@@ -3896,16 +3944,16 @@
         <v>999947</v>
       </c>
       <c r="AD36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:33">
@@ -3950,16 +3998,16 @@
         <v>999948</v>
       </c>
       <c r="AD37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:33">
@@ -4004,16 +4052,16 @@
         <v>999949</v>
       </c>
       <c r="AD38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:33">
@@ -4058,16 +4106,16 @@
         <v>999950</v>
       </c>
       <c r="AD39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:33">
@@ -4112,16 +4160,16 @@
         <v>999951</v>
       </c>
       <c r="AD40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:33">
@@ -4166,16 +4214,16 @@
         <v>999952</v>
       </c>
       <c r="AD41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:33">
@@ -4220,16 +4268,16 @@
         <v>999953</v>
       </c>
       <c r="AD42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:33">
@@ -4274,16 +4322,16 @@
         <v>999954</v>
       </c>
       <c r="AD43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:33">
@@ -4328,16 +4376,16 @@
         <v>999955</v>
       </c>
       <c r="AD44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:33">
@@ -4382,16 +4430,16 @@
         <v>999956</v>
       </c>
       <c r="AD45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:33">
@@ -4436,16 +4484,16 @@
         <v>999957</v>
       </c>
       <c r="AD46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:33">
@@ -4490,16 +4538,16 @@
         <v>999958</v>
       </c>
       <c r="AD47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:33">
@@ -4544,16 +4592,16 @@
         <v>999959</v>
       </c>
       <c r="AD48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:33">
@@ -4598,16 +4646,16 @@
         <v>999960</v>
       </c>
       <c r="AD49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:33">
@@ -4652,16 +4700,16 @@
         <v>999961</v>
       </c>
       <c r="AD50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:33">
@@ -4706,16 +4754,16 @@
         <v>999962</v>
       </c>
       <c r="AD51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:33">
@@ -4760,16 +4808,16 @@
         <v>999963</v>
       </c>
       <c r="AD52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:33">
@@ -4814,16 +4862,16 @@
         <v>999964</v>
       </c>
       <c r="AD53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:33">
@@ -4868,16 +4916,16 @@
         <v>999965</v>
       </c>
       <c r="AD54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:33">
@@ -4922,16 +4970,16 @@
         <v>999966</v>
       </c>
       <c r="AD55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:33">
@@ -4976,16 +5024,16 @@
         <v>999967</v>
       </c>
       <c r="AD56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:33">
@@ -5030,16 +5078,16 @@
         <v>999968</v>
       </c>
       <c r="AD57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:33">
@@ -5084,16 +5132,16 @@
         <v>999969</v>
       </c>
       <c r="AD58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:33">
@@ -5138,16 +5186,16 @@
         <v>999970</v>
       </c>
       <c r="AD59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:33">
@@ -5192,16 +5240,16 @@
         <v>999971</v>
       </c>
       <c r="AD60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:33">
@@ -5246,16 +5294,16 @@
         <v>999972</v>
       </c>
       <c r="AD61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:33">
@@ -5300,16 +5348,16 @@
         <v>999973</v>
       </c>
       <c r="AD62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:33">
@@ -5354,16 +5402,16 @@
         <v>999974</v>
       </c>
       <c r="AD63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:33">
@@ -5408,16 +5456,16 @@
         <v>999975</v>
       </c>
       <c r="AD64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:33">
@@ -5462,16 +5510,16 @@
         <v>999976</v>
       </c>
       <c r="AD65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:33">
@@ -5516,16 +5564,16 @@
         <v>999977</v>
       </c>
       <c r="AD66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:33">
@@ -5570,16 +5618,16 @@
         <v>999978</v>
       </c>
       <c r="AD67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:33">
@@ -5624,16 +5672,16 @@
         <v>999979</v>
       </c>
       <c r="AD68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:33">
@@ -5678,16 +5726,16 @@
         <v>999980</v>
       </c>
       <c r="AD69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:33">
@@ -5732,16 +5780,16 @@
         <v>999981</v>
       </c>
       <c r="AD70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:33">
@@ -5785,16 +5833,16 @@
         <v>999982</v>
       </c>
       <c r="AD71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:33">
@@ -5838,16 +5886,16 @@
         <v>999983</v>
       </c>
       <c r="AD72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:33">
@@ -5891,16 +5939,16 @@
         <v>999984</v>
       </c>
       <c r="AD73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:33">
@@ -5944,16 +5992,16 @@
         <v>999985</v>
       </c>
       <c r="AD74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:33">
@@ -5997,16 +6045,16 @@
         <v>999986</v>
       </c>
       <c r="AD75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:33">
@@ -6050,16 +6098,16 @@
         <v>999987</v>
       </c>
       <c r="AD76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:33">
@@ -6103,16 +6151,16 @@
         <v>999988</v>
       </c>
       <c r="AD77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:33">
@@ -6156,16 +6204,16 @@
         <v>999989</v>
       </c>
       <c r="AD78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:33">
@@ -6209,16 +6257,16 @@
         <v>999990</v>
       </c>
       <c r="AD79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:33">
@@ -6262,16 +6310,16 @@
         <v>999991</v>
       </c>
       <c r="AD80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:33">
@@ -6315,16 +6363,16 @@
         <v>999992</v>
       </c>
       <c r="AD81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:33">
@@ -6368,16 +6416,16 @@
         <v>999993</v>
       </c>
       <c r="AD82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:33">
@@ -6421,16 +6469,16 @@
         <v>999994</v>
       </c>
       <c r="AD83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:33">
@@ -6474,16 +6522,16 @@
         <v>999995</v>
       </c>
       <c r="AD84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:33">
@@ -6527,16 +6575,16 @@
         <v>999996</v>
       </c>
       <c r="AD85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:33">
@@ -6580,16 +6628,16 @@
         <v>999997</v>
       </c>
       <c r="AD86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:33">
@@ -6633,16 +6681,16 @@
         <v>999998</v>
       </c>
       <c r="AD87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:33">
@@ -6686,16 +6734,16 @@
         <v>999999</v>
       </c>
       <c r="AD88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF88" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>create_cd</t>
   </si>
   <si>
-    <t>create_magic</t>
+    <t>create_buff</t>
   </si>
   <si>
     <t>spine_base</t>
@@ -92,9 +92,6 @@
     <t>attack_search_time</t>
   </si>
   <si>
-    <t>attack_cd_time</t>
-  </si>
-  <si>
     <t>anim_dead_time</t>
   </si>
   <si>
@@ -158,7 +155,7 @@
     <t>创建cd(秒)</t>
   </si>
   <si>
-    <t>创建魔力</t>
+    <t>生物buff</t>
   </si>
   <si>
     <t>身体的基础模块</t>
@@ -203,9 +200,6 @@
     <t>攻击搜索间隔（搜索敌人间隔）</t>
   </si>
   <si>
-    <t>攻击间隔（每次攻击间隔）</t>
-  </si>
-  <si>
     <t>死亡动画时间</t>
   </si>
   <si>
@@ -221,7 +215,7 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>攻击速度</t>
+    <t>攻击间隔</t>
   </si>
   <si>
     <t>移动速度</t>
@@ -258,6 +252,9 @@
   </si>
   <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>2000300001,2000400001,</t>
   </si>
   <si>
     <t>1,2,3,10,</t>
@@ -1095,14 +1092,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,14 +1447,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG162"/>
+  <dimension ref="A1:AF162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1470,7 +1464,7 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="24.875" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
@@ -1485,18 +1479,17 @@
     <col min="18" max="18" width="35.875" customWidth="1"/>
     <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="20" max="20" width="29.625" customWidth="1"/>
-    <col min="21" max="21" width="25.375" customWidth="1"/>
-    <col min="22" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="25" width="11.75" customWidth="1"/>
-    <col min="26" max="26" width="20.25" customWidth="1"/>
-    <col min="27" max="27" width="17.75" customWidth="1"/>
-    <col min="28" max="29" width="14.75" customWidth="1"/>
-    <col min="30" max="32" width="47.5" customWidth="1"/>
-    <col min="33" max="33" width="42.875" customWidth="1"/>
-    <col min="34" max="34" width="25.125" customWidth="1"/>
+    <col min="21" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="24" width="11.75" customWidth="1"/>
+    <col min="25" max="25" width="20.25" customWidth="1"/>
+    <col min="26" max="26" width="8.875" customWidth="1"/>
+    <col min="27" max="28" width="14.75" customWidth="1"/>
+    <col min="29" max="31" width="47.5" customWidth="1"/>
+    <col min="32" max="32" width="42.875" customWidth="1"/>
+    <col min="33" max="33" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,213 +1586,204 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AD2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AE2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AF2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>54</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>55</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>56</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>57</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>58</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>59</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:33">
+    </row>
+    <row r="4" customFormat="1" spans="1:32">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1807,28 +1791,28 @@
         <v>99</v>
       </c>
       <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" t="s">
         <v>70</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" t="s">
-        <v>72</v>
-      </c>
       <c r="AF4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:32">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1851,43 +1835,40 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
-      </c>
-      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>10</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AB5">
-        <v>0.2</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:32">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1897,6 +1878,9 @@
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
       <c r="G6">
         <v>2000001</v>
       </c>
@@ -1904,10 +1888,10 @@
         <v>21010001</v>
       </c>
       <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
         <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
       </c>
       <c r="O6">
         <v>100001</v>
@@ -1922,31 +1906,31 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V6">
         <v>0.5</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
-      </c>
-      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
         <v>10</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>69</v>
       </c>
       <c r="AD6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s">
         <v>78</v>
@@ -1954,11 +1938,8 @@
       <c r="AF6" t="s">
         <v>79</v>
       </c>
-      <c r="AG6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1975,52 +1956,52 @@
         <v>21000001</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7">
         <v>200001</v>
       </c>
       <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" t="s">
         <v>82</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0.5</v>
-      </c>
-      <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
-      </c>
-      <c r="Z7">
-        <v>10</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>71</v>
       </c>
       <c r="AE7" t="s">
         <v>83</v>
@@ -2028,11 +2009,8 @@
       <c r="AF7" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -2049,16 +2027,16 @@
         <v>21010002</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8">
         <v>201001</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -2070,43 +2048,40 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V8">
         <v>0.5</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
-      </c>
-      <c r="X8">
         <v>5</v>
       </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
       <c r="Z8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>69</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AE8" t="s">
         <v>87</v>
       </c>
       <c r="AF8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -2123,16 +2098,16 @@
         <v>21010003</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O9">
         <v>201002</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -2144,43 +2119,40 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V9">
         <v>0.5</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
         <v>5</v>
       </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>69</v>
       </c>
       <c r="AD9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
         <v>89</v>
       </c>
       <c r="AF9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>3001</v>
       </c>
@@ -2203,34 +2175,34 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V10">
         <v>0.5</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="Y10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
         <v>3</v>
       </c>
+      <c r="AC10" t="s">
+        <v>69</v>
+      </c>
       <c r="AD10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AE10" t="s">
         <v>91</v>
@@ -2238,11 +2210,8 @@
       <c r="AF10" t="s">
         <v>92</v>
       </c>
-      <c r="AG10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:33">
+    </row>
+    <row r="11" customFormat="1" spans="1:32">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -2256,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11">
         <v>300001</v>
@@ -2274,43 +2243,40 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="W11">
-        <v>0.15</v>
-      </c>
-      <c r="X11">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>500</v>
       </c>
       <c r="Z11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
         <v>3</v>
       </c>
+      <c r="AC11" t="s">
+        <v>69</v>
+      </c>
       <c r="AD11" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE11" t="s">
         <v>94</v>
       </c>
       <c r="AF11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:32">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -2318,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -2327,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2348,43 +2314,40 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="X12">
         <v>5</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
         <v>3</v>
       </c>
+      <c r="AC12" t="s">
+        <v>69</v>
+      </c>
       <c r="AD12" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AE12" t="s">
         <v>97</v>
       </c>
       <c r="AF12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:32">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -2392,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2401,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2422,43 +2385,40 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="X13">
         <v>5</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
         <v>3</v>
       </c>
+      <c r="AC13" t="s">
+        <v>69</v>
+      </c>
       <c r="AD13" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AE13" t="s">
         <v>99</v>
       </c>
       <c r="AF13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:32">
       <c r="A14">
         <v>4001</v>
       </c>
@@ -2476,10 +2436,10 @@
         <v>41000002</v>
       </c>
       <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
         <v>76</v>
-      </c>
-      <c r="M14" t="s">
-        <v>77</v>
       </c>
       <c r="O14">
         <v>101001</v>
@@ -2494,31 +2454,31 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V14">
         <v>0.5</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
-      </c>
-      <c r="X14">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
         <v>4</v>
       </c>
+      <c r="AC14" t="s">
+        <v>69</v>
+      </c>
       <c r="AD14" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="s">
         <v>101</v>
@@ -2526,11 +2486,8 @@
       <c r="AF14" t="s">
         <v>102</v>
       </c>
-      <c r="AG14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:33">
+    </row>
+    <row r="15" customFormat="1" spans="1:32">
       <c r="A15">
         <v>4002</v>
       </c>
@@ -2544,7 +2501,7 @@
         <v>4000001</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O15">
         <v>500001</v>
@@ -2562,43 +2519,40 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
         <v>4</v>
       </c>
+      <c r="AC15" t="s">
+        <v>69</v>
+      </c>
       <c r="AD15" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AE15" t="s">
         <v>105</v>
       </c>
       <c r="AF15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:32">
       <c r="A16">
         <v>4003</v>
       </c>
@@ -2612,7 +2566,7 @@
         <v>4000001</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O16">
         <v>600001</v>
@@ -2630,43 +2584,40 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V16">
         <v>0.5</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
         <v>4</v>
       </c>
+      <c r="AC16" t="s">
+        <v>69</v>
+      </c>
       <c r="AD16" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AE16" t="s">
         <v>107</v>
       </c>
       <c r="AF16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:32">
       <c r="A17">
         <v>4004</v>
       </c>
@@ -2680,13 +2631,13 @@
         <v>4000001</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O17">
         <v>202001</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q17">
         <v>30</v>
@@ -2701,43 +2652,40 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
-      </c>
-      <c r="X17">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
         <v>4</v>
       </c>
+      <c r="AC17" t="s">
+        <v>69</v>
+      </c>
       <c r="AD17" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AE17" t="s">
         <v>109</v>
       </c>
       <c r="AF17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:32">
       <c r="A18">
         <v>4005</v>
       </c>
@@ -2751,7 +2699,7 @@
         <v>4000001</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18">
         <v>500002</v>
@@ -2769,44 +2717,41 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
         <v>0.5</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
-      </c>
-      <c r="X18">
-        <v>10</v>
-      </c>
-      <c r="Y18"/>
+        <v>10</v>
+      </c>
+      <c r="X18"/>
+      <c r="Y18">
+        <v>1</v>
+      </c>
       <c r="Z18">
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
         <v>4</v>
       </c>
+      <c r="AC18" t="s">
+        <v>69</v>
+      </c>
       <c r="AD18" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="s">
         <v>111</v>
       </c>
       <c r="AF18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:32">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -2820,7 +2765,7 @@
         <v>5000001</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O19">
         <v>101002</v>
@@ -2838,31 +2783,31 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
         <v>30</v>
       </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
       <c r="Z19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>5</v>
       </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>5</v>
+      <c r="AC19" t="s">
+        <v>69</v>
       </c>
       <c r="AD19" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AE19" t="s">
         <v>114</v>
@@ -2870,11 +2815,8 @@
       <c r="AF19" t="s">
         <v>115</v>
       </c>
-      <c r="AG19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:33">
+    </row>
+    <row r="20" customFormat="1" spans="1:32">
       <c r="A20">
         <v>5002</v>
       </c>
@@ -2891,64 +2833,61 @@
         <v>51010001</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O20">
         <v>203001</v>
       </c>
       <c r="P20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>30</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0.5</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>30</v>
-      </c>
-      <c r="Z20">
-        <v>10</v>
-      </c>
-      <c r="AA20">
-        <v>10</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>5</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>71</v>
       </c>
       <c r="AE20" t="s">
         <v>119</v>
       </c>
       <c r="AF20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:32">
       <c r="A21">
         <v>5003</v>
       </c>
@@ -2962,7 +2901,7 @@
         <v>5000001</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O21">
         <v>700001</v>
@@ -2980,43 +2919,40 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V21">
         <v>0.5</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="X21">
         <v>15</v>
       </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
       <c r="Z21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
         <v>5</v>
       </c>
+      <c r="AC21" t="s">
+        <v>69</v>
+      </c>
       <c r="AD21" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="AE21" t="s">
         <v>121</v>
       </c>
       <c r="AF21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:32">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -3030,7 +2966,7 @@
         <v>5000001</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O22">
         <v>700002</v>
@@ -3048,43 +2984,40 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V22">
         <v>0.5</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
-      </c>
-      <c r="X22">
         <v>15</v>
       </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
       <c r="Z22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
         <v>5</v>
       </c>
+      <c r="AC22" t="s">
+        <v>69</v>
+      </c>
       <c r="AD22" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
         <v>123</v>
       </c>
       <c r="AF22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:32">
       <c r="A23">
         <v>6001</v>
       </c>
@@ -3098,7 +3031,7 @@
         <v>6000001</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O23">
         <v>200001</v>
@@ -3113,31 +3046,31 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V23">
         <v>0.5</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
-      </c>
-      <c r="X23">
         <v>8</v>
       </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
       <c r="Z23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>69</v>
       </c>
       <c r="AD23" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AE23" t="s">
         <v>125</v>
@@ -3145,11 +3078,8 @@
       <c r="AF23" t="s">
         <v>126</v>
       </c>
-      <c r="AG23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:33">
+    </row>
+    <row r="24" customFormat="1" spans="1:32">
       <c r="A24">
         <v>6002</v>
       </c>
@@ -3166,64 +3096,61 @@
         <v>61010002</v>
       </c>
       <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
         <v>76</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
       </c>
       <c r="O24">
         <v>204001</v>
       </c>
       <c r="P24" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" t="s">
         <v>128</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>0.5</v>
-      </c>
-      <c r="W24">
-        <v>0.5</v>
-      </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
-      <c r="Z24">
-        <v>10</v>
-      </c>
-      <c r="AA24">
-        <v>10</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>6</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>71</v>
       </c>
       <c r="AE24" t="s">
         <v>129</v>
       </c>
       <c r="AF24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:32">
       <c r="A25">
         <v>6003</v>
       </c>
@@ -3237,7 +3164,7 @@
         <v>6000001</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O25">
         <v>200001</v>
@@ -3252,43 +3179,40 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
-      </c>
-      <c r="X25">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>500</v>
       </c>
       <c r="Z25">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>69</v>
       </c>
       <c r="AD25" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="AE25" t="s">
         <v>131</v>
       </c>
       <c r="AF25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:32">
       <c r="A26">
         <v>6004</v>
       </c>
@@ -3302,7 +3226,7 @@
         <v>6000001</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O26">
         <v>200001</v>
@@ -3317,43 +3241,40 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V26">
         <v>0.5</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
-      </c>
-      <c r="X26">
         <v>4</v>
       </c>
+      <c r="Y26">
+        <v>6</v>
+      </c>
       <c r="Z26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>69</v>
       </c>
       <c r="AD26" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AE26" t="s">
         <v>133</v>
       </c>
       <c r="AF26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:32">
       <c r="A27">
         <v>6005</v>
       </c>
@@ -3367,7 +3288,7 @@
         <v>6000001</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O27">
         <v>200001</v>
@@ -3382,43 +3303,40 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
-      </c>
-      <c r="X27">
         <v>4</v>
       </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
       <c r="Z27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>69</v>
       </c>
       <c r="AD27" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AE27" t="s">
         <v>135</v>
       </c>
       <c r="AF27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:32">
       <c r="A28">
         <v>7001</v>
       </c>
@@ -3432,7 +3350,7 @@
         <v>7000001</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O28">
         <v>200001</v>
@@ -3447,31 +3365,31 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V28">
         <v>0.5</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
-      </c>
-      <c r="X28">
         <v>12</v>
       </c>
+      <c r="Y28">
+        <v>12</v>
+      </c>
       <c r="Z28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
         <v>7</v>
       </c>
+      <c r="AC28" t="s">
+        <v>69</v>
+      </c>
       <c r="AD28" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="AE28" t="s">
         <v>137</v>
@@ -3479,11 +3397,8 @@
       <c r="AF28" t="s">
         <v>138</v>
       </c>
-      <c r="AG28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:33">
+    </row>
+    <row r="29" customFormat="1" spans="1:32">
       <c r="A29">
         <v>7002</v>
       </c>
@@ -3500,16 +3415,16 @@
         <v>71000001</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29">
         <v>205001</v>
       </c>
       <c r="P29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -3521,43 +3436,40 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V29">
         <v>0.5</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
-      </c>
-      <c r="X29">
         <v>12</v>
       </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
       <c r="Z29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
         <v>7</v>
       </c>
+      <c r="AC29" t="s">
+        <v>69</v>
+      </c>
       <c r="AD29" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="AE29" t="s">
         <v>140</v>
       </c>
       <c r="AF29" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:32">
       <c r="A30">
         <v>7003</v>
       </c>
@@ -3571,7 +3483,7 @@
         <v>7000001</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O30">
         <v>200001</v>
@@ -3586,43 +3498,40 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V30">
         <v>0.5</v>
       </c>
       <c r="W30">
-        <v>0.5</v>
-      </c>
-      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
         <v>6</v>
       </c>
       <c r="Z30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
         <v>7</v>
       </c>
+      <c r="AC30" t="s">
+        <v>69</v>
+      </c>
       <c r="AD30" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AE30" t="s">
         <v>142</v>
       </c>
       <c r="AF30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:32">
       <c r="A31">
         <v>7004</v>
       </c>
@@ -3636,7 +3545,7 @@
         <v>7000001</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31">
         <v>200001</v>
@@ -3651,43 +3560,40 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V31">
         <v>0.5</v>
       </c>
       <c r="W31">
-        <v>0.5</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
         <v>7</v>
       </c>
+      <c r="AC31" t="s">
+        <v>69</v>
+      </c>
       <c r="AD31" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="AE31" t="s">
         <v>144</v>
       </c>
       <c r="AF31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:32">
       <c r="A32" s="1">
         <v>989996</v>
       </c>
@@ -3707,26 +3613,28 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V32">
         <v>0.5</v>
       </c>
       <c r="W32">
-        <v>0.5</v>
-      </c>
-      <c r="X32">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>35</v>
       </c>
       <c r="Z32">
-        <v>35</v>
-      </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="1">
         <v>989996</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>145</v>
       </c>
       <c r="AD32" t="s">
         <v>146</v>
@@ -3737,11 +3645,8 @@
       <c r="AF32" t="s">
         <v>148</v>
       </c>
-      <c r="AG32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:33">
+    </row>
+    <row r="33" customFormat="1" spans="1:32">
       <c r="A33" s="1">
         <v>989997</v>
       </c>
@@ -3761,26 +3666,28 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V33">
         <v>0.5</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
-      </c>
-      <c r="X33">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>35</v>
       </c>
       <c r="Z33">
-        <v>35</v>
-      </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1">
         <v>989997</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>145</v>
       </c>
       <c r="AD33" t="s">
         <v>146</v>
@@ -3791,11 +3698,8 @@
       <c r="AF33" t="s">
         <v>148</v>
       </c>
-      <c r="AG33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:33">
+    </row>
+    <row r="34" customFormat="1" spans="1:32">
       <c r="A34" s="1">
         <v>989998</v>
       </c>
@@ -3815,26 +3719,28 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V34">
         <v>0.5</v>
       </c>
       <c r="W34">
-        <v>0.5</v>
-      </c>
-      <c r="X34">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>35</v>
       </c>
       <c r="Z34">
-        <v>35</v>
-      </c>
-      <c r="AA34" s="2"/>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1">
         <v>989998</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>145</v>
       </c>
       <c r="AD34" t="s">
         <v>146</v>
@@ -3845,11 +3751,8 @@
       <c r="AF34" t="s">
         <v>148</v>
       </c>
-      <c r="AG34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:33">
+    </row>
+    <row r="35" customFormat="1" spans="1:32">
       <c r="A35" s="1">
         <v>989999</v>
       </c>
@@ -3869,25 +3772,28 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V35">
         <v>0.5</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
-      </c>
-      <c r="X35">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>35</v>
       </c>
       <c r="Z35">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AC35">
         <v>989999</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>145</v>
       </c>
       <c r="AD35" t="s">
         <v>146</v>
@@ -3898,11 +3804,8 @@
       <c r="AF35" t="s">
         <v>148</v>
       </c>
-      <c r="AG35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:33">
+    </row>
+    <row r="36" customFormat="1" spans="1:32">
       <c r="A36" s="1">
         <v>999947</v>
       </c>
@@ -3922,26 +3825,28 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V36">
         <v>0.5</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
-      </c>
-      <c r="X36">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>35</v>
       </c>
       <c r="Z36">
-        <v>35</v>
-      </c>
-      <c r="AA36" s="2"/>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="1">
         <v>999947</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>145</v>
       </c>
       <c r="AD36" t="s">
         <v>146</v>
@@ -3952,11 +3857,8 @@
       <c r="AF36" t="s">
         <v>148</v>
       </c>
-      <c r="AG36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:33">
+    </row>
+    <row r="37" customFormat="1" spans="1:32">
       <c r="A37" s="1">
         <v>999948</v>
       </c>
@@ -3976,26 +3878,28 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
         <v>0.5</v>
       </c>
       <c r="W37">
-        <v>0.5</v>
-      </c>
-      <c r="X37">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>35</v>
       </c>
       <c r="Z37">
-        <v>35</v>
-      </c>
-      <c r="AA37" s="2"/>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1">
         <v>999948</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>145</v>
       </c>
       <c r="AD37" t="s">
         <v>146</v>
@@ -4006,11 +3910,8 @@
       <c r="AF37" t="s">
         <v>148</v>
       </c>
-      <c r="AG37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:33">
+    </row>
+    <row r="38" customFormat="1" spans="1:32">
       <c r="A38" s="1">
         <v>999949</v>
       </c>
@@ -4030,26 +3931,28 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
-      </c>
-      <c r="X38">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>35</v>
       </c>
       <c r="Z38">
-        <v>35</v>
-      </c>
-      <c r="AA38" s="2"/>
-      <c r="AB38">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="1">
         <v>999949</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>145</v>
       </c>
       <c r="AD38" t="s">
         <v>146</v>
@@ -4060,11 +3963,8 @@
       <c r="AF38" t="s">
         <v>148</v>
       </c>
-      <c r="AG38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:33">
+    </row>
+    <row r="39" customFormat="1" spans="1:32">
       <c r="A39" s="1">
         <v>999950</v>
       </c>
@@ -4084,26 +3984,28 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V39">
         <v>0.5</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
-      </c>
-      <c r="X39">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>35</v>
       </c>
       <c r="Z39">
-        <v>35</v>
-      </c>
-      <c r="AA39" s="2"/>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
         <v>999950</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>145</v>
       </c>
       <c r="AD39" t="s">
         <v>146</v>
@@ -4114,11 +4016,8 @@
       <c r="AF39" t="s">
         <v>148</v>
       </c>
-      <c r="AG39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:33">
+    </row>
+    <row r="40" customFormat="1" spans="1:32">
       <c r="A40" s="1">
         <v>999951</v>
       </c>
@@ -4138,26 +4037,28 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V40">
         <v>0.5</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
-      </c>
-      <c r="X40">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>35</v>
       </c>
       <c r="Z40">
-        <v>35</v>
-      </c>
-      <c r="AA40" s="2"/>
-      <c r="AB40">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
         <v>999951</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>145</v>
       </c>
       <c r="AD40" t="s">
         <v>146</v>
@@ -4168,11 +4069,8 @@
       <c r="AF40" t="s">
         <v>148</v>
       </c>
-      <c r="AG40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:33">
+    </row>
+    <row r="41" customFormat="1" spans="1:32">
       <c r="A41" s="1">
         <v>999952</v>
       </c>
@@ -4192,26 +4090,28 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V41">
         <v>0.5</v>
       </c>
       <c r="W41">
-        <v>0.5</v>
-      </c>
-      <c r="X41">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>35</v>
       </c>
       <c r="Z41">
-        <v>35</v>
-      </c>
-      <c r="AA41" s="2"/>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
         <v>999952</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>145</v>
       </c>
       <c r="AD41" t="s">
         <v>146</v>
@@ -4222,11 +4122,8 @@
       <c r="AF41" t="s">
         <v>148</v>
       </c>
-      <c r="AG41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:33">
+    </row>
+    <row r="42" customFormat="1" spans="1:32">
       <c r="A42" s="1">
         <v>999953</v>
       </c>
@@ -4246,26 +4143,28 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V42">
         <v>0.5</v>
       </c>
       <c r="W42">
-        <v>0.5</v>
-      </c>
-      <c r="X42">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>35</v>
       </c>
       <c r="Z42">
-        <v>35</v>
-      </c>
-      <c r="AA42" s="2"/>
-      <c r="AB42">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
         <v>999953</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>145</v>
       </c>
       <c r="AD42" t="s">
         <v>146</v>
@@ -4276,11 +4175,8 @@
       <c r="AF42" t="s">
         <v>148</v>
       </c>
-      <c r="AG42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:33">
+    </row>
+    <row r="43" customFormat="1" spans="1:32">
       <c r="A43" s="1">
         <v>999954</v>
       </c>
@@ -4300,26 +4196,28 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V43">
         <v>0.5</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
-      </c>
-      <c r="X43">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y43">
+        <v>35</v>
       </c>
       <c r="Z43">
-        <v>35</v>
-      </c>
-      <c r="AA43" s="2"/>
-      <c r="AB43">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
         <v>999954</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>145</v>
       </c>
       <c r="AD43" t="s">
         <v>146</v>
@@ -4330,11 +4228,8 @@
       <c r="AF43" t="s">
         <v>148</v>
       </c>
-      <c r="AG43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:33">
+    </row>
+    <row r="44" customFormat="1" spans="1:32">
       <c r="A44" s="1">
         <v>999955</v>
       </c>
@@ -4354,26 +4249,28 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V44">
         <v>0.5</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
-      </c>
-      <c r="X44">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>35</v>
       </c>
       <c r="Z44">
-        <v>35</v>
-      </c>
-      <c r="AA44" s="2"/>
-      <c r="AB44">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="1">
         <v>999955</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>145</v>
       </c>
       <c r="AD44" t="s">
         <v>146</v>
@@ -4384,11 +4281,8 @@
       <c r="AF44" t="s">
         <v>148</v>
       </c>
-      <c r="AG44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:33">
+    </row>
+    <row r="45" customFormat="1" spans="1:32">
       <c r="A45" s="1">
         <v>999956</v>
       </c>
@@ -4408,26 +4302,28 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V45">
         <v>0.5</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
-      </c>
-      <c r="X45">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>35</v>
       </c>
       <c r="Z45">
-        <v>35</v>
-      </c>
-      <c r="AA45" s="2"/>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="1">
         <v>999956</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>145</v>
       </c>
       <c r="AD45" t="s">
         <v>146</v>
@@ -4438,11 +4334,8 @@
       <c r="AF45" t="s">
         <v>148</v>
       </c>
-      <c r="AG45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:33">
+    </row>
+    <row r="46" customFormat="1" spans="1:32">
       <c r="A46" s="1">
         <v>999957</v>
       </c>
@@ -4462,26 +4355,28 @@
         <v>1</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V46">
         <v>0.5</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
-      </c>
-      <c r="X46">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>35</v>
       </c>
       <c r="Z46">
-        <v>35</v>
-      </c>
-      <c r="AA46" s="2"/>
-      <c r="AB46">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="1">
         <v>999957</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>145</v>
       </c>
       <c r="AD46" t="s">
         <v>146</v>
@@ -4492,11 +4387,8 @@
       <c r="AF46" t="s">
         <v>148</v>
       </c>
-      <c r="AG46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:33">
+    </row>
+    <row r="47" customFormat="1" spans="1:32">
       <c r="A47" s="1">
         <v>999958</v>
       </c>
@@ -4516,26 +4408,28 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V47">
         <v>0.5</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
-      </c>
-      <c r="X47">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>35</v>
       </c>
       <c r="Z47">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="2"/>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
         <v>999958</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>145</v>
       </c>
       <c r="AD47" t="s">
         <v>146</v>
@@ -4546,11 +4440,8 @@
       <c r="AF47" t="s">
         <v>148</v>
       </c>
-      <c r="AG47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:33">
+    </row>
+    <row r="48" customFormat="1" spans="1:32">
       <c r="A48" s="1">
         <v>999959</v>
       </c>
@@ -4570,26 +4461,28 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V48">
         <v>0.5</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
-      </c>
-      <c r="X48">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>35</v>
       </c>
       <c r="Z48">
-        <v>35</v>
-      </c>
-      <c r="AA48" s="2"/>
-      <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
         <v>999959</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>145</v>
       </c>
       <c r="AD48" t="s">
         <v>146</v>
@@ -4600,11 +4493,8 @@
       <c r="AF48" t="s">
         <v>148</v>
       </c>
-      <c r="AG48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:33">
+    </row>
+    <row r="49" customFormat="1" spans="1:32">
       <c r="A49" s="1">
         <v>999960</v>
       </c>
@@ -4624,26 +4514,28 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V49">
         <v>0.5</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
-      </c>
-      <c r="X49">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>35</v>
       </c>
       <c r="Z49">
-        <v>35</v>
-      </c>
-      <c r="AA49" s="2"/>
-      <c r="AB49">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="1">
         <v>999960</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>145</v>
       </c>
       <c r="AD49" t="s">
         <v>146</v>
@@ -4654,11 +4546,8 @@
       <c r="AF49" t="s">
         <v>148</v>
       </c>
-      <c r="AG49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:33">
+    </row>
+    <row r="50" customFormat="1" spans="1:32">
       <c r="A50" s="1">
         <v>999961</v>
       </c>
@@ -4678,26 +4567,28 @@
         <v>1</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V50">
         <v>0.5</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
-      </c>
-      <c r="X50">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>35</v>
       </c>
       <c r="Z50">
-        <v>35</v>
-      </c>
-      <c r="AA50" s="2"/>
-      <c r="AB50">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="1">
         <v>999961</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>145</v>
       </c>
       <c r="AD50" t="s">
         <v>146</v>
@@ -4708,11 +4599,8 @@
       <c r="AF50" t="s">
         <v>148</v>
       </c>
-      <c r="AG50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:33">
+    </row>
+    <row r="51" customFormat="1" spans="1:32">
       <c r="A51" s="1">
         <v>999962</v>
       </c>
@@ -4732,26 +4620,28 @@
         <v>1</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V51">
         <v>0.5</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
-      </c>
-      <c r="X51">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y51">
+        <v>35</v>
       </c>
       <c r="Z51">
-        <v>35</v>
-      </c>
-      <c r="AA51" s="2"/>
-      <c r="AB51">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="1">
         <v>999962</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>145</v>
       </c>
       <c r="AD51" t="s">
         <v>146</v>
@@ -4762,11 +4652,8 @@
       <c r="AF51" t="s">
         <v>148</v>
       </c>
-      <c r="AG51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:33">
+    </row>
+    <row r="52" customFormat="1" spans="1:32">
       <c r="A52" s="1">
         <v>999963</v>
       </c>
@@ -4786,26 +4673,28 @@
         <v>1</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V52">
         <v>0.5</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
-      </c>
-      <c r="X52">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>35</v>
       </c>
       <c r="Z52">
-        <v>35</v>
-      </c>
-      <c r="AA52" s="2"/>
-      <c r="AB52">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="1">
         <v>999963</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>145</v>
       </c>
       <c r="AD52" t="s">
         <v>146</v>
@@ -4816,11 +4705,8 @@
       <c r="AF52" t="s">
         <v>148</v>
       </c>
-      <c r="AG52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:33">
+    </row>
+    <row r="53" customFormat="1" spans="1:32">
       <c r="A53" s="1">
         <v>999964</v>
       </c>
@@ -4840,26 +4726,28 @@
         <v>1</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V53">
         <v>0.5</v>
       </c>
       <c r="W53">
-        <v>0.5</v>
-      </c>
-      <c r="X53">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>35</v>
       </c>
       <c r="Z53">
-        <v>35</v>
-      </c>
-      <c r="AA53" s="2"/>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="1">
         <v>999964</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>145</v>
       </c>
       <c r="AD53" t="s">
         <v>146</v>
@@ -4870,11 +4758,8 @@
       <c r="AF53" t="s">
         <v>148</v>
       </c>
-      <c r="AG53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:33">
+    </row>
+    <row r="54" customFormat="1" spans="1:32">
       <c r="A54" s="1">
         <v>999965</v>
       </c>
@@ -4894,26 +4779,28 @@
         <v>1</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V54">
         <v>0.5</v>
       </c>
       <c r="W54">
-        <v>0.5</v>
-      </c>
-      <c r="X54">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y54">
+        <v>35</v>
       </c>
       <c r="Z54">
-        <v>35</v>
-      </c>
-      <c r="AA54" s="2"/>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
         <v>999965</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>145</v>
       </c>
       <c r="AD54" t="s">
         <v>146</v>
@@ -4924,11 +4811,8 @@
       <c r="AF54" t="s">
         <v>148</v>
       </c>
-      <c r="AG54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:33">
+    </row>
+    <row r="55" customFormat="1" spans="1:32">
       <c r="A55" s="1">
         <v>999966</v>
       </c>
@@ -4948,26 +4832,28 @@
         <v>1</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V55">
         <v>0.5</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
-      </c>
-      <c r="X55">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>35</v>
       </c>
       <c r="Z55">
-        <v>35</v>
-      </c>
-      <c r="AA55" s="2"/>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
         <v>999966</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>145</v>
       </c>
       <c r="AD55" t="s">
         <v>146</v>
@@ -4978,11 +4864,8 @@
       <c r="AF55" t="s">
         <v>148</v>
       </c>
-      <c r="AG55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:33">
+    </row>
+    <row r="56" customFormat="1" spans="1:32">
       <c r="A56" s="1">
         <v>999967</v>
       </c>
@@ -5002,26 +4885,28 @@
         <v>1</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V56">
         <v>0.5</v>
       </c>
       <c r="W56">
-        <v>0.5</v>
-      </c>
-      <c r="X56">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>35</v>
       </c>
       <c r="Z56">
-        <v>35</v>
-      </c>
-      <c r="AA56" s="2"/>
-      <c r="AB56">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1">
         <v>999967</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>145</v>
       </c>
       <c r="AD56" t="s">
         <v>146</v>
@@ -5032,11 +4917,8 @@
       <c r="AF56" t="s">
         <v>148</v>
       </c>
-      <c r="AG56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:33">
+    </row>
+    <row r="57" customFormat="1" spans="1:32">
       <c r="A57" s="1">
         <v>999968</v>
       </c>
@@ -5056,26 +4938,28 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V57">
         <v>0.5</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
-      </c>
-      <c r="X57">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>35</v>
       </c>
       <c r="Z57">
-        <v>35</v>
-      </c>
-      <c r="AA57" s="2"/>
-      <c r="AB57">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="1">
         <v>999968</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>145</v>
       </c>
       <c r="AD57" t="s">
         <v>146</v>
@@ -5086,11 +4970,8 @@
       <c r="AF57" t="s">
         <v>148</v>
       </c>
-      <c r="AG57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:33">
+    </row>
+    <row r="58" customFormat="1" spans="1:32">
       <c r="A58" s="1">
         <v>999969</v>
       </c>
@@ -5110,26 +4991,28 @@
         <v>1</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V58">
         <v>0.5</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
-      </c>
-      <c r="X58">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y58">
+        <v>35</v>
       </c>
       <c r="Z58">
-        <v>35</v>
-      </c>
-      <c r="AA58" s="2"/>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="1">
         <v>999969</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>145</v>
       </c>
       <c r="AD58" t="s">
         <v>146</v>
@@ -5140,11 +5023,8 @@
       <c r="AF58" t="s">
         <v>148</v>
       </c>
-      <c r="AG58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:33">
+    </row>
+    <row r="59" customFormat="1" spans="1:32">
       <c r="A59" s="1">
         <v>999970</v>
       </c>
@@ -5164,26 +5044,28 @@
         <v>1</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V59">
         <v>0.5</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
-      </c>
-      <c r="X59">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>35</v>
       </c>
       <c r="Z59">
-        <v>35</v>
-      </c>
-      <c r="AA59" s="2"/>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="1">
         <v>999970</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>145</v>
       </c>
       <c r="AD59" t="s">
         <v>146</v>
@@ -5194,11 +5076,8 @@
       <c r="AF59" t="s">
         <v>148</v>
       </c>
-      <c r="AG59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:33">
+    </row>
+    <row r="60" customFormat="1" spans="1:32">
       <c r="A60" s="1">
         <v>999971</v>
       </c>
@@ -5218,26 +5097,28 @@
         <v>1</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V60">
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>0.5</v>
-      </c>
-      <c r="X60">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>35</v>
       </c>
       <c r="Z60">
-        <v>35</v>
-      </c>
-      <c r="AA60" s="2"/>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="1">
         <v>999971</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>145</v>
       </c>
       <c r="AD60" t="s">
         <v>146</v>
@@ -5248,11 +5129,8 @@
       <c r="AF60" t="s">
         <v>148</v>
       </c>
-      <c r="AG60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:33">
+    </row>
+    <row r="61" customFormat="1" spans="1:32">
       <c r="A61" s="1">
         <v>999972</v>
       </c>
@@ -5272,26 +5150,28 @@
         <v>1</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V61">
         <v>0.5</v>
       </c>
       <c r="W61">
-        <v>0.5</v>
-      </c>
-      <c r="X61">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>35</v>
       </c>
       <c r="Z61">
-        <v>35</v>
-      </c>
-      <c r="AA61" s="2"/>
-      <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
         <v>999972</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>145</v>
       </c>
       <c r="AD61" t="s">
         <v>146</v>
@@ -5302,11 +5182,8 @@
       <c r="AF61" t="s">
         <v>148</v>
       </c>
-      <c r="AG61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:33">
+    </row>
+    <row r="62" customFormat="1" spans="1:32">
       <c r="A62" s="1">
         <v>999973</v>
       </c>
@@ -5326,26 +5203,28 @@
         <v>1</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V62">
         <v>0.5</v>
       </c>
       <c r="W62">
-        <v>0.5</v>
-      </c>
-      <c r="X62">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>35</v>
       </c>
       <c r="Z62">
-        <v>35</v>
-      </c>
-      <c r="AA62" s="2"/>
-      <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1">
         <v>999973</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>145</v>
       </c>
       <c r="AD62" t="s">
         <v>146</v>
@@ -5356,11 +5235,8 @@
       <c r="AF62" t="s">
         <v>148</v>
       </c>
-      <c r="AG62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:33">
+    </row>
+    <row r="63" customFormat="1" spans="1:32">
       <c r="A63" s="1">
         <v>999974</v>
       </c>
@@ -5380,26 +5256,28 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V63">
         <v>0.5</v>
       </c>
       <c r="W63">
-        <v>0.5</v>
-      </c>
-      <c r="X63">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y63">
+        <v>35</v>
       </c>
       <c r="Z63">
-        <v>35</v>
-      </c>
-      <c r="AA63" s="2"/>
-      <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="1">
         <v>999974</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>145</v>
       </c>
       <c r="AD63" t="s">
         <v>146</v>
@@ -5410,11 +5288,8 @@
       <c r="AF63" t="s">
         <v>148</v>
       </c>
-      <c r="AG63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:33">
+    </row>
+    <row r="64" customFormat="1" spans="1:32">
       <c r="A64" s="1">
         <v>999975</v>
       </c>
@@ -5434,26 +5309,28 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V64">
         <v>0.5</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
-      </c>
-      <c r="X64">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>35</v>
       </c>
       <c r="Z64">
-        <v>35</v>
-      </c>
-      <c r="AA64" s="2"/>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="1">
         <v>999975</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>145</v>
       </c>
       <c r="AD64" t="s">
         <v>146</v>
@@ -5464,11 +5341,8 @@
       <c r="AF64" t="s">
         <v>148</v>
       </c>
-      <c r="AG64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:33">
+    </row>
+    <row r="65" customFormat="1" spans="1:32">
       <c r="A65" s="1">
         <v>999976</v>
       </c>
@@ -5488,26 +5362,28 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V65">
         <v>0.5</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
-      </c>
-      <c r="X65">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>35</v>
       </c>
       <c r="Z65">
-        <v>35</v>
-      </c>
-      <c r="AA65" s="2"/>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="1">
         <v>999976</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>145</v>
       </c>
       <c r="AD65" t="s">
         <v>146</v>
@@ -5518,11 +5394,8 @@
       <c r="AF65" t="s">
         <v>148</v>
       </c>
-      <c r="AG65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:33">
+    </row>
+    <row r="66" customFormat="1" spans="1:32">
       <c r="A66" s="1">
         <v>999977</v>
       </c>
@@ -5542,26 +5415,28 @@
         <v>1</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V66">
         <v>0.5</v>
       </c>
       <c r="W66">
-        <v>0.5</v>
-      </c>
-      <c r="X66">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y66">
+        <v>35</v>
       </c>
       <c r="Z66">
-        <v>35</v>
-      </c>
-      <c r="AA66" s="2"/>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="1">
         <v>999977</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>145</v>
       </c>
       <c r="AD66" t="s">
         <v>146</v>
@@ -5572,11 +5447,8 @@
       <c r="AF66" t="s">
         <v>148</v>
       </c>
-      <c r="AG66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:33">
+    </row>
+    <row r="67" customFormat="1" spans="1:32">
       <c r="A67" s="1">
         <v>999978</v>
       </c>
@@ -5596,26 +5468,28 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V67">
         <v>0.5</v>
       </c>
       <c r="W67">
-        <v>0.5</v>
-      </c>
-      <c r="X67">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y67">
+        <v>35</v>
       </c>
       <c r="Z67">
-        <v>35</v>
-      </c>
-      <c r="AA67" s="2"/>
-      <c r="AB67">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="1">
         <v>999978</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>145</v>
       </c>
       <c r="AD67" t="s">
         <v>146</v>
@@ -5626,11 +5500,8 @@
       <c r="AF67" t="s">
         <v>148</v>
       </c>
-      <c r="AG67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:33">
+    </row>
+    <row r="68" customFormat="1" spans="1:32">
       <c r="A68" s="1">
         <v>999979</v>
       </c>
@@ -5650,26 +5521,28 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V68">
         <v>0.5</v>
       </c>
       <c r="W68">
-        <v>0.5</v>
-      </c>
-      <c r="X68">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>35</v>
       </c>
       <c r="Z68">
-        <v>35</v>
-      </c>
-      <c r="AA68" s="2"/>
-      <c r="AB68">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="1">
         <v>999979</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>145</v>
       </c>
       <c r="AD68" t="s">
         <v>146</v>
@@ -5680,11 +5553,8 @@
       <c r="AF68" t="s">
         <v>148</v>
       </c>
-      <c r="AG68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:33">
+    </row>
+    <row r="69" customFormat="1" spans="1:32">
       <c r="A69" s="1">
         <v>999980</v>
       </c>
@@ -5704,26 +5574,28 @@
         <v>1</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V69">
         <v>0.5</v>
       </c>
       <c r="W69">
-        <v>0.5</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>35</v>
       </c>
       <c r="Z69">
-        <v>35</v>
-      </c>
-      <c r="AA69" s="2"/>
-      <c r="AB69">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="1">
         <v>999980</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>145</v>
       </c>
       <c r="AD69" t="s">
         <v>146</v>
@@ -5734,11 +5606,8 @@
       <c r="AF69" t="s">
         <v>148</v>
       </c>
-      <c r="AG69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:33">
+    </row>
+    <row r="70" customFormat="1" spans="1:32">
       <c r="A70" s="1">
         <v>999981</v>
       </c>
@@ -5758,26 +5627,28 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V70">
         <v>0.5</v>
       </c>
       <c r="W70">
-        <v>0.5</v>
-      </c>
-      <c r="X70">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>35</v>
       </c>
       <c r="Z70">
-        <v>35</v>
-      </c>
-      <c r="AA70" s="2"/>
-      <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="1">
         <v>999981</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>145</v>
       </c>
       <c r="AD70" t="s">
         <v>146</v>
@@ -5788,11 +5659,8 @@
       <c r="AF70" t="s">
         <v>148</v>
       </c>
-      <c r="AG70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:33">
+    </row>
+    <row r="71" customFormat="1" spans="1:32">
       <c r="A71">
         <v>999982</v>
       </c>
@@ -5812,25 +5680,28 @@
         <v>1</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V71">
         <v>0.5</v>
       </c>
       <c r="W71">
-        <v>0.5</v>
-      </c>
-      <c r="X71">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>35</v>
       </c>
       <c r="Z71">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
-      </c>
-      <c r="AC71">
         <v>999982</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>145</v>
       </c>
       <c r="AD71" t="s">
         <v>146</v>
@@ -5841,11 +5712,8 @@
       <c r="AF71" t="s">
         <v>148</v>
       </c>
-      <c r="AG71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:33">
+    </row>
+    <row r="72" customFormat="1" spans="1:32">
       <c r="A72">
         <v>999983</v>
       </c>
@@ -5865,25 +5733,28 @@
         <v>1</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V72">
         <v>0.5</v>
       </c>
       <c r="W72">
-        <v>0.5</v>
-      </c>
-      <c r="X72">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y72">
+        <v>35</v>
       </c>
       <c r="Z72">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AC72">
         <v>999983</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>145</v>
       </c>
       <c r="AD72" t="s">
         <v>146</v>
@@ -5894,11 +5765,8 @@
       <c r="AF72" t="s">
         <v>148</v>
       </c>
-      <c r="AG72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:33">
+    </row>
+    <row r="73" customFormat="1" spans="1:32">
       <c r="A73">
         <v>999984</v>
       </c>
@@ -5918,25 +5786,28 @@
         <v>1</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V73">
         <v>0.5</v>
       </c>
       <c r="W73">
-        <v>0.5</v>
-      </c>
-      <c r="X73">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y73">
+        <v>35</v>
       </c>
       <c r="Z73">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
-      </c>
-      <c r="AC73">
         <v>999984</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>145</v>
       </c>
       <c r="AD73" t="s">
         <v>146</v>
@@ -5947,11 +5818,8 @@
       <c r="AF73" t="s">
         <v>148</v>
       </c>
-      <c r="AG73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:33">
+    </row>
+    <row r="74" customFormat="1" spans="1:32">
       <c r="A74">
         <v>999985</v>
       </c>
@@ -5971,25 +5839,28 @@
         <v>1</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V74">
         <v>0.5</v>
       </c>
       <c r="W74">
-        <v>0.5</v>
-      </c>
-      <c r="X74">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y74">
+        <v>35</v>
       </c>
       <c r="Z74">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
-      </c>
-      <c r="AC74">
         <v>999985</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>145</v>
       </c>
       <c r="AD74" t="s">
         <v>146</v>
@@ -6000,11 +5871,8 @@
       <c r="AF74" t="s">
         <v>148</v>
       </c>
-      <c r="AG74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:33">
+    </row>
+    <row r="75" customFormat="1" spans="1:32">
       <c r="A75">
         <v>999986</v>
       </c>
@@ -6024,25 +5892,28 @@
         <v>1</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V75">
         <v>0.5</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
-      </c>
-      <c r="X75">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>35</v>
       </c>
       <c r="Z75">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
         <v>999986</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>145</v>
       </c>
       <c r="AD75" t="s">
         <v>146</v>
@@ -6053,11 +5924,8 @@
       <c r="AF75" t="s">
         <v>148</v>
       </c>
-      <c r="AG75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:33">
+    </row>
+    <row r="76" customFormat="1" spans="1:32">
       <c r="A76">
         <v>999987</v>
       </c>
@@ -6077,25 +5945,28 @@
         <v>1</v>
       </c>
       <c r="U76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V76">
         <v>0.5</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
-      </c>
-      <c r="X76">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>35</v>
       </c>
       <c r="Z76">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
-      </c>
-      <c r="AC76">
         <v>999987</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>145</v>
       </c>
       <c r="AD76" t="s">
         <v>146</v>
@@ -6106,11 +5977,8 @@
       <c r="AF76" t="s">
         <v>148</v>
       </c>
-      <c r="AG76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:33">
+    </row>
+    <row r="77" customFormat="1" spans="1:32">
       <c r="A77">
         <v>999988</v>
       </c>
@@ -6130,25 +5998,28 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V77">
         <v>0.5</v>
       </c>
       <c r="W77">
-        <v>0.5</v>
-      </c>
-      <c r="X77">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y77">
+        <v>35</v>
       </c>
       <c r="Z77">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AC77">
         <v>999988</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>145</v>
       </c>
       <c r="AD77" t="s">
         <v>146</v>
@@ -6159,11 +6030,8 @@
       <c r="AF77" t="s">
         <v>148</v>
       </c>
-      <c r="AG77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:33">
+    </row>
+    <row r="78" customFormat="1" spans="1:32">
       <c r="A78">
         <v>999989</v>
       </c>
@@ -6183,25 +6051,28 @@
         <v>1</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V78">
         <v>0.5</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
-      </c>
-      <c r="X78">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y78">
+        <v>35</v>
       </c>
       <c r="Z78">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78">
         <v>999989</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>145</v>
       </c>
       <c r="AD78" t="s">
         <v>146</v>
@@ -6212,11 +6083,8 @@
       <c r="AF78" t="s">
         <v>148</v>
       </c>
-      <c r="AG78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:33">
+    </row>
+    <row r="79" customFormat="1" spans="1:32">
       <c r="A79">
         <v>999990</v>
       </c>
@@ -6236,25 +6104,28 @@
         <v>1</v>
       </c>
       <c r="U79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V79">
         <v>0.5</v>
       </c>
       <c r="W79">
-        <v>0.5</v>
-      </c>
-      <c r="X79">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>35</v>
       </c>
       <c r="Z79">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
-      </c>
-      <c r="AC79">
         <v>999990</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>145</v>
       </c>
       <c r="AD79" t="s">
         <v>146</v>
@@ -6265,11 +6136,8 @@
       <c r="AF79" t="s">
         <v>148</v>
       </c>
-      <c r="AG79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:33">
+    </row>
+    <row r="80" customFormat="1" spans="1:32">
       <c r="A80">
         <v>999991</v>
       </c>
@@ -6289,25 +6157,28 @@
         <v>1</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V80">
         <v>0.5</v>
       </c>
       <c r="W80">
-        <v>0.5</v>
-      </c>
-      <c r="X80">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y80">
+        <v>35</v>
       </c>
       <c r="Z80">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
-      </c>
-      <c r="AC80">
         <v>999991</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>145</v>
       </c>
       <c r="AD80" t="s">
         <v>146</v>
@@ -6318,11 +6189,8 @@
       <c r="AF80" t="s">
         <v>148</v>
       </c>
-      <c r="AG80" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:33">
+    </row>
+    <row r="81" customFormat="1" spans="1:32">
       <c r="A81">
         <v>999992</v>
       </c>
@@ -6342,25 +6210,28 @@
         <v>1</v>
       </c>
       <c r="U81">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V81">
         <v>0.5</v>
       </c>
       <c r="W81">
-        <v>0.5</v>
-      </c>
-      <c r="X81">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>35</v>
       </c>
       <c r="Z81">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
       </c>
       <c r="AB81">
-        <v>1</v>
-      </c>
-      <c r="AC81">
         <v>999992</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>145</v>
       </c>
       <c r="AD81" t="s">
         <v>146</v>
@@ -6371,11 +6242,8 @@
       <c r="AF81" t="s">
         <v>148</v>
       </c>
-      <c r="AG81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:33">
+    </row>
+    <row r="82" customFormat="1" spans="1:32">
       <c r="A82">
         <v>999993</v>
       </c>
@@ -6395,25 +6263,28 @@
         <v>1</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V82">
         <v>0.5</v>
       </c>
       <c r="W82">
-        <v>0.5</v>
-      </c>
-      <c r="X82">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>35</v>
       </c>
       <c r="Z82">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>1</v>
-      </c>
-      <c r="AC82">
         <v>999993</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>145</v>
       </c>
       <c r="AD82" t="s">
         <v>146</v>
@@ -6424,11 +6295,8 @@
       <c r="AF82" t="s">
         <v>148</v>
       </c>
-      <c r="AG82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:33">
+    </row>
+    <row r="83" customFormat="1" spans="1:32">
       <c r="A83">
         <v>999994</v>
       </c>
@@ -6448,25 +6316,28 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V83">
         <v>0.5</v>
       </c>
       <c r="W83">
-        <v>0.5</v>
-      </c>
-      <c r="X83">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>35</v>
       </c>
       <c r="Z83">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>1</v>
-      </c>
-      <c r="AC83">
         <v>999994</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>145</v>
       </c>
       <c r="AD83" t="s">
         <v>146</v>
@@ -6477,11 +6348,8 @@
       <c r="AF83" t="s">
         <v>148</v>
       </c>
-      <c r="AG83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:33">
+    </row>
+    <row r="84" customFormat="1" spans="1:32">
       <c r="A84">
         <v>999995</v>
       </c>
@@ -6501,25 +6369,28 @@
         <v>1</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V84">
         <v>0.5</v>
       </c>
       <c r="W84">
-        <v>0.5</v>
-      </c>
-      <c r="X84">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y84">
+        <v>35</v>
       </c>
       <c r="Z84">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
-      </c>
-      <c r="AC84">
         <v>999995</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>145</v>
       </c>
       <c r="AD84" t="s">
         <v>146</v>
@@ -6530,11 +6401,8 @@
       <c r="AF84" t="s">
         <v>148</v>
       </c>
-      <c r="AG84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:33">
+    </row>
+    <row r="85" customFormat="1" spans="1:32">
       <c r="A85">
         <v>999996</v>
       </c>
@@ -6554,25 +6422,28 @@
         <v>1</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V85">
         <v>0.5</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
-      </c>
-      <c r="X85">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y85">
+        <v>35</v>
       </c>
       <c r="Z85">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AC85">
         <v>999996</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>145</v>
       </c>
       <c r="AD85" t="s">
         <v>146</v>
@@ -6583,11 +6454,8 @@
       <c r="AF85" t="s">
         <v>148</v>
       </c>
-      <c r="AG85" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:33">
+    </row>
+    <row r="86" customFormat="1" spans="1:32">
       <c r="A86">
         <v>999997</v>
       </c>
@@ -6607,25 +6475,28 @@
         <v>1</v>
       </c>
       <c r="U86">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V86">
         <v>0.5</v>
       </c>
       <c r="W86">
-        <v>0.5</v>
-      </c>
-      <c r="X86">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y86">
+        <v>35</v>
       </c>
       <c r="Z86">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86">
         <v>999997</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>145</v>
       </c>
       <c r="AD86" t="s">
         <v>146</v>
@@ -6636,11 +6507,8 @@
       <c r="AF86" t="s">
         <v>148</v>
       </c>
-      <c r="AG86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:33">
+    </row>
+    <row r="87" customFormat="1" spans="1:32">
       <c r="A87">
         <v>999998</v>
       </c>
@@ -6660,25 +6528,28 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V87">
         <v>0.5</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
-      </c>
-      <c r="X87">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>35</v>
       </c>
       <c r="Z87">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>1</v>
-      </c>
-      <c r="AC87">
         <v>999998</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>145</v>
       </c>
       <c r="AD87" t="s">
         <v>146</v>
@@ -6689,11 +6560,8 @@
       <c r="AF87" t="s">
         <v>148</v>
       </c>
-      <c r="AG87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:33">
+    </row>
+    <row r="88" customFormat="1" spans="1:32">
       <c r="A88">
         <v>999999</v>
       </c>
@@ -6713,25 +6581,28 @@
         <v>1</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V88">
         <v>0.5</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
-      </c>
-      <c r="X88">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>35</v>
       </c>
       <c r="Z88">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
       </c>
       <c r="AB88">
-        <v>1</v>
-      </c>
-      <c r="AC88">
         <v>999999</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>145</v>
       </c>
       <c r="AD88" t="s">
         <v>146</v>
@@ -6741,9 +6612,6 @@
       </c>
       <c r="AF88" t="s">
         <v>148</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1"/>
@@ -6767,7 +6635,7 @@
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG88" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF88" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:AK88">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -254,190 +254,193 @@
     <t>Human</t>
   </si>
   <si>
+    <t>1,2,3,10,</t>
+  </si>
+  <si>
+    <t>Attack2</t>
+  </si>
+  <si>
+    <t>骷髅战士</t>
+  </si>
+  <si>
+    <t>Skeleton Warrior</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>0,0.7,0</t>
+  </si>
+  <si>
+    <t>骷髅投手</t>
+  </si>
+  <si>
+    <t>Skeleton Hurler</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Attack3</t>
+  </si>
+  <si>
+    <t>骷髅魔法师（火）</t>
+  </si>
+  <si>
+    <t>Skeleton Mage (Fire)</t>
+  </si>
+  <si>
+    <t>骷髅魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Skeleton Mage (Ice)</t>
+  </si>
+  <si>
+    <t>守护史莱姆</t>
+  </si>
+  <si>
+    <t>Guardian Slime</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>自爆史莱姆</t>
+  </si>
+  <si>
+    <t>Detonator Slime</t>
+  </si>
+  <si>
+    <t>CreatureDef_Front</t>
+  </si>
+  <si>
+    <t>烂泥史莱姆</t>
+  </si>
+  <si>
+    <t>Sludge Slime</t>
+  </si>
+  <si>
+    <t>毒液史莱姆</t>
+  </si>
+  <si>
+    <t>Venomous Slime</t>
+  </si>
+  <si>
+    <t>战之魅魔</t>
+  </si>
+  <si>
+    <t>Warbane Succubus</t>
+  </si>
+  <si>
+    <t>魅魔</t>
+  </si>
+  <si>
+    <t>1,2,3,</t>
+  </si>
+  <si>
+    <t>愈之魅魔</t>
+  </si>
+  <si>
+    <t>Mendthorn Succubus</t>
+  </si>
+  <si>
+    <t>惑之魅魔</t>
+  </si>
+  <si>
+    <t>Allureveil Succubus</t>
+  </si>
+  <si>
+    <t>奥之魅魔</t>
+  </si>
+  <si>
+    <t>Arcaneblood Succubus</t>
+  </si>
+  <si>
+    <t>盾之魅魔</t>
+  </si>
+  <si>
+    <t>Ironward Succubus</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>牛头人战士</t>
+  </si>
+  <si>
+    <t>Minotaur Warrior</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>1,2,3,5,10</t>
+  </si>
+  <si>
+    <t>0,0.8,0</t>
+  </si>
+  <si>
+    <t>牛头人投手</t>
+  </si>
+  <si>
+    <t>Minotaur Hurler</t>
+  </si>
+  <si>
+    <t>牛头人魔法师（火）</t>
+  </si>
+  <si>
+    <t>Minotaur Mage (Fire)</t>
+  </si>
+  <si>
+    <t>牛头人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Minotaur Mage (Ice)</t>
+  </si>
+  <si>
+    <t>2000100001,2000200001,</t>
+  </si>
+  <si>
+    <t>哥布林刺客</t>
+  </si>
+  <si>
+    <t>Goblin Assassin</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>0,0.3,0</t>
+  </si>
+  <si>
+    <t>哥布林弓箭手</t>
+  </si>
+  <si>
+    <t>Goblin Archer</t>
+  </si>
+  <si>
+    <t>哥布林敢死队</t>
+  </si>
+  <si>
+    <t>Goblin Deathsworn</t>
+  </si>
+  <si>
+    <t>哥布林魔法师（火）</t>
+  </si>
+  <si>
+    <t>Goblin Mage (Fire)</t>
+  </si>
+  <si>
+    <t>哥布林魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Goblin Mage (Ice)</t>
+  </si>
+  <si>
     <t>2000300001,2000400001,</t>
-  </si>
-  <si>
-    <t>1,2,3,10,</t>
-  </si>
-  <si>
-    <t>Attack2</t>
-  </si>
-  <si>
-    <t>骷髅战士</t>
-  </si>
-  <si>
-    <t>Skeleton Warrior</t>
-  </si>
-  <si>
-    <t>骷髅</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>0,0.7,0</t>
-  </si>
-  <si>
-    <t>骷髅投手</t>
-  </si>
-  <si>
-    <t>Skeleton Hurler</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>Attack3</t>
-  </si>
-  <si>
-    <t>骷髅魔法师（火）</t>
-  </si>
-  <si>
-    <t>Skeleton Mage (Fire)</t>
-  </si>
-  <si>
-    <t>骷髅魔法师（冰）</t>
-  </si>
-  <si>
-    <t>Skeleton Mage (Ice)</t>
-  </si>
-  <si>
-    <t>守护史莱姆</t>
-  </si>
-  <si>
-    <t>Guardian Slime</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>自爆史莱姆</t>
-  </si>
-  <si>
-    <t>Detonator Slime</t>
-  </si>
-  <si>
-    <t>CreatureDef_Front</t>
-  </si>
-  <si>
-    <t>烂泥史莱姆</t>
-  </si>
-  <si>
-    <t>Sludge Slime</t>
-  </si>
-  <si>
-    <t>毒液史莱姆</t>
-  </si>
-  <si>
-    <t>Venomous Slime</t>
-  </si>
-  <si>
-    <t>战之魅魔</t>
-  </si>
-  <si>
-    <t>Warbane Succubus</t>
-  </si>
-  <si>
-    <t>魅魔</t>
-  </si>
-  <si>
-    <t>1,2,3,</t>
-  </si>
-  <si>
-    <t>愈之魅魔</t>
-  </si>
-  <si>
-    <t>Mendthorn Succubus</t>
-  </si>
-  <si>
-    <t>惑之魅魔</t>
-  </si>
-  <si>
-    <t>Allureveil Succubus</t>
-  </si>
-  <si>
-    <t>奥之魅魔</t>
-  </si>
-  <si>
-    <t>Arcaneblood Succubus</t>
-  </si>
-  <si>
-    <t>盾之魅魔</t>
-  </si>
-  <si>
-    <t>Ironward Succubus</t>
-  </si>
-  <si>
-    <t>1,2,3,5</t>
-  </si>
-  <si>
-    <t>牛头人战士</t>
-  </si>
-  <si>
-    <t>Minotaur Warrior</t>
-  </si>
-  <si>
-    <t>牛头人</t>
-  </si>
-  <si>
-    <t>1,2,3,5,10</t>
-  </si>
-  <si>
-    <t>0,0.8,0</t>
-  </si>
-  <si>
-    <t>牛头人投手</t>
-  </si>
-  <si>
-    <t>Minotaur Hurler</t>
-  </si>
-  <si>
-    <t>牛头人魔法师（火）</t>
-  </si>
-  <si>
-    <t>Minotaur Mage (Fire)</t>
-  </si>
-  <si>
-    <t>牛头人魔法师（冰）</t>
-  </si>
-  <si>
-    <t>Minotaur Mage (Ice)</t>
-  </si>
-  <si>
-    <t>哥布林刺客</t>
-  </si>
-  <si>
-    <t>Goblin Assassin</t>
-  </si>
-  <si>
-    <t>哥布林</t>
-  </si>
-  <si>
-    <t>0,0.3,0</t>
-  </si>
-  <si>
-    <t>哥布林弓箭手</t>
-  </si>
-  <si>
-    <t>Goblin Archer</t>
-  </si>
-  <si>
-    <t>哥布林敢死队</t>
-  </si>
-  <si>
-    <t>Goblin Deathsworn</t>
-  </si>
-  <si>
-    <t>哥布林魔法师（火）</t>
-  </si>
-  <si>
-    <t>Goblin Mage (Fire)</t>
-  </si>
-  <si>
-    <t>哥布林魔法师（冰）</t>
-  </si>
-  <si>
-    <t>Goblin Mage (Ice)</t>
   </si>
   <si>
     <t>兽人战士</t>
@@ -1450,11 +1453,11 @@
   <dimension ref="A1:AF162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1878,9 +1881,6 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
       <c r="G6">
         <v>2000001</v>
       </c>
@@ -1888,10 +1888,10 @@
         <v>21010001</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
         <v>75</v>
-      </c>
-      <c r="M6" t="s">
-        <v>76</v>
       </c>
       <c r="O6">
         <v>100001</v>
@@ -1930,13 +1930,13 @@
         <v>69</v>
       </c>
       <c r="AD6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s">
         <v>77</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>78</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1956,16 +1956,16 @@
         <v>21000001</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7">
         <v>200001</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -2001,13 +2001,13 @@
         <v>69</v>
       </c>
       <c r="AD7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" t="s">
         <v>82</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -2027,16 +2027,16 @@
         <v>21010002</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8">
         <v>201001</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -2072,13 +2072,13 @@
         <v>69</v>
       </c>
       <c r="AD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE8" t="s">
         <v>86</v>
       </c>
-      <c r="AE8" t="s">
-        <v>87</v>
-      </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -2098,16 +2098,16 @@
         <v>21010003</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>201002</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -2143,13 +2143,13 @@
         <v>69</v>
       </c>
       <c r="AD9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" t="s">
-        <v>89</v>
-      </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -2202,13 +2202,13 @@
         <v>69</v>
       </c>
       <c r="AD10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" t="s">
         <v>90</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>91</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:32">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>300001</v>
@@ -2267,13 +2267,13 @@
         <v>69</v>
       </c>
       <c r="AD11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" t="s">
         <v>93</v>
       </c>
-      <c r="AE11" t="s">
-        <v>94</v>
-      </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:32">
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2338,13 +2338,13 @@
         <v>69</v>
       </c>
       <c r="AD12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE12" t="s">
         <v>96</v>
       </c>
-      <c r="AE12" t="s">
-        <v>97</v>
-      </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:32">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2409,13 +2409,13 @@
         <v>69</v>
       </c>
       <c r="AD13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE13" t="s">
         <v>98</v>
       </c>
-      <c r="AE13" t="s">
-        <v>99</v>
-      </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:32">
@@ -2436,10 +2436,10 @@
         <v>41000002</v>
       </c>
       <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
         <v>75</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
       </c>
       <c r="O14">
         <v>101001</v>
@@ -2478,13 +2478,13 @@
         <v>69</v>
       </c>
       <c r="AD14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>101</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:32">
@@ -2501,7 +2501,7 @@
         <v>4000001</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O15">
         <v>500001</v>
@@ -2543,13 +2543,13 @@
         <v>69</v>
       </c>
       <c r="AD15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE15" t="s">
         <v>104</v>
       </c>
-      <c r="AE15" t="s">
-        <v>105</v>
-      </c>
       <c r="AF15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:32">
@@ -2566,7 +2566,7 @@
         <v>4000001</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O16">
         <v>600001</v>
@@ -2608,13 +2608,13 @@
         <v>69</v>
       </c>
       <c r="AD16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE16" t="s">
         <v>106</v>
       </c>
-      <c r="AE16" t="s">
-        <v>107</v>
-      </c>
       <c r="AF16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:32">
@@ -2631,13 +2631,13 @@
         <v>4000001</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O17">
         <v>202001</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q17">
         <v>30</v>
@@ -2676,13 +2676,13 @@
         <v>69</v>
       </c>
       <c r="AD17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE17" t="s">
         <v>108</v>
       </c>
-      <c r="AE17" t="s">
-        <v>109</v>
-      </c>
       <c r="AF17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:32">
@@ -2699,7 +2699,7 @@
         <v>4000001</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O18">
         <v>500002</v>
@@ -2742,13 +2742,13 @@
         <v>69</v>
       </c>
       <c r="AD18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" t="s">
         <v>110</v>
       </c>
-      <c r="AE18" t="s">
-        <v>111</v>
-      </c>
       <c r="AF18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:32">
@@ -2765,7 +2765,7 @@
         <v>5000001</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O19">
         <v>101002</v>
@@ -2807,13 +2807,13 @@
         <v>69</v>
       </c>
       <c r="AD19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE19" t="s">
         <v>113</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>114</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:32">
@@ -2833,13 +2833,13 @@
         <v>51010001</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20">
         <v>203001</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2878,13 +2878,13 @@
         <v>69</v>
       </c>
       <c r="AD20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE20" t="s">
         <v>118</v>
       </c>
-      <c r="AE20" t="s">
-        <v>119</v>
-      </c>
       <c r="AF20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:32">
@@ -2901,7 +2901,7 @@
         <v>5000001</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O21">
         <v>700001</v>
@@ -2943,13 +2943,13 @@
         <v>69</v>
       </c>
       <c r="AD21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE21" t="s">
         <v>120</v>
       </c>
-      <c r="AE21" t="s">
-        <v>121</v>
-      </c>
       <c r="AF21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:32">
@@ -2966,7 +2966,7 @@
         <v>5000001</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O22">
         <v>700002</v>
@@ -3008,13 +3008,13 @@
         <v>69</v>
       </c>
       <c r="AD22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE22" t="s">
         <v>122</v>
       </c>
-      <c r="AE22" t="s">
-        <v>123</v>
-      </c>
       <c r="AF22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:32">
@@ -3027,11 +3027,14 @@
       <c r="E23">
         <v>30</v>
       </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
       <c r="G23">
         <v>6000001</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O23">
         <v>200001</v>
@@ -3096,10 +3099,10 @@
         <v>61010002</v>
       </c>
       <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
         <v>75</v>
-      </c>
-      <c r="M24" t="s">
-        <v>76</v>
       </c>
       <c r="O24">
         <v>204001</v>
@@ -3147,7 +3150,7 @@
         <v>129</v>
       </c>
       <c r="AF24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:32">
@@ -3164,7 +3167,7 @@
         <v>6000001</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O25">
         <v>200001</v>
@@ -3209,7 +3212,7 @@
         <v>131</v>
       </c>
       <c r="AF25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:32">
@@ -3225,11 +3228,20 @@
       <c r="G26">
         <v>6000001</v>
       </c>
+      <c r="H26">
+        <v>61010003</v>
+      </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>84</v>
       </c>
       <c r="O26">
-        <v>200001</v>
+        <v>204002</v>
+      </c>
+      <c r="P26" t="s">
+        <v>127</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -3271,7 +3283,7 @@
         <v>133</v>
       </c>
       <c r="AF26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:32">
@@ -3287,11 +3299,20 @@
       <c r="G27">
         <v>6000001</v>
       </c>
+      <c r="H27">
+        <v>61010003</v>
+      </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>84</v>
       </c>
       <c r="O27">
-        <v>200001</v>
+        <v>204003</v>
+      </c>
+      <c r="P27" t="s">
+        <v>127</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3333,7 +3354,7 @@
         <v>135</v>
       </c>
       <c r="AF27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:32">
@@ -3346,11 +3367,14 @@
       <c r="E28">
         <v>45</v>
       </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
       <c r="G28">
         <v>7000001</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O28">
         <v>200001</v>
@@ -3389,13 +3413,13 @@
         <v>69</v>
       </c>
       <c r="AD28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:32">
@@ -3415,16 +3439,16 @@
         <v>71000001</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29">
         <v>205001</v>
       </c>
       <c r="P29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -3460,13 +3484,13 @@
         <v>69</v>
       </c>
       <c r="AD29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:32">
@@ -3482,11 +3506,20 @@
       <c r="G30">
         <v>7000001</v>
       </c>
+      <c r="H30">
+        <v>71010004</v>
+      </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
       </c>
       <c r="O30">
-        <v>200001</v>
+        <v>205002</v>
+      </c>
+      <c r="P30" t="s">
+        <v>80</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -3522,13 +3555,13 @@
         <v>69</v>
       </c>
       <c r="AD30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:32">
@@ -3544,11 +3577,20 @@
       <c r="G31">
         <v>7000001</v>
       </c>
+      <c r="H31">
+        <v>71010004</v>
+      </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="M31" t="s">
+        <v>75</v>
       </c>
       <c r="O31">
-        <v>200001</v>
+        <v>205003</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3584,13 +3626,13 @@
         <v>69</v>
       </c>
       <c r="AD31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AE31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:32">
@@ -3634,16 +3676,16 @@
         <v>989996</v>
       </c>
       <c r="AC32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:32">
@@ -3687,16 +3729,16 @@
         <v>989997</v>
       </c>
       <c r="AC33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:32">
@@ -3740,16 +3782,16 @@
         <v>989998</v>
       </c>
       <c r="AC34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:32">
@@ -3793,16 +3835,16 @@
         <v>989999</v>
       </c>
       <c r="AC35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:32">
@@ -3846,16 +3888,16 @@
         <v>999947</v>
       </c>
       <c r="AC36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:32">
@@ -3899,16 +3941,16 @@
         <v>999948</v>
       </c>
       <c r="AC37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:32">
@@ -3952,16 +3994,16 @@
         <v>999949</v>
       </c>
       <c r="AC38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:32">
@@ -4005,16 +4047,16 @@
         <v>999950</v>
       </c>
       <c r="AC39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:32">
@@ -4058,16 +4100,16 @@
         <v>999951</v>
       </c>
       <c r="AC40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:32">
@@ -4111,16 +4153,16 @@
         <v>999952</v>
       </c>
       <c r="AC41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:32">
@@ -4164,16 +4206,16 @@
         <v>999953</v>
       </c>
       <c r="AC42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:32">
@@ -4217,16 +4259,16 @@
         <v>999954</v>
       </c>
       <c r="AC43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:32">
@@ -4270,16 +4312,16 @@
         <v>999955</v>
       </c>
       <c r="AC44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:32">
@@ -4323,16 +4365,16 @@
         <v>999956</v>
       </c>
       <c r="AC45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:32">
@@ -4376,16 +4418,16 @@
         <v>999957</v>
       </c>
       <c r="AC46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:32">
@@ -4429,16 +4471,16 @@
         <v>999958</v>
       </c>
       <c r="AC47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:32">
@@ -4482,16 +4524,16 @@
         <v>999959</v>
       </c>
       <c r="AC48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:32">
@@ -4535,16 +4577,16 @@
         <v>999960</v>
       </c>
       <c r="AC49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:32">
@@ -4588,16 +4630,16 @@
         <v>999961</v>
       </c>
       <c r="AC50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:32">
@@ -4641,16 +4683,16 @@
         <v>999962</v>
       </c>
       <c r="AC51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:32">
@@ -4694,16 +4736,16 @@
         <v>999963</v>
       </c>
       <c r="AC52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:32">
@@ -4747,16 +4789,16 @@
         <v>999964</v>
       </c>
       <c r="AC53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:32">
@@ -4800,16 +4842,16 @@
         <v>999965</v>
       </c>
       <c r="AC54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:32">
@@ -4853,16 +4895,16 @@
         <v>999966</v>
       </c>
       <c r="AC55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:32">
@@ -4906,16 +4948,16 @@
         <v>999967</v>
       </c>
       <c r="AC56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:32">
@@ -4959,16 +5001,16 @@
         <v>999968</v>
       </c>
       <c r="AC57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:32">
@@ -5012,16 +5054,16 @@
         <v>999969</v>
       </c>
       <c r="AC58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:32">
@@ -5065,16 +5107,16 @@
         <v>999970</v>
       </c>
       <c r="AC59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:32">
@@ -5118,16 +5160,16 @@
         <v>999971</v>
       </c>
       <c r="AC60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:32">
@@ -5171,16 +5213,16 @@
         <v>999972</v>
       </c>
       <c r="AC61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:32">
@@ -5224,16 +5266,16 @@
         <v>999973</v>
       </c>
       <c r="AC62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:32">
@@ -5277,16 +5319,16 @@
         <v>999974</v>
       </c>
       <c r="AC63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:32">
@@ -5330,16 +5372,16 @@
         <v>999975</v>
       </c>
       <c r="AC64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:32">
@@ -5383,16 +5425,16 @@
         <v>999976</v>
       </c>
       <c r="AC65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:32">
@@ -5436,16 +5478,16 @@
         <v>999977</v>
       </c>
       <c r="AC66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:32">
@@ -5489,16 +5531,16 @@
         <v>999978</v>
       </c>
       <c r="AC67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:32">
@@ -5542,16 +5584,16 @@
         <v>999979</v>
       </c>
       <c r="AC68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:32">
@@ -5595,16 +5637,16 @@
         <v>999980</v>
       </c>
       <c r="AC69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:32">
@@ -5648,16 +5690,16 @@
         <v>999981</v>
       </c>
       <c r="AC70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:32">
@@ -5701,16 +5743,16 @@
         <v>999982</v>
       </c>
       <c r="AC71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:32">
@@ -5754,16 +5796,16 @@
         <v>999983</v>
       </c>
       <c r="AC72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:32">
@@ -5807,16 +5849,16 @@
         <v>999984</v>
       </c>
       <c r="AC73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:32">
@@ -5860,16 +5902,16 @@
         <v>999985</v>
       </c>
       <c r="AC74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:32">
@@ -5913,16 +5955,16 @@
         <v>999986</v>
       </c>
       <c r="AC75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:32">
@@ -5966,16 +6008,16 @@
         <v>999987</v>
       </c>
       <c r="AC76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:32">
@@ -6019,16 +6061,16 @@
         <v>999988</v>
       </c>
       <c r="AC77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:32">
@@ -6072,16 +6114,16 @@
         <v>999989</v>
       </c>
       <c r="AC78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:32">
@@ -6125,16 +6167,16 @@
         <v>999990</v>
       </c>
       <c r="AC79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:32">
@@ -6178,16 +6220,16 @@
         <v>999991</v>
       </c>
       <c r="AC80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:32">
@@ -6231,16 +6273,16 @@
         <v>999992</v>
       </c>
       <c r="AC81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:32">
@@ -6284,16 +6326,16 @@
         <v>999993</v>
       </c>
       <c r="AC82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:32">
@@ -6337,16 +6379,16 @@
         <v>999994</v>
       </c>
       <c r="AC83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:32">
@@ -6390,16 +6432,16 @@
         <v>999995</v>
       </c>
       <c r="AC84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:32">
@@ -6443,16 +6485,16 @@
         <v>999996</v>
       </c>
       <c r="AC85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:32">
@@ -6496,16 +6538,16 @@
         <v>999997</v>
       </c>
       <c r="AC86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:32">
@@ -6549,16 +6591,16 @@
         <v>999998</v>
       </c>
       <c r="AC87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:32">
@@ -6602,16 +6644,16 @@
         <v>999999</v>
       </c>
       <c r="AC88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE88" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -236,24 +236,27 @@
     <t>备注</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Card_Scene_1</t>
   </si>
   <si>
-    <t>防御核心</t>
-  </si>
-  <si>
-    <t>Def Core Creature</t>
-  </si>
-  <si>
     <t>人类</t>
   </si>
   <si>
     <t>Human</t>
   </si>
   <si>
+    <t>创建角色-人类</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>创建角色-骷髅</t>
+  </si>
+  <si>
     <t>1,2,3,10,</t>
   </si>
   <si>
@@ -264,9 +267,6 @@
   </si>
   <si>
     <t>Skeleton Warrior</t>
-  </si>
-  <si>
-    <t>骷髅</t>
   </si>
   <si>
     <t>Attack</t>
@@ -1163,6 +1163,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1450,14 +1457,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF162"/>
+  <dimension ref="A1:AF159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1788,78 +1795,51 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1000001</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
         <v>68</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>71</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>1000001</v>
-      </c>
-      <c r="O5">
-        <v>100001</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0.5</v>
+        <v>2000001</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="U5">
-        <v>0.5</v>
-      </c>
-      <c r="V5">
-        <v>0.5</v>
-      </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>10</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0.2</v>
-      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD5" t="s">
         <v>72</v>
@@ -1868,36 +1848,24 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:32">
       <c r="A6">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2000001</v>
-      </c>
-      <c r="H6">
-        <v>21010001</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
+        <v>1000001</v>
       </c>
       <c r="O6">
         <v>100001</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0.5</v>
@@ -1921,27 +1889,27 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" t="s">
-        <v>76</v>
-      </c>
       <c r="AE6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:32">
       <c r="A7">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1953,25 +1921,22 @@
         <v>2000001</v>
       </c>
       <c r="H7">
-        <v>21000001</v>
+        <v>21010001</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O7">
-        <v>200001</v>
-      </c>
-      <c r="P7" t="s">
-        <v>80</v>
+        <v>100001</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1998,42 +1963,42 @@
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>2000001</v>
       </c>
       <c r="H8">
-        <v>21010002</v>
+        <v>21000001</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O8">
-        <v>201001</v>
+        <v>200001</v>
       </c>
       <c r="P8" t="s">
         <v>80</v>
@@ -2054,10 +2019,10 @@
         <v>0.5</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -2069,13 +2034,13 @@
         <v>2</v>
       </c>
       <c r="AC8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s">
         <v>83</v>
@@ -2083,7 +2048,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2095,16 +2060,16 @@
         <v>2000001</v>
       </c>
       <c r="H9">
-        <v>21010003</v>
+        <v>21010002</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
       </c>
       <c r="O9">
-        <v>201002</v>
+        <v>201001</v>
       </c>
       <c r="P9" t="s">
         <v>80</v>
@@ -2128,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -2140,13 +2105,13 @@
         <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s">
         <v>83</v>
@@ -2154,66 +2119,78 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2000001</v>
+      </c>
+      <c r="H10">
+        <v>21010003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10">
+        <v>201002</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11">
         <v>3001</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>120</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>0.5</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>0.5</v>
-      </c>
-      <c r="W10">
-        <v>10</v>
-      </c>
-      <c r="X10">
-        <v>500</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:32">
-      <c r="A11">
-        <v>3002</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2224,20 +2201,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>300001</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
       <c r="R11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2246,13 +2214,16 @@
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="W11">
         <v>10</v>
       </c>
+      <c r="X11">
+        <v>500</v>
+      </c>
       <c r="Y11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2264,27 +2235,24 @@
         <v>3</v>
       </c>
       <c r="AC11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AE11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B12">
         <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -2293,13 +2261,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="O12">
-        <v>400001</v>
+        <v>300001</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -2308,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2317,13 +2282,13 @@
         <v>0.5</v>
       </c>
       <c r="V12">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2335,13 +2300,13 @@
         <v>3</v>
       </c>
       <c r="AC12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AE12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s">
         <v>83</v>
@@ -2349,7 +2314,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2370,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>400002</v>
+        <v>400001</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -2406,13 +2371,13 @@
         <v>3</v>
       </c>
       <c r="AC13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF13" t="s">
         <v>83</v>
@@ -2420,76 +2385,78 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
       <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14">
-        <v>4000001</v>
-      </c>
-      <c r="H14">
-        <v>41000002</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
+        <v>120</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>101001</v>
+        <v>400002</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
       </c>
       <c r="R14">
         <v>2</v>
       </c>
       <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>3</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0.5</v>
-      </c>
-      <c r="V14">
-        <v>0.5</v>
-      </c>
-      <c r="W14">
-        <v>10</v>
-      </c>
-      <c r="Y14">
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>4</v>
-      </c>
       <c r="AC14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2497,23 +2464,27 @@
       <c r="E15">
         <v>50</v>
       </c>
+      <c r="F15"/>
       <c r="G15">
         <v>4000001</v>
       </c>
+      <c r="H15">
+        <v>41000002</v>
+      </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>76</v>
       </c>
       <c r="O15">
-        <v>500001</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
+        <v>101001</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -2528,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2540,21 +2511,21 @@
         <v>4</v>
       </c>
       <c r="AC15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AE15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2569,16 +2540,16 @@
         <v>102</v>
       </c>
       <c r="O16">
-        <v>600001</v>
+        <v>500001</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -2593,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2605,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="AC16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="s">
         <v>83</v>
@@ -2619,7 +2590,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2634,19 +2605,16 @@
         <v>102</v>
       </c>
       <c r="O17">
-        <v>202001</v>
-      </c>
-      <c r="P17" t="s">
-        <v>80</v>
+        <v>600001</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R17">
         <v>2</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -2661,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -2673,13 +2641,13 @@
         <v>4</v>
       </c>
       <c r="AC17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF17" t="s">
         <v>83</v>
@@ -2687,7 +2655,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2702,16 +2670,19 @@
         <v>102</v>
       </c>
       <c r="O18">
-        <v>500002</v>
+        <v>202001</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2725,9 +2696,8 @@
       <c r="W18">
         <v>10</v>
       </c>
-      <c r="X18"/>
       <c r="Y18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2739,13 +2709,13 @@
         <v>4</v>
       </c>
       <c r="AC18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF18" t="s">
         <v>83</v>
@@ -2753,31 +2723,31 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19">
-        <v>5001</v>
+        <v>4005</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O19">
-        <v>101002</v>
+        <v>500002</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2789,10 +2759,11 @@
         <v>0.5</v>
       </c>
       <c r="W19">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="X19"/>
       <c r="Y19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2801,24 +2772,24 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AE19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2829,26 +2800,20 @@
       <c r="G20">
         <v>5000001</v>
       </c>
-      <c r="H20">
-        <v>51010001</v>
-      </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O20">
-        <v>203001</v>
-      </c>
-      <c r="P20" t="s">
-        <v>116</v>
+        <v>101002</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2863,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="Y20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2875,45 +2840,51 @@
         <v>5</v>
       </c>
       <c r="AC20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AE20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>5000001</v>
       </c>
+      <c r="H21">
+        <v>51010001</v>
+      </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O21">
-        <v>700001</v>
+        <v>203001</v>
+      </c>
+      <c r="P21" t="s">
+        <v>116</v>
       </c>
       <c r="Q21">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>2</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2925,10 +2896,10 @@
         <v>0.5</v>
       </c>
       <c r="W21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2940,13 +2911,13 @@
         <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF21" t="s">
         <v>83</v>
@@ -2954,7 +2925,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2969,7 +2940,7 @@
         <v>111</v>
       </c>
       <c r="O22">
-        <v>700002</v>
+        <v>700001</v>
       </c>
       <c r="Q22">
         <v>41</v>
@@ -2993,7 +2964,7 @@
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -3005,13 +2976,13 @@
         <v>5</v>
       </c>
       <c r="AC22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AE22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="s">
         <v>83</v>
@@ -3019,25 +2990,25 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23">
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>6000001</v>
+        <v>5000001</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O23">
-        <v>200001</v>
+        <v>700002</v>
+      </c>
+      <c r="Q23">
+        <v>41</v>
       </c>
       <c r="R23">
         <v>2</v>
@@ -3055,36 +3026,36 @@
         <v>0.5</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
         <v>5</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>6</v>
-      </c>
       <c r="AC23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF23" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3092,29 +3063,23 @@
       <c r="E24">
         <v>30</v>
       </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
       <c r="G24">
         <v>6000001</v>
       </c>
-      <c r="H24">
-        <v>61010002</v>
-      </c>
       <c r="I24" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="O24">
-        <v>204001</v>
-      </c>
-      <c r="P24" t="s">
-        <v>127</v>
+        <v>200001</v>
       </c>
       <c r="R24">
         <v>2</v>
       </c>
       <c r="S24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -3129,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="Y24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -3141,42 +3106,51 @@
         <v>6</v>
       </c>
       <c r="AC24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AF24" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>6000001</v>
       </c>
+      <c r="H25">
+        <v>61010002</v>
+      </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
       </c>
       <c r="O25">
-        <v>200001</v>
+        <v>204001</v>
+      </c>
+      <c r="P25" t="s">
+        <v>127</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -3188,10 +3162,10 @@
         <v>0.5</v>
       </c>
       <c r="W25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y25">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -3203,13 +3177,13 @@
         <v>6</v>
       </c>
       <c r="AC25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF25" t="s">
         <v>83</v>
@@ -3217,31 +3191,22 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G26">
         <v>6000001</v>
       </c>
-      <c r="H26">
-        <v>61010003</v>
-      </c>
       <c r="I26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O26">
-        <v>204002</v>
-      </c>
-      <c r="P26" t="s">
-        <v>127</v>
+        <v>200001</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -3259,10 +3224,10 @@
         <v>0.5</v>
       </c>
       <c r="W26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y26">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -3274,13 +3239,13 @@
         <v>6</v>
       </c>
       <c r="AC26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF26" t="s">
         <v>83</v>
@@ -3288,7 +3253,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:32">
       <c r="A27">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3303,13 +3268,13 @@
         <v>61010003</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
         <v>84</v>
       </c>
       <c r="O27">
-        <v>204003</v>
+        <v>204002</v>
       </c>
       <c r="P27" t="s">
         <v>127</v>
@@ -3333,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3345,13 +3310,13 @@
         <v>6</v>
       </c>
       <c r="AC27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s">
         <v>83</v>
@@ -3359,25 +3324,31 @@
     </row>
     <row r="28" customFormat="1" spans="1:32">
       <c r="A28">
-        <v>7001</v>
+        <v>6005</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>7000001</v>
+        <v>6000001</v>
+      </c>
+      <c r="H28">
+        <v>61010003</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>84</v>
       </c>
       <c r="O28">
-        <v>200001</v>
+        <v>204003</v>
+      </c>
+      <c r="P28" t="s">
+        <v>127</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3395,10 +3366,10 @@
         <v>0.5</v>
       </c>
       <c r="W28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3407,24 +3378,24 @@
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AF28" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:32">
       <c r="A29">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3432,29 +3403,23 @@
       <c r="E29">
         <v>45</v>
       </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
       <c r="G29">
         <v>7000001</v>
       </c>
-      <c r="H29">
-        <v>71000001</v>
-      </c>
       <c r="I29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M29" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O29">
-        <v>205001</v>
-      </c>
-      <c r="P29" t="s">
-        <v>80</v>
+        <v>200001</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3469,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3481,21 +3446,21 @@
         <v>7</v>
       </c>
       <c r="AC29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:32">
       <c r="A30">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3507,16 +3472,16 @@
         <v>7000001</v>
       </c>
       <c r="H30">
-        <v>71010004</v>
+        <v>71000001</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O30">
-        <v>205002</v>
+        <v>205001</v>
       </c>
       <c r="P30" t="s">
         <v>80</v>
@@ -3525,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3537,10 +3502,10 @@
         <v>0.5</v>
       </c>
       <c r="W30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3552,13 +3517,13 @@
         <v>7</v>
       </c>
       <c r="AC30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s">
         <v>83</v>
@@ -3566,7 +3531,7 @@
     </row>
     <row r="31" customFormat="1" spans="1:32">
       <c r="A31">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3581,13 +3546,13 @@
         <v>71010004</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O31">
-        <v>205003</v>
+        <v>205002</v>
       </c>
       <c r="P31" t="s">
         <v>80</v>
@@ -3611,7 +3576,7 @@
         <v>6</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -3623,27 +3588,45 @@
         <v>7</v>
       </c>
       <c r="AC31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:32">
-      <c r="A32" s="1">
-        <v>989996</v>
+      <c r="A32">
+        <v>7004</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>7000001</v>
+      </c>
+      <c r="H32">
+        <v>71010004</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
       <c r="O32">
-        <v>200001</v>
+        <v>205003</v>
+      </c>
+      <c r="P32" t="s">
+        <v>80</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -3661,10 +3644,10 @@
         <v>0.5</v>
       </c>
       <c r="W32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y32">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3672,25 +3655,25 @@
       <c r="AA32">
         <v>1</v>
       </c>
-      <c r="AB32" s="1">
-        <v>989996</v>
+      <c r="AB32">
+        <v>7</v>
       </c>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="AD32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AF32" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:32">
       <c r="A33" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3726,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="1">
-        <v>989997</v>
+        <v>989996</v>
       </c>
       <c r="AC33" t="s">
         <v>146</v>
@@ -3743,7 +3726,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:32">
       <c r="A34" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3779,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="AB34" s="1">
-        <v>989998</v>
+        <v>989997</v>
       </c>
       <c r="AC34" t="s">
         <v>146</v>
@@ -3796,7 +3779,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:32">
       <c r="A35" s="1">
-        <v>989999</v>
+        <v>989998</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3831,8 +3814,8 @@
       <c r="AA35">
         <v>1</v>
       </c>
-      <c r="AB35">
-        <v>989999</v>
+      <c r="AB35" s="1">
+        <v>989998</v>
       </c>
       <c r="AC35" t="s">
         <v>146</v>
@@ -3849,7 +3832,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:32">
       <c r="A36" s="1">
-        <v>999947</v>
+        <v>989999</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3884,8 +3867,8 @@
       <c r="AA36">
         <v>1</v>
       </c>
-      <c r="AB36" s="1">
-        <v>999947</v>
+      <c r="AB36">
+        <v>989999</v>
       </c>
       <c r="AC36" t="s">
         <v>146</v>
@@ -3902,7 +3885,7 @@
     </row>
     <row r="37" customFormat="1" spans="1:32">
       <c r="A37" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3938,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="AB37" s="1">
-        <v>999948</v>
+        <v>999947</v>
       </c>
       <c r="AC37" t="s">
         <v>146</v>
@@ -3955,7 +3938,7 @@
     </row>
     <row r="38" customFormat="1" spans="1:32">
       <c r="A38" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3991,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="AB38" s="1">
-        <v>999949</v>
+        <v>999948</v>
       </c>
       <c r="AC38" t="s">
         <v>146</v>
@@ -4008,7 +3991,7 @@
     </row>
     <row r="39" customFormat="1" spans="1:32">
       <c r="A39" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4044,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="AB39" s="1">
-        <v>999950</v>
+        <v>999949</v>
       </c>
       <c r="AC39" t="s">
         <v>146</v>
@@ -4061,7 +4044,7 @@
     </row>
     <row r="40" customFormat="1" spans="1:32">
       <c r="A40" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4097,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="AB40" s="1">
-        <v>999951</v>
+        <v>999950</v>
       </c>
       <c r="AC40" t="s">
         <v>146</v>
@@ -4114,7 +4097,7 @@
     </row>
     <row r="41" customFormat="1" spans="1:32">
       <c r="A41" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4150,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="AB41" s="1">
-        <v>999952</v>
+        <v>999951</v>
       </c>
       <c r="AC41" t="s">
         <v>146</v>
@@ -4167,7 +4150,7 @@
     </row>
     <row r="42" customFormat="1" spans="1:32">
       <c r="A42" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4203,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AB42" s="1">
-        <v>999953</v>
+        <v>999952</v>
       </c>
       <c r="AC42" t="s">
         <v>146</v>
@@ -4220,7 +4203,7 @@
     </row>
     <row r="43" customFormat="1" spans="1:32">
       <c r="A43" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4256,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="AB43" s="1">
-        <v>999954</v>
+        <v>999953</v>
       </c>
       <c r="AC43" t="s">
         <v>146</v>
@@ -4273,7 +4256,7 @@
     </row>
     <row r="44" customFormat="1" spans="1:32">
       <c r="A44" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4309,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="AB44" s="1">
-        <v>999955</v>
+        <v>999954</v>
       </c>
       <c r="AC44" t="s">
         <v>146</v>
@@ -4326,7 +4309,7 @@
     </row>
     <row r="45" customFormat="1" spans="1:32">
       <c r="A45" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4362,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="AB45" s="1">
-        <v>999956</v>
+        <v>999955</v>
       </c>
       <c r="AC45" t="s">
         <v>146</v>
@@ -4379,7 +4362,7 @@
     </row>
     <row r="46" customFormat="1" spans="1:32">
       <c r="A46" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4415,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="AB46" s="1">
-        <v>999957</v>
+        <v>999956</v>
       </c>
       <c r="AC46" t="s">
         <v>146</v>
@@ -4432,7 +4415,7 @@
     </row>
     <row r="47" customFormat="1" spans="1:32">
       <c r="A47" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4468,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AB47" s="1">
-        <v>999958</v>
+        <v>999957</v>
       </c>
       <c r="AC47" t="s">
         <v>146</v>
@@ -4485,7 +4468,7 @@
     </row>
     <row r="48" customFormat="1" spans="1:32">
       <c r="A48" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4521,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="AB48" s="1">
-        <v>999959</v>
+        <v>999958</v>
       </c>
       <c r="AC48" t="s">
         <v>146</v>
@@ -4538,7 +4521,7 @@
     </row>
     <row r="49" customFormat="1" spans="1:32">
       <c r="A49" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4574,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AB49" s="1">
-        <v>999960</v>
+        <v>999959</v>
       </c>
       <c r="AC49" t="s">
         <v>146</v>
@@ -4591,7 +4574,7 @@
     </row>
     <row r="50" customFormat="1" spans="1:32">
       <c r="A50" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4627,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="AB50" s="1">
-        <v>999961</v>
+        <v>999960</v>
       </c>
       <c r="AC50" t="s">
         <v>146</v>
@@ -4644,7 +4627,7 @@
     </row>
     <row r="51" customFormat="1" spans="1:32">
       <c r="A51" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4680,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AB51" s="1">
-        <v>999962</v>
+        <v>999961</v>
       </c>
       <c r="AC51" t="s">
         <v>146</v>
@@ -4697,7 +4680,7 @@
     </row>
     <row r="52" customFormat="1" spans="1:32">
       <c r="A52" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4733,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="AB52" s="1">
-        <v>999963</v>
+        <v>999962</v>
       </c>
       <c r="AC52" t="s">
         <v>146</v>
@@ -4750,7 +4733,7 @@
     </row>
     <row r="53" customFormat="1" spans="1:32">
       <c r="A53" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4786,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AB53" s="1">
-        <v>999964</v>
+        <v>999963</v>
       </c>
       <c r="AC53" t="s">
         <v>146</v>
@@ -4803,7 +4786,7 @@
     </row>
     <row r="54" customFormat="1" spans="1:32">
       <c r="A54" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4839,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="AB54" s="1">
-        <v>999965</v>
+        <v>999964</v>
       </c>
       <c r="AC54" t="s">
         <v>146</v>
@@ -4856,7 +4839,7 @@
     </row>
     <row r="55" customFormat="1" spans="1:32">
       <c r="A55" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4892,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AB55" s="1">
-        <v>999966</v>
+        <v>999965</v>
       </c>
       <c r="AC55" t="s">
         <v>146</v>
@@ -4909,7 +4892,7 @@
     </row>
     <row r="56" customFormat="1" spans="1:32">
       <c r="A56" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4945,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="AB56" s="1">
-        <v>999967</v>
+        <v>999966</v>
       </c>
       <c r="AC56" t="s">
         <v>146</v>
@@ -4962,7 +4945,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:32">
       <c r="A57" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4998,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="AB57" s="1">
-        <v>999968</v>
+        <v>999967</v>
       </c>
       <c r="AC57" t="s">
         <v>146</v>
@@ -5015,7 +4998,7 @@
     </row>
     <row r="58" customFormat="1" spans="1:32">
       <c r="A58" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5051,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="AB58" s="1">
-        <v>999969</v>
+        <v>999968</v>
       </c>
       <c r="AC58" t="s">
         <v>146</v>
@@ -5068,7 +5051,7 @@
     </row>
     <row r="59" customFormat="1" spans="1:32">
       <c r="A59" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5104,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="AB59" s="1">
-        <v>999970</v>
+        <v>999969</v>
       </c>
       <c r="AC59" t="s">
         <v>146</v>
@@ -5121,7 +5104,7 @@
     </row>
     <row r="60" customFormat="1" spans="1:32">
       <c r="A60" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5157,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="AB60" s="1">
-        <v>999971</v>
+        <v>999970</v>
       </c>
       <c r="AC60" t="s">
         <v>146</v>
@@ -5174,7 +5157,7 @@
     </row>
     <row r="61" customFormat="1" spans="1:32">
       <c r="A61" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5210,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="AB61" s="1">
-        <v>999972</v>
+        <v>999971</v>
       </c>
       <c r="AC61" t="s">
         <v>146</v>
@@ -5227,7 +5210,7 @@
     </row>
     <row r="62" customFormat="1" spans="1:32">
       <c r="A62" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5263,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="AB62" s="1">
-        <v>999973</v>
+        <v>999972</v>
       </c>
       <c r="AC62" t="s">
         <v>146</v>
@@ -5280,7 +5263,7 @@
     </row>
     <row r="63" customFormat="1" spans="1:32">
       <c r="A63" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5316,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1">
-        <v>999974</v>
+        <v>999973</v>
       </c>
       <c r="AC63" t="s">
         <v>146</v>
@@ -5333,7 +5316,7 @@
     </row>
     <row r="64" customFormat="1" spans="1:32">
       <c r="A64" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5369,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="AB64" s="1">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="AC64" t="s">
         <v>146</v>
@@ -5386,7 +5369,7 @@
     </row>
     <row r="65" customFormat="1" spans="1:32">
       <c r="A65" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5422,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="AB65" s="1">
-        <v>999976</v>
+        <v>999975</v>
       </c>
       <c r="AC65" t="s">
         <v>146</v>
@@ -5439,7 +5422,7 @@
     </row>
     <row r="66" customFormat="1" spans="1:32">
       <c r="A66" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5475,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="AB66" s="1">
-        <v>999977</v>
+        <v>999976</v>
       </c>
       <c r="AC66" t="s">
         <v>146</v>
@@ -5492,7 +5475,7 @@
     </row>
     <row r="67" customFormat="1" spans="1:32">
       <c r="A67" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5528,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1">
-        <v>999978</v>
+        <v>999977</v>
       </c>
       <c r="AC67" t="s">
         <v>146</v>
@@ -5545,7 +5528,7 @@
     </row>
     <row r="68" customFormat="1" spans="1:32">
       <c r="A68" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5581,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1">
-        <v>999979</v>
+        <v>999978</v>
       </c>
       <c r="AC68" t="s">
         <v>146</v>
@@ -5598,7 +5581,7 @@
     </row>
     <row r="69" customFormat="1" spans="1:32">
       <c r="A69" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5634,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="AB69" s="1">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="AC69" t="s">
         <v>146</v>
@@ -5651,7 +5634,7 @@
     </row>
     <row r="70" customFormat="1" spans="1:32">
       <c r="A70" s="1">
-        <v>999981</v>
+        <v>999980</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5687,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="AB70" s="1">
-        <v>999981</v>
+        <v>999980</v>
       </c>
       <c r="AC70" t="s">
         <v>146</v>
@@ -5703,8 +5686,8 @@
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:32">
-      <c r="A71">
-        <v>999982</v>
+      <c r="A71" s="1">
+        <v>999981</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5739,8 +5722,8 @@
       <c r="AA71">
         <v>1</v>
       </c>
-      <c r="AB71">
-        <v>999982</v>
+      <c r="AB71" s="1">
+        <v>999981</v>
       </c>
       <c r="AC71" t="s">
         <v>146</v>
@@ -5757,7 +5740,7 @@
     </row>
     <row r="72" customFormat="1" spans="1:32">
       <c r="A72">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5793,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="AB72">
-        <v>999983</v>
+        <v>999982</v>
       </c>
       <c r="AC72" t="s">
         <v>146</v>
@@ -5810,7 +5793,7 @@
     </row>
     <row r="73" customFormat="1" spans="1:32">
       <c r="A73">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5846,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>999984</v>
+        <v>999983</v>
       </c>
       <c r="AC73" t="s">
         <v>146</v>
@@ -5863,7 +5846,7 @@
     </row>
     <row r="74" customFormat="1" spans="1:32">
       <c r="A74">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5899,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="AB74">
-        <v>999985</v>
+        <v>999984</v>
       </c>
       <c r="AC74" t="s">
         <v>146</v>
@@ -5916,7 +5899,7 @@
     </row>
     <row r="75" customFormat="1" spans="1:32">
       <c r="A75">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5952,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="AB75">
-        <v>999986</v>
+        <v>999985</v>
       </c>
       <c r="AC75" t="s">
         <v>146</v>
@@ -5969,7 +5952,7 @@
     </row>
     <row r="76" customFormat="1" spans="1:32">
       <c r="A76">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -6005,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="AB76">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="AC76" t="s">
         <v>146</v>
@@ -6022,7 +6005,7 @@
     </row>
     <row r="77" customFormat="1" spans="1:32">
       <c r="A77">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6058,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>999988</v>
+        <v>999987</v>
       </c>
       <c r="AC77" t="s">
         <v>146</v>
@@ -6075,7 +6058,7 @@
     </row>
     <row r="78" customFormat="1" spans="1:32">
       <c r="A78">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6111,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="AC78" t="s">
         <v>146</v>
@@ -6128,7 +6111,7 @@
     </row>
     <row r="79" customFormat="1" spans="1:32">
       <c r="A79">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6164,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="AB79">
-        <v>999990</v>
+        <v>999989</v>
       </c>
       <c r="AC79" t="s">
         <v>146</v>
@@ -6181,7 +6164,7 @@
     </row>
     <row r="80" customFormat="1" spans="1:32">
       <c r="A80">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6217,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>999991</v>
+        <v>999990</v>
       </c>
       <c r="AC80" t="s">
         <v>146</v>
@@ -6234,7 +6217,7 @@
     </row>
     <row r="81" customFormat="1" spans="1:32">
       <c r="A81">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6270,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>999992</v>
+        <v>999991</v>
       </c>
       <c r="AC81" t="s">
         <v>146</v>
@@ -6287,7 +6270,7 @@
     </row>
     <row r="82" customFormat="1" spans="1:32">
       <c r="A82">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6323,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>999993</v>
+        <v>999992</v>
       </c>
       <c r="AC82" t="s">
         <v>146</v>
@@ -6340,7 +6323,7 @@
     </row>
     <row r="83" customFormat="1" spans="1:32">
       <c r="A83">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6376,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="AC83" t="s">
         <v>146</v>
@@ -6393,7 +6376,7 @@
     </row>
     <row r="84" customFormat="1" spans="1:32">
       <c r="A84">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6429,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="AC84" t="s">
         <v>146</v>
@@ -6446,7 +6429,7 @@
     </row>
     <row r="85" customFormat="1" spans="1:32">
       <c r="A85">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6482,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="AC85" t="s">
         <v>146</v>
@@ -6499,7 +6482,7 @@
     </row>
     <row r="86" customFormat="1" spans="1:32">
       <c r="A86">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6535,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="AC86" t="s">
         <v>146</v>
@@ -6552,7 +6535,7 @@
     </row>
     <row r="87" customFormat="1" spans="1:32">
       <c r="A87">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6588,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="AC87" t="s">
         <v>146</v>
@@ -6605,7 +6588,7 @@
     </row>
     <row r="88" customFormat="1" spans="1:32">
       <c r="A88">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6641,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="AC88" t="s">
         <v>146</v>
@@ -6656,6 +6639,62 @@
         <v>149</v>
       </c>
     </row>
+    <row r="89" customFormat="1" spans="1:32">
+      <c r="A89">
+        <v>999999</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>200001</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>6</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>0.5</v>
+      </c>
+      <c r="V89">
+        <v>0.5</v>
+      </c>
+      <c r="W89">
+        <v>10</v>
+      </c>
+      <c r="Y89">
+        <v>35</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>999999</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
     <row r="112" ht="15" customHeight="1"/>
     <row r="113" ht="15" customHeight="1"/>
     <row r="114" ht="15" customHeight="1"/>
@@ -6664,25 +6703,19 @@
     <row r="117" ht="15" customHeight="1"/>
     <row r="118" ht="15" customHeight="1"/>
     <row r="119" ht="15" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="121" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
+    <row r="151" ht="12" customHeight="1"/>
+    <row r="152" ht="12" customHeight="1"/>
+    <row r="153" ht="12" customHeight="1"/>
     <row r="154" ht="12" customHeight="1"/>
     <row r="155" ht="12" customHeight="1"/>
     <row r="156" ht="12" customHeight="1"/>
     <row r="157" ht="12" customHeight="1"/>
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="12" customHeight="1"/>
-    <row r="160" ht="12" customHeight="1"/>
-    <row r="161" ht="12" customHeight="1"/>
-    <row r="162" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF88" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF89" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A4:AK88">
-    <sortCondition ref="A4"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26475" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -468,6 +468,39 @@
   </si>
   <si>
     <t>Orc Mage (Ice)</t>
+  </si>
+  <si>
+    <t>人类-战士</t>
+  </si>
+  <si>
+    <t>Human Warrior</t>
+  </si>
+  <si>
+    <t>人类-进攻-战士</t>
+  </si>
+  <si>
+    <t>人类-弓箭手</t>
+  </si>
+  <si>
+    <t>Human Archer</t>
+  </si>
+  <si>
+    <t>人类-进攻-弓箭</t>
+  </si>
+  <si>
+    <t>人类-魔法师（火）</t>
+  </si>
+  <si>
+    <t>Human Mage (Fire)</t>
+  </si>
+  <si>
+    <t>人类-进攻-魔法</t>
+  </si>
+  <si>
+    <t>人类-魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Human Mage (Ice)</t>
   </si>
   <si>
     <t>Card_Scene_4</t>
@@ -1163,13 +1196,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1457,14 +1483,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF159"/>
+  <dimension ref="A1:AF163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,7 +1882,7 @@
         <v>1001</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1000001</v>
@@ -3672,20 +3698,23 @@
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:32">
-      <c r="A33" s="1">
-        <v>989996</v>
+      <c r="A33">
+        <v>101001</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1000001</v>
       </c>
       <c r="O33">
-        <v>200001</v>
+        <v>100001</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3700,45 +3729,48 @@
         <v>10</v>
       </c>
       <c r="Y33">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>989996</v>
+        <v>0.2</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
       </c>
       <c r="AC33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD33" t="s">
         <v>146</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>147</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>148</v>
       </c>
-      <c r="AF33" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="34" customFormat="1" spans="1:32">
-      <c r="A34" s="1">
-        <v>989997</v>
+      <c r="A34">
+        <v>102001</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1000001</v>
       </c>
       <c r="O34">
         <v>200001</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3753,45 +3785,48 @@
         <v>10</v>
       </c>
       <c r="Y34">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z34">
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>989997</v>
+        <v>0.2</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="AD34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AE34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:32">
-      <c r="A35" s="1">
-        <v>989998</v>
+      <c r="A35">
+        <v>103001</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1000001</v>
       </c>
       <c r="O35">
-        <v>200001</v>
+        <v>201001</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -3806,45 +3841,48 @@
         <v>10</v>
       </c>
       <c r="Y35">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>989998</v>
+        <v>0.2</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="AD35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AE35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AF35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:32">
-      <c r="A36" s="1">
-        <v>989999</v>
+      <c r="A36">
+        <v>103002</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1000001</v>
       </c>
       <c r="O36">
-        <v>200001</v>
+        <v>201002</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3859,33 +3897,33 @@
         <v>10</v>
       </c>
       <c r="Y36">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z36">
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AB36">
-        <v>989999</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="AD36" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AE36" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AF36" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:32">
       <c r="A37" s="1">
-        <v>999947</v>
+        <v>989996</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3921,24 +3959,24 @@
         <v>1</v>
       </c>
       <c r="AB37" s="1">
-        <v>999947</v>
+        <v>989996</v>
       </c>
       <c r="AC37" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD37" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE37" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF37" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:32">
       <c r="A38" s="1">
-        <v>999948</v>
+        <v>989997</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3974,24 +4012,24 @@
         <v>1</v>
       </c>
       <c r="AB38" s="1">
-        <v>999948</v>
+        <v>989997</v>
       </c>
       <c r="AC38" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD38" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE38" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF38" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:32">
       <c r="A39" s="1">
-        <v>999949</v>
+        <v>989998</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4027,24 +4065,24 @@
         <v>1</v>
       </c>
       <c r="AB39" s="1">
-        <v>999949</v>
+        <v>989998</v>
       </c>
       <c r="AC39" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD39" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE39" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF39" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:32">
       <c r="A40" s="1">
-        <v>999950</v>
+        <v>989999</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4079,25 +4117,25 @@
       <c r="AA40">
         <v>1</v>
       </c>
-      <c r="AB40" s="1">
-        <v>999950</v>
+      <c r="AB40">
+        <v>989999</v>
       </c>
       <c r="AC40" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD40" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE40" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF40" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:32">
       <c r="A41" s="1">
-        <v>999951</v>
+        <v>999947</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4133,24 +4171,24 @@
         <v>1</v>
       </c>
       <c r="AB41" s="1">
-        <v>999951</v>
+        <v>999947</v>
       </c>
       <c r="AC41" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD41" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE41" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF41" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:32">
       <c r="A42" s="1">
-        <v>999952</v>
+        <v>999948</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4186,24 +4224,24 @@
         <v>1</v>
       </c>
       <c r="AB42" s="1">
-        <v>999952</v>
+        <v>999948</v>
       </c>
       <c r="AC42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD42" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE42" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF42" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:32">
       <c r="A43" s="1">
-        <v>999953</v>
+        <v>999949</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4239,24 +4277,24 @@
         <v>1</v>
       </c>
       <c r="AB43" s="1">
-        <v>999953</v>
+        <v>999949</v>
       </c>
       <c r="AC43" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD43" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE43" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF43" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:32">
       <c r="A44" s="1">
-        <v>999954</v>
+        <v>999950</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4292,24 +4330,24 @@
         <v>1</v>
       </c>
       <c r="AB44" s="1">
-        <v>999954</v>
+        <v>999950</v>
       </c>
       <c r="AC44" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD44" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE44" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF44" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:32">
       <c r="A45" s="1">
-        <v>999955</v>
+        <v>999951</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4345,24 +4383,24 @@
         <v>1</v>
       </c>
       <c r="AB45" s="1">
-        <v>999955</v>
+        <v>999951</v>
       </c>
       <c r="AC45" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD45" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE45" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF45" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:32">
       <c r="A46" s="1">
-        <v>999956</v>
+        <v>999952</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4398,24 +4436,24 @@
         <v>1</v>
       </c>
       <c r="AB46" s="1">
-        <v>999956</v>
+        <v>999952</v>
       </c>
       <c r="AC46" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD46" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE46" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF46" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:32">
       <c r="A47" s="1">
-        <v>999957</v>
+        <v>999953</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4451,24 +4489,24 @@
         <v>1</v>
       </c>
       <c r="AB47" s="1">
-        <v>999957</v>
+        <v>999953</v>
       </c>
       <c r="AC47" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD47" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE47" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF47" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:32">
       <c r="A48" s="1">
-        <v>999958</v>
+        <v>999954</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4504,24 +4542,24 @@
         <v>1</v>
       </c>
       <c r="AB48" s="1">
-        <v>999958</v>
+        <v>999954</v>
       </c>
       <c r="AC48" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD48" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE48" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF48" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:32">
       <c r="A49" s="1">
-        <v>999959</v>
+        <v>999955</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4557,24 +4595,24 @@
         <v>1</v>
       </c>
       <c r="AB49" s="1">
-        <v>999959</v>
+        <v>999955</v>
       </c>
       <c r="AC49" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD49" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE49" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF49" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:32">
       <c r="A50" s="1">
-        <v>999960</v>
+        <v>999956</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4610,24 +4648,24 @@
         <v>1</v>
       </c>
       <c r="AB50" s="1">
-        <v>999960</v>
+        <v>999956</v>
       </c>
       <c r="AC50" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD50" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE50" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF50" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:32">
       <c r="A51" s="1">
-        <v>999961</v>
+        <v>999957</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4663,24 +4701,24 @@
         <v>1</v>
       </c>
       <c r="AB51" s="1">
-        <v>999961</v>
+        <v>999957</v>
       </c>
       <c r="AC51" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD51" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE51" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF51" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:32">
       <c r="A52" s="1">
-        <v>999962</v>
+        <v>999958</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4716,24 +4754,24 @@
         <v>1</v>
       </c>
       <c r="AB52" s="1">
-        <v>999962</v>
+        <v>999958</v>
       </c>
       <c r="AC52" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD52" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE52" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF52" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:32">
       <c r="A53" s="1">
-        <v>999963</v>
+        <v>999959</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4769,24 +4807,24 @@
         <v>1</v>
       </c>
       <c r="AB53" s="1">
-        <v>999963</v>
+        <v>999959</v>
       </c>
       <c r="AC53" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD53" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE53" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF53" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:32">
       <c r="A54" s="1">
-        <v>999964</v>
+        <v>999960</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4822,24 +4860,24 @@
         <v>1</v>
       </c>
       <c r="AB54" s="1">
-        <v>999964</v>
+        <v>999960</v>
       </c>
       <c r="AC54" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD54" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE54" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF54" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:32">
       <c r="A55" s="1">
-        <v>999965</v>
+        <v>999961</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4875,24 +4913,24 @@
         <v>1</v>
       </c>
       <c r="AB55" s="1">
-        <v>999965</v>
+        <v>999961</v>
       </c>
       <c r="AC55" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD55" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE55" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF55" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:32">
       <c r="A56" s="1">
-        <v>999966</v>
+        <v>999962</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4928,24 +4966,24 @@
         <v>1</v>
       </c>
       <c r="AB56" s="1">
-        <v>999966</v>
+        <v>999962</v>
       </c>
       <c r="AC56" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD56" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE56" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF56" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:32">
       <c r="A57" s="1">
-        <v>999967</v>
+        <v>999963</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4981,24 +5019,24 @@
         <v>1</v>
       </c>
       <c r="AB57" s="1">
-        <v>999967</v>
+        <v>999963</v>
       </c>
       <c r="AC57" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD57" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE57" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF57" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:32">
       <c r="A58" s="1">
-        <v>999968</v>
+        <v>999964</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5034,24 +5072,24 @@
         <v>1</v>
       </c>
       <c r="AB58" s="1">
-        <v>999968</v>
+        <v>999964</v>
       </c>
       <c r="AC58" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD58" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE58" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF58" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:32">
       <c r="A59" s="1">
-        <v>999969</v>
+        <v>999965</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5087,24 +5125,24 @@
         <v>1</v>
       </c>
       <c r="AB59" s="1">
-        <v>999969</v>
+        <v>999965</v>
       </c>
       <c r="AC59" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD59" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE59" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF59" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:32">
       <c r="A60" s="1">
-        <v>999970</v>
+        <v>999966</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5140,24 +5178,24 @@
         <v>1</v>
       </c>
       <c r="AB60" s="1">
-        <v>999970</v>
+        <v>999966</v>
       </c>
       <c r="AC60" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD60" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE60" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF60" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:32">
       <c r="A61" s="1">
-        <v>999971</v>
+        <v>999967</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5193,24 +5231,24 @@
         <v>1</v>
       </c>
       <c r="AB61" s="1">
-        <v>999971</v>
+        <v>999967</v>
       </c>
       <c r="AC61" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD61" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE61" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF61" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:32">
       <c r="A62" s="1">
-        <v>999972</v>
+        <v>999968</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5246,24 +5284,24 @@
         <v>1</v>
       </c>
       <c r="AB62" s="1">
-        <v>999972</v>
+        <v>999968</v>
       </c>
       <c r="AC62" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD62" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE62" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF62" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:32">
       <c r="A63" s="1">
-        <v>999973</v>
+        <v>999969</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5299,24 +5337,24 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1">
-        <v>999973</v>
+        <v>999969</v>
       </c>
       <c r="AC63" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD63" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE63" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF63" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:32">
       <c r="A64" s="1">
-        <v>999974</v>
+        <v>999970</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5352,24 +5390,24 @@
         <v>1</v>
       </c>
       <c r="AB64" s="1">
-        <v>999974</v>
+        <v>999970</v>
       </c>
       <c r="AC64" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD64" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE64" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF64" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:32">
       <c r="A65" s="1">
-        <v>999975</v>
+        <v>999971</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5405,24 +5443,24 @@
         <v>1</v>
       </c>
       <c r="AB65" s="1">
-        <v>999975</v>
+        <v>999971</v>
       </c>
       <c r="AC65" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD65" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE65" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF65" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:32">
       <c r="A66" s="1">
-        <v>999976</v>
+        <v>999972</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5458,24 +5496,24 @@
         <v>1</v>
       </c>
       <c r="AB66" s="1">
-        <v>999976</v>
+        <v>999972</v>
       </c>
       <c r="AC66" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD66" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE66" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF66" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:32">
       <c r="A67" s="1">
-        <v>999977</v>
+        <v>999973</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5511,24 +5549,24 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1">
-        <v>999977</v>
+        <v>999973</v>
       </c>
       <c r="AC67" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD67" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE67" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF67" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:32">
       <c r="A68" s="1">
-        <v>999978</v>
+        <v>999974</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5564,24 +5602,24 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1">
-        <v>999978</v>
+        <v>999974</v>
       </c>
       <c r="AC68" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD68" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE68" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF68" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:32">
       <c r="A69" s="1">
-        <v>999979</v>
+        <v>999975</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5617,24 +5655,24 @@
         <v>1</v>
       </c>
       <c r="AB69" s="1">
-        <v>999979</v>
+        <v>999975</v>
       </c>
       <c r="AC69" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD69" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE69" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF69" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:32">
       <c r="A70" s="1">
-        <v>999980</v>
+        <v>999976</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5670,24 +5708,24 @@
         <v>1</v>
       </c>
       <c r="AB70" s="1">
-        <v>999980</v>
+        <v>999976</v>
       </c>
       <c r="AC70" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD70" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE70" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF70" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:32">
       <c r="A71" s="1">
-        <v>999981</v>
+        <v>999977</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5723,24 +5761,24 @@
         <v>1</v>
       </c>
       <c r="AB71" s="1">
-        <v>999981</v>
+        <v>999977</v>
       </c>
       <c r="AC71" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD71" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE71" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF71" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:32">
-      <c r="A72">
-        <v>999982</v>
+      <c r="A72" s="1">
+        <v>999978</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5775,25 +5813,25 @@
       <c r="AA72">
         <v>1</v>
       </c>
-      <c r="AB72">
-        <v>999982</v>
+      <c r="AB72" s="1">
+        <v>999978</v>
       </c>
       <c r="AC72" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD72" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE72" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF72" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:32">
-      <c r="A73">
-        <v>999983</v>
+      <c r="A73" s="1">
+        <v>999979</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5828,25 +5866,25 @@
       <c r="AA73">
         <v>1</v>
       </c>
-      <c r="AB73">
-        <v>999983</v>
+      <c r="AB73" s="1">
+        <v>999979</v>
       </c>
       <c r="AC73" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD73" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE73" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF73" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:32">
-      <c r="A74">
-        <v>999984</v>
+      <c r="A74" s="1">
+        <v>999980</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5881,25 +5919,25 @@
       <c r="AA74">
         <v>1</v>
       </c>
-      <c r="AB74">
-        <v>999984</v>
+      <c r="AB74" s="1">
+        <v>999980</v>
       </c>
       <c r="AC74" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD74" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE74" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF74" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:32">
-      <c r="A75">
-        <v>999985</v>
+      <c r="A75" s="1">
+        <v>999981</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5934,25 +5972,25 @@
       <c r="AA75">
         <v>1</v>
       </c>
-      <c r="AB75">
-        <v>999985</v>
+      <c r="AB75" s="1">
+        <v>999981</v>
       </c>
       <c r="AC75" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD75" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE75" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF75" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:32">
       <c r="A76">
-        <v>999986</v>
+        <v>999982</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -5988,24 +6026,24 @@
         <v>1</v>
       </c>
       <c r="AB76">
-        <v>999986</v>
+        <v>999982</v>
       </c>
       <c r="AC76" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD76" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE76" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF76" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:32">
       <c r="A77">
-        <v>999987</v>
+        <v>999983</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6041,24 +6079,24 @@
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>999987</v>
+        <v>999983</v>
       </c>
       <c r="AC77" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD77" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE77" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF77" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:32">
       <c r="A78">
-        <v>999988</v>
+        <v>999984</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6094,24 +6132,24 @@
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>999988</v>
+        <v>999984</v>
       </c>
       <c r="AC78" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD78" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE78" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF78" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:32">
       <c r="A79">
-        <v>999989</v>
+        <v>999985</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6147,24 +6185,24 @@
         <v>1</v>
       </c>
       <c r="AB79">
-        <v>999989</v>
+        <v>999985</v>
       </c>
       <c r="AC79" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD79" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE79" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF79" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:32">
       <c r="A80">
-        <v>999990</v>
+        <v>999986</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6200,24 +6238,24 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>999990</v>
+        <v>999986</v>
       </c>
       <c r="AC80" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD80" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE80" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF80" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:32">
       <c r="A81">
-        <v>999991</v>
+        <v>999987</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6253,24 +6291,24 @@
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>999991</v>
+        <v>999987</v>
       </c>
       <c r="AC81" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD81" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE81" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF81" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:32">
       <c r="A82">
-        <v>999992</v>
+        <v>999988</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6306,24 +6344,24 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>999992</v>
+        <v>999988</v>
       </c>
       <c r="AC82" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD82" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE82" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF82" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:32">
       <c r="A83">
-        <v>999993</v>
+        <v>999989</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6359,24 +6397,24 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>999993</v>
+        <v>999989</v>
       </c>
       <c r="AC83" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD83" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE83" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF83" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:32">
       <c r="A84">
-        <v>999994</v>
+        <v>999990</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6412,24 +6450,24 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>999994</v>
+        <v>999990</v>
       </c>
       <c r="AC84" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD84" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE84" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF84" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:32">
       <c r="A85">
-        <v>999995</v>
+        <v>999991</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6465,24 +6503,24 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>999995</v>
+        <v>999991</v>
       </c>
       <c r="AC85" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD85" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE85" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF85" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:32">
       <c r="A86">
-        <v>999996</v>
+        <v>999992</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6518,24 +6556,24 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>999996</v>
+        <v>999992</v>
       </c>
       <c r="AC86" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD86" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE86" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF86" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:32">
       <c r="A87">
-        <v>999997</v>
+        <v>999993</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6571,24 +6609,24 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>999997</v>
+        <v>999993</v>
       </c>
       <c r="AC87" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD87" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE87" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF87" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:32">
       <c r="A88">
-        <v>999998</v>
+        <v>999994</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6624,24 +6662,24 @@
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>999998</v>
+        <v>999994</v>
       </c>
       <c r="AC88" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AD88" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AE88" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AF88" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:32">
       <c r="A89">
-        <v>999999</v>
+        <v>999995</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -6677,25 +6715,233 @@
         <v>1</v>
       </c>
       <c r="AB89">
+        <v>999995</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:32">
+      <c r="A90">
+        <v>999996</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>200001</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>6</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>0.5</v>
+      </c>
+      <c r="V90">
+        <v>0.5</v>
+      </c>
+      <c r="W90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>35</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>999996</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:32">
+      <c r="A91">
+        <v>999997</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>200001</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>0.5</v>
+      </c>
+      <c r="V91">
+        <v>0.5</v>
+      </c>
+      <c r="W91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>35</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>999997</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:32">
+      <c r="A92">
+        <v>999998</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>200001</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>0.5</v>
+      </c>
+      <c r="V92">
+        <v>0.5</v>
+      </c>
+      <c r="W92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>35</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>999998</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:32">
+      <c r="A93">
         <v>999999</v>
       </c>
-      <c r="AC89" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>200001</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>0.5</v>
+      </c>
+      <c r="V93">
+        <v>0.5</v>
+      </c>
+      <c r="W93">
+        <v>10</v>
+      </c>
+      <c r="Y93">
+        <v>35</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>999999</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="113" ht="15" customHeight="1"/>
     <row r="114" ht="15" customHeight="1"/>
     <row r="115" ht="15" customHeight="1"/>
@@ -6703,17 +6949,21 @@
     <row r="117" ht="15" customHeight="1"/>
     <row r="118" ht="15" customHeight="1"/>
     <row r="119" ht="15" customHeight="1"/>
-    <row r="151" ht="12" customHeight="1"/>
-    <row r="152" ht="12" customHeight="1"/>
-    <row r="153" ht="12" customHeight="1"/>
-    <row r="154" ht="12" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
     <row r="155" ht="12" customHeight="1"/>
     <row r="156" ht="12" customHeight="1"/>
     <row r="157" ht="12" customHeight="1"/>
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="12" customHeight="1"/>
+    <row r="160" ht="12" customHeight="1"/>
+    <row r="161" ht="12" customHeight="1"/>
+    <row r="162" ht="12" customHeight="1"/>
+    <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF89" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF93" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26475" windowHeight="12150"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -1486,17 +1486,17 @@
   <dimension ref="A1:AF163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD51" sqref="AD51"/>
+      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
@@ -1832,6 +1832,9 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
       <c r="AB4">
         <v>1</v>
       </c>
@@ -1859,6 +1862,9 @@
         <v>2000001</v>
       </c>
       <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>1</v>
       </c>
       <c r="AB5">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="31845" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AF$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AE$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -119,10 +119,7 @@
     <t>card_scene</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name</t>
   </si>
   <si>
     <t>remark</t>
@@ -230,33 +227,21 @@
     <t>名字-中文</t>
   </si>
   <si>
-    <t>名字-英文</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>Card_Scene_1</t>
   </si>
   <si>
+    <t>创建角色-人类</t>
+  </si>
+  <si>
+    <t>创建角色-骷髅</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>创建角色-人类</t>
-  </si>
-  <si>
-    <t>骷髅</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>创建角色-骷髅</t>
-  </si>
-  <si>
     <t>1,2,3,10,</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
     <t>骷髅战士</t>
   </si>
   <si>
-    <t>Skeleton Warrior</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -278,105 +260,54 @@
     <t>骷髅投手</t>
   </si>
   <si>
-    <t>Skeleton Hurler</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
     <t>Attack3</t>
   </si>
   <si>
     <t>骷髅魔法师（火）</t>
   </si>
   <si>
-    <t>Skeleton Mage (Fire)</t>
-  </si>
-  <si>
     <t>骷髅魔法师（冰）</t>
   </si>
   <si>
-    <t>Skeleton Mage (Ice)</t>
-  </si>
-  <si>
     <t>守护史莱姆</t>
   </si>
   <si>
-    <t>Guardian Slime</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
     <t>自爆史莱姆</t>
   </si>
   <si>
-    <t>Detonator Slime</t>
-  </si>
-  <si>
     <t>CreatureDef_Front</t>
   </si>
   <si>
     <t>烂泥史莱姆</t>
   </si>
   <si>
-    <t>Sludge Slime</t>
-  </si>
-  <si>
     <t>毒液史莱姆</t>
   </si>
   <si>
-    <t>Venomous Slime</t>
-  </si>
-  <si>
     <t>战之魅魔</t>
   </si>
   <si>
-    <t>Warbane Succubus</t>
-  </si>
-  <si>
-    <t>魅魔</t>
-  </si>
-  <si>
     <t>1,2,3,</t>
   </si>
   <si>
     <t>愈之魅魔</t>
   </si>
   <si>
-    <t>Mendthorn Succubus</t>
-  </si>
-  <si>
     <t>惑之魅魔</t>
   </si>
   <si>
-    <t>Allureveil Succubus</t>
-  </si>
-  <si>
     <t>奥之魅魔</t>
   </si>
   <si>
-    <t>Arcaneblood Succubus</t>
-  </si>
-  <si>
     <t>盾之魅魔</t>
   </si>
   <si>
-    <t>Ironward Succubus</t>
-  </si>
-  <si>
     <t>1,2,3,5</t>
   </si>
   <si>
     <t>牛头人战士</t>
   </si>
   <si>
-    <t>Minotaur Warrior</t>
-  </si>
-  <si>
-    <t>牛头人</t>
-  </si>
-  <si>
     <t>1,2,3,5,10</t>
   </si>
   <si>
@@ -386,130 +317,61 @@
     <t>牛头人投手</t>
   </si>
   <si>
-    <t>Minotaur Hurler</t>
-  </si>
-  <si>
     <t>牛头人魔法师（火）</t>
   </si>
   <si>
-    <t>Minotaur Mage (Fire)</t>
-  </si>
-  <si>
     <t>牛头人魔法师（冰）</t>
   </si>
   <si>
-    <t>Minotaur Mage (Ice)</t>
-  </si>
-  <si>
     <t>2000100001,2000200001,</t>
   </si>
   <si>
     <t>哥布林刺客</t>
   </si>
   <si>
-    <t>Goblin Assassin</t>
-  </si>
-  <si>
-    <t>哥布林</t>
-  </si>
-  <si>
     <t>0,0.3,0</t>
   </si>
   <si>
     <t>哥布林弓箭手</t>
   </si>
   <si>
-    <t>Goblin Archer</t>
-  </si>
-  <si>
     <t>哥布林敢死队</t>
   </si>
   <si>
-    <t>Goblin Deathsworn</t>
-  </si>
-  <si>
     <t>哥布林魔法师（火）</t>
   </si>
   <si>
-    <t>Goblin Mage (Fire)</t>
-  </si>
-  <si>
     <t>哥布林魔法师（冰）</t>
   </si>
   <si>
-    <t>Goblin Mage (Ice)</t>
-  </si>
-  <si>
     <t>2000300001,2000400001,</t>
   </si>
   <si>
     <t>兽人战士</t>
   </si>
   <si>
-    <t>Orc Berserker</t>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
     <t>兽人弓箭手</t>
   </si>
   <si>
-    <t>Orc Marksman</t>
-  </si>
-  <si>
     <t>兽人魔法师（火）</t>
   </si>
   <si>
-    <t>Orc Mage (Fire)</t>
-  </si>
-  <si>
     <t>兽人魔法师（冰）</t>
   </si>
   <si>
-    <t>Orc Mage (Ice)</t>
-  </si>
-  <si>
     <t>人类-战士</t>
   </si>
   <si>
-    <t>Human Warrior</t>
-  </si>
-  <si>
-    <t>人类-进攻-战士</t>
-  </si>
-  <si>
     <t>人类-弓箭手</t>
   </si>
   <si>
-    <t>Human Archer</t>
-  </si>
-  <si>
-    <t>人类-进攻-弓箭</t>
-  </si>
-  <si>
     <t>人类-魔法师（火）</t>
   </si>
   <si>
-    <t>Human Mage (Fire)</t>
-  </si>
-  <si>
-    <t>人类-进攻-魔法</t>
-  </si>
-  <si>
     <t>人类-魔法师（冰）</t>
   </si>
   <si>
-    <t>Human Mage (Ice)</t>
-  </si>
-  <si>
     <t>Card_Scene_4</t>
-  </si>
-  <si>
-    <t>防御测试</t>
-  </si>
-  <si>
-    <t>Att Test Creature</t>
   </si>
   <si>
     <t>测试数据</t>
@@ -1483,14 +1345,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1520,12 +1382,13 @@
     <col min="25" max="25" width="20.25" customWidth="1"/>
     <col min="26" max="26" width="8.875" customWidth="1"/>
     <col min="27" max="28" width="14.75" customWidth="1"/>
-    <col min="29" max="31" width="47.5" customWidth="1"/>
-    <col min="32" max="32" width="42.875" customWidth="1"/>
-    <col min="33" max="33" width="25.125" customWidth="1"/>
+    <col min="29" max="29" width="13.75" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="42.875" customWidth="1"/>
+    <col min="32" max="32" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1619,207 +1482,198 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>58</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:32">
+    </row>
+    <row r="4" customFormat="1" spans="1:31">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1839,19 +1693,16 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="AD4">
+        <v>50000000001</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:31">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1871,19 +1722,16 @@
         <v>2</v>
       </c>
       <c r="AC5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5">
+        <v>50000000002</v>
+      </c>
+      <c r="AE5" t="s">
         <v>68</v>
       </c>
-      <c r="AD5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:32">
+    </row>
+    <row r="6" customFormat="1" spans="1:31">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1927,19 +1775,16 @@
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6">
+        <v>50000001001</v>
+      </c>
+      <c r="AE6" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:32">
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:31">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1956,10 +1801,10 @@
         <v>21010001</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O7">
         <v>100001</v>
@@ -1995,19 +1840,16 @@
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="AD7">
+        <v>50000002001</v>
       </c>
       <c r="AE7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -2024,16 +1866,16 @@
         <v>21000001</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>200001</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -2066,19 +1908,16 @@
         <v>2</v>
       </c>
       <c r="AC8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="AD8">
+        <v>50000002002</v>
       </c>
       <c r="AE8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>2003</v>
       </c>
@@ -2095,16 +1934,16 @@
         <v>21010002</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O9">
         <v>201001</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -2137,19 +1976,16 @@
         <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="AD9">
+        <v>50000002003</v>
       </c>
       <c r="AE9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>2004</v>
       </c>
@@ -2166,16 +2002,16 @@
         <v>21010003</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <v>201002</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -2208,19 +2044,16 @@
         <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="AD10">
+        <v>50000002004</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -2267,19 +2100,16 @@
         <v>3</v>
       </c>
       <c r="AC11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="AD11">
+        <v>50000003001</v>
       </c>
       <c r="AE11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:31">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -2293,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>300001</v>
@@ -2332,19 +2162,16 @@
         <v>3</v>
       </c>
       <c r="AC12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="AD12">
+        <v>50000003002</v>
       </c>
       <c r="AE12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:31">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -2352,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2361,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2403,19 +2230,16 @@
         <v>3</v>
       </c>
       <c r="AC13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+      <c r="AD13">
+        <v>50000003003</v>
       </c>
       <c r="AE13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:31">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -2423,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -2432,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2474,19 +2298,16 @@
         <v>3</v>
       </c>
       <c r="AC14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="AD14">
+        <v>50000003004</v>
       </c>
       <c r="AE14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:32">
+    <row r="15" customFormat="1" spans="1:31">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -2504,10 +2325,10 @@
         <v>41000002</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <v>101001</v>
@@ -2543,19 +2364,16 @@
         <v>4</v>
       </c>
       <c r="AC15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="AD15">
+        <v>50000004001</v>
       </c>
       <c r="AE15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:31">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -2569,7 +2387,7 @@
         <v>4000001</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O16">
         <v>500001</v>
@@ -2608,19 +2426,16 @@
         <v>4</v>
       </c>
       <c r="AC16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="AD16">
+        <v>50000004002</v>
       </c>
       <c r="AE16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:31">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -2634,7 +2449,7 @@
         <v>4000001</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O17">
         <v>600001</v>
@@ -2673,19 +2488,16 @@
         <v>4</v>
       </c>
       <c r="AC17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>105</v>
+        <v>66</v>
+      </c>
+      <c r="AD17">
+        <v>50000004003</v>
       </c>
       <c r="AE17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:31">
       <c r="A18">
         <v>4004</v>
       </c>
@@ -2699,13 +2511,13 @@
         <v>4000001</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O18">
         <v>202001</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q18">
         <v>30</v>
@@ -2741,19 +2553,16 @@
         <v>4</v>
       </c>
       <c r="AC18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>107</v>
+        <v>66</v>
+      </c>
+      <c r="AD18">
+        <v>50000004004</v>
       </c>
       <c r="AE18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:31">
       <c r="A19">
         <v>4005</v>
       </c>
@@ -2767,7 +2576,7 @@
         <v>4000001</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O19">
         <v>500002</v>
@@ -2807,19 +2616,16 @@
         <v>4</v>
       </c>
       <c r="AC19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>109</v>
+        <v>66</v>
+      </c>
+      <c r="AD19">
+        <v>50000004005</v>
       </c>
       <c r="AE19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:31">
       <c r="A20">
         <v>5001</v>
       </c>
@@ -2833,7 +2639,7 @@
         <v>5000001</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O20">
         <v>101002</v>
@@ -2872,19 +2678,16 @@
         <v>5</v>
       </c>
       <c r="AC20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>112</v>
+        <v>66</v>
+      </c>
+      <c r="AD20">
+        <v>50000005001</v>
       </c>
       <c r="AE20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:31">
       <c r="A21">
         <v>5002</v>
       </c>
@@ -2901,13 +2704,13 @@
         <v>51010001</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="O21">
         <v>203001</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2943,19 +2746,16 @@
         <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>117</v>
+        <v>66</v>
+      </c>
+      <c r="AD21">
+        <v>50000005002</v>
       </c>
       <c r="AE21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:31">
       <c r="A22">
         <v>5003</v>
       </c>
@@ -2969,7 +2769,7 @@
         <v>5000001</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O22">
         <v>700001</v>
@@ -3008,19 +2808,16 @@
         <v>5</v>
       </c>
       <c r="AC22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>119</v>
+        <v>66</v>
+      </c>
+      <c r="AD22">
+        <v>50000005003</v>
       </c>
       <c r="AE22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:31">
       <c r="A23">
         <v>5004</v>
       </c>
@@ -3034,7 +2831,7 @@
         <v>5000001</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O23">
         <v>700002</v>
@@ -3073,19 +2870,16 @@
         <v>5</v>
       </c>
       <c r="AC23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>121</v>
+        <v>66</v>
+      </c>
+      <c r="AD23">
+        <v>50000005004</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:31">
       <c r="A24">
         <v>6001</v>
       </c>
@@ -3096,13 +2890,13 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <v>6000001</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O24">
         <v>200001</v>
@@ -3138,19 +2932,16 @@
         <v>6</v>
       </c>
       <c r="AC24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="AD24">
+        <v>50000006001</v>
       </c>
       <c r="AE24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:32">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:31">
       <c r="A25">
         <v>6002</v>
       </c>
@@ -3167,16 +2958,16 @@
         <v>61010002</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O25">
         <v>204001</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -3209,19 +3000,16 @@
         <v>6</v>
       </c>
       <c r="AC25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+      <c r="AD25">
+        <v>50000006002</v>
       </c>
       <c r="AE25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:31">
       <c r="A26">
         <v>6003</v>
       </c>
@@ -3235,7 +3023,7 @@
         <v>6000001</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O26">
         <v>200001</v>
@@ -3271,19 +3059,16 @@
         <v>6</v>
       </c>
       <c r="AC26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+      <c r="AD26">
+        <v>50000006003</v>
       </c>
       <c r="AE26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:31">
       <c r="A27">
         <v>6004</v>
       </c>
@@ -3300,16 +3085,16 @@
         <v>61010003</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O27">
         <v>204002</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3342,19 +3127,16 @@
         <v>6</v>
       </c>
       <c r="AC27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="AD27">
+        <v>50000006004</v>
       </c>
       <c r="AE27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:31">
       <c r="A28">
         <v>6005</v>
       </c>
@@ -3371,16 +3153,16 @@
         <v>61010003</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O28">
         <v>204003</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3413,19 +3195,16 @@
         <v>6</v>
       </c>
       <c r="AC28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>134</v>
+        <v>66</v>
+      </c>
+      <c r="AD28">
+        <v>50000006005</v>
       </c>
       <c r="AE28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:31">
       <c r="A29">
         <v>7001</v>
       </c>
@@ -3436,13 +3215,13 @@
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G29">
         <v>7000001</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O29">
         <v>200001</v>
@@ -3478,19 +3257,16 @@
         <v>7</v>
       </c>
       <c r="AC29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>137</v>
+        <v>66</v>
+      </c>
+      <c r="AD29">
+        <v>50000007001</v>
       </c>
       <c r="AE29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:31">
       <c r="A30">
         <v>7002</v>
       </c>
@@ -3507,16 +3283,16 @@
         <v>71000001</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O30">
         <v>205001</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -3549,19 +3325,16 @@
         <v>7</v>
       </c>
       <c r="AC30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>140</v>
+        <v>66</v>
+      </c>
+      <c r="AD30">
+        <v>50000007002</v>
       </c>
       <c r="AE30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:32">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:31">
       <c r="A31">
         <v>7003</v>
       </c>
@@ -3578,16 +3351,16 @@
         <v>71010004</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O31">
         <v>205002</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3620,19 +3393,16 @@
         <v>7</v>
       </c>
       <c r="AC31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>142</v>
+        <v>66</v>
+      </c>
+      <c r="AD31">
+        <v>50000007003</v>
       </c>
       <c r="AE31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:32">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:31">
       <c r="A32">
         <v>7004</v>
       </c>
@@ -3649,16 +3419,16 @@
         <v>71010004</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O32">
         <v>205003</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -3691,19 +3461,16 @@
         <v>7</v>
       </c>
       <c r="AC32" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>144</v>
+        <v>66</v>
+      </c>
+      <c r="AD32">
+        <v>50000007004</v>
       </c>
       <c r="AE32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:32">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:31">
       <c r="A33">
         <v>101001</v>
       </c>
@@ -3747,19 +3514,16 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>146</v>
+        <v>66</v>
+      </c>
+      <c r="AD33">
+        <v>50000101001</v>
       </c>
       <c r="AE33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:31">
       <c r="A34">
         <v>102001</v>
       </c>
@@ -3803,19 +3567,16 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>149</v>
+        <v>66</v>
+      </c>
+      <c r="AD34">
+        <v>50000102001</v>
       </c>
       <c r="AE34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:31">
       <c r="A35">
         <v>103001</v>
       </c>
@@ -3859,19 +3620,16 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>152</v>
+        <v>66</v>
+      </c>
+      <c r="AD35">
+        <v>50000103001</v>
       </c>
       <c r="AE35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:31">
       <c r="A36">
         <v>103002</v>
       </c>
@@ -3915,19 +3673,16 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>155</v>
+        <v>66</v>
+      </c>
+      <c r="AD36">
+        <v>50000103002</v>
       </c>
       <c r="AE36" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:32">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:31">
       <c r="A37" s="1">
         <v>989996</v>
       </c>
@@ -3968,19 +3723,16 @@
         <v>989996</v>
       </c>
       <c r="AC37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD37">
+        <v>50000000001</v>
       </c>
       <c r="AE37" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:31">
       <c r="A38" s="1">
         <v>989997</v>
       </c>
@@ -4021,19 +3773,16 @@
         <v>989997</v>
       </c>
       <c r="AC38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD38">
+        <v>50000000001</v>
       </c>
       <c r="AE38" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:31">
       <c r="A39" s="1">
         <v>989998</v>
       </c>
@@ -4074,19 +3823,16 @@
         <v>989998</v>
       </c>
       <c r="AC39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD39">
+        <v>50000000001</v>
       </c>
       <c r="AE39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:31">
       <c r="A40" s="1">
         <v>989999</v>
       </c>
@@ -4127,19 +3873,16 @@
         <v>989999</v>
       </c>
       <c r="AC40" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD40">
+        <v>50000000001</v>
       </c>
       <c r="AE40" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:31">
       <c r="A41" s="1">
         <v>999947</v>
       </c>
@@ -4180,19 +3923,16 @@
         <v>999947</v>
       </c>
       <c r="AC41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD41">
+        <v>50000000001</v>
       </c>
       <c r="AE41" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:31">
       <c r="A42" s="1">
         <v>999948</v>
       </c>
@@ -4233,19 +3973,16 @@
         <v>999948</v>
       </c>
       <c r="AC42" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD42">
+        <v>50000000001</v>
       </c>
       <c r="AE42" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:31">
       <c r="A43" s="1">
         <v>999949</v>
       </c>
@@ -4286,19 +4023,16 @@
         <v>999949</v>
       </c>
       <c r="AC43" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD43">
+        <v>50000000001</v>
       </c>
       <c r="AE43" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:31">
       <c r="A44" s="1">
         <v>999950</v>
       </c>
@@ -4339,19 +4073,16 @@
         <v>999950</v>
       </c>
       <c r="AC44" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD44">
+        <v>50000000001</v>
       </c>
       <c r="AE44" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:31">
       <c r="A45" s="1">
         <v>999951</v>
       </c>
@@ -4392,19 +4123,16 @@
         <v>999951</v>
       </c>
       <c r="AC45" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD45">
+        <v>50000000001</v>
       </c>
       <c r="AE45" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:31">
       <c r="A46" s="1">
         <v>999952</v>
       </c>
@@ -4445,19 +4173,16 @@
         <v>999952</v>
       </c>
       <c r="AC46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD46">
+        <v>50000000001</v>
       </c>
       <c r="AE46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:31">
       <c r="A47" s="1">
         <v>999953</v>
       </c>
@@ -4498,19 +4223,16 @@
         <v>999953</v>
       </c>
       <c r="AC47" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD47">
+        <v>50000000001</v>
       </c>
       <c r="AE47" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:31">
       <c r="A48" s="1">
         <v>999954</v>
       </c>
@@ -4551,19 +4273,16 @@
         <v>999954</v>
       </c>
       <c r="AC48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD48">
+        <v>50000000001</v>
       </c>
       <c r="AE48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:31">
       <c r="A49" s="1">
         <v>999955</v>
       </c>
@@ -4604,19 +4323,16 @@
         <v>999955</v>
       </c>
       <c r="AC49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD49">
+        <v>50000000001</v>
       </c>
       <c r="AE49" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:31">
       <c r="A50" s="1">
         <v>999956</v>
       </c>
@@ -4657,19 +4373,16 @@
         <v>999956</v>
       </c>
       <c r="AC50" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD50">
+        <v>50000000001</v>
       </c>
       <c r="AE50" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:31">
       <c r="A51" s="1">
         <v>999957</v>
       </c>
@@ -4710,19 +4423,16 @@
         <v>999957</v>
       </c>
       <c r="AC51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD51">
+        <v>50000000001</v>
       </c>
       <c r="AE51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:31">
       <c r="A52" s="1">
         <v>999958</v>
       </c>
@@ -4763,19 +4473,16 @@
         <v>999958</v>
       </c>
       <c r="AC52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD52">
+        <v>50000000001</v>
       </c>
       <c r="AE52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:31">
       <c r="A53" s="1">
         <v>999959</v>
       </c>
@@ -4816,19 +4523,16 @@
         <v>999959</v>
       </c>
       <c r="AC53" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD53">
+        <v>50000000001</v>
       </c>
       <c r="AE53" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:31">
       <c r="A54" s="1">
         <v>999960</v>
       </c>
@@ -4869,19 +4573,16 @@
         <v>999960</v>
       </c>
       <c r="AC54" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD54">
+        <v>50000000001</v>
       </c>
       <c r="AE54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:31">
       <c r="A55" s="1">
         <v>999961</v>
       </c>
@@ -4922,19 +4623,16 @@
         <v>999961</v>
       </c>
       <c r="AC55" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD55">
+        <v>50000000001</v>
       </c>
       <c r="AE55" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:31">
       <c r="A56" s="1">
         <v>999962</v>
       </c>
@@ -4975,19 +4673,16 @@
         <v>999962</v>
       </c>
       <c r="AC56" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD56">
+        <v>50000000001</v>
       </c>
       <c r="AE56" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:31">
       <c r="A57" s="1">
         <v>999963</v>
       </c>
@@ -5028,19 +4723,16 @@
         <v>999963</v>
       </c>
       <c r="AC57" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD57">
+        <v>50000000001</v>
       </c>
       <c r="AE57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:31">
       <c r="A58" s="1">
         <v>999964</v>
       </c>
@@ -5081,19 +4773,16 @@
         <v>999964</v>
       </c>
       <c r="AC58" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD58">
+        <v>50000000001</v>
       </c>
       <c r="AE58" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:31">
       <c r="A59" s="1">
         <v>999965</v>
       </c>
@@ -5134,19 +4823,16 @@
         <v>999965</v>
       </c>
       <c r="AC59" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD59">
+        <v>50000000001</v>
       </c>
       <c r="AE59" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:31">
       <c r="A60" s="1">
         <v>999966</v>
       </c>
@@ -5187,19 +4873,16 @@
         <v>999966</v>
       </c>
       <c r="AC60" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD60">
+        <v>50000000001</v>
       </c>
       <c r="AE60" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:31">
       <c r="A61" s="1">
         <v>999967</v>
       </c>
@@ -5240,19 +4923,16 @@
         <v>999967</v>
       </c>
       <c r="AC61" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD61">
+        <v>50000000001</v>
       </c>
       <c r="AE61" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:31">
       <c r="A62" s="1">
         <v>999968</v>
       </c>
@@ -5293,19 +4973,16 @@
         <v>999968</v>
       </c>
       <c r="AC62" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD62">
+        <v>50000000001</v>
       </c>
       <c r="AE62" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:31">
       <c r="A63" s="1">
         <v>999969</v>
       </c>
@@ -5346,19 +5023,16 @@
         <v>999969</v>
       </c>
       <c r="AC63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD63">
+        <v>50000000001</v>
       </c>
       <c r="AE63" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:31">
       <c r="A64" s="1">
         <v>999970</v>
       </c>
@@ -5399,19 +5073,16 @@
         <v>999970</v>
       </c>
       <c r="AC64" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD64">
+        <v>50000000001</v>
       </c>
       <c r="AE64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:31">
       <c r="A65" s="1">
         <v>999971</v>
       </c>
@@ -5452,19 +5123,16 @@
         <v>999971</v>
       </c>
       <c r="AC65" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD65">
+        <v>50000000001</v>
       </c>
       <c r="AE65" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:31">
       <c r="A66" s="1">
         <v>999972</v>
       </c>
@@ -5505,19 +5173,16 @@
         <v>999972</v>
       </c>
       <c r="AC66" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD66">
+        <v>50000000001</v>
       </c>
       <c r="AE66" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:31">
       <c r="A67" s="1">
         <v>999973</v>
       </c>
@@ -5558,19 +5223,16 @@
         <v>999973</v>
       </c>
       <c r="AC67" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD67">
+        <v>50000000001</v>
       </c>
       <c r="AE67" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:31">
       <c r="A68" s="1">
         <v>999974</v>
       </c>
@@ -5611,19 +5273,16 @@
         <v>999974</v>
       </c>
       <c r="AC68" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD68">
+        <v>50000000001</v>
       </c>
       <c r="AE68" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:31">
       <c r="A69" s="1">
         <v>999975</v>
       </c>
@@ -5664,19 +5323,16 @@
         <v>999975</v>
       </c>
       <c r="AC69" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD69">
+        <v>50000000001</v>
       </c>
       <c r="AE69" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:31">
       <c r="A70" s="1">
         <v>999976</v>
       </c>
@@ -5717,19 +5373,16 @@
         <v>999976</v>
       </c>
       <c r="AC70" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD70">
+        <v>50000000001</v>
       </c>
       <c r="AE70" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:31">
       <c r="A71" s="1">
         <v>999977</v>
       </c>
@@ -5770,19 +5423,16 @@
         <v>999977</v>
       </c>
       <c r="AC71" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD71">
+        <v>50000000001</v>
       </c>
       <c r="AE71" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:31">
       <c r="A72" s="1">
         <v>999978</v>
       </c>
@@ -5823,19 +5473,16 @@
         <v>999978</v>
       </c>
       <c r="AC72" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD72">
+        <v>50000000001</v>
       </c>
       <c r="AE72" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:31">
       <c r="A73" s="1">
         <v>999979</v>
       </c>
@@ -5876,19 +5523,16 @@
         <v>999979</v>
       </c>
       <c r="AC73" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD73">
+        <v>50000000001</v>
       </c>
       <c r="AE73" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:31">
       <c r="A74" s="1">
         <v>999980</v>
       </c>
@@ -5929,19 +5573,16 @@
         <v>999980</v>
       </c>
       <c r="AC74" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD74">
+        <v>50000000001</v>
       </c>
       <c r="AE74" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:31">
       <c r="A75" s="1">
         <v>999981</v>
       </c>
@@ -5982,19 +5623,16 @@
         <v>999981</v>
       </c>
       <c r="AC75" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD75">
+        <v>50000000001</v>
       </c>
       <c r="AE75" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:31">
       <c r="A76">
         <v>999982</v>
       </c>
@@ -6035,19 +5673,16 @@
         <v>999982</v>
       </c>
       <c r="AC76" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD76">
+        <v>50000000001</v>
       </c>
       <c r="AE76" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:31">
       <c r="A77">
         <v>999983</v>
       </c>
@@ -6088,19 +5723,16 @@
         <v>999983</v>
       </c>
       <c r="AC77" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD77">
+        <v>50000000001</v>
       </c>
       <c r="AE77" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:31">
       <c r="A78">
         <v>999984</v>
       </c>
@@ -6141,19 +5773,16 @@
         <v>999984</v>
       </c>
       <c r="AC78" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD78">
+        <v>50000000001</v>
       </c>
       <c r="AE78" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:31">
       <c r="A79">
         <v>999985</v>
       </c>
@@ -6194,19 +5823,16 @@
         <v>999985</v>
       </c>
       <c r="AC79" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD79">
+        <v>50000000001</v>
       </c>
       <c r="AE79" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:31">
       <c r="A80">
         <v>999986</v>
       </c>
@@ -6247,19 +5873,16 @@
         <v>999986</v>
       </c>
       <c r="AC80" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD80">
+        <v>50000000001</v>
       </c>
       <c r="AE80" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:31">
       <c r="A81">
         <v>999987</v>
       </c>
@@ -6300,19 +5923,16 @@
         <v>999987</v>
       </c>
       <c r="AC81" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD81">
+        <v>50000000001</v>
       </c>
       <c r="AE81" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:31">
       <c r="A82">
         <v>999988</v>
       </c>
@@ -6353,19 +5973,16 @@
         <v>999988</v>
       </c>
       <c r="AC82" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD82">
+        <v>50000000001</v>
       </c>
       <c r="AE82" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:31">
       <c r="A83">
         <v>999989</v>
       </c>
@@ -6406,19 +6023,16 @@
         <v>999989</v>
       </c>
       <c r="AC83" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD83">
+        <v>50000000001</v>
       </c>
       <c r="AE83" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:31">
       <c r="A84">
         <v>999990</v>
       </c>
@@ -6459,19 +6073,16 @@
         <v>999990</v>
       </c>
       <c r="AC84" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD84">
+        <v>50000000001</v>
       </c>
       <c r="AE84" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:31">
       <c r="A85">
         <v>999991</v>
       </c>
@@ -6512,19 +6123,16 @@
         <v>999991</v>
       </c>
       <c r="AC85" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD85">
+        <v>50000000001</v>
       </c>
       <c r="AE85" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:31">
       <c r="A86">
         <v>999992</v>
       </c>
@@ -6565,19 +6173,16 @@
         <v>999992</v>
       </c>
       <c r="AC86" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD86">
+        <v>50000000001</v>
       </c>
       <c r="AE86" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:31">
       <c r="A87">
         <v>999993</v>
       </c>
@@ -6618,19 +6223,16 @@
         <v>999993</v>
       </c>
       <c r="AC87" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD87">
+        <v>50000000001</v>
       </c>
       <c r="AE87" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:31">
       <c r="A88">
         <v>999994</v>
       </c>
@@ -6671,19 +6273,16 @@
         <v>999994</v>
       </c>
       <c r="AC88" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD88">
+        <v>50000000001</v>
       </c>
       <c r="AE88" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:31">
       <c r="A89">
         <v>999995</v>
       </c>
@@ -6724,19 +6323,16 @@
         <v>999995</v>
       </c>
       <c r="AC89" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD89">
+        <v>50000000001</v>
       </c>
       <c r="AE89" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:31">
       <c r="A90">
         <v>999996</v>
       </c>
@@ -6777,19 +6373,16 @@
         <v>999996</v>
       </c>
       <c r="AC90" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD90">
+        <v>50000000001</v>
       </c>
       <c r="AE90" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:31">
       <c r="A91">
         <v>999997</v>
       </c>
@@ -6830,19 +6423,16 @@
         <v>999997</v>
       </c>
       <c r="AC91" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD91">
+        <v>50000000001</v>
       </c>
       <c r="AE91" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:31">
       <c r="A92">
         <v>999998</v>
       </c>
@@ -6883,19 +6473,16 @@
         <v>999998</v>
       </c>
       <c r="AC92" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD92">
+        <v>50000000001</v>
       </c>
       <c r="AE92" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:31">
       <c r="A93">
         <v>999999</v>
       </c>
@@ -6936,16 +6523,13 @@
         <v>999999</v>
       </c>
       <c r="AC93" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+      <c r="AD93">
+        <v>50000000001</v>
       </c>
       <c r="AE93" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>
@@ -6969,7 +6553,7 @@
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF93" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AE93" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31845" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>card_scene</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -1352,7 +1352,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF28" sqref="AF28"/>
+      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1383,7 +1383,7 @@
     <col min="26" max="26" width="8.875" customWidth="1"/>
     <col min="27" max="28" width="14.75" customWidth="1"/>
     <col min="29" max="29" width="13.75" customWidth="1"/>
-    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="16" customWidth="1"/>
     <col min="31" max="31" width="42.875" customWidth="1"/>
     <col min="32" max="32" width="25.125" customWidth="1"/>
   </cols>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>creature_layer_find</t>
   </si>
   <si>
-    <t>create_cd</t>
-  </si>
-  <si>
     <t>create_buff</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
     <t>anim_attack_time</t>
   </si>
   <si>
+    <t>RCD</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -140,7 +140,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>生物类型1：防御 2进攻</t>
+    <t>生物类型1：防御 2进攻 99防守核心</t>
   </si>
   <si>
     <t>生物位置优先级</t>
@@ -149,58 +149,58 @@
     <t>生物优先级搜寻</t>
   </si>
   <si>
+    <t>生物buff</t>
+  </si>
+  <si>
+    <t>身体的基础模块</t>
+  </si>
+  <si>
+    <t>身体的基础武器模块</t>
+  </si>
+  <si>
+    <t>可装备类型</t>
+  </si>
+  <si>
+    <t>等待动画名字</t>
+  </si>
+  <si>
+    <t>死亡动画名字</t>
+  </si>
+  <si>
+    <t>走路动画名字</t>
+  </si>
+  <si>
+    <t>攻击动画名字</t>
+  </si>
+  <si>
+    <t>攻击动画循环状态</t>
+  </si>
+  <si>
+    <t>攻击模式</t>
+  </si>
+  <si>
+    <t>攻击起始位置</t>
+  </si>
+  <si>
+    <t>攻击搜索敌人类型</t>
+  </si>
+  <si>
+    <t>攻击搜索目标类型1防御 2进攻 99防守核心</t>
+  </si>
+  <si>
+    <t>攻击搜索范围</t>
+  </si>
+  <si>
+    <t>攻击搜索间隔（搜索敌人间隔）</t>
+  </si>
+  <si>
+    <t>死亡动画时间</t>
+  </si>
+  <si>
+    <t>攻击动画出手时间</t>
+  </si>
+  <si>
     <t>创建cd(秒)</t>
-  </si>
-  <si>
-    <t>生物buff</t>
-  </si>
-  <si>
-    <t>身体的基础模块</t>
-  </si>
-  <si>
-    <t>身体的基础武器模块</t>
-  </si>
-  <si>
-    <t>可装备类型</t>
-  </si>
-  <si>
-    <t>等待动画名字</t>
-  </si>
-  <si>
-    <t>死亡动画名字</t>
-  </si>
-  <si>
-    <t>走路动画名字</t>
-  </si>
-  <si>
-    <t>攻击动画名字</t>
-  </si>
-  <si>
-    <t>攻击动画循环状态</t>
-  </si>
-  <si>
-    <t>攻击模式</t>
-  </si>
-  <si>
-    <t>攻击起始位置</t>
-  </si>
-  <si>
-    <t>攻击搜索敌人类型</t>
-  </si>
-  <si>
-    <t>攻击搜索目标类型1：防御 2进攻</t>
-  </si>
-  <si>
-    <t>攻击搜索范围</t>
-  </si>
-  <si>
-    <t>攻击搜索间隔（搜索敌人间隔）</t>
-  </si>
-  <si>
-    <t>死亡动画时间</t>
-  </si>
-  <si>
-    <t>攻击动画出手时间</t>
   </si>
   <si>
     <t>生命值</t>
@@ -1348,11 +1348,11 @@
   <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,24 +1360,22 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="52.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="18.25" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="20.375" customWidth="1"/>
-    <col min="18" max="18" width="35.875" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="29.625" customWidth="1"/>
-    <col min="21" max="22" width="20.25" customWidth="1"/>
+    <col min="4" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="17" width="35.875" customWidth="1"/>
+    <col min="18" max="18" width="21.5" customWidth="1"/>
+    <col min="19" max="19" width="29.625" customWidth="1"/>
+    <col min="20" max="22" width="20.25" customWidth="1"/>
     <col min="23" max="24" width="11.75" customWidth="1"/>
     <col min="25" max="25" width="20.25" customWidth="1"/>
     <col min="26" max="26" width="8.875" customWidth="1"/>
@@ -1497,16 +1495,16 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -1521,22 +1519,22 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
       </c>
       <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>34</v>
@@ -1680,10 +1678,10 @@
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>1000001</v>
       </c>
-      <c r="T4">
+      <c r="S4">
         <v>1</v>
       </c>
       <c r="W4">
@@ -1709,10 +1707,10 @@
       <c r="B5">
         <v>99</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>2000001</v>
       </c>
-      <c r="T5">
+      <c r="S5">
         <v>1</v>
       </c>
       <c r="W5">
@@ -1738,25 +1736,25 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>1000001</v>
       </c>
-      <c r="O6">
+      <c r="N6">
         <v>100001</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
-      </c>
-      <c r="V6">
         <v>0.5</v>
       </c>
       <c r="W6">
@@ -1791,38 +1789,38 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="F7">
+        <v>2000001</v>
       </c>
       <c r="G7">
-        <v>2000001</v>
-      </c>
-      <c r="H7">
         <v>21010001</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>71</v>
       </c>
-      <c r="O7">
+      <c r="N7">
         <v>100001</v>
       </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
       <c r="R7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <v>0.5</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>10</v>
@@ -1856,41 +1854,41 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>10</v>
+      <c r="F8">
+        <v>2000001</v>
       </c>
       <c r="G8">
-        <v>2000001</v>
-      </c>
-      <c r="H8">
         <v>21000001</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>73</v>
       </c>
-      <c r="O8">
+      <c r="N8">
         <v>200001</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>74</v>
       </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
       <c r="R8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U8">
         <v>0.5</v>
       </c>
       <c r="V8">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>10</v>
@@ -1924,41 +1922,41 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>2000001</v>
+      </c>
+      <c r="G9">
+        <v>21010002</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9">
+        <v>201001</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
         <v>20</v>
-      </c>
-      <c r="G9">
-        <v>2000001</v>
-      </c>
-      <c r="H9">
-        <v>21010002</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9">
-        <v>201001</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>0.5</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1992,41 +1990,41 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>2000001</v>
+      </c>
+      <c r="G10">
+        <v>21010003</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>201002</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
         <v>20</v>
-      </c>
-      <c r="G10">
-        <v>2000001</v>
-      </c>
-      <c r="H10">
-        <v>21010003</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10">
-        <v>201002</v>
-      </c>
-      <c r="P10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>0.5</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -2060,26 +2058,26 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
         <v>120</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>0.5</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0.5</v>
-      </c>
-      <c r="V11">
-        <v>0.5</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -2116,35 +2114,35 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12">
+        <v>300001</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1.5</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>0.15</v>
+      </c>
+      <c r="V12">
         <v>120</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12">
-        <v>300001</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1.5</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>0.5</v>
-      </c>
-      <c r="V12">
-        <v>0.15</v>
       </c>
       <c r="W12">
         <v>10</v>
@@ -2181,38 +2179,38 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>400001</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
         <v>120</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>400001</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>0.5</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0.5</v>
-      </c>
-      <c r="V13">
-        <v>0.5</v>
       </c>
       <c r="W13">
         <v>5</v>
@@ -2249,38 +2247,38 @@
       <c r="C14" t="s">
         <v>81</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>400002</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
         <v>120</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>400002</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>0.5</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0.5</v>
-      </c>
-      <c r="V14">
-        <v>0.5</v>
       </c>
       <c r="W14">
         <v>5</v>
@@ -2314,39 +2312,38 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>4000001</v>
+      </c>
+      <c r="G15">
+        <v>41000002</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>101001</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
         <v>50</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15">
-        <v>4000001</v>
-      </c>
-      <c r="H15">
-        <v>41000002</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15">
-        <v>101001</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0.5</v>
-      </c>
-      <c r="V15">
-        <v>0.5</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -2380,35 +2377,35 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>4000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16">
+        <v>500001</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
         <v>50</v>
-      </c>
-      <c r="G16">
-        <v>4000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16">
-        <v>500001</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0.5</v>
-      </c>
-      <c r="V16">
-        <v>0.5</v>
       </c>
       <c r="W16">
         <v>10</v>
@@ -2442,35 +2439,35 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>4000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17">
+        <v>600001</v>
+      </c>
+      <c r="P17">
+        <v>32</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
         <v>50</v>
-      </c>
-      <c r="G17">
-        <v>4000001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17">
-        <v>600001</v>
-      </c>
-      <c r="Q17">
-        <v>32</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0.5</v>
-      </c>
-      <c r="V17">
-        <v>0.5</v>
       </c>
       <c r="W17">
         <v>10</v>
@@ -2504,38 +2501,38 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>4000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>202001</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
         <v>50</v>
-      </c>
-      <c r="G18">
-        <v>4000001</v>
-      </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18">
-        <v>202001</v>
-      </c>
-      <c r="P18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18">
-        <v>30</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0.5</v>
-      </c>
-      <c r="V18">
-        <v>0.5</v>
       </c>
       <c r="W18">
         <v>10</v>
@@ -2569,35 +2566,35 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>4000001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>500002</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
         <v>50</v>
-      </c>
-      <c r="G19">
-        <v>4000001</v>
-      </c>
-      <c r="I19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19">
-        <v>500002</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0.5</v>
-      </c>
-      <c r="V19">
-        <v>0.5</v>
       </c>
       <c r="W19">
         <v>10</v>
@@ -2632,35 +2629,35 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>5000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>101002</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1.5</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
         <v>60</v>
-      </c>
-      <c r="G20">
-        <v>5000001</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20">
-        <v>101002</v>
-      </c>
-      <c r="Q20">
-        <v>11</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1.5</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
-      <c r="V20">
-        <v>0.5</v>
       </c>
       <c r="W20">
         <v>30</v>
@@ -2694,41 +2691,41 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>5000001</v>
+      </c>
+      <c r="G21">
+        <v>51010001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21">
+        <v>203001</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
         <v>60</v>
-      </c>
-      <c r="G21">
-        <v>5000001</v>
-      </c>
-      <c r="H21">
-        <v>51010001</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21">
-        <v>203001</v>
-      </c>
-      <c r="P21" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0.5</v>
-      </c>
-      <c r="V21">
-        <v>0.5</v>
       </c>
       <c r="W21">
         <v>30</v>
@@ -2762,35 +2759,35 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <v>5000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>700001</v>
+      </c>
+      <c r="P22">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
         <v>45</v>
-      </c>
-      <c r="G22">
-        <v>5000001</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22">
-        <v>700001</v>
-      </c>
-      <c r="Q22">
-        <v>41</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>6</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0.5</v>
-      </c>
-      <c r="V22">
-        <v>0.5</v>
       </c>
       <c r="W22">
         <v>15</v>
@@ -2824,35 +2821,35 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <v>5000001</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>700002</v>
+      </c>
+      <c r="P23">
+        <v>41</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
         <v>45</v>
-      </c>
-      <c r="G23">
-        <v>5000001</v>
-      </c>
-      <c r="I23" t="s">
-        <v>90</v>
-      </c>
-      <c r="O23">
-        <v>700002</v>
-      </c>
-      <c r="Q23">
-        <v>41</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>6</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0.5</v>
-      </c>
-      <c r="V23">
-        <v>0.5</v>
       </c>
       <c r="W23">
         <v>15</v>
@@ -2886,35 +2883,35 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24">
+        <v>6000001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24">
+        <v>200001</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
         <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24">
-        <v>6000001</v>
-      </c>
-      <c r="I24" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24">
-        <v>200001</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>6</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0.5</v>
-      </c>
-      <c r="V24">
-        <v>0.5</v>
       </c>
       <c r="W24">
         <v>8</v>
@@ -2948,41 +2945,41 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <v>6000001</v>
+      </c>
+      <c r="G25">
+        <v>61010002</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25">
+        <v>204001</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
         <v>30</v>
-      </c>
-      <c r="G25">
-        <v>6000001</v>
-      </c>
-      <c r="H25">
-        <v>61010002</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25">
-        <v>204001</v>
-      </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0.5</v>
-      </c>
-      <c r="V25">
-        <v>0.5</v>
       </c>
       <c r="W25">
         <v>8</v>
@@ -3016,32 +3013,32 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <v>6000001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26">
+        <v>200001</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
         <v>300</v>
-      </c>
-      <c r="G26">
-        <v>6000001</v>
-      </c>
-      <c r="I26" t="s">
-        <v>85</v>
-      </c>
-      <c r="O26">
-        <v>200001</v>
-      </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26">
-        <v>6</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0.5</v>
-      </c>
-      <c r="V26">
-        <v>0.5</v>
       </c>
       <c r="W26">
         <v>10</v>
@@ -3075,41 +3072,41 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <v>6000001</v>
+      </c>
+      <c r="G27">
+        <v>61010003</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27">
+        <v>204002</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
         <v>20</v>
-      </c>
-      <c r="G27">
-        <v>6000001</v>
-      </c>
-      <c r="H27">
-        <v>61010003</v>
-      </c>
-      <c r="I27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27">
-        <v>204002</v>
-      </c>
-      <c r="P27" t="s">
-        <v>99</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27">
-        <v>6</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0.5</v>
-      </c>
-      <c r="V27">
-        <v>0.5</v>
       </c>
       <c r="W27">
         <v>4</v>
@@ -3143,41 +3140,41 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <v>6000001</v>
+      </c>
+      <c r="G28">
+        <v>61010003</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28">
+        <v>204003</v>
+      </c>
+      <c r="O28" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
         <v>20</v>
-      </c>
-      <c r="G28">
-        <v>6000001</v>
-      </c>
-      <c r="H28">
-        <v>61010003</v>
-      </c>
-      <c r="I28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28">
-        <v>204003</v>
-      </c>
-      <c r="P28" t="s">
-        <v>99</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>6</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0.5</v>
-      </c>
-      <c r="V28">
-        <v>0.5</v>
       </c>
       <c r="W28">
         <v>4</v>
@@ -3211,35 +3208,35 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29">
+        <v>7000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29">
+        <v>200001</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
         <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29">
-        <v>7000001</v>
-      </c>
-      <c r="I29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29">
-        <v>200001</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>6</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>0.5</v>
-      </c>
-      <c r="V29">
-        <v>0.5</v>
       </c>
       <c r="W29">
         <v>12</v>
@@ -3273,41 +3270,41 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <v>7000001</v>
+      </c>
+      <c r="G30">
+        <v>71000001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30">
+        <v>205001</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30">
         <v>45</v>
-      </c>
-      <c r="G30">
-        <v>7000001</v>
-      </c>
-      <c r="H30">
-        <v>71000001</v>
-      </c>
-      <c r="I30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30">
-        <v>205001</v>
-      </c>
-      <c r="P30" t="s">
-        <v>74</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>10</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>0.5</v>
-      </c>
-      <c r="V30">
-        <v>0.5</v>
       </c>
       <c r="W30">
         <v>12</v>
@@ -3341,41 +3338,41 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <v>7000001</v>
+      </c>
+      <c r="G31">
+        <v>71010004</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31">
+        <v>205002</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
         <v>45</v>
-      </c>
-      <c r="G31">
-        <v>7000001</v>
-      </c>
-      <c r="H31">
-        <v>71010004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" t="s">
-        <v>71</v>
-      </c>
-      <c r="O31">
-        <v>205002</v>
-      </c>
-      <c r="P31" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>6</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>0.5</v>
-      </c>
-      <c r="V31">
-        <v>0.5</v>
       </c>
       <c r="W31">
         <v>6</v>
@@ -3409,41 +3406,41 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <v>7000001</v>
+      </c>
+      <c r="G32">
+        <v>71010004</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32">
+        <v>205003</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
         <v>45</v>
-      </c>
-      <c r="G32">
-        <v>7000001</v>
-      </c>
-      <c r="H32">
-        <v>71010004</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" t="s">
-        <v>71</v>
-      </c>
-      <c r="O32">
-        <v>205003</v>
-      </c>
-      <c r="P32" t="s">
-        <v>74</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>6</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>0.5</v>
-      </c>
-      <c r="V32">
-        <v>0.5</v>
       </c>
       <c r="W32">
         <v>6</v>
@@ -3477,25 +3474,25 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>1000001</v>
       </c>
-      <c r="O33">
+      <c r="N33">
         <v>100001</v>
       </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
       <c r="R33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U33">
-        <v>0.5</v>
-      </c>
-      <c r="V33">
         <v>0.5</v>
       </c>
       <c r="W33">
@@ -3530,25 +3527,25 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="F34">
         <v>1000001</v>
       </c>
-      <c r="O34">
+      <c r="N34">
         <v>200001</v>
       </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
       <c r="R34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U34">
-        <v>0.5</v>
-      </c>
-      <c r="V34">
         <v>0.5</v>
       </c>
       <c r="W34">
@@ -3583,25 +3580,25 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="F35">
         <v>1000001</v>
       </c>
-      <c r="O35">
+      <c r="N35">
         <v>201001</v>
       </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
       <c r="R35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U35">
-        <v>0.5</v>
-      </c>
-      <c r="V35">
         <v>0.5</v>
       </c>
       <c r="W35">
@@ -3636,25 +3633,25 @@
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="F36">
         <v>1000001</v>
       </c>
-      <c r="O36">
+      <c r="N36">
         <v>201002</v>
       </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
       <c r="R36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U36">
-        <v>0.5</v>
-      </c>
-      <c r="V36">
         <v>0.5</v>
       </c>
       <c r="W36">
@@ -3689,22 +3686,22 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="N37">
         <v>200001</v>
       </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
       <c r="R37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U37">
-        <v>0.5</v>
-      </c>
-      <c r="V37">
         <v>0.5</v>
       </c>
       <c r="W37">
@@ -3739,22 +3736,22 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="N38">
         <v>200001</v>
       </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
       <c r="R38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U38">
-        <v>0.5</v>
-      </c>
-      <c r="V38">
         <v>0.5</v>
       </c>
       <c r="W38">
@@ -3789,22 +3786,22 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="N39">
         <v>200001</v>
       </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
       <c r="R39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U39">
-        <v>0.5</v>
-      </c>
-      <c r="V39">
         <v>0.5</v>
       </c>
       <c r="W39">
@@ -3839,22 +3836,22 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="N40">
         <v>200001</v>
       </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
       <c r="R40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U40">
-        <v>0.5</v>
-      </c>
-      <c r="V40">
         <v>0.5</v>
       </c>
       <c r="W40">
@@ -3889,22 +3886,22 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="N41">
         <v>200001</v>
       </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
       <c r="R41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U41">
-        <v>0.5</v>
-      </c>
-      <c r="V41">
         <v>0.5</v>
       </c>
       <c r="W41">
@@ -3939,22 +3936,22 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="N42">
         <v>200001</v>
       </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
       <c r="R42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U42">
-        <v>0.5</v>
-      </c>
-      <c r="V42">
         <v>0.5</v>
       </c>
       <c r="W42">
@@ -3989,22 +3986,22 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="O43">
+      <c r="N43">
         <v>200001</v>
       </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
       <c r="R43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U43">
-        <v>0.5</v>
-      </c>
-      <c r="V43">
         <v>0.5</v>
       </c>
       <c r="W43">
@@ -4039,22 +4036,22 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="O44">
+      <c r="N44">
         <v>200001</v>
       </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
       <c r="R44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U44">
-        <v>0.5</v>
-      </c>
-      <c r="V44">
         <v>0.5</v>
       </c>
       <c r="W44">
@@ -4089,22 +4086,22 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="N45">
         <v>200001</v>
       </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
       <c r="R45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U45">
-        <v>0.5</v>
-      </c>
-      <c r="V45">
         <v>0.5</v>
       </c>
       <c r="W45">
@@ -4139,22 +4136,22 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="N46">
         <v>200001</v>
       </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
       <c r="R46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U46">
-        <v>0.5</v>
-      </c>
-      <c r="V46">
         <v>0.5</v>
       </c>
       <c r="W46">
@@ -4189,22 +4186,22 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="N47">
         <v>200001</v>
       </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
       <c r="R47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U47">
-        <v>0.5</v>
-      </c>
-      <c r="V47">
         <v>0.5</v>
       </c>
       <c r="W47">
@@ -4239,22 +4236,22 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="N48">
         <v>200001</v>
       </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
       <c r="R48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U48">
-        <v>0.5</v>
-      </c>
-      <c r="V48">
         <v>0.5</v>
       </c>
       <c r="W48">
@@ -4289,22 +4286,22 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="O49">
+      <c r="N49">
         <v>200001</v>
       </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
       <c r="R49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U49">
-        <v>0.5</v>
-      </c>
-      <c r="V49">
         <v>0.5</v>
       </c>
       <c r="W49">
@@ -4339,22 +4336,22 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="N50">
         <v>200001</v>
       </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
       <c r="R50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U50">
-        <v>0.5</v>
-      </c>
-      <c r="V50">
         <v>0.5</v>
       </c>
       <c r="W50">
@@ -4389,22 +4386,22 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="O51">
+      <c r="N51">
         <v>200001</v>
       </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
       <c r="R51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U51">
-        <v>0.5</v>
-      </c>
-      <c r="V51">
         <v>0.5</v>
       </c>
       <c r="W51">
@@ -4439,22 +4436,22 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="N52">
         <v>200001</v>
       </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
       <c r="R52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U52">
-        <v>0.5</v>
-      </c>
-      <c r="V52">
         <v>0.5</v>
       </c>
       <c r="W52">
@@ -4489,22 +4486,22 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="N53">
         <v>200001</v>
       </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
       <c r="R53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U53">
-        <v>0.5</v>
-      </c>
-      <c r="V53">
         <v>0.5</v>
       </c>
       <c r="W53">
@@ -4539,22 +4536,22 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="O54">
+      <c r="N54">
         <v>200001</v>
       </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
       <c r="R54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U54">
-        <v>0.5</v>
-      </c>
-      <c r="V54">
         <v>0.5</v>
       </c>
       <c r="W54">
@@ -4589,22 +4586,22 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="N55">
         <v>200001</v>
       </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
       <c r="R55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U55">
-        <v>0.5</v>
-      </c>
-      <c r="V55">
         <v>0.5</v>
       </c>
       <c r="W55">
@@ -4639,22 +4636,22 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="N56">
         <v>200001</v>
       </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
       <c r="R56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U56">
-        <v>0.5</v>
-      </c>
-      <c r="V56">
         <v>0.5</v>
       </c>
       <c r="W56">
@@ -4689,22 +4686,22 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="N57">
         <v>200001</v>
       </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
       <c r="R57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U57">
-        <v>0.5</v>
-      </c>
-      <c r="V57">
         <v>0.5</v>
       </c>
       <c r="W57">
@@ -4739,22 +4736,22 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="O58">
+      <c r="N58">
         <v>200001</v>
       </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
       <c r="R58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U58">
-        <v>0.5</v>
-      </c>
-      <c r="V58">
         <v>0.5</v>
       </c>
       <c r="W58">
@@ -4789,22 +4786,22 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="N59">
         <v>200001</v>
       </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
       <c r="R59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U59">
-        <v>0.5</v>
-      </c>
-      <c r="V59">
         <v>0.5</v>
       </c>
       <c r="W59">
@@ -4839,22 +4836,22 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="O60">
+      <c r="N60">
         <v>200001</v>
       </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
       <c r="R60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U60">
-        <v>0.5</v>
-      </c>
-      <c r="V60">
         <v>0.5</v>
       </c>
       <c r="W60">
@@ -4889,22 +4886,22 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="O61">
+      <c r="N61">
         <v>200001</v>
       </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
       <c r="R61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U61">
-        <v>0.5</v>
-      </c>
-      <c r="V61">
         <v>0.5</v>
       </c>
       <c r="W61">
@@ -4939,22 +4936,22 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="N62">
         <v>200001</v>
       </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
       <c r="R62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U62">
-        <v>0.5</v>
-      </c>
-      <c r="V62">
         <v>0.5</v>
       </c>
       <c r="W62">
@@ -4989,22 +4986,22 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="O63">
+      <c r="N63">
         <v>200001</v>
       </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
       <c r="R63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U63">
-        <v>0.5</v>
-      </c>
-      <c r="V63">
         <v>0.5</v>
       </c>
       <c r="W63">
@@ -5039,22 +5036,22 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="O64">
+      <c r="N64">
         <v>200001</v>
       </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
       <c r="R64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U64">
-        <v>0.5</v>
-      </c>
-      <c r="V64">
         <v>0.5</v>
       </c>
       <c r="W64">
@@ -5089,22 +5086,22 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="O65">
+      <c r="N65">
         <v>200001</v>
       </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
       <c r="R65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U65">
-        <v>0.5</v>
-      </c>
-      <c r="V65">
         <v>0.5</v>
       </c>
       <c r="W65">
@@ -5139,22 +5136,22 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="N66">
         <v>200001</v>
       </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
       <c r="R66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U66">
-        <v>0.5</v>
-      </c>
-      <c r="V66">
         <v>0.5</v>
       </c>
       <c r="W66">
@@ -5189,22 +5186,22 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="O67">
+      <c r="N67">
         <v>200001</v>
       </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
       <c r="R67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U67">
-        <v>0.5</v>
-      </c>
-      <c r="V67">
         <v>0.5</v>
       </c>
       <c r="W67">
@@ -5239,22 +5236,22 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="O68">
+      <c r="N68">
         <v>200001</v>
       </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
       <c r="R68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U68">
-        <v>0.5</v>
-      </c>
-      <c r="V68">
         <v>0.5</v>
       </c>
       <c r="W68">
@@ -5289,22 +5286,22 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="O69">
+      <c r="N69">
         <v>200001</v>
       </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
       <c r="R69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U69">
-        <v>0.5</v>
-      </c>
-      <c r="V69">
         <v>0.5</v>
       </c>
       <c r="W69">
@@ -5339,22 +5336,22 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="N70">
         <v>200001</v>
       </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
       <c r="R70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U70">
-        <v>0.5</v>
-      </c>
-      <c r="V70">
         <v>0.5</v>
       </c>
       <c r="W70">
@@ -5389,22 +5386,22 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="O71">
+      <c r="N71">
         <v>200001</v>
       </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
       <c r="R71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U71">
-        <v>0.5</v>
-      </c>
-      <c r="V71">
         <v>0.5</v>
       </c>
       <c r="W71">
@@ -5439,22 +5436,22 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="O72">
+      <c r="N72">
         <v>200001</v>
       </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
       <c r="R72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U72">
-        <v>0.5</v>
-      </c>
-      <c r="V72">
         <v>0.5</v>
       </c>
       <c r="W72">
@@ -5489,22 +5486,22 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="O73">
+      <c r="N73">
         <v>200001</v>
       </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
       <c r="R73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U73">
-        <v>0.5</v>
-      </c>
-      <c r="V73">
         <v>0.5</v>
       </c>
       <c r="W73">
@@ -5539,22 +5536,22 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="O74">
+      <c r="N74">
         <v>200001</v>
       </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
       <c r="R74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U74">
-        <v>0.5</v>
-      </c>
-      <c r="V74">
         <v>0.5</v>
       </c>
       <c r="W74">
@@ -5589,22 +5586,22 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="O75">
+      <c r="N75">
         <v>200001</v>
       </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
       <c r="R75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U75">
-        <v>0.5</v>
-      </c>
-      <c r="V75">
         <v>0.5</v>
       </c>
       <c r="W75">
@@ -5639,22 +5636,22 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="O76">
+      <c r="N76">
         <v>200001</v>
       </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
       <c r="R76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U76">
-        <v>0.5</v>
-      </c>
-      <c r="V76">
         <v>0.5</v>
       </c>
       <c r="W76">
@@ -5689,22 +5686,22 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="N77">
         <v>200001</v>
       </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
       <c r="R77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U77">
-        <v>0.5</v>
-      </c>
-      <c r="V77">
         <v>0.5</v>
       </c>
       <c r="W77">
@@ -5739,22 +5736,22 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="N78">
         <v>200001</v>
       </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
       <c r="R78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U78">
-        <v>0.5</v>
-      </c>
-      <c r="V78">
         <v>0.5</v>
       </c>
       <c r="W78">
@@ -5789,22 +5786,22 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="O79">
+      <c r="N79">
         <v>200001</v>
       </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
       <c r="R79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U79">
-        <v>0.5</v>
-      </c>
-      <c r="V79">
         <v>0.5</v>
       </c>
       <c r="W79">
@@ -5839,22 +5836,22 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="O80">
+      <c r="N80">
         <v>200001</v>
       </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
       <c r="R80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U80">
-        <v>0.5</v>
-      </c>
-      <c r="V80">
         <v>0.5</v>
       </c>
       <c r="W80">
@@ -5889,22 +5886,22 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="O81">
+      <c r="N81">
         <v>200001</v>
       </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
       <c r="R81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U81">
-        <v>0.5</v>
-      </c>
-      <c r="V81">
         <v>0.5</v>
       </c>
       <c r="W81">
@@ -5939,22 +5936,22 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="O82">
+      <c r="N82">
         <v>200001</v>
       </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
       <c r="R82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U82">
-        <v>0.5</v>
-      </c>
-      <c r="V82">
         <v>0.5</v>
       </c>
       <c r="W82">
@@ -5989,22 +5986,22 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="O83">
+      <c r="N83">
         <v>200001</v>
       </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
       <c r="R83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U83">
-        <v>0.5</v>
-      </c>
-      <c r="V83">
         <v>0.5</v>
       </c>
       <c r="W83">
@@ -6039,22 +6036,22 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="O84">
+      <c r="N84">
         <v>200001</v>
       </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
       <c r="R84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U84">
-        <v>0.5</v>
-      </c>
-      <c r="V84">
         <v>0.5</v>
       </c>
       <c r="W84">
@@ -6089,22 +6086,22 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="O85">
+      <c r="N85">
         <v>200001</v>
       </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
       <c r="R85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U85">
-        <v>0.5</v>
-      </c>
-      <c r="V85">
         <v>0.5</v>
       </c>
       <c r="W85">
@@ -6139,22 +6136,22 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="O86">
+      <c r="N86">
         <v>200001</v>
       </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
       <c r="R86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U86">
-        <v>0.5</v>
-      </c>
-      <c r="V86">
         <v>0.5</v>
       </c>
       <c r="W86">
@@ -6189,22 +6186,22 @@
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="O87">
+      <c r="N87">
         <v>200001</v>
       </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
       <c r="R87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U87">
-        <v>0.5</v>
-      </c>
-      <c r="V87">
         <v>0.5</v>
       </c>
       <c r="W87">
@@ -6239,22 +6236,22 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="O88">
+      <c r="N88">
         <v>200001</v>
       </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
       <c r="R88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U88">
-        <v>0.5</v>
-      </c>
-      <c r="V88">
         <v>0.5</v>
       </c>
       <c r="W88">
@@ -6289,22 +6286,22 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="O89">
+      <c r="N89">
         <v>200001</v>
       </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
       <c r="R89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U89">
-        <v>0.5</v>
-      </c>
-      <c r="V89">
         <v>0.5</v>
       </c>
       <c r="W89">
@@ -6339,22 +6336,22 @@
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="O90">
+      <c r="N90">
         <v>200001</v>
       </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
       <c r="R90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U90">
-        <v>0.5</v>
-      </c>
-      <c r="V90">
         <v>0.5</v>
       </c>
       <c r="W90">
@@ -6389,22 +6386,22 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="O91">
+      <c r="N91">
         <v>200001</v>
       </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
       <c r="R91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U91">
-        <v>0.5</v>
-      </c>
-      <c r="V91">
         <v>0.5</v>
       </c>
       <c r="W91">
@@ -6439,22 +6436,22 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="O92">
+      <c r="N92">
         <v>200001</v>
       </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
       <c r="R92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S92">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U92">
-        <v>0.5</v>
-      </c>
-      <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92">
@@ -6489,22 +6486,22 @@
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="O93">
+      <c r="N93">
         <v>200001</v>
       </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
       <c r="R93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U93">
-        <v>0.5</v>
-      </c>
-      <c r="V93">
         <v>0.5</v>
       </c>
       <c r="W93">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -1348,11 +1348,11 @@
   <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF$1:AF$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1383,7 +1383,6 @@
     <col min="29" max="29" width="13.75" customWidth="1"/>
     <col min="30" max="30" width="16" customWidth="1"/>
     <col min="31" max="31" width="42.875" customWidth="1"/>
-    <col min="32" max="32" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -1694,7 +1693,7 @@
         <v>66</v>
       </c>
       <c r="AD4">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="s">
         <v>67</v>
@@ -1723,7 +1722,7 @@
         <v>66</v>
       </c>
       <c r="AD5">
-        <v>50000000002</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="s">
         <v>68</v>
@@ -1776,7 +1775,7 @@
         <v>66</v>
       </c>
       <c r="AD6">
-        <v>50000001001</v>
+        <v>1001</v>
       </c>
       <c r="AE6" t="s">
         <v>69</v>
@@ -1841,7 +1840,7 @@
         <v>66</v>
       </c>
       <c r="AD7">
-        <v>50000002001</v>
+        <v>2001</v>
       </c>
       <c r="AE7" t="s">
         <v>72</v>
@@ -1909,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="AD8">
-        <v>50000002002</v>
+        <v>2002</v>
       </c>
       <c r="AE8" t="s">
         <v>75</v>
@@ -1977,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="AD9">
-        <v>50000002003</v>
+        <v>2003</v>
       </c>
       <c r="AE9" t="s">
         <v>77</v>
@@ -2045,7 +2044,7 @@
         <v>66</v>
       </c>
       <c r="AD10">
-        <v>50000002004</v>
+        <v>2004</v>
       </c>
       <c r="AE10" t="s">
         <v>78</v>
@@ -2101,7 +2100,7 @@
         <v>66</v>
       </c>
       <c r="AD11">
-        <v>50000003001</v>
+        <v>3001</v>
       </c>
       <c r="AE11" t="s">
         <v>79</v>
@@ -2163,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="AD12">
-        <v>50000003002</v>
+        <v>3002</v>
       </c>
       <c r="AE12" t="s">
         <v>80</v>
@@ -2231,7 +2230,7 @@
         <v>66</v>
       </c>
       <c r="AD13">
-        <v>50000003003</v>
+        <v>3003</v>
       </c>
       <c r="AE13" t="s">
         <v>82</v>
@@ -2299,7 +2298,7 @@
         <v>66</v>
       </c>
       <c r="AD14">
-        <v>50000003004</v>
+        <v>3004</v>
       </c>
       <c r="AE14" t="s">
         <v>83</v>
@@ -2364,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="AD15">
-        <v>50000004001</v>
+        <v>4001</v>
       </c>
       <c r="AE15" t="s">
         <v>84</v>
@@ -2426,7 +2425,7 @@
         <v>66</v>
       </c>
       <c r="AD16">
-        <v>50000004002</v>
+        <v>4002</v>
       </c>
       <c r="AE16" t="s">
         <v>86</v>
@@ -2488,7 +2487,7 @@
         <v>66</v>
       </c>
       <c r="AD17">
-        <v>50000004003</v>
+        <v>4003</v>
       </c>
       <c r="AE17" t="s">
         <v>87</v>
@@ -2553,7 +2552,7 @@
         <v>66</v>
       </c>
       <c r="AD18">
-        <v>50000004004</v>
+        <v>4004</v>
       </c>
       <c r="AE18" t="s">
         <v>88</v>
@@ -2616,7 +2615,7 @@
         <v>66</v>
       </c>
       <c r="AD19">
-        <v>50000004005</v>
+        <v>4005</v>
       </c>
       <c r="AE19" t="s">
         <v>89</v>
@@ -2678,7 +2677,7 @@
         <v>66</v>
       </c>
       <c r="AD20">
-        <v>50000005001</v>
+        <v>5001</v>
       </c>
       <c r="AE20" t="s">
         <v>91</v>
@@ -2746,7 +2745,7 @@
         <v>66</v>
       </c>
       <c r="AD21">
-        <v>50000005002</v>
+        <v>5002</v>
       </c>
       <c r="AE21" t="s">
         <v>94</v>
@@ -2808,7 +2807,7 @@
         <v>66</v>
       </c>
       <c r="AD22">
-        <v>50000005003</v>
+        <v>5003</v>
       </c>
       <c r="AE22" t="s">
         <v>95</v>
@@ -2870,7 +2869,7 @@
         <v>66</v>
       </c>
       <c r="AD23">
-        <v>50000005004</v>
+        <v>5004</v>
       </c>
       <c r="AE23" t="s">
         <v>96</v>
@@ -2932,7 +2931,7 @@
         <v>66</v>
       </c>
       <c r="AD24">
-        <v>50000006001</v>
+        <v>6001</v>
       </c>
       <c r="AE24" t="s">
         <v>98</v>
@@ -3000,7 +2999,7 @@
         <v>66</v>
       </c>
       <c r="AD25">
-        <v>50000006002</v>
+        <v>6002</v>
       </c>
       <c r="AE25" t="s">
         <v>100</v>
@@ -3059,7 +3058,7 @@
         <v>66</v>
       </c>
       <c r="AD26">
-        <v>50000006003</v>
+        <v>6003</v>
       </c>
       <c r="AE26" t="s">
         <v>101</v>
@@ -3127,7 +3126,7 @@
         <v>66</v>
       </c>
       <c r="AD27">
-        <v>50000006004</v>
+        <v>6004</v>
       </c>
       <c r="AE27" t="s">
         <v>102</v>
@@ -3195,7 +3194,7 @@
         <v>66</v>
       </c>
       <c r="AD28">
-        <v>50000006005</v>
+        <v>6005</v>
       </c>
       <c r="AE28" t="s">
         <v>103</v>
@@ -3257,7 +3256,7 @@
         <v>66</v>
       </c>
       <c r="AD29">
-        <v>50000007001</v>
+        <v>7001</v>
       </c>
       <c r="AE29" t="s">
         <v>105</v>
@@ -3325,7 +3324,7 @@
         <v>66</v>
       </c>
       <c r="AD30">
-        <v>50000007002</v>
+        <v>7002</v>
       </c>
       <c r="AE30" t="s">
         <v>106</v>
@@ -3393,7 +3392,7 @@
         <v>66</v>
       </c>
       <c r="AD31">
-        <v>50000007003</v>
+        <v>7003</v>
       </c>
       <c r="AE31" t="s">
         <v>107</v>
@@ -3461,7 +3460,7 @@
         <v>66</v>
       </c>
       <c r="AD32">
-        <v>50000007004</v>
+        <v>7004</v>
       </c>
       <c r="AE32" t="s">
         <v>108</v>
@@ -3514,7 +3513,7 @@
         <v>66</v>
       </c>
       <c r="AD33">
-        <v>50000101001</v>
+        <v>101001</v>
       </c>
       <c r="AE33" t="s">
         <v>109</v>
@@ -3567,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="AD34">
-        <v>50000102001</v>
+        <v>102001</v>
       </c>
       <c r="AE34" t="s">
         <v>110</v>
@@ -3620,7 +3619,7 @@
         <v>66</v>
       </c>
       <c r="AD35">
-        <v>50000103001</v>
+        <v>103001</v>
       </c>
       <c r="AE35" t="s">
         <v>111</v>
@@ -3673,7 +3672,7 @@
         <v>66</v>
       </c>
       <c r="AD36">
-        <v>50000103002</v>
+        <v>103002</v>
       </c>
       <c r="AE36" t="s">
         <v>112</v>
@@ -3723,7 +3722,7 @@
         <v>113</v>
       </c>
       <c r="AD37">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="s">
         <v>114</v>
@@ -3773,7 +3772,7 @@
         <v>113</v>
       </c>
       <c r="AD38">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE38" t="s">
         <v>114</v>
@@ -3823,7 +3822,7 @@
         <v>113</v>
       </c>
       <c r="AD39">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="s">
         <v>114</v>
@@ -3873,7 +3872,7 @@
         <v>113</v>
       </c>
       <c r="AD40">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="s">
         <v>114</v>
@@ -3923,7 +3922,7 @@
         <v>113</v>
       </c>
       <c r="AD41">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE41" t="s">
         <v>114</v>
@@ -3973,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="AD42">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="s">
         <v>114</v>
@@ -4023,7 +4022,7 @@
         <v>113</v>
       </c>
       <c r="AD43">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="s">
         <v>114</v>
@@ -4073,7 +4072,7 @@
         <v>113</v>
       </c>
       <c r="AD44">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="s">
         <v>114</v>
@@ -4123,7 +4122,7 @@
         <v>113</v>
       </c>
       <c r="AD45">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="s">
         <v>114</v>
@@ -4173,7 +4172,7 @@
         <v>113</v>
       </c>
       <c r="AD46">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="s">
         <v>114</v>
@@ -4223,7 +4222,7 @@
         <v>113</v>
       </c>
       <c r="AD47">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE47" t="s">
         <v>114</v>
@@ -4273,7 +4272,7 @@
         <v>113</v>
       </c>
       <c r="AD48">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="s">
         <v>114</v>
@@ -4323,7 +4322,7 @@
         <v>113</v>
       </c>
       <c r="AD49">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="s">
         <v>114</v>
@@ -4373,7 +4372,7 @@
         <v>113</v>
       </c>
       <c r="AD50">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE50" t="s">
         <v>114</v>
@@ -4423,7 +4422,7 @@
         <v>113</v>
       </c>
       <c r="AD51">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE51" t="s">
         <v>114</v>
@@ -4473,7 +4472,7 @@
         <v>113</v>
       </c>
       <c r="AD52">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE52" t="s">
         <v>114</v>
@@ -4523,7 +4522,7 @@
         <v>113</v>
       </c>
       <c r="AD53">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE53" t="s">
         <v>114</v>
@@ -4573,7 +4572,7 @@
         <v>113</v>
       </c>
       <c r="AD54">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE54" t="s">
         <v>114</v>
@@ -4623,7 +4622,7 @@
         <v>113</v>
       </c>
       <c r="AD55">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE55" t="s">
         <v>114</v>
@@ -4673,7 +4672,7 @@
         <v>113</v>
       </c>
       <c r="AD56">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE56" t="s">
         <v>114</v>
@@ -4723,7 +4722,7 @@
         <v>113</v>
       </c>
       <c r="AD57">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="s">
         <v>114</v>
@@ -4773,7 +4772,7 @@
         <v>113</v>
       </c>
       <c r="AD58">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE58" t="s">
         <v>114</v>
@@ -4823,7 +4822,7 @@
         <v>113</v>
       </c>
       <c r="AD59">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE59" t="s">
         <v>114</v>
@@ -4873,7 +4872,7 @@
         <v>113</v>
       </c>
       <c r="AD60">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE60" t="s">
         <v>114</v>
@@ -4923,7 +4922,7 @@
         <v>113</v>
       </c>
       <c r="AD61">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE61" t="s">
         <v>114</v>
@@ -4973,7 +4972,7 @@
         <v>113</v>
       </c>
       <c r="AD62">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE62" t="s">
         <v>114</v>
@@ -5023,7 +5022,7 @@
         <v>113</v>
       </c>
       <c r="AD63">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE63" t="s">
         <v>114</v>
@@ -5073,7 +5072,7 @@
         <v>113</v>
       </c>
       <c r="AD64">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE64" t="s">
         <v>114</v>
@@ -5123,7 +5122,7 @@
         <v>113</v>
       </c>
       <c r="AD65">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE65" t="s">
         <v>114</v>
@@ -5173,7 +5172,7 @@
         <v>113</v>
       </c>
       <c r="AD66">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE66" t="s">
         <v>114</v>
@@ -5223,7 +5222,7 @@
         <v>113</v>
       </c>
       <c r="AD67">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE67" t="s">
         <v>114</v>
@@ -5273,7 +5272,7 @@
         <v>113</v>
       </c>
       <c r="AD68">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE68" t="s">
         <v>114</v>
@@ -5323,7 +5322,7 @@
         <v>113</v>
       </c>
       <c r="AD69">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE69" t="s">
         <v>114</v>
@@ -5373,7 +5372,7 @@
         <v>113</v>
       </c>
       <c r="AD70">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="s">
         <v>114</v>
@@ -5423,7 +5422,7 @@
         <v>113</v>
       </c>
       <c r="AD71">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE71" t="s">
         <v>114</v>
@@ -5473,7 +5472,7 @@
         <v>113</v>
       </c>
       <c r="AD72">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="s">
         <v>114</v>
@@ -5523,7 +5522,7 @@
         <v>113</v>
       </c>
       <c r="AD73">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE73" t="s">
         <v>114</v>
@@ -5573,7 +5572,7 @@
         <v>113</v>
       </c>
       <c r="AD74">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE74" t="s">
         <v>114</v>
@@ -5623,7 +5622,7 @@
         <v>113</v>
       </c>
       <c r="AD75">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE75" t="s">
         <v>114</v>
@@ -5673,7 +5672,7 @@
         <v>113</v>
       </c>
       <c r="AD76">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="s">
         <v>114</v>
@@ -5723,7 +5722,7 @@
         <v>113</v>
       </c>
       <c r="AD77">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE77" t="s">
         <v>114</v>
@@ -5773,7 +5772,7 @@
         <v>113</v>
       </c>
       <c r="AD78">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="s">
         <v>114</v>
@@ -5823,7 +5822,7 @@
         <v>113</v>
       </c>
       <c r="AD79">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE79" t="s">
         <v>114</v>
@@ -5873,7 +5872,7 @@
         <v>113</v>
       </c>
       <c r="AD80">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE80" t="s">
         <v>114</v>
@@ -5923,7 +5922,7 @@
         <v>113</v>
       </c>
       <c r="AD81">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE81" t="s">
         <v>114</v>
@@ -5973,7 +5972,7 @@
         <v>113</v>
       </c>
       <c r="AD82">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE82" t="s">
         <v>114</v>
@@ -6023,7 +6022,7 @@
         <v>113</v>
       </c>
       <c r="AD83">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE83" t="s">
         <v>114</v>
@@ -6073,7 +6072,7 @@
         <v>113</v>
       </c>
       <c r="AD84">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE84" t="s">
         <v>114</v>
@@ -6123,7 +6122,7 @@
         <v>113</v>
       </c>
       <c r="AD85">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE85" t="s">
         <v>114</v>
@@ -6173,7 +6172,7 @@
         <v>113</v>
       </c>
       <c r="AD86">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE86" t="s">
         <v>114</v>
@@ -6223,7 +6222,7 @@
         <v>113</v>
       </c>
       <c r="AD87">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE87" t="s">
         <v>114</v>
@@ -6273,7 +6272,7 @@
         <v>113</v>
       </c>
       <c r="AD88">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE88" t="s">
         <v>114</v>
@@ -6323,7 +6322,7 @@
         <v>113</v>
       </c>
       <c r="AD89">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE89" t="s">
         <v>114</v>
@@ -6373,7 +6372,7 @@
         <v>113</v>
       </c>
       <c r="AD90">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE90" t="s">
         <v>114</v>
@@ -6423,7 +6422,7 @@
         <v>113</v>
       </c>
       <c r="AD91">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE91" t="s">
         <v>114</v>
@@ -6473,7 +6472,7 @@
         <v>113</v>
       </c>
       <c r="AD92">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE92" t="s">
         <v>114</v>
@@ -6523,7 +6522,7 @@
         <v>113</v>
       </c>
       <c r="AD93">
-        <v>50000000001</v>
+        <v>1</v>
       </c>
       <c r="AE93" t="s">
         <v>114</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -80,7 +80,7 @@
     <t>attack_search_type</t>
   </si>
   <si>
-    <t>attack_search_creature_type</t>
+    <t>attack_search_creature_fight_type</t>
   </si>
   <si>
     <t>attack_search_range</t>
@@ -140,7 +140,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>生物类型1：防御 2进攻 99防守核心</t>
+    <t>生物类型0创建 1抽卡 2敌人</t>
   </si>
   <si>
     <t>生物位置优先级</t>
@@ -1348,11 +1348,11 @@
   <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF1" sqref="AF$1:AF$1048576"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1000001</v>
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2000001</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -1348,11 +1348,11 @@
   <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3476,6 +3476,9 @@
       <c r="F33">
         <v>1000001</v>
       </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
       <c r="N33">
         <v>100001</v>
       </c>
@@ -3529,6 +3532,9 @@
       <c r="F34">
         <v>1000001</v>
       </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
       <c r="N34">
         <v>200001</v>
       </c>
@@ -3582,6 +3588,9 @@
       <c r="F35">
         <v>1000001</v>
       </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
       <c r="N35">
         <v>201001</v>
       </c>
@@ -3634,6 +3643,9 @@
       </c>
       <c r="F36">
         <v>1000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
       </c>
       <c r="N36">
         <v>201002</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AE$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,11 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>create_mana</t>
+  </si>
+  <si>
     <t>creature_type</t>
   </si>
   <si>
@@ -44,7 +47,7 @@
     <t>creature_layer_find</t>
   </si>
   <si>
-    <t>create_buff</t>
+    <t>creature_buff</t>
   </si>
   <si>
     <t>spine_base</t>
@@ -116,6 +119,9 @@
     <t>model_id</t>
   </si>
   <si>
+    <t>creature_random_id</t>
+  </si>
+  <si>
     <t>card_scene</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t>序号</t>
   </si>
   <si>
+    <t>创建需要的魔力</t>
+  </si>
+  <si>
     <t>生物类型0创建 1抽卡 2敌人</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
   </si>
   <si>
     <t>模组ID</t>
+  </si>
+  <si>
+    <t>随机皮肤数据-CreatureRandomInfo</t>
   </si>
   <si>
     <t>卡片背景</t>
@@ -990,11 +1002,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,47 +1360,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE163"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="52.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
-    <col min="17" max="17" width="35.875" customWidth="1"/>
-    <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="29.625" customWidth="1"/>
-    <col min="20" max="22" width="20.25" customWidth="1"/>
-    <col min="23" max="24" width="11.75" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="26" width="8.875" customWidth="1"/>
-    <col min="27" max="28" width="14.75" customWidth="1"/>
-    <col min="29" max="29" width="13.75" customWidth="1"/>
-    <col min="30" max="30" width="16" customWidth="1"/>
-    <col min="31" max="31" width="42.875" customWidth="1"/>
+    <col min="1" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="20.375" customWidth="1"/>
+    <col min="18" max="18" width="35.875" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="29.625" customWidth="1"/>
+    <col min="21" max="23" width="20.25" customWidth="1"/>
+    <col min="24" max="25" width="11.75" customWidth="1"/>
+    <col min="26" max="26" width="20.25" customWidth="1"/>
+    <col min="27" max="27" width="8.875" customWidth="1"/>
+    <col min="28" max="29" width="14.75" customWidth="1"/>
+    <col min="30" max="30" width="34" customWidth="1"/>
+    <col min="31" max="31" width="13.75" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,924 +1489,1006 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
         <v>34</v>
       </c>
       <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
       </c>
       <c r="Z2" t="s">
         <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" t="s">
-        <v>31</v>
+      <c r="AD2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AE2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AG2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AE3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:31">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:33">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1000001</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>66</v>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:31">
+        <v>70</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:33">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2000001</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>66</v>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>2</v>
       </c>
       <c r="AE5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:31">
+        <v>70</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:33">
       <c r="A6">
         <v>1001</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="B6"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1000001</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>100001</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0.5</v>
       </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
         <v>10</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>0.2</v>
       </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>66</v>
+      <c r="AC6">
+        <v>1</v>
       </c>
       <c r="AD6">
+        <v>1000001</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6">
         <v>1001</v>
       </c>
-      <c r="AE6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:31">
+      <c r="AG6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:33">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21010001</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>100001</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>2000001</v>
+      </c>
+      <c r="AE7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7">
-        <v>100001</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>0.5</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>0.5</v>
-      </c>
-      <c r="U7">
-        <v>0.5</v>
-      </c>
-      <c r="V7">
-        <v>10</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>2001</v>
       </c>
-      <c r="AE7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AG7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21000001</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8">
+        <v>200001</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>2000001</v>
+      </c>
+      <c r="AE8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8">
-        <v>200001</v>
-      </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0.5</v>
-      </c>
-      <c r="U8">
-        <v>0.5</v>
-      </c>
-      <c r="V8">
-        <v>10</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>2002</v>
       </c>
-      <c r="AE8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AG8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>2000001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21010002</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>201001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>20</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>2000001</v>
+      </c>
+      <c r="AE9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9">
-        <v>201001</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>10</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0.5</v>
-      </c>
-      <c r="U9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>20</v>
-      </c>
-      <c r="W9">
-        <v>5</v>
-      </c>
-      <c r="Y9">
-        <v>6</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>2003</v>
       </c>
-      <c r="AE9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AG9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>2000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21010003</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>201002</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2000001</v>
+      </c>
+      <c r="AE10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10">
-        <v>201002</v>
-      </c>
-      <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>0.5</v>
-      </c>
-      <c r="U10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>20</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>2004</v>
       </c>
-      <c r="AE10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AG10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>3001</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0.5</v>
       </c>
       <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
         <v>120</v>
       </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
       <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
         <v>500</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AC11" t="s">
-        <v>66</v>
-      </c>
       <c r="AD11">
+        <v>3000001</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11">
         <v>3001</v>
       </c>
-      <c r="AE11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:31">
+      <c r="AG11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:33">
       <c r="A12">
         <v>3002</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12">
         <v>300001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.5</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
         <v>0.15</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>120</v>
       </c>
-      <c r="W12">
-        <v>10</v>
-      </c>
-      <c r="Y12">
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
         <v>500</v>
       </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12" t="s">
-        <v>66</v>
-      </c>
       <c r="AD12">
+        <v>3000001</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12">
         <v>3002</v>
       </c>
-      <c r="AE12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:31">
+      <c r="AG12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:33">
       <c r="A13">
         <v>3003</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
       </c>
       <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>400001</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>11</v>
       </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0.5</v>
       </c>
       <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
         <v>120</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>5</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
         <v>3</v>
       </c>
-      <c r="AC13" t="s">
-        <v>66</v>
-      </c>
       <c r="AD13">
+        <v>3000001</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF13">
         <v>3003</v>
       </c>
-      <c r="AE13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:31">
+      <c r="AG13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:33">
       <c r="A14">
         <v>3004</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
       </c>
       <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>400002</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>11</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
       <c r="R14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0.5</v>
       </c>
       <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
         <v>120</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AC14" t="s">
-        <v>66</v>
-      </c>
       <c r="AD14">
+        <v>3000001</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF14">
         <v>3004</v>
       </c>
-      <c r="AE14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:31">
+      <c r="AG14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:33">
       <c r="A15">
         <v>4001</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>4000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>41000002</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>101001</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>4000001</v>
+      </c>
+      <c r="AE15" t="s">
         <v>70</v>
       </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15">
-        <v>101001</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0.5</v>
-      </c>
-      <c r="U15">
-        <v>0.5</v>
-      </c>
-      <c r="V15">
-        <v>50</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="Y15">
-        <v>6</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>4</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>4001</v>
       </c>
-      <c r="AE15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:31">
+      <c r="AG15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:33">
       <c r="A16">
         <v>4002</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>4000001</v>
       </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16">
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16">
         <v>500001</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
         <v>1</v>
       </c>
@@ -2398,19 +2496,19 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0.5</v>
       </c>
       <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
         <v>50</v>
       </c>
-      <c r="W16">
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
+      <c r="X16">
+        <v>10</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2419,167 +2517,185 @@
         <v>1</v>
       </c>
       <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
         <v>4</v>
       </c>
-      <c r="AC16" t="s">
-        <v>66</v>
-      </c>
       <c r="AD16">
+        <v>4000001</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16">
         <v>4002</v>
       </c>
-      <c r="AE16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:31">
+      <c r="AG16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:33">
       <c r="A17">
         <v>4003</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>4000001</v>
       </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17">
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17">
         <v>600001</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>32</v>
       </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
       <c r="R17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0.5</v>
       </c>
       <c r="V17">
+        <v>0.5</v>
+      </c>
+      <c r="W17">
         <v>50</v>
       </c>
-      <c r="W17">
-        <v>10</v>
-      </c>
-      <c r="Y17">
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
       <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
         <v>4</v>
       </c>
-      <c r="AC17" t="s">
-        <v>66</v>
-      </c>
       <c r="AD17">
+        <v>4000001</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17">
         <v>4003</v>
       </c>
-      <c r="AE17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:31">
+      <c r="AG17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:33">
       <c r="A18">
         <v>4004</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>4000001</v>
       </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18">
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18">
         <v>202001</v>
       </c>
-      <c r="O18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18">
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18">
         <v>30</v>
       </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
       <c r="R18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0.5</v>
       </c>
       <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
         <v>50</v>
       </c>
-      <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="Y18">
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
         <v>3</v>
       </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <v>4</v>
       </c>
-      <c r="AC18" t="s">
-        <v>66</v>
-      </c>
       <c r="AD18">
+        <v>4000001</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18">
         <v>4004</v>
       </c>
-      <c r="AE18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:31">
+      <c r="AG18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:33">
       <c r="A19">
         <v>4005</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>4000001</v>
       </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="N19">
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19">
         <v>500002</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>13</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
       <c r="R19">
         <v>1</v>
       </c>
@@ -2587,21 +2703,21 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0.5</v>
       </c>
       <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
         <v>50</v>
       </c>
-      <c r="W19">
-        <v>10</v>
-      </c>
-      <c r="X19"/>
-      <c r="Y19">
-        <v>1</v>
-      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19"/>
       <c r="Z19">
         <v>1</v>
       </c>
@@ -2609,3935 +2725,4108 @@
         <v>1</v>
       </c>
       <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
         <v>4</v>
       </c>
-      <c r="AC19" t="s">
-        <v>66</v>
-      </c>
       <c r="AD19">
+        <v>4000001</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF19">
         <v>4005</v>
       </c>
-      <c r="AE19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:31">
+      <c r="AG19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:33">
       <c r="A20">
         <v>5001</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>5000001</v>
       </c>
-      <c r="H20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20">
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20">
         <v>101002</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>11</v>
       </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
       <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
         <v>1.5</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0.5</v>
       </c>
       <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
         <v>60</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>30</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3</v>
       </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
       <c r="AA20">
         <v>1</v>
       </c>
       <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
         <v>5</v>
       </c>
-      <c r="AC20" t="s">
-        <v>66</v>
-      </c>
       <c r="AD20">
+        <v>5000001</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20">
         <v>5001</v>
       </c>
-      <c r="AE20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:31">
+      <c r="AG20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:33">
       <c r="A21">
         <v>5002</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>5000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>51010001</v>
       </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21">
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21">
         <v>203001</v>
       </c>
-      <c r="O21" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
+      <c r="P21" t="s">
+        <v>97</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0.5</v>
       </c>
       <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
         <v>60</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>30</v>
       </c>
-      <c r="Y21">
-        <v>10</v>
-      </c>
       <c r="Z21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
         <v>5</v>
       </c>
-      <c r="AC21" t="s">
-        <v>66</v>
-      </c>
       <c r="AD21">
+        <v>5000001</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF21">
         <v>5002</v>
       </c>
-      <c r="AE21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:31">
+      <c r="AG21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:33">
       <c r="A22">
         <v>5003</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>5000001</v>
       </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22">
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22">
         <v>700001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>41</v>
       </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
       <c r="R22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0.5</v>
       </c>
       <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
         <v>45</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>15</v>
       </c>
-      <c r="Y22">
-        <v>6</v>
-      </c>
       <c r="Z22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
       <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
         <v>5</v>
       </c>
-      <c r="AC22" t="s">
-        <v>66</v>
-      </c>
       <c r="AD22">
+        <v>5000001</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF22">
         <v>5003</v>
       </c>
-      <c r="AE22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:31">
+      <c r="AG22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:33">
       <c r="A23">
         <v>5004</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>5000001</v>
       </c>
-      <c r="H23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23">
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23">
         <v>700002</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>41</v>
       </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
       <c r="R23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0.5</v>
       </c>
       <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
         <v>45</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>15</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
         <v>5</v>
       </c>
-      <c r="AC23" t="s">
-        <v>66</v>
-      </c>
       <c r="AD23">
+        <v>5000001</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF23">
         <v>5004</v>
       </c>
-      <c r="AE23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:31">
+      <c r="AG23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:33">
       <c r="A24">
         <v>6001</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24">
         <v>6000001</v>
       </c>
-      <c r="H24" t="s">
-        <v>85</v>
-      </c>
-      <c r="N24">
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24">
         <v>200001</v>
       </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
       <c r="R24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0.5</v>
       </c>
       <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
         <v>30</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>8</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>6</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
       </c>
       <c r="AD24">
+        <v>6000001</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF24">
         <v>6001</v>
       </c>
-      <c r="AE24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:31">
+      <c r="AG24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:33">
       <c r="A25">
         <v>6002</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>6000001</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>61010002</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>204001</v>
+      </c>
+      <c r="P25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>30</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>10</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AD25">
+        <v>6000001</v>
+      </c>
+      <c r="AE25" t="s">
         <v>70</v>
       </c>
-      <c r="L25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25">
-        <v>204001</v>
-      </c>
-      <c r="O25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>0.5</v>
-      </c>
-      <c r="U25">
-        <v>0.5</v>
-      </c>
-      <c r="V25">
-        <v>30</v>
-      </c>
-      <c r="W25">
-        <v>8</v>
-      </c>
-      <c r="Y25">
-        <v>10</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>6</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>6002</v>
       </c>
-      <c r="AE25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:31">
+      <c r="AG25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:33">
       <c r="A26">
         <v>6003</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>6000001</v>
       </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26">
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26">
         <v>200001</v>
       </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
       <c r="R26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0.5</v>
       </c>
       <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
         <v>300</v>
       </c>
-      <c r="W26">
-        <v>10</v>
-      </c>
-      <c r="Y26">
+      <c r="X26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
         <v>500</v>
       </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
       <c r="AA26">
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>6</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
       </c>
       <c r="AD26">
+        <v>6000001</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26">
         <v>6003</v>
       </c>
-      <c r="AE26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:31">
+      <c r="AG26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:33">
       <c r="A27">
         <v>6004</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>6000001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>61010003</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>204002</v>
+      </c>
+      <c r="P27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>6000001</v>
+      </c>
+      <c r="AE27" t="s">
         <v>70</v>
       </c>
-      <c r="L27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27">
-        <v>204002</v>
-      </c>
-      <c r="O27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27">
-        <v>6</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>0.5</v>
-      </c>
-      <c r="U27">
-        <v>0.5</v>
-      </c>
-      <c r="V27">
-        <v>20</v>
-      </c>
-      <c r="W27">
-        <v>4</v>
-      </c>
-      <c r="Y27">
-        <v>6</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>6</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>6004</v>
       </c>
-      <c r="AE27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:31">
+      <c r="AG27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:33">
       <c r="A28">
         <v>6005</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>6000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>61010003</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>204003</v>
+      </c>
+      <c r="P28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>20</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>6</v>
+      </c>
+      <c r="AD28">
+        <v>6000001</v>
+      </c>
+      <c r="AE28" t="s">
         <v>70</v>
       </c>
-      <c r="L28" t="s">
-        <v>76</v>
-      </c>
-      <c r="N28">
-        <v>204003</v>
-      </c>
-      <c r="O28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="R28">
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>0.5</v>
-      </c>
-      <c r="U28">
-        <v>0.5</v>
-      </c>
-      <c r="V28">
-        <v>20</v>
-      </c>
-      <c r="W28">
-        <v>4</v>
-      </c>
-      <c r="Y28">
-        <v>3</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>6</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>6005</v>
       </c>
-      <c r="AE28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:31">
+      <c r="AG28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:33">
       <c r="A29">
         <v>7001</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29">
         <v>7000001</v>
       </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="N29">
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29">
         <v>200001</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
       <c r="R29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0.5</v>
       </c>
       <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
         <v>45</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>12</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>12</v>
       </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
       <c r="AA29">
         <v>1</v>
       </c>
       <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>7</v>
       </c>
-      <c r="AC29" t="s">
-        <v>66</v>
-      </c>
       <c r="AD29">
+        <v>7000001</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF29">
         <v>7001</v>
       </c>
-      <c r="AE29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:31">
+      <c r="AG29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:33">
       <c r="A30">
         <v>7002</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>7000001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>71000001</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>205001</v>
+      </c>
+      <c r="P30" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>45</v>
+      </c>
+      <c r="X30">
+        <v>12</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AD30">
+        <v>7000001</v>
+      </c>
+      <c r="AE30" t="s">
         <v>70</v>
       </c>
-      <c r="L30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30">
-        <v>205001</v>
-      </c>
-      <c r="O30" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>0.5</v>
-      </c>
-      <c r="U30">
-        <v>0.5</v>
-      </c>
-      <c r="V30">
-        <v>45</v>
-      </c>
-      <c r="W30">
-        <v>12</v>
-      </c>
-      <c r="Y30">
-        <v>3</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>7</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>7002</v>
       </c>
-      <c r="AE30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:31">
+      <c r="AG30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:33">
       <c r="A31">
         <v>7003</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>7000001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>71010004</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31">
+        <v>205002</v>
+      </c>
+      <c r="P31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>45</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>7000001</v>
+      </c>
+      <c r="AE31" t="s">
         <v>70</v>
       </c>
-      <c r="L31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N31">
-        <v>205002</v>
-      </c>
-      <c r="O31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-      <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>0.5</v>
-      </c>
-      <c r="U31">
-        <v>0.5</v>
-      </c>
-      <c r="V31">
-        <v>45</v>
-      </c>
-      <c r="W31">
-        <v>6</v>
-      </c>
-      <c r="Y31">
-        <v>6</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>7</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>7003</v>
       </c>
-      <c r="AE31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:31">
+      <c r="AG31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:33">
       <c r="A32">
         <v>7004</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>7000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>71010004</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32">
+        <v>205003</v>
+      </c>
+      <c r="P32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>45</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>7</v>
+      </c>
+      <c r="AD32">
+        <v>7000001</v>
+      </c>
+      <c r="AE32" t="s">
         <v>70</v>
       </c>
-      <c r="L32" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32">
-        <v>205003</v>
-      </c>
-      <c r="O32" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="R32">
-        <v>6</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>0.5</v>
-      </c>
-      <c r="U32">
-        <v>0.5</v>
-      </c>
-      <c r="V32">
-        <v>45</v>
-      </c>
-      <c r="W32">
-        <v>6</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>7</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>7004</v>
       </c>
-      <c r="AE32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:31">
+      <c r="AG32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:33">
       <c r="A33">
         <v>101001</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="F33">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="G33">
         <v>1000001</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33">
+        <v>100001</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>10</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>0.2</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1000001</v>
+      </c>
+      <c r="AE33" t="s">
         <v>70</v>
       </c>
-      <c r="N33">
-        <v>100001</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>0.5</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>0.5</v>
-      </c>
-      <c r="U33">
-        <v>0.5</v>
-      </c>
-      <c r="W33">
-        <v>10</v>
-      </c>
-      <c r="Y33">
-        <v>10</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>0.2</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>101001</v>
       </c>
-      <c r="AE33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:31">
+      <c r="AG33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:33">
       <c r="A34">
         <v>102001</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="F34">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="G34">
         <v>1000001</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34">
+        <v>200001</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>10</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>0.2</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1000001</v>
+      </c>
+      <c r="AE34" t="s">
         <v>70</v>
       </c>
-      <c r="N34">
-        <v>200001</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>0.5</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>0.5</v>
-      </c>
-      <c r="U34">
-        <v>0.5</v>
-      </c>
-      <c r="W34">
-        <v>10</v>
-      </c>
-      <c r="Y34">
-        <v>10</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>0.2</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>102001</v>
       </c>
-      <c r="AE34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:31">
+      <c r="AG34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:33">
       <c r="A35">
         <v>103001</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="F35">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="G35">
         <v>1000001</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35">
+        <v>201001</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>10</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0.2</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1000001</v>
+      </c>
+      <c r="AE35" t="s">
         <v>70</v>
       </c>
-      <c r="N35">
-        <v>201001</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>0.5</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>0.5</v>
-      </c>
-      <c r="U35">
-        <v>0.5</v>
-      </c>
-      <c r="W35">
-        <v>10</v>
-      </c>
-      <c r="Y35">
-        <v>10</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>0.2</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>103001</v>
       </c>
-      <c r="AE35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:31">
+      <c r="AG35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:33">
       <c r="A36">
         <v>103002</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="F36">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="G36">
         <v>1000001</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36">
+        <v>201002</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>10</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0.2</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1000001</v>
+      </c>
+      <c r="AE36" t="s">
         <v>70</v>
       </c>
-      <c r="N36">
-        <v>201002</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>0.5</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>0.5</v>
-      </c>
-      <c r="U36">
-        <v>0.5</v>
-      </c>
-      <c r="W36">
-        <v>10</v>
-      </c>
-      <c r="Y36">
-        <v>10</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AA36">
-        <v>0.2</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>103002</v>
       </c>
-      <c r="AE36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:31">
+      <c r="AG36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:33">
       <c r="A37" s="1">
         <v>989996</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="N37">
+      <c r="B37" s="2"/>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <v>200001</v>
       </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
       <c r="R37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0.5</v>
       </c>
-      <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
+      <c r="V37">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
         <v>35</v>
       </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
       <c r="AA37">
         <v>1</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
         <v>989996</v>
       </c>
-      <c r="AC37" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
+      <c r="AD37" s="2"/>
       <c r="AE37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:33">
       <c r="A38" s="1">
         <v>989997</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="N38">
+      <c r="B38" s="2"/>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="O38">
         <v>200001</v>
       </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
       <c r="R38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0.5</v>
       </c>
-      <c r="W38">
-        <v>10</v>
-      </c>
-      <c r="Y38">
+      <c r="V38">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
         <v>35</v>
       </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
       <c r="AA38">
         <v>1</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="1">
         <v>989997</v>
       </c>
-      <c r="AC38" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD38">
-        <v>1</v>
-      </c>
+      <c r="AD38" s="2"/>
       <c r="AE38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:33">
       <c r="A39" s="1">
         <v>989998</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+      <c r="B39" s="2"/>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="O39">
         <v>200001</v>
       </c>
-      <c r="Q39">
-        <v>2</v>
-      </c>
       <c r="R39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>0.5</v>
       </c>
-      <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="Y39">
+      <c r="V39">
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
         <v>35</v>
       </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
       <c r="AA39">
         <v>1</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
         <v>989998</v>
       </c>
-      <c r="AC39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
+      <c r="AD39" s="2"/>
       <c r="AE39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:33">
       <c r="A40" s="1">
         <v>989999</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="N40">
+      <c r="B40" s="2"/>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="O40">
         <v>200001</v>
       </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
       <c r="R40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>0.5</v>
       </c>
-      <c r="W40">
-        <v>10</v>
-      </c>
-      <c r="Y40">
+      <c r="V40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
         <v>35</v>
       </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
       <c r="AA40">
         <v>1</v>
       </c>
       <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
         <v>989999</v>
       </c>
-      <c r="AC40" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
       <c r="AE40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:33">
       <c r="A41" s="1">
         <v>999947</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="N41">
+      <c r="B41" s="2"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="O41">
         <v>200001</v>
       </c>
-      <c r="Q41">
-        <v>2</v>
-      </c>
       <c r="R41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>0.5</v>
       </c>
-      <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="Y41">
+      <c r="V41">
+        <v>0.5</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
         <v>35</v>
       </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
       <c r="AA41">
         <v>1</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
         <v>999947</v>
       </c>
-      <c r="AC41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:33">
       <c r="A42" s="1">
         <v>999948</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="N42">
+      <c r="B42" s="2"/>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="O42">
         <v>200001</v>
       </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
       <c r="R42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>0.5</v>
       </c>
-      <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="Y42">
+      <c r="V42">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Z42">
         <v>35</v>
       </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
       <c r="AA42">
         <v>1</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
         <v>999948</v>
       </c>
-      <c r="AC42" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:33">
       <c r="A43" s="1">
         <v>999949</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="N43">
+      <c r="B43" s="2"/>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>200001</v>
       </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
       <c r="R43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <v>0.5</v>
       </c>
-      <c r="W43">
-        <v>10</v>
-      </c>
-      <c r="Y43">
+      <c r="V43">
+        <v>0.5</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
         <v>35</v>
       </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
       <c r="AA43">
         <v>1</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1">
         <v>999949</v>
       </c>
-      <c r="AC43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
+      <c r="AD43" s="2"/>
       <c r="AE43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:33">
       <c r="A44" s="1">
         <v>999950</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="N44">
+      <c r="B44" s="2"/>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="O44">
         <v>200001</v>
       </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
       <c r="R44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>0.5</v>
       </c>
-      <c r="W44">
-        <v>10</v>
-      </c>
-      <c r="Y44">
+      <c r="V44">
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
         <v>35</v>
       </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
       <c r="AA44">
         <v>1</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
         <v>999950</v>
       </c>
-      <c r="AC44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:33">
       <c r="A45" s="1">
         <v>999951</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="N45">
+      <c r="B45" s="2"/>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="O45">
         <v>200001</v>
       </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
       <c r="R45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0.5</v>
       </c>
-      <c r="W45">
-        <v>10</v>
-      </c>
-      <c r="Y45">
+      <c r="V45">
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Z45">
         <v>35</v>
       </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
       <c r="AA45">
         <v>1</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
         <v>999951</v>
       </c>
-      <c r="AC45" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
+      <c r="AD45" s="2"/>
       <c r="AE45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:33">
       <c r="A46" s="1">
         <v>999952</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="N46">
+      <c r="B46" s="2"/>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="O46">
         <v>200001</v>
       </c>
-      <c r="Q46">
-        <v>2</v>
-      </c>
       <c r="R46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0.5</v>
       </c>
-      <c r="W46">
-        <v>10</v>
-      </c>
-      <c r="Y46">
+      <c r="V46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Z46">
         <v>35</v>
       </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
       <c r="AA46">
         <v>1</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
         <v>999952</v>
       </c>
-      <c r="AC46" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:33">
       <c r="A47" s="1">
         <v>999953</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="N47">
+      <c r="B47" s="2"/>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>200001</v>
       </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
       <c r="R47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>0.5</v>
       </c>
-      <c r="W47">
-        <v>10</v>
-      </c>
-      <c r="Y47">
+      <c r="V47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Z47">
         <v>35</v>
       </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
       <c r="AA47">
         <v>1</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1">
         <v>999953</v>
       </c>
-      <c r="AC47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
+      <c r="AD47" s="2"/>
       <c r="AE47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:33">
       <c r="A48" s="1">
         <v>999954</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="N48">
+      <c r="B48" s="2"/>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>200001</v>
       </c>
-      <c r="Q48">
-        <v>2</v>
-      </c>
       <c r="R48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>0.5</v>
       </c>
-      <c r="W48">
-        <v>10</v>
-      </c>
-      <c r="Y48">
+      <c r="V48">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Z48">
         <v>35</v>
       </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
       <c r="AA48">
         <v>1</v>
       </c>
-      <c r="AB48" s="1">
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1">
         <v>999954</v>
       </c>
-      <c r="AC48" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:33">
       <c r="A49" s="1">
         <v>999955</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="N49">
+      <c r="B49" s="2"/>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="O49">
         <v>200001</v>
       </c>
-      <c r="Q49">
-        <v>2</v>
-      </c>
       <c r="R49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <v>0.5</v>
       </c>
-      <c r="W49">
-        <v>10</v>
-      </c>
-      <c r="Y49">
+      <c r="V49">
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
         <v>35</v>
       </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
       <c r="AA49">
         <v>1</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1">
         <v>999955</v>
       </c>
-      <c r="AC49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:33">
       <c r="A50" s="1">
         <v>999956</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="N50">
+      <c r="B50" s="2"/>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="O50">
         <v>200001</v>
       </c>
-      <c r="Q50">
-        <v>2</v>
-      </c>
       <c r="R50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>0.5</v>
       </c>
-      <c r="W50">
-        <v>10</v>
-      </c>
-      <c r="Y50">
+      <c r="V50">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
         <v>35</v>
       </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
       <c r="AA50">
         <v>1</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1">
         <v>999956</v>
       </c>
-      <c r="AC50" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
+      <c r="AD50" s="2"/>
       <c r="AE50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:33">
       <c r="A51" s="1">
         <v>999957</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="N51">
+      <c r="B51" s="2"/>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="O51">
         <v>200001</v>
       </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
       <c r="R51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>0.5</v>
       </c>
-      <c r="W51">
-        <v>10</v>
-      </c>
-      <c r="Y51">
+      <c r="V51">
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>10</v>
+      </c>
+      <c r="Z51">
         <v>35</v>
       </c>
-      <c r="Z51">
-        <v>1</v>
-      </c>
       <c r="AA51">
         <v>1</v>
       </c>
-      <c r="AB51" s="1">
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1">
         <v>999957</v>
       </c>
-      <c r="AC51" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
+      <c r="AD51" s="2"/>
       <c r="AE51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:33">
       <c r="A52" s="1">
         <v>999958</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="N52">
+      <c r="B52" s="2"/>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="O52">
         <v>200001</v>
       </c>
-      <c r="Q52">
-        <v>2</v>
-      </c>
       <c r="R52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0.5</v>
       </c>
-      <c r="W52">
-        <v>10</v>
-      </c>
-      <c r="Y52">
+      <c r="V52">
+        <v>0.5</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Z52">
         <v>35</v>
       </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
       <c r="AA52">
         <v>1</v>
       </c>
-      <c r="AB52" s="1">
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1">
         <v>999958</v>
       </c>
-      <c r="AC52" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
+      <c r="AD52" s="2"/>
       <c r="AE52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:33">
       <c r="A53" s="1">
         <v>999959</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="N53">
+      <c r="B53" s="2"/>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="O53">
         <v>200001</v>
       </c>
-      <c r="Q53">
-        <v>2</v>
-      </c>
       <c r="R53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>0.5</v>
       </c>
-      <c r="W53">
-        <v>10</v>
-      </c>
-      <c r="Y53">
+      <c r="V53">
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Z53">
         <v>35</v>
       </c>
-      <c r="Z53">
-        <v>1</v>
-      </c>
       <c r="AA53">
         <v>1</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
         <v>999959</v>
       </c>
-      <c r="AC53" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
+      <c r="AD53" s="2"/>
       <c r="AE53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:33">
       <c r="A54" s="1">
         <v>999960</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="N54">
+      <c r="B54" s="2"/>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="O54">
         <v>200001</v>
       </c>
-      <c r="Q54">
-        <v>2</v>
-      </c>
       <c r="R54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0.5</v>
       </c>
-      <c r="W54">
-        <v>10</v>
-      </c>
-      <c r="Y54">
+      <c r="V54">
+        <v>0.5</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Z54">
         <v>35</v>
       </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
       <c r="AA54">
         <v>1</v>
       </c>
-      <c r="AB54" s="1">
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1">
         <v>999960</v>
       </c>
-      <c r="AC54" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
+      <c r="AD54" s="2"/>
       <c r="AE54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:33">
       <c r="A55" s="1">
         <v>999961</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="N55">
+      <c r="B55" s="2"/>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="O55">
         <v>200001</v>
       </c>
-      <c r="Q55">
-        <v>2</v>
-      </c>
       <c r="R55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0.5</v>
       </c>
-      <c r="W55">
-        <v>10</v>
-      </c>
-      <c r="Y55">
+      <c r="V55">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Z55">
         <v>35</v>
       </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
       <c r="AA55">
         <v>1</v>
       </c>
-      <c r="AB55" s="1">
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1">
         <v>999961</v>
       </c>
-      <c r="AC55" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:33">
       <c r="A56" s="1">
         <v>999962</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="N56">
+      <c r="B56" s="2"/>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="O56">
         <v>200001</v>
       </c>
-      <c r="Q56">
-        <v>2</v>
-      </c>
       <c r="R56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0.5</v>
       </c>
-      <c r="W56">
-        <v>10</v>
-      </c>
-      <c r="Y56">
+      <c r="V56">
+        <v>0.5</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Z56">
         <v>35</v>
       </c>
-      <c r="Z56">
-        <v>1</v>
-      </c>
       <c r="AA56">
         <v>1</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1">
         <v>999962</v>
       </c>
-      <c r="AC56" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
+      <c r="AD56" s="2"/>
       <c r="AE56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:33">
       <c r="A57" s="1">
         <v>999963</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="N57">
+      <c r="B57" s="2"/>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="O57">
         <v>200001</v>
       </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
       <c r="R57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>0.5</v>
       </c>
-      <c r="W57">
-        <v>10</v>
-      </c>
-      <c r="Y57">
+      <c r="V57">
+        <v>0.5</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Z57">
         <v>35</v>
       </c>
-      <c r="Z57">
-        <v>1</v>
-      </c>
       <c r="AA57">
         <v>1</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
         <v>999963</v>
       </c>
-      <c r="AC57" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
+      <c r="AD57" s="2"/>
       <c r="AE57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:33">
       <c r="A58" s="1">
         <v>999964</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="N58">
+      <c r="B58" s="2"/>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="O58">
         <v>200001</v>
       </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
       <c r="R58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>0.5</v>
       </c>
-      <c r="W58">
-        <v>10</v>
-      </c>
-      <c r="Y58">
+      <c r="V58">
+        <v>0.5</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Z58">
         <v>35</v>
       </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
       <c r="AA58">
         <v>1</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1">
         <v>999964</v>
       </c>
-      <c r="AC58" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
+      <c r="AD58" s="2"/>
       <c r="AE58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:33">
       <c r="A59" s="1">
         <v>999965</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="N59">
+      <c r="B59" s="2"/>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="O59">
         <v>200001</v>
       </c>
-      <c r="Q59">
-        <v>2</v>
-      </c>
       <c r="R59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>0.5</v>
       </c>
-      <c r="W59">
-        <v>10</v>
-      </c>
-      <c r="Y59">
+      <c r="V59">
+        <v>0.5</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
         <v>35</v>
       </c>
-      <c r="Z59">
-        <v>1</v>
-      </c>
       <c r="AA59">
         <v>1</v>
       </c>
-      <c r="AB59" s="1">
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1">
         <v>999965</v>
       </c>
-      <c r="AC59" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
+      <c r="AD59" s="2"/>
       <c r="AE59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:33">
       <c r="A60" s="1">
         <v>999966</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="N60">
+      <c r="B60" s="2"/>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="O60">
         <v>200001</v>
       </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
       <c r="R60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>0.5</v>
       </c>
-      <c r="W60">
-        <v>10</v>
-      </c>
-      <c r="Y60">
+      <c r="V60">
+        <v>0.5</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Z60">
         <v>35</v>
       </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
       <c r="AA60">
         <v>1</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1">
         <v>999966</v>
       </c>
-      <c r="AC60" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
+      <c r="AD60" s="2"/>
       <c r="AE60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:33">
       <c r="A61" s="1">
         <v>999967</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="N61">
+      <c r="B61" s="2"/>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="O61">
         <v>200001</v>
       </c>
-      <c r="Q61">
-        <v>2</v>
-      </c>
       <c r="R61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U61">
         <v>0.5</v>
       </c>
-      <c r="W61">
-        <v>10</v>
-      </c>
-      <c r="Y61">
+      <c r="V61">
+        <v>0.5</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Z61">
         <v>35</v>
       </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
       <c r="AA61">
         <v>1</v>
       </c>
-      <c r="AB61" s="1">
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1">
         <v>999967</v>
       </c>
-      <c r="AC61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
+      <c r="AD61" s="2"/>
       <c r="AE61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:33">
       <c r="A62" s="1">
         <v>999968</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="N62">
+      <c r="B62" s="2"/>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="O62">
         <v>200001</v>
       </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>0.5</v>
       </c>
-      <c r="W62">
-        <v>10</v>
-      </c>
-      <c r="Y62">
+      <c r="V62">
+        <v>0.5</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Z62">
         <v>35</v>
       </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
       <c r="AA62">
         <v>1</v>
       </c>
-      <c r="AB62" s="1">
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="1">
         <v>999968</v>
       </c>
-      <c r="AC62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD62">
-        <v>1</v>
-      </c>
+      <c r="AD62" s="2"/>
       <c r="AE62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:33">
       <c r="A63" s="1">
         <v>999969</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="N63">
+      <c r="B63" s="2"/>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="O63">
         <v>200001</v>
       </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
       <c r="R63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>0.5</v>
       </c>
-      <c r="W63">
-        <v>10</v>
-      </c>
-      <c r="Y63">
+      <c r="V63">
+        <v>0.5</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Z63">
         <v>35</v>
       </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
       <c r="AA63">
         <v>1</v>
       </c>
-      <c r="AB63" s="1">
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1">
         <v>999969</v>
       </c>
-      <c r="AC63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD63">
-        <v>1</v>
-      </c>
+      <c r="AD63" s="2"/>
       <c r="AE63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:33">
       <c r="A64" s="1">
         <v>999970</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="N64">
+      <c r="B64" s="2"/>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="O64">
         <v>200001</v>
       </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
       <c r="R64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U64">
         <v>0.5</v>
       </c>
-      <c r="W64">
-        <v>10</v>
-      </c>
-      <c r="Y64">
+      <c r="V64">
+        <v>0.5</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Z64">
         <v>35</v>
       </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
       <c r="AA64">
         <v>1</v>
       </c>
-      <c r="AB64" s="1">
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1">
         <v>999970</v>
       </c>
-      <c r="AC64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD64">
-        <v>1</v>
-      </c>
+      <c r="AD64" s="2"/>
       <c r="AE64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:33">
       <c r="A65" s="1">
         <v>999971</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="N65">
+      <c r="B65" s="2"/>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="O65">
         <v>200001</v>
       </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
       <c r="R65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U65">
         <v>0.5</v>
       </c>
-      <c r="W65">
-        <v>10</v>
-      </c>
-      <c r="Y65">
+      <c r="V65">
+        <v>0.5</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Z65">
         <v>35</v>
       </c>
-      <c r="Z65">
-        <v>1</v>
-      </c>
       <c r="AA65">
         <v>1</v>
       </c>
-      <c r="AB65" s="1">
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1">
         <v>999971</v>
       </c>
-      <c r="AC65" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD65">
-        <v>1</v>
-      </c>
+      <c r="AD65" s="2"/>
       <c r="AE65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:33">
       <c r="A66" s="1">
         <v>999972</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="N66">
+      <c r="B66" s="2"/>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="O66">
         <v>200001</v>
       </c>
-      <c r="Q66">
-        <v>2</v>
-      </c>
       <c r="R66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U66">
         <v>0.5</v>
       </c>
-      <c r="W66">
-        <v>10</v>
-      </c>
-      <c r="Y66">
+      <c r="V66">
+        <v>0.5</v>
+      </c>
+      <c r="X66">
+        <v>10</v>
+      </c>
+      <c r="Z66">
         <v>35</v>
       </c>
-      <c r="Z66">
-        <v>1</v>
-      </c>
       <c r="AA66">
         <v>1</v>
       </c>
-      <c r="AB66" s="1">
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="1">
         <v>999972</v>
       </c>
-      <c r="AC66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD66">
-        <v>1</v>
-      </c>
+      <c r="AD66" s="2"/>
       <c r="AE66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:33">
       <c r="A67" s="1">
         <v>999973</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="N67">
+      <c r="B67" s="2"/>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="O67">
         <v>200001</v>
       </c>
-      <c r="Q67">
-        <v>2</v>
-      </c>
       <c r="R67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U67">
         <v>0.5</v>
       </c>
-      <c r="W67">
-        <v>10</v>
-      </c>
-      <c r="Y67">
+      <c r="V67">
+        <v>0.5</v>
+      </c>
+      <c r="X67">
+        <v>10</v>
+      </c>
+      <c r="Z67">
         <v>35</v>
       </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
       <c r="AA67">
         <v>1</v>
       </c>
-      <c r="AB67" s="1">
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="1">
         <v>999973</v>
       </c>
-      <c r="AC67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD67">
-        <v>1</v>
-      </c>
+      <c r="AD67" s="2"/>
       <c r="AE67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:33">
       <c r="A68" s="1">
         <v>999974</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="N68">
+      <c r="B68" s="2"/>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="O68">
         <v>200001</v>
       </c>
-      <c r="Q68">
-        <v>2</v>
-      </c>
       <c r="R68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U68">
         <v>0.5</v>
       </c>
-      <c r="W68">
-        <v>10</v>
-      </c>
-      <c r="Y68">
+      <c r="V68">
+        <v>0.5</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Z68">
         <v>35</v>
       </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
       <c r="AA68">
         <v>1</v>
       </c>
-      <c r="AB68" s="1">
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="1">
         <v>999974</v>
       </c>
-      <c r="AC68" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD68">
-        <v>1</v>
-      </c>
+      <c r="AD68" s="2"/>
       <c r="AE68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:33">
       <c r="A69" s="1">
         <v>999975</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="N69">
+      <c r="B69" s="2"/>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="O69">
         <v>200001</v>
       </c>
-      <c r="Q69">
-        <v>2</v>
-      </c>
       <c r="R69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>0.5</v>
       </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
+      <c r="V69">
+        <v>0.5</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Z69">
         <v>35</v>
       </c>
-      <c r="Z69">
-        <v>1</v>
-      </c>
       <c r="AA69">
         <v>1</v>
       </c>
-      <c r="AB69" s="1">
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="1">
         <v>999975</v>
       </c>
-      <c r="AC69" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD69">
-        <v>1</v>
-      </c>
+      <c r="AD69" s="2"/>
       <c r="AE69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:33">
       <c r="A70" s="1">
         <v>999976</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="N70">
+      <c r="B70" s="2"/>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="O70">
         <v>200001</v>
       </c>
-      <c r="Q70">
-        <v>2</v>
-      </c>
       <c r="R70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U70">
         <v>0.5</v>
       </c>
-      <c r="W70">
-        <v>10</v>
-      </c>
-      <c r="Y70">
+      <c r="V70">
+        <v>0.5</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Z70">
         <v>35</v>
       </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
       <c r="AA70">
         <v>1</v>
       </c>
-      <c r="AB70" s="1">
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="1">
         <v>999976</v>
       </c>
-      <c r="AC70" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD70">
-        <v>1</v>
-      </c>
+      <c r="AD70" s="2"/>
       <c r="AE70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:33">
       <c r="A71" s="1">
         <v>999977</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="N71">
+      <c r="B71" s="2"/>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="O71">
         <v>200001</v>
       </c>
-      <c r="Q71">
-        <v>2</v>
-      </c>
       <c r="R71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U71">
         <v>0.5</v>
       </c>
-      <c r="W71">
-        <v>10</v>
-      </c>
-      <c r="Y71">
+      <c r="V71">
+        <v>0.5</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Z71">
         <v>35</v>
       </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
       <c r="AA71">
         <v>1</v>
       </c>
-      <c r="AB71" s="1">
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="1">
         <v>999977</v>
       </c>
-      <c r="AC71" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD71">
-        <v>1</v>
-      </c>
+      <c r="AD71" s="2"/>
       <c r="AE71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:33">
       <c r="A72" s="1">
         <v>999978</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="N72">
+      <c r="B72" s="2"/>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="O72">
         <v>200001</v>
       </c>
-      <c r="Q72">
-        <v>2</v>
-      </c>
       <c r="R72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>0.5</v>
       </c>
-      <c r="W72">
-        <v>10</v>
-      </c>
-      <c r="Y72">
+      <c r="V72">
+        <v>0.5</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Z72">
         <v>35</v>
       </c>
-      <c r="Z72">
-        <v>1</v>
-      </c>
       <c r="AA72">
         <v>1</v>
       </c>
-      <c r="AB72" s="1">
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1">
         <v>999978</v>
       </c>
-      <c r="AC72" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD72">
-        <v>1</v>
-      </c>
+      <c r="AD72" s="2"/>
       <c r="AE72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:33">
       <c r="A73" s="1">
         <v>999979</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="N73">
+      <c r="B73" s="2"/>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="O73">
         <v>200001</v>
       </c>
-      <c r="Q73">
-        <v>2</v>
-      </c>
       <c r="R73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>0.5</v>
       </c>
-      <c r="W73">
-        <v>10</v>
-      </c>
-      <c r="Y73">
+      <c r="V73">
+        <v>0.5</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Z73">
         <v>35</v>
       </c>
-      <c r="Z73">
-        <v>1</v>
-      </c>
       <c r="AA73">
         <v>1</v>
       </c>
-      <c r="AB73" s="1">
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1">
         <v>999979</v>
       </c>
-      <c r="AC73" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD73">
-        <v>1</v>
-      </c>
+      <c r="AD73" s="2"/>
       <c r="AE73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:33">
       <c r="A74" s="1">
         <v>999980</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="N74">
+      <c r="B74" s="2"/>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="O74">
         <v>200001</v>
       </c>
-      <c r="Q74">
-        <v>2</v>
-      </c>
       <c r="R74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U74">
         <v>0.5</v>
       </c>
-      <c r="W74">
-        <v>10</v>
-      </c>
-      <c r="Y74">
+      <c r="V74">
+        <v>0.5</v>
+      </c>
+      <c r="X74">
+        <v>10</v>
+      </c>
+      <c r="Z74">
         <v>35</v>
       </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
       <c r="AA74">
         <v>1</v>
       </c>
-      <c r="AB74" s="1">
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="1">
         <v>999980</v>
       </c>
-      <c r="AC74" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD74">
-        <v>1</v>
-      </c>
+      <c r="AD74" s="2"/>
       <c r="AE74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:33">
       <c r="A75" s="1">
         <v>999981</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="N75">
+      <c r="B75" s="2"/>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="O75">
         <v>200001</v>
       </c>
-      <c r="Q75">
-        <v>2</v>
-      </c>
       <c r="R75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U75">
         <v>0.5</v>
       </c>
-      <c r="W75">
-        <v>10</v>
-      </c>
-      <c r="Y75">
+      <c r="V75">
+        <v>0.5</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Z75">
         <v>35</v>
       </c>
-      <c r="Z75">
-        <v>1</v>
-      </c>
       <c r="AA75">
         <v>1</v>
       </c>
-      <c r="AB75" s="1">
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="1">
         <v>999981</v>
       </c>
-      <c r="AC75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD75">
-        <v>1</v>
-      </c>
+      <c r="AD75" s="2"/>
       <c r="AE75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:33">
       <c r="A76">
         <v>999982</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="N76">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="O76">
         <v>200001</v>
       </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
       <c r="R76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U76">
         <v>0.5</v>
       </c>
-      <c r="W76">
-        <v>10</v>
-      </c>
-      <c r="Y76">
+      <c r="V76">
+        <v>0.5</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Z76">
         <v>35</v>
       </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
       <c r="AA76">
         <v>1</v>
       </c>
       <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
         <v>999982</v>
       </c>
-      <c r="AC76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD76">
-        <v>1</v>
-      </c>
       <c r="AE76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:33">
       <c r="A77">
         <v>999983</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="N77">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="O77">
         <v>200001</v>
       </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
       <c r="R77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U77">
         <v>0.5</v>
       </c>
-      <c r="W77">
-        <v>10</v>
-      </c>
-      <c r="Y77">
+      <c r="V77">
+        <v>0.5</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Z77">
         <v>35</v>
       </c>
-      <c r="Z77">
-        <v>1</v>
-      </c>
       <c r="AA77">
         <v>1</v>
       </c>
       <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
         <v>999983</v>
       </c>
-      <c r="AC77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD77">
-        <v>1</v>
-      </c>
       <c r="AE77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:33">
       <c r="A78">
         <v>999984</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="N78">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="O78">
         <v>200001</v>
       </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
       <c r="R78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U78">
         <v>0.5</v>
       </c>
-      <c r="W78">
-        <v>10</v>
-      </c>
-      <c r="Y78">
+      <c r="V78">
+        <v>0.5</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Z78">
         <v>35</v>
       </c>
-      <c r="Z78">
-        <v>1</v>
-      </c>
       <c r="AA78">
         <v>1</v>
       </c>
       <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
         <v>999984</v>
       </c>
-      <c r="AC78" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD78">
-        <v>1</v>
-      </c>
       <c r="AE78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:33">
       <c r="A79">
         <v>999985</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="N79">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="O79">
         <v>200001</v>
       </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
       <c r="R79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U79">
         <v>0.5</v>
       </c>
-      <c r="W79">
-        <v>10</v>
-      </c>
-      <c r="Y79">
+      <c r="V79">
+        <v>0.5</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Z79">
         <v>35</v>
       </c>
-      <c r="Z79">
-        <v>1</v>
-      </c>
       <c r="AA79">
         <v>1</v>
       </c>
       <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
         <v>999985</v>
       </c>
-      <c r="AC79" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD79">
-        <v>1</v>
-      </c>
       <c r="AE79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:33">
       <c r="A80">
         <v>999986</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="N80">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="O80">
         <v>200001</v>
       </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
       <c r="R80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U80">
         <v>0.5</v>
       </c>
-      <c r="W80">
-        <v>10</v>
-      </c>
-      <c r="Y80">
+      <c r="V80">
+        <v>0.5</v>
+      </c>
+      <c r="X80">
+        <v>10</v>
+      </c>
+      <c r="Z80">
         <v>35</v>
       </c>
-      <c r="Z80">
-        <v>1</v>
-      </c>
       <c r="AA80">
         <v>1</v>
       </c>
       <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
         <v>999986</v>
       </c>
-      <c r="AC80" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD80">
-        <v>1</v>
-      </c>
       <c r="AE80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:33">
       <c r="A81">
         <v>999987</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="N81">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="O81">
         <v>200001</v>
       </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
       <c r="R81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U81">
         <v>0.5</v>
       </c>
-      <c r="W81">
-        <v>10</v>
-      </c>
-      <c r="Y81">
+      <c r="V81">
+        <v>0.5</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Z81">
         <v>35</v>
       </c>
-      <c r="Z81">
-        <v>1</v>
-      </c>
       <c r="AA81">
         <v>1</v>
       </c>
       <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
         <v>999987</v>
       </c>
-      <c r="AC81" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD81">
-        <v>1</v>
-      </c>
       <c r="AE81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:33">
       <c r="A82">
         <v>999988</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="N82">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="O82">
         <v>200001</v>
       </c>
-      <c r="Q82">
-        <v>2</v>
-      </c>
       <c r="R82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U82">
         <v>0.5</v>
       </c>
-      <c r="W82">
-        <v>10</v>
-      </c>
-      <c r="Y82">
+      <c r="V82">
+        <v>0.5</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Z82">
         <v>35</v>
       </c>
-      <c r="Z82">
-        <v>1</v>
-      </c>
       <c r="AA82">
         <v>1</v>
       </c>
       <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
         <v>999988</v>
       </c>
-      <c r="AC82" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD82">
-        <v>1</v>
-      </c>
       <c r="AE82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:33">
       <c r="A83">
         <v>999989</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="N83">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="O83">
         <v>200001</v>
       </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
       <c r="R83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U83">
         <v>0.5</v>
       </c>
-      <c r="W83">
-        <v>10</v>
-      </c>
-      <c r="Y83">
+      <c r="V83">
+        <v>0.5</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Z83">
         <v>35</v>
       </c>
-      <c r="Z83">
-        <v>1</v>
-      </c>
       <c r="AA83">
         <v>1</v>
       </c>
       <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
         <v>999989</v>
       </c>
-      <c r="AC83" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD83">
-        <v>1</v>
-      </c>
       <c r="AE83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:33">
       <c r="A84">
         <v>999990</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="N84">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="O84">
         <v>200001</v>
       </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
       <c r="R84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>0.5</v>
       </c>
-      <c r="W84">
-        <v>10</v>
-      </c>
-      <c r="Y84">
+      <c r="V84">
+        <v>0.5</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Z84">
         <v>35</v>
       </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
       <c r="AA84">
         <v>1</v>
       </c>
       <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
         <v>999990</v>
       </c>
-      <c r="AC84" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD84">
-        <v>1</v>
-      </c>
       <c r="AE84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:33">
       <c r="A85">
         <v>999991</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="N85">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="O85">
         <v>200001</v>
       </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
       <c r="R85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U85">
         <v>0.5</v>
       </c>
-      <c r="W85">
-        <v>10</v>
-      </c>
-      <c r="Y85">
+      <c r="V85">
+        <v>0.5</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Z85">
         <v>35</v>
       </c>
-      <c r="Z85">
-        <v>1</v>
-      </c>
       <c r="AA85">
         <v>1</v>
       </c>
       <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
         <v>999991</v>
       </c>
-      <c r="AC85" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD85">
-        <v>1</v>
-      </c>
       <c r="AE85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:33">
       <c r="A86">
         <v>999992</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="N86">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="O86">
         <v>200001</v>
       </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
       <c r="R86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>0.5</v>
       </c>
-      <c r="W86">
-        <v>10</v>
-      </c>
-      <c r="Y86">
+      <c r="V86">
+        <v>0.5</v>
+      </c>
+      <c r="X86">
+        <v>10</v>
+      </c>
+      <c r="Z86">
         <v>35</v>
       </c>
-      <c r="Z86">
-        <v>1</v>
-      </c>
       <c r="AA86">
         <v>1</v>
       </c>
       <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
         <v>999992</v>
       </c>
-      <c r="AC86" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD86">
-        <v>1</v>
-      </c>
       <c r="AE86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:33">
       <c r="A87">
         <v>999993</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="N87">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="O87">
         <v>200001</v>
       </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
       <c r="R87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U87">
         <v>0.5</v>
       </c>
-      <c r="W87">
-        <v>10</v>
-      </c>
-      <c r="Y87">
+      <c r="V87">
+        <v>0.5</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Z87">
         <v>35</v>
       </c>
-      <c r="Z87">
-        <v>1</v>
-      </c>
       <c r="AA87">
         <v>1</v>
       </c>
       <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
         <v>999993</v>
       </c>
-      <c r="AC87" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD87">
-        <v>1</v>
-      </c>
       <c r="AE87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:33">
       <c r="A88">
         <v>999994</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="N88">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>200001</v>
       </c>
-      <c r="Q88">
-        <v>2</v>
-      </c>
       <c r="R88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U88">
         <v>0.5</v>
       </c>
-      <c r="W88">
-        <v>10</v>
-      </c>
-      <c r="Y88">
+      <c r="V88">
+        <v>0.5</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Z88">
         <v>35</v>
       </c>
-      <c r="Z88">
-        <v>1</v>
-      </c>
       <c r="AA88">
         <v>1</v>
       </c>
       <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AC88">
         <v>999994</v>
       </c>
-      <c r="AC88" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD88">
-        <v>1</v>
-      </c>
       <c r="AE88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:33">
       <c r="A89">
         <v>999995</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="N89">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="O89">
         <v>200001</v>
       </c>
-      <c r="Q89">
-        <v>2</v>
-      </c>
       <c r="R89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T89">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>0.5</v>
       </c>
-      <c r="W89">
-        <v>10</v>
-      </c>
-      <c r="Y89">
+      <c r="V89">
+        <v>0.5</v>
+      </c>
+      <c r="X89">
+        <v>10</v>
+      </c>
+      <c r="Z89">
         <v>35</v>
       </c>
-      <c r="Z89">
-        <v>1</v>
-      </c>
       <c r="AA89">
         <v>1</v>
       </c>
       <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AC89">
         <v>999995</v>
       </c>
-      <c r="AC89" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD89">
-        <v>1</v>
-      </c>
       <c r="AE89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:33">
       <c r="A90">
         <v>999996</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="N90">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="O90">
         <v>200001</v>
       </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
       <c r="R90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U90">
         <v>0.5</v>
       </c>
-      <c r="W90">
-        <v>10</v>
-      </c>
-      <c r="Y90">
+      <c r="V90">
+        <v>0.5</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Z90">
         <v>35</v>
       </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
       <c r="AA90">
         <v>1</v>
       </c>
       <c r="AB90">
+        <v>1</v>
+      </c>
+      <c r="AC90">
         <v>999996</v>
       </c>
-      <c r="AC90" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD90">
-        <v>1</v>
-      </c>
       <c r="AE90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:33">
       <c r="A91">
         <v>999997</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="N91">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="O91">
         <v>200001</v>
       </c>
-      <c r="Q91">
-        <v>2</v>
-      </c>
       <c r="R91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U91">
         <v>0.5</v>
       </c>
-      <c r="W91">
-        <v>10</v>
-      </c>
-      <c r="Y91">
+      <c r="V91">
+        <v>0.5</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Z91">
         <v>35</v>
       </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
       <c r="AA91">
         <v>1</v>
       </c>
       <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
         <v>999997</v>
       </c>
-      <c r="AC91" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD91">
-        <v>1</v>
-      </c>
       <c r="AE91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:33">
       <c r="A92">
         <v>999998</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="N92">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="O92">
         <v>200001</v>
       </c>
-      <c r="Q92">
-        <v>2</v>
-      </c>
       <c r="R92">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U92">
         <v>0.5</v>
       </c>
-      <c r="W92">
-        <v>10</v>
-      </c>
-      <c r="Y92">
+      <c r="V92">
+        <v>0.5</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Z92">
         <v>35</v>
       </c>
-      <c r="Z92">
-        <v>1</v>
-      </c>
       <c r="AA92">
         <v>1</v>
       </c>
       <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
         <v>999998</v>
       </c>
-      <c r="AC92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD92">
-        <v>1</v>
-      </c>
       <c r="AE92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:31">
+        <v>117</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:33">
       <c r="A93">
         <v>999999</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="N93">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="O93">
         <v>200001</v>
       </c>
-      <c r="Q93">
-        <v>2</v>
-      </c>
       <c r="R93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T93">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U93">
         <v>0.5</v>
       </c>
-      <c r="W93">
-        <v>10</v>
-      </c>
-      <c r="Y93">
+      <c r="V93">
+        <v>0.5</v>
+      </c>
+      <c r="X93">
+        <v>10</v>
+      </c>
+      <c r="Z93">
         <v>35</v>
       </c>
-      <c r="Z93">
-        <v>1</v>
-      </c>
       <c r="AA93">
         <v>1</v>
       </c>
       <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93">
         <v>999999</v>
       </c>
-      <c r="AC93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD93">
-        <v>1</v>
-      </c>
       <c r="AE93" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1"/>
@@ -6561,7 +6850,7 @@
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AE93" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG93" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -251,10 +251,19 @@
     <t>创建角色-骷髅</t>
   </si>
   <si>
-    <t>人类</t>
+    <t>人类战士</t>
   </si>
   <si>
     <t>1,2,3,10,</t>
+  </si>
+  <si>
+    <t>人类弓箭手</t>
+  </si>
+  <si>
+    <t>人类魔法师（火）</t>
+  </si>
+  <si>
+    <t>人类魔法师（冰）</t>
   </si>
   <si>
     <t>Attack2</t>
@@ -1360,14 +1369,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG163"/>
+  <dimension ref="A1:AG166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AG32" sqref="AG32:AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,33 +1834,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" ht="12" customHeight="1" spans="1:33">
+    <row r="7" customFormat="1" spans="1:33">
       <c r="A7">
-        <v>2001</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
+        <v>1002</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>2000001</v>
-      </c>
-      <c r="H7">
-        <v>21010001</v>
+        <v>1000001</v>
       </c>
       <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
       <c r="O7">
-        <v>100001</v>
+        <v>200001</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0.5</v>
@@ -1865,9 +1865,6 @@
       <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
       <c r="X7">
         <v>10</v>
       </c>
@@ -1878,57 +1875,45 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="AE7" t="s">
         <v>70</v>
       </c>
       <c r="AF7">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="AG7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:33">
       <c r="A8">
-        <v>2002</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
+        <v>1003</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2000001</v>
-      </c>
-      <c r="H8">
-        <v>21000001</v>
+        <v>1000001</v>
       </c>
       <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
       <c r="O8">
-        <v>200001</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
+        <v>201001</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1939,9 +1924,6 @@
       <c r="V8">
         <v>0.5</v>
       </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
       <c r="X8">
         <v>10</v>
       </c>
@@ -1952,57 +1934,45 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="AE8" t="s">
         <v>70</v>
       </c>
       <c r="AF8">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="AG8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:33">
       <c r="A9">
-        <v>2003</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
+        <v>1004</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2000001</v>
-      </c>
-      <c r="H9">
-        <v>21010002</v>
+        <v>1000001</v>
       </c>
       <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
       <c r="O9">
-        <v>201001</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
+        <v>201002</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -2013,43 +1983,40 @@
       <c r="V9">
         <v>0.5</v>
       </c>
-      <c r="W9">
-        <v>20</v>
-      </c>
       <c r="X9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="AE9" t="s">
         <v>70</v>
       </c>
       <c r="AF9">
-        <v>2003</v>
+        <v>1004</v>
       </c>
       <c r="AG9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:33">
       <c r="A10">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2058,25 +2025,22 @@
         <v>2000001</v>
       </c>
       <c r="H10">
-        <v>21010003</v>
+        <v>21010001</v>
       </c>
       <c r="I10" t="s">
         <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O10">
-        <v>201002</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
+        <v>100001</v>
       </c>
       <c r="R10">
         <v>2</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -2088,13 +2052,13 @@
         <v>0.5</v>
       </c>
       <c r="W10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -2112,30 +2076,45 @@
         <v>70</v>
       </c>
       <c r="AF10">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="AG10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
+      <c r="G11">
+        <v>2000001</v>
+      </c>
+      <c r="H11">
+        <v>21000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>200001</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
       </c>
       <c r="R11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2147,16 +2126,13 @@
         <v>0.5</v>
       </c>
       <c r="W11">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
-      <c r="Y11">
-        <v>500</v>
-      </c>
       <c r="Z11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -2165,48 +2141,54 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="AE11" t="s">
         <v>70</v>
       </c>
       <c r="AF11">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="AG11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12">
+        <v>2003</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2000001</v>
+      </c>
+      <c r="H12">
+        <v>21010002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:33">
-      <c r="A12">
-        <v>3002</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
       <c r="O12">
-        <v>300001</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
+        <v>201001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
       </c>
       <c r="R12">
         <v>2</v>
       </c>
       <c r="S12">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2215,16 +2197,16 @@
         <v>0.5</v>
       </c>
       <c r="V12">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="W12">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z12">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -2233,54 +2215,54 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="AE12" t="s">
         <v>70</v>
       </c>
       <c r="AF12">
-        <v>3002</v>
+        <v>2003</v>
       </c>
       <c r="AG12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33">
       <c r="A13">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="G13">
+        <v>2000001</v>
+      </c>
+      <c r="H13">
+        <v>21010003</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="O13">
-        <v>400001</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
+        <v>201002</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
       </c>
       <c r="R13">
         <v>2</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2292,13 +2274,13 @@
         <v>0.5</v>
       </c>
       <c r="W13">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -2307,24 +2289,24 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="AE13" t="s">
         <v>70</v>
       </c>
       <c r="AF13">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="AG13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -2332,23 +2314,8 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
       <c r="I14">
         <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>400002</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -2369,7 +2336,10 @@
         <v>120</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>500</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2390,15 +2360,15 @@
         <v>70</v>
       </c>
       <c r="AF14">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="AG14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:33">
       <c r="A15">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -2406,70 +2376,67 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>4000001</v>
-      </c>
-      <c r="H15">
-        <v>41000002</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O15">
-        <v>101001</v>
+        <v>300001</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
       </c>
       <c r="R15">
         <v>2</v>
       </c>
       <c r="S15">
+        <v>1.5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.15</v>
+      </c>
+      <c r="W15">
+        <v>120</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>500</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
         <v>3</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0.5</v>
-      </c>
-      <c r="V15">
-        <v>0.5</v>
-      </c>
-      <c r="W15">
-        <v>50</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Z15">
-        <v>6</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>4</v>
-      </c>
       <c r="AD15">
-        <v>4000001</v>
+        <v>3000001</v>
       </c>
       <c r="AE15" t="s">
         <v>70</v>
       </c>
       <c r="AF15">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="AG15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:33">
       <c r="A16">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -2477,23 +2444,29 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>4000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>500001</v>
+        <v>400001</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -2505,13 +2478,13 @@
         <v>0.5</v>
       </c>
       <c r="W16">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2520,24 +2493,24 @@
         <v>1</v>
       </c>
       <c r="AC16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD16">
-        <v>4000001</v>
+        <v>3000001</v>
       </c>
       <c r="AE16" t="s">
         <v>70</v>
       </c>
       <c r="AF16">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="AG16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:33">
       <c r="A17">
-        <v>4003</v>
+        <v>3004</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -2545,23 +2518,29 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>4000001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>89</v>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>600001</v>
+        <v>400002</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="R17">
         <v>2</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -2573,10 +2552,10 @@
         <v>0.5</v>
       </c>
       <c r="W17">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2588,24 +2567,24 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>4000001</v>
+        <v>3000001</v>
       </c>
       <c r="AE17" t="s">
         <v>70</v>
       </c>
       <c r="AF17">
-        <v>4003</v>
+        <v>3004</v>
       </c>
       <c r="AG17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:33">
       <c r="A18">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -2616,23 +2595,23 @@
       <c r="G18">
         <v>4000001</v>
       </c>
+      <c r="H18">
+        <v>41000002</v>
+      </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
       </c>
       <c r="O18">
-        <v>202001</v>
-      </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18">
-        <v>30</v>
+        <v>101001</v>
       </c>
       <c r="R18">
         <v>2</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2650,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA18">
         <v>1</v>
@@ -2668,15 +2647,15 @@
         <v>70</v>
       </c>
       <c r="AF18">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="AG18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:33">
       <c r="A19">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -2688,13 +2667,13 @@
         <v>4000001</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19">
-        <v>500002</v>
+        <v>500001</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2717,7 +2696,6 @@
       <c r="X19">
         <v>10</v>
       </c>
-      <c r="Y19"/>
       <c r="Z19">
         <v>1</v>
       </c>
@@ -2737,7 +2715,7 @@
         <v>70</v>
       </c>
       <c r="AF19">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="AG19" t="s">
         <v>93</v>
@@ -2745,7 +2723,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:33">
       <c r="A20">
-        <v>5001</v>
+        <v>4003</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -2754,22 +2732,22 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O20">
-        <v>101002</v>
+        <v>600001</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2781,13 +2759,13 @@
         <v>0.5</v>
       </c>
       <c r="W20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2796,24 +2774,24 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD20">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="AE20" t="s">
         <v>70</v>
       </c>
       <c r="AF20">
-        <v>5001</v>
+        <v>4003</v>
       </c>
       <c r="AG20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:33">
       <c r="A21">
-        <v>5002</v>
+        <v>4004</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -2822,22 +2800,19 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5000001</v>
-      </c>
-      <c r="H21">
-        <v>51010001</v>
+        <v>4000001</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O21">
-        <v>203001</v>
+        <v>202001</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R21">
         <v>2</v>
@@ -2855,13 +2830,13 @@
         <v>0.5</v>
       </c>
       <c r="W21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Z21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2870,24 +2845,24 @@
         <v>1</v>
       </c>
       <c r="AC21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD21">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="AE21" t="s">
         <v>70</v>
       </c>
       <c r="AF21">
-        <v>5002</v>
+        <v>4004</v>
       </c>
       <c r="AG21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:33">
       <c r="A22">
-        <v>5003</v>
+        <v>4005</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -2896,22 +2871,22 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O22">
-        <v>700001</v>
+        <v>500002</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2923,13 +2898,14 @@
         <v>0.5</v>
       </c>
       <c r="W22">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X22">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Y22"/>
       <c r="Z22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -2938,24 +2914,24 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD22">
-        <v>5000001</v>
+        <v>4000001</v>
       </c>
       <c r="AE22" t="s">
         <v>70</v>
       </c>
       <c r="AF22">
-        <v>5003</v>
+        <v>4005</v>
       </c>
       <c r="AG22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:33">
       <c r="A23">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -2967,19 +2943,19 @@
         <v>5000001</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O23">
-        <v>700002</v>
+        <v>101002</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="R23">
         <v>2</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2991,10 +2967,10 @@
         <v>0.5</v>
       </c>
       <c r="W23">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z23">
         <v>3</v>
@@ -3015,15 +2991,15 @@
         <v>70</v>
       </c>
       <c r="AF23">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="AG23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:33">
       <c r="A24">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -3031,23 +3007,29 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
       <c r="G24">
-        <v>6000001</v>
+        <v>5000001</v>
+      </c>
+      <c r="H24">
+        <v>51010001</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O24">
-        <v>200001</v>
+        <v>203001</v>
+      </c>
+      <c r="P24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
       </c>
       <c r="R24">
         <v>2</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -3059,39 +3041,39 @@
         <v>0.5</v>
       </c>
       <c r="W24">
+        <v>60</v>
+      </c>
+      <c r="X24">
         <v>30</v>
       </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
       <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
         <v>5</v>
       </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>6</v>
-      </c>
       <c r="AD24">
-        <v>6000001</v>
+        <v>5000001</v>
       </c>
       <c r="AE24" t="s">
         <v>70</v>
       </c>
       <c r="AF24">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="AG24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:33">
       <c r="A25">
-        <v>6002</v>
+        <v>5003</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -3100,28 +3082,22 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6000001</v>
-      </c>
-      <c r="H25">
-        <v>61010002</v>
+        <v>5000001</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="O25">
-        <v>204001</v>
-      </c>
-      <c r="P25" t="s">
-        <v>103</v>
+        <v>700001</v>
+      </c>
+      <c r="Q25">
+        <v>41</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -3133,13 +3109,13 @@
         <v>0.5</v>
       </c>
       <c r="W25">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="X25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -3148,24 +3124,24 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD25">
-        <v>6000001</v>
+        <v>5000001</v>
       </c>
       <c r="AE25" t="s">
         <v>70</v>
       </c>
       <c r="AF25">
-        <v>6002</v>
+        <v>5003</v>
       </c>
       <c r="AG25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:33">
       <c r="A26">
-        <v>6003</v>
+        <v>5004</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -3174,13 +3150,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6000001</v>
+        <v>5000001</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O26">
-        <v>200001</v>
+        <v>700002</v>
+      </c>
+      <c r="Q26">
+        <v>41</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -3198,13 +3177,13 @@
         <v>0.5</v>
       </c>
       <c r="W26">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z26">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -3213,24 +3192,24 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD26">
-        <v>6000001</v>
+        <v>5000001</v>
       </c>
       <c r="AE26" t="s">
         <v>70</v>
       </c>
       <c r="AF26">
-        <v>6003</v>
+        <v>5004</v>
       </c>
       <c r="AG26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:33">
       <c r="A27">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -3238,23 +3217,17 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
       <c r="G27">
         <v>6000001</v>
       </c>
-      <c r="H27">
-        <v>61010003</v>
-      </c>
       <c r="I27" t="s">
-        <v>74</v>
-      </c>
-      <c r="M27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O27">
-        <v>204002</v>
-      </c>
-      <c r="P27" t="s">
-        <v>103</v>
+        <v>200001</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3272,13 +3245,13 @@
         <v>0.5</v>
       </c>
       <c r="W27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -3296,15 +3269,15 @@
         <v>70</v>
       </c>
       <c r="AF27">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="AG27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:33">
       <c r="A28">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -3316,25 +3289,25 @@
         <v>6000001</v>
       </c>
       <c r="H28">
-        <v>61010003</v>
+        <v>61010002</v>
       </c>
       <c r="I28" t="s">
         <v>74</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O28">
-        <v>204003</v>
+        <v>204001</v>
       </c>
       <c r="P28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R28">
         <v>2</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -3346,13 +3319,13 @@
         <v>0.5</v>
       </c>
       <c r="W28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -3370,7 +3343,7 @@
         <v>70</v>
       </c>
       <c r="AF28">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="AG28" t="s">
         <v>107</v>
@@ -3378,7 +3351,7 @@
     </row>
     <row r="29" customFormat="1" spans="1:33">
       <c r="A29">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -3386,14 +3359,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
       <c r="G29">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29">
         <v>200001</v>
@@ -3414,13 +3384,13 @@
         <v>0.5</v>
       </c>
       <c r="W29">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z29">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="AA29">
         <v>1</v>
@@ -3429,24 +3399,24 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD29">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="AE29" t="s">
         <v>70</v>
       </c>
       <c r="AF29">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="AG29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:33">
       <c r="A30">
-        <v>7002</v>
+        <v>6004</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -3455,28 +3425,28 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="H30">
-        <v>71000001</v>
+        <v>61010003</v>
       </c>
       <c r="I30" t="s">
         <v>74</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O30">
-        <v>205001</v>
+        <v>204002</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="R30">
         <v>2</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3488,13 +3458,13 @@
         <v>0.5</v>
       </c>
       <c r="W30">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="X30">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Z30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3503,24 +3473,24 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD30">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="AE30" t="s">
         <v>70</v>
       </c>
       <c r="AF30">
-        <v>7002</v>
+        <v>6004</v>
       </c>
       <c r="AG30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:33">
       <c r="A31">
-        <v>7003</v>
+        <v>6005</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3529,22 +3499,22 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="H31">
-        <v>71010004</v>
+        <v>61010003</v>
       </c>
       <c r="I31" t="s">
         <v>74</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O31">
-        <v>205002</v>
+        <v>204003</v>
       </c>
       <c r="P31" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3562,13 +3532,13 @@
         <v>0.5</v>
       </c>
       <c r="W31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA31">
         <v>1</v>
@@ -3577,24 +3547,24 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD31">
-        <v>7000001</v>
+        <v>6000001</v>
       </c>
       <c r="AE31" t="s">
         <v>70</v>
       </c>
       <c r="AF31">
-        <v>7003</v>
+        <v>6005</v>
       </c>
       <c r="AG31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:33">
       <c r="A32">
-        <v>7004</v>
+        <v>7001</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -3602,23 +3572,17 @@
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
       <c r="G32">
         <v>7000001</v>
       </c>
-      <c r="H32">
-        <v>71010004</v>
-      </c>
       <c r="I32" t="s">
-        <v>74</v>
-      </c>
-      <c r="M32" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="O32">
-        <v>205003</v>
-      </c>
-      <c r="P32" t="s">
-        <v>78</v>
+        <v>200001</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -3639,10 +3603,10 @@
         <v>45</v>
       </c>
       <c r="X32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3660,7 +3624,7 @@
         <v>70</v>
       </c>
       <c r="AF32">
-        <v>7004</v>
+        <v>7001</v>
       </c>
       <c r="AG32" t="s">
         <v>112</v>
@@ -3668,25 +3632,37 @@
     </row>
     <row r="33" customFormat="1" spans="1:33">
       <c r="A33">
-        <v>101001</v>
+        <v>7002</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1000001</v>
+        <v>7000001</v>
+      </c>
+      <c r="H33">
+        <v>71000001</v>
       </c>
       <c r="I33" t="s">
         <v>74</v>
       </c>
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
       <c r="O33">
-        <v>100001</v>
+        <v>205001</v>
+      </c>
+      <c r="P33" t="s">
+        <v>81</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3697,29 +3673,32 @@
       <c r="V33">
         <v>0.5</v>
       </c>
+      <c r="W33">
+        <v>45</v>
+      </c>
       <c r="X33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD33">
-        <v>1000001</v>
+        <v>7000001</v>
       </c>
       <c r="AE33" t="s">
         <v>70</v>
       </c>
       <c r="AF33">
-        <v>101001</v>
+        <v>7002</v>
       </c>
       <c r="AG33" t="s">
         <v>113</v>
@@ -3727,25 +3706,37 @@
     </row>
     <row r="34" customFormat="1" spans="1:33">
       <c r="A34">
-        <v>102001</v>
+        <v>7003</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1000001</v>
+        <v>7000001</v>
+      </c>
+      <c r="H34">
+        <v>71010004</v>
       </c>
       <c r="I34" t="s">
         <v>74</v>
       </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
       <c r="O34">
-        <v>200001</v>
+        <v>205002</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3756,29 +3747,32 @@
       <c r="V34">
         <v>0.5</v>
       </c>
+      <c r="W34">
+        <v>45</v>
+      </c>
       <c r="X34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA34">
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD34">
-        <v>1000001</v>
+        <v>7000001</v>
       </c>
       <c r="AE34" t="s">
         <v>70</v>
       </c>
       <c r="AF34">
-        <v>102001</v>
+        <v>7003</v>
       </c>
       <c r="AG34" t="s">
         <v>114</v>
@@ -3786,25 +3780,37 @@
     </row>
     <row r="35" customFormat="1" spans="1:33">
       <c r="A35">
-        <v>103001</v>
+        <v>7004</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1000001</v>
+        <v>7000001</v>
+      </c>
+      <c r="H35">
+        <v>71010004</v>
       </c>
       <c r="I35" t="s">
         <v>74</v>
       </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
       <c r="O35">
-        <v>201001</v>
+        <v>205003</v>
+      </c>
+      <c r="P35" t="s">
+        <v>81</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -3815,29 +3821,32 @@
       <c r="V35">
         <v>0.5</v>
       </c>
+      <c r="W35">
+        <v>45</v>
+      </c>
       <c r="X35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
       <c r="AB35">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD35">
-        <v>1000001</v>
+        <v>7000001</v>
       </c>
       <c r="AE35" t="s">
         <v>70</v>
       </c>
       <c r="AF35">
-        <v>103001</v>
+        <v>7004</v>
       </c>
       <c r="AG35" t="s">
         <v>115</v>
@@ -3845,7 +3854,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:33">
       <c r="A36">
-        <v>103002</v>
+        <v>101001</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3857,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="O36">
-        <v>201002</v>
+        <v>100001</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -3896,28 +3905,33 @@
         <v>70</v>
       </c>
       <c r="AF36">
-        <v>103002</v>
+        <v>101001</v>
       </c>
       <c r="AG36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:33">
-      <c r="A37" s="1">
-        <v>989996</v>
-      </c>
-      <c r="B37" s="2"/>
+      <c r="A37">
+        <v>102001</v>
+      </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1000001</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
       </c>
       <c r="O37">
         <v>200001</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3932,44 +3946,51 @@
         <v>10</v>
       </c>
       <c r="Z37">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA37">
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>989996</v>
-      </c>
-      <c r="AD37" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1000001</v>
+      </c>
       <c r="AE37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF37">
+        <v>102001</v>
+      </c>
+      <c r="AG37" t="s">
         <v>117</v>
       </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="38" customFormat="1" spans="1:33">
-      <c r="A38" s="1">
-        <v>989997</v>
-      </c>
-      <c r="B38" s="2"/>
+      <c r="A38">
+        <v>103001</v>
+      </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1000001</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
       </c>
       <c r="O38">
-        <v>200001</v>
+        <v>201001</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3984,44 +4005,51 @@
         <v>10</v>
       </c>
       <c r="Z38">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA38">
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>989997</v>
-      </c>
-      <c r="AD38" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1000001</v>
+      </c>
       <c r="AE38" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>103001</v>
       </c>
       <c r="AG38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:33">
-      <c r="A39" s="1">
-        <v>989998</v>
-      </c>
-      <c r="B39" s="2"/>
+      <c r="A39">
+        <v>103002</v>
+      </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1000001</v>
+      </c>
+      <c r="I39" t="s">
+        <v>74</v>
       </c>
       <c r="O39">
-        <v>200001</v>
+        <v>201002</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -4036,31 +4064,33 @@
         <v>10</v>
       </c>
       <c r="Z39">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>989998</v>
-      </c>
-      <c r="AD39" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1000001</v>
+      </c>
       <c r="AE39" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>103002</v>
       </c>
       <c r="AG39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:33">
       <c r="A40" s="1">
-        <v>989999</v>
+        <v>989996</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40">
@@ -4096,22 +4126,23 @@
       <c r="AB40">
         <v>1</v>
       </c>
-      <c r="AC40">
-        <v>989999</v>
-      </c>
+      <c r="AC40" s="1">
+        <v>989996</v>
+      </c>
+      <c r="AD40" s="2"/>
       <c r="AE40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF40">
         <v>1</v>
       </c>
       <c r="AG40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:33">
       <c r="A41" s="1">
-        <v>999947</v>
+        <v>989997</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41">
@@ -4148,22 +4179,22 @@
         <v>1</v>
       </c>
       <c r="AC41" s="1">
-        <v>999947</v>
+        <v>989997</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF41">
         <v>1</v>
       </c>
       <c r="AG41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:33">
       <c r="A42" s="1">
-        <v>999948</v>
+        <v>989998</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42">
@@ -4200,22 +4231,22 @@
         <v>1</v>
       </c>
       <c r="AC42" s="1">
-        <v>999948</v>
+        <v>989998</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF42">
         <v>1</v>
       </c>
       <c r="AG42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:33">
       <c r="A43" s="1">
-        <v>999949</v>
+        <v>989999</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43">
@@ -4251,23 +4282,22 @@
       <c r="AB43">
         <v>1</v>
       </c>
-      <c r="AC43" s="1">
-        <v>999949</v>
-      </c>
-      <c r="AD43" s="2"/>
+      <c r="AC43">
+        <v>989999</v>
+      </c>
       <c r="AE43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF43">
         <v>1</v>
       </c>
       <c r="AG43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:33">
       <c r="A44" s="1">
-        <v>999950</v>
+        <v>999947</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44">
@@ -4304,22 +4334,22 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1">
-        <v>999950</v>
+        <v>999947</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF44">
         <v>1</v>
       </c>
       <c r="AG44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:33">
       <c r="A45" s="1">
-        <v>999951</v>
+        <v>999948</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45">
@@ -4356,22 +4386,22 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1">
-        <v>999951</v>
+        <v>999948</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF45">
         <v>1</v>
       </c>
       <c r="AG45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:33">
       <c r="A46" s="1">
-        <v>999952</v>
+        <v>999949</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46">
@@ -4408,22 +4438,22 @@
         <v>1</v>
       </c>
       <c r="AC46" s="1">
-        <v>999952</v>
+        <v>999949</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF46">
         <v>1</v>
       </c>
       <c r="AG46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:33">
       <c r="A47" s="1">
-        <v>999953</v>
+        <v>999950</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47">
@@ -4460,22 +4490,22 @@
         <v>1</v>
       </c>
       <c r="AC47" s="1">
-        <v>999953</v>
+        <v>999950</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF47">
         <v>1</v>
       </c>
       <c r="AG47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:33">
       <c r="A48" s="1">
-        <v>999954</v>
+        <v>999951</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48">
@@ -4512,22 +4542,22 @@
         <v>1</v>
       </c>
       <c r="AC48" s="1">
-        <v>999954</v>
+        <v>999951</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF48">
         <v>1</v>
       </c>
       <c r="AG48" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:33">
       <c r="A49" s="1">
-        <v>999955</v>
+        <v>999952</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49">
@@ -4564,22 +4594,22 @@
         <v>1</v>
       </c>
       <c r="AC49" s="1">
-        <v>999955</v>
+        <v>999952</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF49">
         <v>1</v>
       </c>
       <c r="AG49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:33">
       <c r="A50" s="1">
-        <v>999956</v>
+        <v>999953</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50">
@@ -4616,22 +4646,22 @@
         <v>1</v>
       </c>
       <c r="AC50" s="1">
-        <v>999956</v>
+        <v>999953</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF50">
         <v>1</v>
       </c>
       <c r="AG50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:33">
       <c r="A51" s="1">
-        <v>999957</v>
+        <v>999954</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51">
@@ -4668,22 +4698,22 @@
         <v>1</v>
       </c>
       <c r="AC51" s="1">
-        <v>999957</v>
+        <v>999954</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF51">
         <v>1</v>
       </c>
       <c r="AG51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:33">
       <c r="A52" s="1">
-        <v>999958</v>
+        <v>999955</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52">
@@ -4720,22 +4750,22 @@
         <v>1</v>
       </c>
       <c r="AC52" s="1">
-        <v>999958</v>
+        <v>999955</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF52">
         <v>1</v>
       </c>
       <c r="AG52" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:33">
       <c r="A53" s="1">
-        <v>999959</v>
+        <v>999956</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53">
@@ -4772,22 +4802,22 @@
         <v>1</v>
       </c>
       <c r="AC53" s="1">
-        <v>999959</v>
+        <v>999956</v>
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF53">
         <v>1</v>
       </c>
       <c r="AG53" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:33">
       <c r="A54" s="1">
-        <v>999960</v>
+        <v>999957</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54">
@@ -4824,22 +4854,22 @@
         <v>1</v>
       </c>
       <c r="AC54" s="1">
-        <v>999960</v>
+        <v>999957</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF54">
         <v>1</v>
       </c>
       <c r="AG54" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:33">
       <c r="A55" s="1">
-        <v>999961</v>
+        <v>999958</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55">
@@ -4876,22 +4906,22 @@
         <v>1</v>
       </c>
       <c r="AC55" s="1">
-        <v>999961</v>
+        <v>999958</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF55">
         <v>1</v>
       </c>
       <c r="AG55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:33">
       <c r="A56" s="1">
-        <v>999962</v>
+        <v>999959</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56">
@@ -4928,22 +4958,22 @@
         <v>1</v>
       </c>
       <c r="AC56" s="1">
-        <v>999962</v>
+        <v>999959</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF56">
         <v>1</v>
       </c>
       <c r="AG56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:33">
       <c r="A57" s="1">
-        <v>999963</v>
+        <v>999960</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57">
@@ -4980,22 +5010,22 @@
         <v>1</v>
       </c>
       <c r="AC57" s="1">
-        <v>999963</v>
+        <v>999960</v>
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF57">
         <v>1</v>
       </c>
       <c r="AG57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:33">
       <c r="A58" s="1">
-        <v>999964</v>
+        <v>999961</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58">
@@ -5032,22 +5062,22 @@
         <v>1</v>
       </c>
       <c r="AC58" s="1">
-        <v>999964</v>
+        <v>999961</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF58">
         <v>1</v>
       </c>
       <c r="AG58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:33">
       <c r="A59" s="1">
-        <v>999965</v>
+        <v>999962</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59">
@@ -5084,22 +5114,22 @@
         <v>1</v>
       </c>
       <c r="AC59" s="1">
-        <v>999965</v>
+        <v>999962</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF59">
         <v>1</v>
       </c>
       <c r="AG59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:33">
       <c r="A60" s="1">
-        <v>999966</v>
+        <v>999963</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60">
@@ -5136,22 +5166,22 @@
         <v>1</v>
       </c>
       <c r="AC60" s="1">
-        <v>999966</v>
+        <v>999963</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF60">
         <v>1</v>
       </c>
       <c r="AG60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:33">
       <c r="A61" s="1">
-        <v>999967</v>
+        <v>999964</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61">
@@ -5188,22 +5218,22 @@
         <v>1</v>
       </c>
       <c r="AC61" s="1">
-        <v>999967</v>
+        <v>999964</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF61">
         <v>1</v>
       </c>
       <c r="AG61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:33">
       <c r="A62" s="1">
-        <v>999968</v>
+        <v>999965</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62">
@@ -5240,22 +5270,22 @@
         <v>1</v>
       </c>
       <c r="AC62" s="1">
-        <v>999968</v>
+        <v>999965</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF62">
         <v>1</v>
       </c>
       <c r="AG62" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:33">
       <c r="A63" s="1">
-        <v>999969</v>
+        <v>999966</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63">
@@ -5292,22 +5322,22 @@
         <v>1</v>
       </c>
       <c r="AC63" s="1">
-        <v>999969</v>
+        <v>999966</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF63">
         <v>1</v>
       </c>
       <c r="AG63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:33">
       <c r="A64" s="1">
-        <v>999970</v>
+        <v>999967</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64">
@@ -5344,22 +5374,22 @@
         <v>1</v>
       </c>
       <c r="AC64" s="1">
-        <v>999970</v>
+        <v>999967</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF64">
         <v>1</v>
       </c>
       <c r="AG64" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:33">
       <c r="A65" s="1">
-        <v>999971</v>
+        <v>999968</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65">
@@ -5396,22 +5426,22 @@
         <v>1</v>
       </c>
       <c r="AC65" s="1">
-        <v>999971</v>
+        <v>999968</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF65">
         <v>1</v>
       </c>
       <c r="AG65" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:33">
       <c r="A66" s="1">
-        <v>999972</v>
+        <v>999969</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66">
@@ -5448,22 +5478,22 @@
         <v>1</v>
       </c>
       <c r="AC66" s="1">
-        <v>999972</v>
+        <v>999969</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF66">
         <v>1</v>
       </c>
       <c r="AG66" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:33">
       <c r="A67" s="1">
-        <v>999973</v>
+        <v>999970</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67">
@@ -5500,22 +5530,22 @@
         <v>1</v>
       </c>
       <c r="AC67" s="1">
-        <v>999973</v>
+        <v>999970</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF67">
         <v>1</v>
       </c>
       <c r="AG67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:33">
       <c r="A68" s="1">
-        <v>999974</v>
+        <v>999971</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68">
@@ -5552,22 +5582,22 @@
         <v>1</v>
       </c>
       <c r="AC68" s="1">
-        <v>999974</v>
+        <v>999971</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF68">
         <v>1</v>
       </c>
       <c r="AG68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:33">
       <c r="A69" s="1">
-        <v>999975</v>
+        <v>999972</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69">
@@ -5604,22 +5634,22 @@
         <v>1</v>
       </c>
       <c r="AC69" s="1">
-        <v>999975</v>
+        <v>999972</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF69">
         <v>1</v>
       </c>
       <c r="AG69" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:33">
       <c r="A70" s="1">
-        <v>999976</v>
+        <v>999973</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70">
@@ -5656,22 +5686,22 @@
         <v>1</v>
       </c>
       <c r="AC70" s="1">
-        <v>999976</v>
+        <v>999973</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF70">
         <v>1</v>
       </c>
       <c r="AG70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:33">
       <c r="A71" s="1">
-        <v>999977</v>
+        <v>999974</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71">
@@ -5708,22 +5738,22 @@
         <v>1</v>
       </c>
       <c r="AC71" s="1">
-        <v>999977</v>
+        <v>999974</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF71">
         <v>1</v>
       </c>
       <c r="AG71" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:33">
       <c r="A72" s="1">
-        <v>999978</v>
+        <v>999975</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72">
@@ -5760,22 +5790,22 @@
         <v>1</v>
       </c>
       <c r="AC72" s="1">
-        <v>999978</v>
+        <v>999975</v>
       </c>
       <c r="AD72" s="2"/>
       <c r="AE72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF72">
         <v>1</v>
       </c>
       <c r="AG72" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:33">
       <c r="A73" s="1">
-        <v>999979</v>
+        <v>999976</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73">
@@ -5812,22 +5842,22 @@
         <v>1</v>
       </c>
       <c r="AC73" s="1">
-        <v>999979</v>
+        <v>999976</v>
       </c>
       <c r="AD73" s="2"/>
       <c r="AE73" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF73">
         <v>1</v>
       </c>
       <c r="AG73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:33">
       <c r="A74" s="1">
-        <v>999980</v>
+        <v>999977</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74">
@@ -5864,22 +5894,22 @@
         <v>1</v>
       </c>
       <c r="AC74" s="1">
-        <v>999980</v>
+        <v>999977</v>
       </c>
       <c r="AD74" s="2"/>
       <c r="AE74" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF74">
         <v>1</v>
       </c>
       <c r="AG74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:33">
       <c r="A75" s="1">
-        <v>999981</v>
+        <v>999978</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75">
@@ -5916,23 +5946,24 @@
         <v>1</v>
       </c>
       <c r="AC75" s="1">
-        <v>999981</v>
+        <v>999978</v>
       </c>
       <c r="AD75" s="2"/>
       <c r="AE75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF75">
         <v>1</v>
       </c>
       <c r="AG75" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:33">
-      <c r="A76">
-        <v>999982</v>
-      </c>
+      <c r="A76" s="1">
+        <v>999979</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -5966,23 +5997,25 @@
       <c r="AB76">
         <v>1</v>
       </c>
-      <c r="AC76">
-        <v>999982</v>
-      </c>
+      <c r="AC76" s="1">
+        <v>999979</v>
+      </c>
+      <c r="AD76" s="2"/>
       <c r="AE76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF76">
         <v>1</v>
       </c>
       <c r="AG76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:33">
-      <c r="A77">
-        <v>999983</v>
-      </c>
+      <c r="A77" s="1">
+        <v>999980</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -6016,23 +6049,25 @@
       <c r="AB77">
         <v>1</v>
       </c>
-      <c r="AC77">
-        <v>999983</v>
-      </c>
+      <c r="AC77" s="1">
+        <v>999980</v>
+      </c>
+      <c r="AD77" s="2"/>
       <c r="AE77" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF77">
         <v>1</v>
       </c>
       <c r="AG77" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:33">
-      <c r="A78">
-        <v>999984</v>
-      </c>
+      <c r="A78" s="1">
+        <v>999981</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78">
         <v>1</v>
       </c>
@@ -6066,22 +6101,23 @@
       <c r="AB78">
         <v>1</v>
       </c>
-      <c r="AC78">
-        <v>999984</v>
-      </c>
+      <c r="AC78" s="1">
+        <v>999981</v>
+      </c>
+      <c r="AD78" s="2"/>
       <c r="AE78" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF78">
         <v>1</v>
       </c>
       <c r="AG78" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:33">
       <c r="A79">
-        <v>999985</v>
+        <v>999982</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6117,21 +6153,21 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>999985</v>
+        <v>999982</v>
       </c>
       <c r="AE79" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF79">
         <v>1</v>
       </c>
       <c r="AG79" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:33">
       <c r="A80">
-        <v>999986</v>
+        <v>999983</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6167,21 +6203,21 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <v>999986</v>
+        <v>999983</v>
       </c>
       <c r="AE80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF80">
         <v>1</v>
       </c>
       <c r="AG80" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:33">
       <c r="A81">
-        <v>999987</v>
+        <v>999984</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6217,21 +6253,21 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>999987</v>
+        <v>999984</v>
       </c>
       <c r="AE81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF81">
         <v>1</v>
       </c>
       <c r="AG81" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:33">
       <c r="A82">
-        <v>999988</v>
+        <v>999985</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6267,21 +6303,21 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>999988</v>
+        <v>999985</v>
       </c>
       <c r="AE82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF82">
         <v>1</v>
       </c>
       <c r="AG82" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:33">
       <c r="A83">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6317,21 +6353,21 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="AE83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF83">
         <v>1</v>
       </c>
       <c r="AG83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:33">
       <c r="A84">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6367,21 +6403,21 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="AE84" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF84">
         <v>1</v>
       </c>
       <c r="AG84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:33">
       <c r="A85">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6417,21 +6453,21 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="AE85" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF85">
         <v>1</v>
       </c>
       <c r="AG85" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:33">
       <c r="A86">
-        <v>999992</v>
+        <v>999989</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6467,21 +6503,21 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>999992</v>
+        <v>999989</v>
       </c>
       <c r="AE86" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF86">
         <v>1</v>
       </c>
       <c r="AG86" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:33">
       <c r="A87">
-        <v>999993</v>
+        <v>999990</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -6517,21 +6553,21 @@
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>999993</v>
+        <v>999990</v>
       </c>
       <c r="AE87" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF87">
         <v>1</v>
       </c>
       <c r="AG87" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:33">
       <c r="A88">
-        <v>999994</v>
+        <v>999991</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -6567,21 +6603,21 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>999994</v>
+        <v>999991</v>
       </c>
       <c r="AE88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF88">
         <v>1</v>
       </c>
       <c r="AG88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:33">
       <c r="A89">
-        <v>999995</v>
+        <v>999992</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -6617,21 +6653,21 @@
         <v>1</v>
       </c>
       <c r="AC89">
-        <v>999995</v>
+        <v>999992</v>
       </c>
       <c r="AE89" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF89">
         <v>1</v>
       </c>
       <c r="AG89" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:33">
       <c r="A90">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -6667,21 +6703,21 @@
         <v>1</v>
       </c>
       <c r="AC90">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="AE90" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF90">
         <v>1</v>
       </c>
       <c r="AG90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:33">
       <c r="A91">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -6717,21 +6753,21 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="AE91" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF91">
         <v>1</v>
       </c>
       <c r="AG91" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:33">
       <c r="A92">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -6767,21 +6803,21 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="AE92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF92">
         <v>1</v>
       </c>
       <c r="AG92" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:33">
       <c r="A93">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -6817,21 +6853,168 @@
         <v>1</v>
       </c>
       <c r="AC93">
+        <v>999996</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:33">
+      <c r="A94">
+        <v>999997</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>200001</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>0.5</v>
+      </c>
+      <c r="V94">
+        <v>0.5</v>
+      </c>
+      <c r="X94">
+        <v>10</v>
+      </c>
+      <c r="Z94">
+        <v>35</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <v>999997</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:33">
+      <c r="A95">
+        <v>999998</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>200001</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>6</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>0.5</v>
+      </c>
+      <c r="V95">
+        <v>0.5</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Z95">
+        <v>35</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
+      <c r="AC95">
+        <v>999998</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:33">
+      <c r="A96">
         <v>999999</v>
       </c>
-      <c r="AE93" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF93">
-        <v>1</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" ht="15" customHeight="1"/>
-    <row r="114" ht="15" customHeight="1"/>
-    <row r="115" ht="15" customHeight="1"/>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>200001</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>0.5</v>
+      </c>
+      <c r="V96">
+        <v>0.5</v>
+      </c>
+      <c r="X96">
+        <v>10</v>
+      </c>
+      <c r="Z96">
+        <v>35</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AC96">
+        <v>999999</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="116" ht="15" customHeight="1"/>
     <row r="117" ht="15" customHeight="1"/>
     <row r="118" ht="15" customHeight="1"/>
@@ -6840,17 +7023,20 @@
     <row r="121" ht="15" customHeight="1"/>
     <row r="122" ht="15" customHeight="1"/>
     <row r="123" ht="15" customHeight="1"/>
-    <row r="155" ht="12" customHeight="1"/>
-    <row r="156" ht="12" customHeight="1"/>
-    <row r="157" ht="12" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="12" customHeight="1"/>
     <row r="160" ht="12" customHeight="1"/>
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
+    <row r="164" ht="12" customHeight="1"/>
+    <row r="165" ht="12" customHeight="1"/>
+    <row r="166" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG93" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG96" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info[生物信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AG$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$AH$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,9 @@
     <t>card_scene</t>
   </si>
   <si>
+    <t>unlock_id</t>
+  </si>
+  <si>
     <t>name[language]</t>
   </si>
   <si>
@@ -234,6 +237,9 @@
   </si>
   <si>
     <t>卡片背景</t>
+  </si>
+  <si>
+    <t>解锁ID</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -1369,14 +1375,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG166"/>
+  <dimension ref="A1:AH166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG32" sqref="AG32:AG35"/>
+      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1405,12 +1411,12 @@
     <col min="27" max="27" width="8.875" customWidth="1"/>
     <col min="28" max="29" width="14.75" customWidth="1"/>
     <col min="30" max="30" width="34" customWidth="1"/>
-    <col min="31" max="31" width="13.75" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="42.875" customWidth="1"/>
+    <col min="31" max="32" width="13.75" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="34" max="34" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,210 +1516,219 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AG2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AH2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:33">
+        <v>70</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:34">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1736,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:33">
+        <v>72</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1768,16 +1783,16 @@
         <v>2</v>
       </c>
       <c r="AE5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:33">
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:34">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1825,16 +1840,19 @@
         <v>1000001</v>
       </c>
       <c r="AE6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>300100001</v>
+      </c>
+      <c r="AG6">
         <v>1001</v>
       </c>
-      <c r="AG6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:33">
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:34">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>1000001</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7">
         <v>200001</v>
@@ -1884,16 +1902,19 @@
         <v>1000001</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>300100002</v>
+      </c>
+      <c r="AG7">
         <v>1002</v>
       </c>
-      <c r="AG7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:33">
+      <c r="AH7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:34">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1904,7 +1925,7 @@
         <v>1000001</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8">
         <v>201001</v>
@@ -1943,16 +1964,19 @@
         <v>1000001</v>
       </c>
       <c r="AE8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF8">
+        <v>72</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>300100003</v>
+      </c>
+      <c r="AG8">
         <v>1003</v>
       </c>
-      <c r="AG8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:33">
+      <c r="AH8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:34">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1963,7 +1987,7 @@
         <v>1000001</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9">
         <v>201002</v>
@@ -2002,16 +2026,19 @@
         <v>1000001</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF9">
+        <v>72</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>300100004</v>
+      </c>
+      <c r="AG9">
         <v>1004</v>
       </c>
-      <c r="AG9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:33">
+      <c r="AH9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:34">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -2028,10 +2055,10 @@
         <v>21010001</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10">
         <v>100001</v>
@@ -2073,16 +2100,19 @@
         <v>2000001</v>
       </c>
       <c r="AE10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF10">
+        <v>300200001</v>
+      </c>
+      <c r="AG10">
         <v>2001</v>
       </c>
-      <c r="AG10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -2099,16 +2129,16 @@
         <v>21000001</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>200001</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -2147,16 +2177,19 @@
         <v>2000001</v>
       </c>
       <c r="AE11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF11">
+        <v>300200002</v>
+      </c>
+      <c r="AG11">
         <v>2002</v>
       </c>
-      <c r="AG11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -2173,16 +2206,16 @@
         <v>21010002</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O12">
         <v>201001</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -2221,16 +2254,19 @@
         <v>2000001</v>
       </c>
       <c r="AE12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF12">
+        <v>300200003</v>
+      </c>
+      <c r="AG12">
         <v>2003</v>
       </c>
-      <c r="AG12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -2247,16 +2283,16 @@
         <v>21010003</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O13">
         <v>201002</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -2295,16 +2331,19 @@
         <v>2000001</v>
       </c>
       <c r="AE13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF13">
+        <v>300200004</v>
+      </c>
+      <c r="AG13">
         <v>2004</v>
       </c>
-      <c r="AG13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>3001</v>
       </c>
@@ -2357,16 +2396,19 @@
         <v>3000001</v>
       </c>
       <c r="AE14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF14">
+        <v>300300001</v>
+      </c>
+      <c r="AG14">
         <v>3001</v>
       </c>
-      <c r="AG14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:33">
+      <c r="AH14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:34">
       <c r="A15">
         <v>3002</v>
       </c>
@@ -2380,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O15">
         <v>300001</v>
@@ -2425,16 +2467,19 @@
         <v>3000001</v>
       </c>
       <c r="AE15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF15">
+        <v>300300002</v>
+      </c>
+      <c r="AG15">
         <v>3002</v>
       </c>
-      <c r="AG15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:33">
+      <c r="AH15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:34">
       <c r="A16">
         <v>3003</v>
       </c>
@@ -2445,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2499,16 +2544,19 @@
         <v>3000001</v>
       </c>
       <c r="AE16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF16">
+        <v>300300003</v>
+      </c>
+      <c r="AG16">
         <v>3003</v>
       </c>
-      <c r="AG16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:33">
+      <c r="AH16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:34">
       <c r="A17">
         <v>3004</v>
       </c>
@@ -2519,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2573,16 +2621,19 @@
         <v>3000001</v>
       </c>
       <c r="AE17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF17">
+        <v>300300004</v>
+      </c>
+      <c r="AG17">
         <v>3004</v>
       </c>
-      <c r="AG17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:33">
+      <c r="AH17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:34">
       <c r="A18">
         <v>4001</v>
       </c>
@@ -2599,10 +2650,10 @@
         <v>41000002</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O18">
         <v>101001</v>
@@ -2644,16 +2695,19 @@
         <v>4000001</v>
       </c>
       <c r="AE18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF18">
+        <v>300400001</v>
+      </c>
+      <c r="AG18">
         <v>4001</v>
       </c>
-      <c r="AG18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:33">
+      <c r="AH18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:34">
       <c r="A19">
         <v>4002</v>
       </c>
@@ -2667,7 +2721,7 @@
         <v>4000001</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O19">
         <v>500001</v>
@@ -2712,16 +2766,19 @@
         <v>4000001</v>
       </c>
       <c r="AE19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF19">
+        <v>300400002</v>
+      </c>
+      <c r="AG19">
         <v>4002</v>
       </c>
-      <c r="AG19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:33">
+      <c r="AH19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:34">
       <c r="A20">
         <v>4003</v>
       </c>
@@ -2735,7 +2792,7 @@
         <v>4000001</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O20">
         <v>600001</v>
@@ -2780,16 +2837,19 @@
         <v>4000001</v>
       </c>
       <c r="AE20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF20">
+        <v>300400003</v>
+      </c>
+      <c r="AG20">
         <v>4003</v>
       </c>
-      <c r="AG20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:33">
+      <c r="AH20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:34">
       <c r="A21">
         <v>4004</v>
       </c>
@@ -2803,13 +2863,13 @@
         <v>4000001</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O21">
         <v>202001</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q21">
         <v>30</v>
@@ -2851,16 +2911,19 @@
         <v>4000001</v>
       </c>
       <c r="AE21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF21">
+        <v>300400004</v>
+      </c>
+      <c r="AG21">
         <v>4004</v>
       </c>
-      <c r="AG21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:33">
+      <c r="AH21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:34">
       <c r="A22">
         <v>4005</v>
       </c>
@@ -2874,7 +2937,7 @@
         <v>4000001</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O22">
         <v>500002</v>
@@ -2920,16 +2983,19 @@
         <v>4000001</v>
       </c>
       <c r="AE22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF22">
+        <v>300400005</v>
+      </c>
+      <c r="AG22">
         <v>4005</v>
       </c>
-      <c r="AG22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:33">
+      <c r="AH22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:34">
       <c r="A23">
         <v>5001</v>
       </c>
@@ -2943,7 +3009,7 @@
         <v>5000001</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O23">
         <v>101002</v>
@@ -2988,16 +3054,19 @@
         <v>5000001</v>
       </c>
       <c r="AE23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF23">
+        <v>72</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>300500001</v>
+      </c>
+      <c r="AG23">
         <v>5001</v>
       </c>
-      <c r="AG23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:33">
+      <c r="AH23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:34">
       <c r="A24">
         <v>5002</v>
       </c>
@@ -3014,13 +3083,13 @@
         <v>51010001</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O24">
         <v>203001</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -3062,16 +3131,19 @@
         <v>5000001</v>
       </c>
       <c r="AE24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF24">
+        <v>72</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>300500002</v>
+      </c>
+      <c r="AG24">
         <v>5002</v>
       </c>
-      <c r="AG24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:33">
+      <c r="AH24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:34">
       <c r="A25">
         <v>5003</v>
       </c>
@@ -3085,7 +3157,7 @@
         <v>5000001</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O25">
         <v>700001</v>
@@ -3130,16 +3202,19 @@
         <v>5000001</v>
       </c>
       <c r="AE25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF25">
+        <v>72</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>300500003</v>
+      </c>
+      <c r="AG25">
         <v>5003</v>
       </c>
-      <c r="AG25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:33">
+      <c r="AH25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:34">
       <c r="A26">
         <v>5004</v>
       </c>
@@ -3153,7 +3228,7 @@
         <v>5000001</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O26">
         <v>700002</v>
@@ -3198,16 +3273,19 @@
         <v>5000001</v>
       </c>
       <c r="AE26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF26">
+        <v>72</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>300500004</v>
+      </c>
+      <c r="AG26">
         <v>5004</v>
       </c>
-      <c r="AG26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:33">
+      <c r="AH26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:34">
       <c r="A27">
         <v>6001</v>
       </c>
@@ -3218,13 +3296,13 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G27">
         <v>6000001</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O27">
         <v>200001</v>
@@ -3266,16 +3344,19 @@
         <v>6000001</v>
       </c>
       <c r="AE27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF27">
+        <v>72</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>300600001</v>
+      </c>
+      <c r="AG27">
         <v>6001</v>
       </c>
-      <c r="AG27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:33">
+      <c r="AH27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:34">
       <c r="A28">
         <v>6002</v>
       </c>
@@ -3292,16 +3373,16 @@
         <v>61010002</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O28">
         <v>204001</v>
       </c>
       <c r="P28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3340,16 +3421,19 @@
         <v>6000001</v>
       </c>
       <c r="AE28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF28">
+        <v>72</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>300600002</v>
+      </c>
+      <c r="AG28">
         <v>6002</v>
       </c>
-      <c r="AG28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:33">
+      <c r="AH28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:34">
       <c r="A29">
         <v>6003</v>
       </c>
@@ -3363,7 +3447,7 @@
         <v>6000001</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29">
         <v>200001</v>
@@ -3405,16 +3489,19 @@
         <v>6000001</v>
       </c>
       <c r="AE29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF29">
+        <v>72</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>300600003</v>
+      </c>
+      <c r="AG29">
         <v>6003</v>
       </c>
-      <c r="AG29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:33">
+      <c r="AH29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:34">
       <c r="A30">
         <v>6004</v>
       </c>
@@ -3431,16 +3518,16 @@
         <v>61010003</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O30">
         <v>204002</v>
       </c>
       <c r="P30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -3479,16 +3566,19 @@
         <v>6000001</v>
       </c>
       <c r="AE30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF30">
+        <v>72</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>300600004</v>
+      </c>
+      <c r="AG30">
         <v>6004</v>
       </c>
-      <c r="AG30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:33">
+      <c r="AH30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:34">
       <c r="A31">
         <v>6005</v>
       </c>
@@ -3505,16 +3595,16 @@
         <v>61010003</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O31">
         <v>204003</v>
       </c>
       <c r="P31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3553,16 +3643,19 @@
         <v>6000001</v>
       </c>
       <c r="AE31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF31">
+        <v>72</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>300600005</v>
+      </c>
+      <c r="AG31">
         <v>6005</v>
       </c>
-      <c r="AG31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:33">
+      <c r="AH31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:34">
       <c r="A32">
         <v>7001</v>
       </c>
@@ -3573,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G32">
         <v>7000001</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O32">
         <v>200001</v>
@@ -3621,16 +3714,19 @@
         <v>7000001</v>
       </c>
       <c r="AE32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF32">
+        <v>72</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>300700001</v>
+      </c>
+      <c r="AG32">
         <v>7001</v>
       </c>
-      <c r="AG32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:33">
+      <c r="AH32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:34">
       <c r="A33">
         <v>7002</v>
       </c>
@@ -3647,16 +3743,16 @@
         <v>71000001</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O33">
         <v>205001</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -3695,16 +3791,19 @@
         <v>7000001</v>
       </c>
       <c r="AE33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF33">
+        <v>72</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>300700002</v>
+      </c>
+      <c r="AG33">
         <v>7002</v>
       </c>
-      <c r="AG33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:33">
+      <c r="AH33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:34">
       <c r="A34">
         <v>7003</v>
       </c>
@@ -3721,16 +3820,16 @@
         <v>71010004</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O34">
         <v>205002</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R34">
         <v>2</v>
@@ -3769,16 +3868,19 @@
         <v>7000001</v>
       </c>
       <c r="AE34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF34">
+        <v>72</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>300700003</v>
+      </c>
+      <c r="AG34">
         <v>7003</v>
       </c>
-      <c r="AG34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:33">
+      <c r="AH34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:34">
       <c r="A35">
         <v>7004</v>
       </c>
@@ -3795,16 +3897,16 @@
         <v>71010004</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O35">
         <v>205003</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R35">
         <v>2</v>
@@ -3843,16 +3945,19 @@
         <v>7000001</v>
       </c>
       <c r="AE35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF35">
+        <v>72</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>300700004</v>
+      </c>
+      <c r="AG35">
         <v>7004</v>
       </c>
-      <c r="AG35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:33">
+      <c r="AH35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:34">
       <c r="A36">
         <v>101001</v>
       </c>
@@ -3863,7 +3968,7 @@
         <v>1000001</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O36">
         <v>100001</v>
@@ -3902,16 +4007,16 @@
         <v>1000001</v>
       </c>
       <c r="AE36" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF36">
+        <v>72</v>
+      </c>
+      <c r="AG36">
         <v>101001</v>
       </c>
-      <c r="AG36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:33">
+      <c r="AH36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:34">
       <c r="A37">
         <v>102001</v>
       </c>
@@ -3922,7 +4027,7 @@
         <v>1000001</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O37">
         <v>200001</v>
@@ -3961,16 +4066,16 @@
         <v>1000001</v>
       </c>
       <c r="AE37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF37">
+        <v>72</v>
+      </c>
+      <c r="AG37">
         <v>102001</v>
       </c>
-      <c r="AG37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:33">
+      <c r="AH37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:34">
       <c r="A38">
         <v>103001</v>
       </c>
@@ -3981,7 +4086,7 @@
         <v>1000001</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O38">
         <v>201001</v>
@@ -4020,16 +4125,16 @@
         <v>1000001</v>
       </c>
       <c r="AE38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF38">
+        <v>72</v>
+      </c>
+      <c r="AG38">
         <v>103001</v>
       </c>
-      <c r="AG38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:33">
+      <c r="AH38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:34">
       <c r="A39">
         <v>103002</v>
       </c>
@@ -4040,7 +4145,7 @@
         <v>1000001</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O39">
         <v>201002</v>
@@ -4079,16 +4184,16 @@
         <v>1000001</v>
       </c>
       <c r="AE39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF39">
+        <v>72</v>
+      </c>
+      <c r="AG39">
         <v>103002</v>
       </c>
-      <c r="AG39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:33">
+      <c r="AH39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:34">
       <c r="A40" s="1">
         <v>989996</v>
       </c>
@@ -4131,16 +4236,16 @@
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:34">
       <c r="A41" s="1">
         <v>989997</v>
       </c>
@@ -4183,16 +4288,16 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:34">
       <c r="A42" s="1">
         <v>989998</v>
       </c>
@@ -4235,16 +4340,16 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:34">
       <c r="A43" s="1">
         <v>989999</v>
       </c>
@@ -4286,16 +4391,16 @@
         <v>989999</v>
       </c>
       <c r="AE43" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:34">
       <c r="A44" s="1">
         <v>999947</v>
       </c>
@@ -4338,16 +4443,16 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:34">
       <c r="A45" s="1">
         <v>999948</v>
       </c>
@@ -4390,16 +4495,16 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:34">
       <c r="A46" s="1">
         <v>999949</v>
       </c>
@@ -4442,16 +4547,16 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:34">
       <c r="A47" s="1">
         <v>999950</v>
       </c>
@@ -4494,16 +4599,16 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:34">
       <c r="A48" s="1">
         <v>999951</v>
       </c>
@@ -4546,16 +4651,16 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:34">
       <c r="A49" s="1">
         <v>999952</v>
       </c>
@@ -4598,16 +4703,16 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:34">
       <c r="A50" s="1">
         <v>999953</v>
       </c>
@@ -4650,16 +4755,16 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:34">
       <c r="A51" s="1">
         <v>999954</v>
       </c>
@@ -4702,16 +4807,16 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:34">
       <c r="A52" s="1">
         <v>999955</v>
       </c>
@@ -4754,16 +4859,16 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:34">
       <c r="A53" s="1">
         <v>999956</v>
       </c>
@@ -4806,16 +4911,16 @@
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:34">
       <c r="A54" s="1">
         <v>999957</v>
       </c>
@@ -4858,16 +4963,16 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:34">
       <c r="A55" s="1">
         <v>999958</v>
       </c>
@@ -4910,16 +5015,16 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:34">
       <c r="A56" s="1">
         <v>999959</v>
       </c>
@@ -4962,16 +5067,16 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:34">
       <c r="A57" s="1">
         <v>999960</v>
       </c>
@@ -5014,16 +5119,16 @@
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:34">
       <c r="A58" s="1">
         <v>999961</v>
       </c>
@@ -5066,16 +5171,16 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:34">
       <c r="A59" s="1">
         <v>999962</v>
       </c>
@@ -5118,16 +5223,16 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:34">
       <c r="A60" s="1">
         <v>999963</v>
       </c>
@@ -5170,16 +5275,16 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:34">
       <c r="A61" s="1">
         <v>999964</v>
       </c>
@@ -5222,16 +5327,16 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:34">
       <c r="A62" s="1">
         <v>999965</v>
       </c>
@@ -5274,16 +5379,16 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:34">
       <c r="A63" s="1">
         <v>999966</v>
       </c>
@@ -5326,16 +5431,16 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:34">
       <c r="A64" s="1">
         <v>999967</v>
       </c>
@@ -5378,16 +5483,16 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:34">
       <c r="A65" s="1">
         <v>999968</v>
       </c>
@@ -5430,16 +5535,16 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:34">
       <c r="A66" s="1">
         <v>999969</v>
       </c>
@@ -5482,16 +5587,16 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:34">
       <c r="A67" s="1">
         <v>999970</v>
       </c>
@@ -5534,16 +5639,16 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF67">
-        <v>1</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:34">
       <c r="A68" s="1">
         <v>999971</v>
       </c>
@@ -5586,16 +5691,16 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF68">
-        <v>1</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:34">
       <c r="A69" s="1">
         <v>999972</v>
       </c>
@@ -5638,16 +5743,16 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:34">
       <c r="A70" s="1">
         <v>999973</v>
       </c>
@@ -5690,16 +5795,16 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF70">
-        <v>1</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:34">
       <c r="A71" s="1">
         <v>999974</v>
       </c>
@@ -5742,16 +5847,16 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF71">
-        <v>1</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    